--- a/VerbBender.xlsx
+++ b/VerbBender.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -43,6 +43,9 @@
     <t>25/11/2020</t>
   </si>
   <si>
+    <t>03/01/2021</t>
+  </si>
+  <si>
     <t>Grill</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>Pass (as in exam)</t>
   </si>
   <si>
+    <t>be, feel</t>
+  </si>
+  <si>
     <t>å grille</t>
   </si>
   <si>
@@ -73,6 +79,9 @@
     <t>å pass</t>
   </si>
   <si>
+    <t>å føle</t>
+  </si>
+  <si>
     <t>griller</t>
   </si>
   <si>
@@ -88,6 +97,9 @@
     <t>å består</t>
   </si>
   <si>
+    <t>føler seg</t>
+  </si>
+  <si>
     <t>grillte¨</t>
   </si>
   <si>
@@ -103,6 +115,9 @@
     <t>bestør</t>
   </si>
   <si>
+    <t>felte seg</t>
+  </si>
+  <si>
     <t>grillte</t>
   </si>
   <si>
@@ -116,6 +131,9 @@
   </si>
   <si>
     <t>bestodde</t>
+  </si>
+  <si>
+    <t>følet</t>
   </si>
 </sst>
 </file>
@@ -473,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,19 +525,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -530,19 +548,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -553,19 +571,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -576,19 +594,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G5">
         <v>50</v>
@@ -599,22 +617,45 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/VerbBender.xlsx
+++ b/VerbBender.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -64,6 +64,9 @@
     <t>be, feel</t>
   </si>
   <si>
+    <t>grip</t>
+  </si>
+  <si>
     <t>å grille</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>å føle</t>
   </si>
   <si>
+    <t>å grape</t>
+  </si>
+  <si>
     <t>griller</t>
   </si>
   <si>
@@ -100,6 +106,9 @@
     <t>føler seg</t>
   </si>
   <si>
+    <t>griper</t>
+  </si>
+  <si>
     <t>grillte¨</t>
   </si>
   <si>
@@ -118,6 +127,9 @@
     <t>felte seg</t>
   </si>
   <si>
+    <t>grippte</t>
+  </si>
+  <si>
     <t>grillte</t>
   </si>
   <si>
@@ -134,6 +146,9 @@
   </si>
   <si>
     <t>følet</t>
+  </si>
+  <si>
+    <t>grepte</t>
   </si>
 </sst>
 </file>
@@ -491,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,16 +543,16 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -551,16 +566,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -574,16 +589,16 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -597,16 +612,16 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G5">
         <v>50</v>
@@ -620,16 +635,16 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -643,18 +658,41 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8">
         <v>25</v>
       </c>
     </row>

--- a/VerbBender.xlsx
+++ b/VerbBender.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -67,6 +67,9 @@
     <t>grip</t>
   </si>
   <si>
+    <t>rise</t>
+  </si>
+  <si>
     <t>å grille</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>å grape</t>
   </si>
   <si>
+    <t>å rise</t>
+  </si>
+  <si>
     <t>griller</t>
   </si>
   <si>
@@ -109,6 +115,9 @@
     <t>griper</t>
   </si>
   <si>
+    <t>eser</t>
+  </si>
+  <si>
     <t>grillte¨</t>
   </si>
   <si>
@@ -130,6 +139,9 @@
     <t>grippte</t>
   </si>
   <si>
+    <t>este</t>
+  </si>
+  <si>
     <t>grillte</t>
   </si>
   <si>
@@ -149,6 +161,9 @@
   </si>
   <si>
     <t>grepte</t>
+  </si>
+  <si>
+    <t>eset</t>
   </si>
 </sst>
 </file>
@@ -506,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +558,16 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -566,16 +581,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -589,16 +604,16 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -612,16 +627,16 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>50</v>
@@ -635,16 +650,16 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -658,16 +673,16 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G7">
         <v>25</v>
@@ -681,19 +696,42 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/VerbBender.xlsx
+++ b/VerbBender.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -70,6 +70,12 @@
     <t>rise</t>
   </si>
   <si>
+    <t>be found, exist</t>
+  </si>
+  <si>
+    <t>mount</t>
+  </si>
+  <si>
     <t>å grille</t>
   </si>
   <si>
@@ -94,6 +100,12 @@
     <t>å rise</t>
   </si>
   <si>
+    <t>å ble</t>
+  </si>
+  <si>
+    <t>å moiunt</t>
+  </si>
+  <si>
     <t>griller</t>
   </si>
   <si>
@@ -118,6 +130,12 @@
     <t>eser</t>
   </si>
   <si>
+    <t>finner</t>
+  </si>
+  <si>
+    <t>beslår</t>
+  </si>
+  <si>
     <t>grillte¨</t>
   </si>
   <si>
@@ -142,6 +160,12 @@
     <t>este</t>
   </si>
   <si>
+    <t>finde</t>
+  </si>
+  <si>
+    <t>beslør</t>
+  </si>
+  <si>
     <t>grillte</t>
   </si>
   <si>
@@ -164,6 +188,12 @@
   </si>
   <si>
     <t>eset</t>
+  </si>
+  <si>
+    <t>fint</t>
+  </si>
+  <si>
+    <t>beslodde</t>
   </si>
 </sst>
 </file>
@@ -521,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,16 +588,16 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -581,16 +611,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -604,16 +634,16 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -627,16 +657,16 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G5">
         <v>50</v>
@@ -650,16 +680,16 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -673,16 +703,16 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G7">
         <v>25</v>
@@ -696,16 +726,16 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G8">
         <v>25</v>
@@ -719,19 +749,65 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G9">
         <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/VerbBender.xlsx
+++ b/VerbBender.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -76,6 +76,12 @@
     <t>mount</t>
   </si>
   <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>tread, step</t>
+  </si>
+  <si>
     <t>å grille</t>
   </si>
   <si>
@@ -106,6 +112,12 @@
     <t>å moiunt</t>
   </si>
   <si>
+    <t>å kjøpe</t>
+  </si>
+  <si>
+    <t>å ser</t>
+  </si>
+  <si>
     <t>griller</t>
   </si>
   <si>
@@ -136,6 +148,12 @@
     <t>beslår</t>
   </si>
   <si>
+    <t>kjøper</t>
+  </si>
+  <si>
+    <t>trer</t>
+  </si>
+  <si>
     <t>grillte¨</t>
   </si>
   <si>
@@ -166,6 +184,12 @@
     <t>beslør</t>
   </si>
   <si>
+    <t>kjøpte</t>
+  </si>
+  <si>
+    <t>trete</t>
+  </si>
+  <si>
     <t>grillte</t>
   </si>
   <si>
@@ -194,6 +218,12 @@
   </si>
   <si>
     <t>beslodde</t>
+  </si>
+  <si>
+    <t>kjøpet</t>
+  </si>
+  <si>
+    <t>trådet</t>
   </si>
 </sst>
 </file>
@@ -551,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,16 +618,16 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -611,16 +641,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -634,16 +664,16 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -657,16 +687,16 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>50</v>
@@ -680,16 +710,16 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -703,16 +733,16 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G7">
         <v>25</v>
@@ -726,16 +756,16 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G8">
         <v>25</v>
@@ -749,16 +779,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G9">
         <v>50</v>
@@ -772,16 +802,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -795,18 +825,64 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13">
         <v>25</v>
       </c>
     </row>

--- a/VerbBender.xlsx
+++ b/VerbBender.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
   <si>
     <t>Date</t>
   </si>
@@ -46,6 +46,9 @@
     <t>03/01/2021</t>
   </si>
   <si>
+    <t>04/01/2021</t>
+  </si>
+  <si>
     <t>Grill</t>
   </si>
   <si>
@@ -82,6 +85,12 @@
     <t>tread, step</t>
   </si>
   <si>
+    <t>earn</t>
+  </si>
+  <si>
+    <t>enjoy, thrive</t>
+  </si>
+  <si>
     <t>å grille</t>
   </si>
   <si>
@@ -118,6 +127,12 @@
     <t>å ser</t>
   </si>
   <si>
+    <t>å løne</t>
+  </si>
+  <si>
+    <t>å thrive</t>
+  </si>
+  <si>
     <t>griller</t>
   </si>
   <si>
@@ -154,6 +169,12 @@
     <t>trer</t>
   </si>
   <si>
+    <t>tjener</t>
+  </si>
+  <si>
+    <t>triver</t>
+  </si>
+  <si>
     <t>grillte¨</t>
   </si>
   <si>
@@ -190,6 +211,12 @@
     <t>trete</t>
   </si>
   <si>
+    <t>tjente</t>
+  </si>
+  <si>
+    <t>tridde</t>
+  </si>
+  <si>
     <t>grillte</t>
   </si>
   <si>
@@ -224,6 +251,12 @@
   </si>
   <si>
     <t>trådet</t>
+  </si>
+  <si>
+    <t>tjentt</t>
+  </si>
+  <si>
+    <t>trivt</t>
   </si>
 </sst>
 </file>
@@ -581,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,19 +648,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -638,19 +671,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -661,19 +694,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -684,19 +717,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>50</v>
@@ -707,19 +740,19 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -730,19 +763,19 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G7">
         <v>25</v>
@@ -753,19 +786,19 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G8">
         <v>25</v>
@@ -776,19 +809,19 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G9">
         <v>50</v>
@@ -799,19 +832,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -822,19 +855,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>25</v>
@@ -845,19 +878,19 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G12">
         <v>75</v>
@@ -868,22 +901,68 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G13">
         <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/VerbBender.xlsx
+++ b/VerbBender.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="123">
   <si>
     <t>Date</t>
   </si>
@@ -91,6 +91,30 @@
     <t>enjoy, thrive</t>
   </si>
   <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>gape</t>
+  </si>
+  <si>
+    <t>wait, expect</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>bother</t>
+  </si>
+  <si>
+    <t>fill</t>
+  </si>
+  <si>
+    <t>infect</t>
+  </si>
+  <si>
     <t>å grille</t>
   </si>
   <si>
@@ -133,6 +157,33 @@
     <t>å thrive</t>
   </si>
   <si>
+    <t>å mover</t>
+  </si>
+  <si>
+    <t>å gave</t>
+  </si>
+  <si>
+    <t>å vente</t>
+  </si>
+  <si>
+    <t>å skrive</t>
+  </si>
+  <si>
+    <t>å fell</t>
+  </si>
+  <si>
+    <t>å underskrive</t>
+  </si>
+  <si>
+    <t>å bother</t>
+  </si>
+  <si>
+    <t>å fille</t>
+  </si>
+  <si>
+    <t>infection</t>
+  </si>
+  <si>
     <t>griller</t>
   </si>
   <si>
@@ -175,6 +226,30 @@
     <t>triver</t>
   </si>
   <si>
+    <t>flytter</t>
+  </si>
+  <si>
+    <t>gaper</t>
+  </si>
+  <si>
+    <t>venter</t>
+  </si>
+  <si>
+    <t>underskriver</t>
+  </si>
+  <si>
+    <t>faller</t>
+  </si>
+  <si>
+    <t>bryer</t>
+  </si>
+  <si>
+    <t>fyler</t>
+  </si>
+  <si>
+    <t>smitter</t>
+  </si>
+  <si>
     <t>grillte¨</t>
   </si>
   <si>
@@ -217,6 +292,33 @@
     <t>tridde</t>
   </si>
   <si>
+    <t>flutte</t>
+  </si>
+  <si>
+    <t>gapte</t>
+  </si>
+  <si>
+    <t>vent</t>
+  </si>
+  <si>
+    <t>underskrevte</t>
+  </si>
+  <si>
+    <t>fallte</t>
+  </si>
+  <si>
+    <t>underskrev</t>
+  </si>
+  <si>
+    <t>bridde</t>
+  </si>
+  <si>
+    <t>fyllte</t>
+  </si>
+  <si>
+    <t>smitet</t>
+  </si>
+  <si>
     <t>grillte</t>
   </si>
   <si>
@@ -257,6 +359,30 @@
   </si>
   <si>
     <t>trivt</t>
+  </si>
+  <si>
+    <t>flytt</t>
+  </si>
+  <si>
+    <t>gaptt</t>
+  </si>
+  <si>
+    <t>ventt</t>
+  </si>
+  <si>
+    <t>falt</t>
+  </si>
+  <si>
+    <t>underskrevet</t>
+  </si>
+  <si>
+    <t>brydte</t>
+  </si>
+  <si>
+    <t>fylet</t>
+  </si>
+  <si>
+    <t>smite</t>
   </si>
 </sst>
 </file>
@@ -614,7 +740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,16 +777,16 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -674,16 +800,16 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -697,16 +823,16 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -720,16 +846,16 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="G5">
         <v>50</v>
@@ -743,16 +869,16 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -766,16 +892,16 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="G7">
         <v>25</v>
@@ -789,16 +915,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="G8">
         <v>25</v>
@@ -812,16 +938,16 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="G9">
         <v>50</v>
@@ -835,16 +961,16 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -858,16 +984,16 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="G11">
         <v>25</v>
@@ -881,16 +1007,16 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="G12">
         <v>75</v>
@@ -904,16 +1030,16 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="G13">
         <v>25</v>
@@ -927,16 +1053,16 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="G14">
         <v>50</v>
@@ -950,19 +1076,226 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="G15">
         <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/VerbBender.xlsx
+++ b/VerbBender.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="150">
   <si>
     <t>Date</t>
   </si>
@@ -49,6 +49,9 @@
     <t>04/01/2021</t>
   </si>
   <si>
+    <t>05/01/2021</t>
+  </si>
+  <si>
     <t>Grill</t>
   </si>
   <si>
@@ -115,6 +118,18 @@
     <t>infect</t>
   </si>
   <si>
+    <t>weigh</t>
+  </si>
+  <si>
+    <t>dread</t>
+  </si>
+  <si>
+    <t>hug</t>
+  </si>
+  <si>
+    <t>crow</t>
+  </si>
+  <si>
     <t>å grille</t>
   </si>
   <si>
@@ -184,6 +199,21 @@
     <t>infection</t>
   </si>
   <si>
+    <t>å tunmp</t>
+  </si>
+  <si>
+    <t>å munn</t>
+  </si>
+  <si>
+    <t>å drømme</t>
+  </si>
+  <si>
+    <t>å hugge</t>
+  </si>
+  <si>
+    <t>crowe</t>
+  </si>
+  <si>
     <t>griller</t>
   </si>
   <si>
@@ -250,6 +280,21 @@
     <t>smitter</t>
   </si>
   <si>
+    <t>veier</t>
+  </si>
+  <si>
+    <t>gruer seg</t>
+  </si>
+  <si>
+    <t>hugger</t>
+  </si>
+  <si>
+    <t>overskriver</t>
+  </si>
+  <si>
+    <t>galer</t>
+  </si>
+  <si>
     <t>grillte¨</t>
   </si>
   <si>
@@ -319,6 +364,24 @@
     <t>smitet</t>
   </si>
   <si>
+    <t>veste</t>
+  </si>
+  <si>
+    <t>beståte</t>
+  </si>
+  <si>
+    <t>grued seg</t>
+  </si>
+  <si>
+    <t>huggte</t>
+  </si>
+  <si>
+    <t>overskrivte</t>
+  </si>
+  <si>
+    <t>galte</t>
+  </si>
+  <si>
     <t>grillte</t>
   </si>
   <si>
@@ -383,6 +446,24 @@
   </si>
   <si>
     <t>smite</t>
+  </si>
+  <si>
+    <t>veidet</t>
+  </si>
+  <si>
+    <t>beslott</t>
+  </si>
+  <si>
+    <t>grud seg</t>
+  </si>
+  <si>
+    <t>hugg</t>
+  </si>
+  <si>
+    <t>overskrevt</t>
+  </si>
+  <si>
+    <t>golt</t>
   </si>
 </sst>
 </file>
@@ -740,7 +821,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -774,19 +855,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -797,19 +878,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -820,19 +901,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -843,19 +924,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="G5">
         <v>50</v>
@@ -866,19 +947,19 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -889,19 +970,19 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="G7">
         <v>25</v>
@@ -912,19 +993,19 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="G8">
         <v>25</v>
@@ -935,19 +1016,19 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="G9">
         <v>50</v>
@@ -958,19 +1039,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -981,19 +1062,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="G11">
         <v>25</v>
@@ -1004,19 +1085,19 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="G12">
         <v>75</v>
@@ -1027,19 +1108,19 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="G13">
         <v>25</v>
@@ -1050,19 +1131,19 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="G14">
         <v>50</v>
@@ -1073,19 +1154,19 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="F15" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1096,19 +1177,19 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="G16">
         <v>25</v>
@@ -1119,19 +1200,19 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F17" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="G17">
         <v>50</v>
@@ -1142,19 +1223,19 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F18" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="G18">
         <v>50</v>
@@ -1165,19 +1246,19 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="G19">
         <v>25</v>
@@ -1188,19 +1269,19 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="F20" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="G20">
         <v>25</v>
@@ -1211,19 +1292,19 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F21" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="G21">
         <v>75</v>
@@ -1234,19 +1315,19 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F22" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1257,19 +1338,19 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="F23" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1280,21 +1361,159 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
         <v>55</v>
       </c>
-      <c r="D24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" t="s">
-        <v>122</v>
-      </c>
-      <c r="G24">
+      <c r="D29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G30">
         <v>25</v>
       </c>
     </row>

--- a/VerbBender.xlsx
+++ b/VerbBender.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="159">
   <si>
     <t>Date</t>
   </si>
@@ -130,6 +130,12 @@
     <t>crow</t>
   </si>
   <si>
+    <t>bleed</t>
+  </si>
+  <si>
+    <t>dream</t>
+  </si>
+  <si>
     <t>å grille</t>
   </si>
   <si>
@@ -214,6 +220,9 @@
     <t>crowe</t>
   </si>
   <si>
+    <t>å blå</t>
+  </si>
+  <si>
     <t>griller</t>
   </si>
   <si>
@@ -295,6 +304,12 @@
     <t>galer</t>
   </si>
   <si>
+    <t>blør</t>
+  </si>
+  <si>
+    <t>drømmer</t>
+  </si>
+  <si>
     <t>grillte¨</t>
   </si>
   <si>
@@ -382,6 +397,12 @@
     <t>galte</t>
   </si>
   <si>
+    <t>blørte</t>
+  </si>
+  <si>
+    <t>drømte</t>
+  </si>
+  <si>
     <t>grillte</t>
   </si>
   <si>
@@ -464,6 +485,12 @@
   </si>
   <si>
     <t>golt</t>
+  </si>
+  <si>
+    <t>blød</t>
+  </si>
+  <si>
+    <t>drømet</t>
   </si>
 </sst>
 </file>
@@ -821,7 +848,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -858,16 +885,16 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -881,16 +908,16 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -904,16 +931,16 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -927,16 +954,16 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G5">
         <v>50</v>
@@ -950,16 +977,16 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F6" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -973,16 +1000,16 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G7">
         <v>25</v>
@@ -996,16 +1023,16 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F8" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="G8">
         <v>25</v>
@@ -1019,16 +1046,16 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="G9">
         <v>50</v>
@@ -1042,16 +1069,16 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1065,16 +1092,16 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G11">
         <v>25</v>
@@ -1088,16 +1115,16 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G12">
         <v>75</v>
@@ -1111,16 +1138,16 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G13">
         <v>25</v>
@@ -1134,16 +1161,16 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G14">
         <v>50</v>
@@ -1157,16 +1184,16 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1180,16 +1207,16 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G16">
         <v>25</v>
@@ -1203,16 +1230,16 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G17">
         <v>50</v>
@@ -1226,16 +1253,16 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F18" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G18">
         <v>50</v>
@@ -1249,16 +1276,16 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F19" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G19">
         <v>25</v>
@@ -1272,16 +1299,16 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F20" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G20">
         <v>25</v>
@@ -1295,16 +1322,16 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F21" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G21">
         <v>75</v>
@@ -1318,16 +1345,16 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F22" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1341,16 +1368,16 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F23" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1364,16 +1391,16 @@
         <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F24" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G24">
         <v>25</v>
@@ -1387,16 +1414,16 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F25" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G25">
         <v>25</v>
@@ -1410,16 +1437,16 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F26" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G26">
         <v>25</v>
@@ -1433,16 +1460,16 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F27" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G27">
         <v>25</v>
@@ -1456,16 +1483,16 @@
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F28" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G28">
         <v>25</v>
@@ -1479,16 +1506,16 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F29" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G29">
         <v>25</v>
@@ -1502,19 +1529,65 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F30" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G30">
         <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" t="s">
+        <v>157</v>
+      </c>
+      <c r="G31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" t="s">
+        <v>158</v>
+      </c>
+      <c r="G32">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/VerbBender.xlsx
+++ b/VerbBender.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="164">
   <si>
     <t>Date</t>
   </si>
@@ -136,6 +136,9 @@
     <t>dream</t>
   </si>
   <si>
+    <t>force, compel</t>
+  </si>
+  <si>
     <t>å grille</t>
   </si>
   <si>
@@ -223,6 +226,9 @@
     <t>å blå</t>
   </si>
   <si>
+    <t>å force</t>
+  </si>
+  <si>
     <t>griller</t>
   </si>
   <si>
@@ -310,6 +316,9 @@
     <t>drømmer</t>
   </si>
   <si>
+    <t>tvingler</t>
+  </si>
+  <si>
     <t>grillte¨</t>
   </si>
   <si>
@@ -403,6 +412,9 @@
     <t>drømte</t>
   </si>
   <si>
+    <t>tvinglte</t>
+  </si>
+  <si>
     <t>grillte</t>
   </si>
   <si>
@@ -491,6 +503,9 @@
   </si>
   <si>
     <t>drømet</t>
+  </si>
+  <si>
+    <t>tvangte</t>
   </si>
 </sst>
 </file>
@@ -848,7 +863,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -885,16 +900,16 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -908,16 +923,16 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -931,16 +946,16 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -954,16 +969,16 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G5">
         <v>50</v>
@@ -977,16 +992,16 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1000,16 +1015,16 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G7">
         <v>25</v>
@@ -1023,16 +1038,16 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G8">
         <v>25</v>
@@ -1046,16 +1061,16 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G9">
         <v>50</v>
@@ -1069,16 +1084,16 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F10" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1092,16 +1107,16 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G11">
         <v>25</v>
@@ -1115,16 +1130,16 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G12">
         <v>75</v>
@@ -1138,16 +1153,16 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G13">
         <v>25</v>
@@ -1161,16 +1176,16 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G14">
         <v>50</v>
@@ -1184,16 +1199,16 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1207,16 +1222,16 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G16">
         <v>25</v>
@@ -1230,16 +1245,16 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G17">
         <v>50</v>
@@ -1253,16 +1268,16 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G18">
         <v>50</v>
@@ -1276,16 +1291,16 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G19">
         <v>25</v>
@@ -1299,16 +1314,16 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F20" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G20">
         <v>25</v>
@@ -1322,16 +1337,16 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F21" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G21">
         <v>75</v>
@@ -1345,16 +1360,16 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F22" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1368,16 +1383,16 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F23" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1391,16 +1406,16 @@
         <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F24" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G24">
         <v>25</v>
@@ -1414,16 +1429,16 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F25" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G25">
         <v>25</v>
@@ -1437,16 +1452,16 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F26" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G26">
         <v>25</v>
@@ -1460,16 +1475,16 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F27" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G27">
         <v>25</v>
@@ -1483,16 +1498,16 @@
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F28" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G28">
         <v>25</v>
@@ -1506,16 +1521,16 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F29" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G29">
         <v>25</v>
@@ -1529,16 +1544,16 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F30" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G30">
         <v>25</v>
@@ -1552,16 +1567,16 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F31" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G31">
         <v>25</v>
@@ -1575,19 +1590,42 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F32" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G32">
         <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" t="s">
+        <v>163</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/VerbBender.xlsx
+++ b/VerbBender.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="177">
   <si>
     <t>Date</t>
   </si>
@@ -139,6 +139,12 @@
     <t>force, compel</t>
   </si>
   <si>
+    <t>crack</t>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
     <t>å grille</t>
   </si>
   <si>
@@ -229,6 +235,15 @@
     <t>å force</t>
   </si>
   <si>
+    <t>å krakke</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>å spise</t>
+  </si>
+  <si>
     <t>griller</t>
   </si>
   <si>
@@ -319,6 +334,15 @@
     <t>tvingler</t>
   </si>
   <si>
+    <t>knekker</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>spiser</t>
+  </si>
+  <si>
     <t>grillte¨</t>
   </si>
   <si>
@@ -415,6 +439,15 @@
     <t>tvinglte</t>
   </si>
   <si>
+    <t>knekkte</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>spiste</t>
+  </si>
+  <si>
     <t>grillte</t>
   </si>
   <si>
@@ -506,6 +539,12 @@
   </si>
   <si>
     <t>tvangte</t>
+  </si>
+  <si>
+    <t>knak</t>
+  </si>
+  <si>
+    <t>spist</t>
   </si>
 </sst>
 </file>
@@ -863,7 +902,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -900,16 +939,16 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -923,16 +962,16 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -946,16 +985,16 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -969,16 +1008,16 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G5">
         <v>50</v>
@@ -992,16 +1031,16 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F6" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1015,16 +1054,16 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G7">
         <v>25</v>
@@ -1038,16 +1077,16 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="G8">
         <v>25</v>
@@ -1061,16 +1100,16 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F9" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="G9">
         <v>50</v>
@@ -1084,16 +1123,16 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F10" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1107,16 +1146,16 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F11" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="G11">
         <v>25</v>
@@ -1130,16 +1169,16 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="G12">
         <v>75</v>
@@ -1153,16 +1192,16 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="G13">
         <v>25</v>
@@ -1176,16 +1215,16 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G14">
         <v>50</v>
@@ -1199,16 +1238,16 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1222,16 +1261,16 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G16">
         <v>25</v>
@@ -1245,16 +1284,16 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="G17">
         <v>50</v>
@@ -1268,16 +1307,16 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="G18">
         <v>50</v>
@@ -1291,16 +1330,16 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G19">
         <v>25</v>
@@ -1314,16 +1353,16 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F20" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="G20">
         <v>25</v>
@@ -1337,16 +1376,16 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F21" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="G21">
         <v>75</v>
@@ -1360,16 +1399,16 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E22" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F22" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1383,16 +1422,16 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F23" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1406,16 +1445,16 @@
         <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F24" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="G24">
         <v>25</v>
@@ -1429,16 +1468,16 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F25" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="G25">
         <v>25</v>
@@ -1452,16 +1491,16 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F26" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="G26">
         <v>25</v>
@@ -1475,16 +1514,16 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F27" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="G27">
         <v>25</v>
@@ -1498,16 +1537,16 @@
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F28" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="G28">
         <v>25</v>
@@ -1521,16 +1560,16 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F29" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G29">
         <v>25</v>
@@ -1544,16 +1583,16 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E30" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F30" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="G30">
         <v>25</v>
@@ -1567,16 +1606,16 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E31" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F31" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="G31">
         <v>25</v>
@@ -1590,16 +1629,16 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E32" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F32" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="G32">
         <v>75</v>
@@ -1613,19 +1652,85 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E33" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F33" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="G33">
         <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" t="s">
+        <v>175</v>
+      </c>
+      <c r="G34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" t="s">
+        <v>142</v>
+      </c>
+      <c r="F35" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" t="s">
+        <v>176</v>
+      </c>
+      <c r="G36">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/VerbBender.xlsx
+++ b/VerbBender.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="217">
   <si>
     <t>Date</t>
   </si>
@@ -52,6 +52,9 @@
     <t>05/01/2021</t>
   </si>
   <si>
+    <t>06/01/2021</t>
+  </si>
+  <si>
     <t>Grill</t>
   </si>
   <si>
@@ -145,6 +148,30 @@
     <t>eat</t>
   </si>
   <si>
+    <t>ride</t>
+  </si>
+  <si>
+    <t>meet/hit</t>
+  </si>
+  <si>
+    <t>be, exist</t>
+  </si>
+  <si>
+    <t>operate, run</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>employ</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
     <t>å grille</t>
   </si>
   <si>
@@ -244,6 +271,27 @@
     <t>å spise</t>
   </si>
   <si>
+    <t>å ridd</t>
+  </si>
+  <si>
+    <t>å møte</t>
+  </si>
+  <si>
+    <t>å være</t>
+  </si>
+  <si>
+    <t>å løppe</t>
+  </si>
+  <si>
+    <t>å sitte</t>
+  </si>
+  <si>
+    <t>å jobbe</t>
+  </si>
+  <si>
+    <t>å gjøre</t>
+  </si>
+  <si>
     <t>griller</t>
   </si>
   <si>
@@ -343,6 +391,27 @@
     <t>spiser</t>
   </si>
   <si>
+    <t>rir</t>
+  </si>
+  <si>
+    <t>freffer</t>
+  </si>
+  <si>
+    <t>bli</t>
+  </si>
+  <si>
+    <t>driver</t>
+  </si>
+  <si>
+    <t>sitter</t>
+  </si>
+  <si>
+    <t>ansetter</t>
+  </si>
+  <si>
+    <t>gjør</t>
+  </si>
+  <si>
     <t>grillte¨</t>
   </si>
   <si>
@@ -448,6 +517,33 @@
     <t>spiste</t>
   </si>
   <si>
+    <t>rirte</t>
+  </si>
+  <si>
+    <t>treffte</t>
+  </si>
+  <si>
+    <t>va</t>
+  </si>
+  <si>
+    <t>drivte</t>
+  </si>
+  <si>
+    <t>sitt</t>
+  </si>
+  <si>
+    <t>ansett</t>
+  </si>
+  <si>
+    <t>gjørte</t>
+  </si>
+  <si>
+    <t>blir</t>
+  </si>
+  <si>
+    <t>satt</t>
+  </si>
+  <si>
     <t>grillte</t>
   </si>
   <si>
@@ -545,6 +641,30 @@
   </si>
   <si>
     <t>spist</t>
+  </si>
+  <si>
+    <t>redt</t>
+  </si>
+  <si>
+    <t>trafft</t>
+  </si>
+  <si>
+    <t>vart</t>
+  </si>
+  <si>
+    <t>drevt</t>
+  </si>
+  <si>
+    <t>har ansatt</t>
+  </si>
+  <si>
+    <t>har gjorte</t>
+  </si>
+  <si>
+    <t>har ble</t>
+  </si>
+  <si>
+    <t>har satt</t>
   </si>
 </sst>
 </file>
@@ -902,7 +1022,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -936,19 +1056,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -959,19 +1079,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="F3" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -982,19 +1102,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="F4" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -1005,19 +1125,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="F5" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="G5">
         <v>50</v>
@@ -1028,19 +1148,19 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="F6" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1051,19 +1171,19 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="F7" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="G7">
         <v>25</v>
@@ -1074,19 +1194,19 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="F8" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="G8">
         <v>25</v>
@@ -1097,19 +1217,19 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="F9" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="G9">
         <v>50</v>
@@ -1120,19 +1240,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="F10" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1143,19 +1263,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="F11" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="G11">
         <v>25</v>
@@ -1166,19 +1286,19 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="F12" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="G12">
         <v>75</v>
@@ -1189,19 +1309,19 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="F13" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="G13">
         <v>25</v>
@@ -1212,19 +1332,19 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="G14">
         <v>50</v>
@@ -1235,19 +1355,19 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1258,19 +1378,19 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="E16" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="G16">
         <v>25</v>
@@ -1281,19 +1401,19 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F17" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="G17">
         <v>50</v>
@@ -1304,19 +1424,19 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="G18">
         <v>50</v>
@@ -1327,19 +1447,19 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E19" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="F19" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="G19">
         <v>25</v>
@@ -1350,19 +1470,19 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E20" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="F20" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="G20">
         <v>25</v>
@@ -1373,19 +1493,19 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="F21" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="G21">
         <v>75</v>
@@ -1396,19 +1516,19 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E22" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="F22" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1419,19 +1539,19 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="E23" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="F23" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1442,19 +1562,19 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="F24" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="G24">
         <v>25</v>
@@ -1465,19 +1585,19 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E25" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="F25" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="G25">
         <v>25</v>
@@ -1488,19 +1608,19 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E26" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="F26" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="G26">
         <v>25</v>
@@ -1511,19 +1631,19 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="F27" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="G27">
         <v>25</v>
@@ -1534,19 +1654,19 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E28" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="F28" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="G28">
         <v>25</v>
@@ -1557,19 +1677,19 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="F29" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="G29">
         <v>25</v>
@@ -1580,19 +1700,19 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E30" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="F30" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="G30">
         <v>25</v>
@@ -1603,19 +1723,19 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E31" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="F31" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="G31">
         <v>25</v>
@@ -1626,19 +1746,19 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E32" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="F32" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="G32">
         <v>75</v>
@@ -1649,19 +1769,19 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="E33" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="F33" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1672,19 +1792,19 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E34" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="F34" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="G34">
         <v>25</v>
@@ -1695,16 +1815,16 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="E35" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="F35" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1715,22 +1835,229 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="E36" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="F36" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="G36">
         <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" t="s">
+        <v>167</v>
+      </c>
+      <c r="F37" t="s">
+        <v>209</v>
+      </c>
+      <c r="G37">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" t="s">
+        <v>168</v>
+      </c>
+      <c r="F38" t="s">
+        <v>210</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" t="s">
+        <v>211</v>
+      </c>
+      <c r="G39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" t="s">
+        <v>170</v>
+      </c>
+      <c r="F40" t="s">
+        <v>212</v>
+      </c>
+      <c r="G40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41" t="s">
+        <v>175</v>
+      </c>
+      <c r="G41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F42" t="s">
+        <v>213</v>
+      </c>
+      <c r="G42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" t="s">
+        <v>173</v>
+      </c>
+      <c r="F43" t="s">
+        <v>214</v>
+      </c>
+      <c r="G43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" t="s">
+        <v>174</v>
+      </c>
+      <c r="F44" t="s">
+        <v>215</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" t="s">
+        <v>175</v>
+      </c>
+      <c r="F45" t="s">
+        <v>216</v>
+      </c>
+      <c r="G45">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/VerbBender.xlsx
+++ b/VerbBender.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="276">
   <si>
     <t>Date</t>
   </si>
@@ -55,6 +55,9 @@
     <t>06/01/2021</t>
   </si>
   <si>
+    <t>07/01/2021</t>
+  </si>
+  <si>
     <t>Grill</t>
   </si>
   <si>
@@ -172,6 +175,36 @@
     <t>be</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>go, walk</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>ask</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>sell</t>
+  </si>
+  <si>
+    <t>laugh</t>
+  </si>
+  <si>
+    <t>continue</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
     <t>å grille</t>
   </si>
   <si>
@@ -292,6 +325,39 @@
     <t>å gjøre</t>
   </si>
   <si>
+    <t>å like</t>
+  </si>
+  <si>
+    <t>å go</t>
+  </si>
+  <si>
+    <t>å sporre</t>
+  </si>
+  <si>
+    <t>å drive</t>
+  </si>
+  <si>
+    <t>å drikke</t>
+  </si>
+  <si>
+    <t>å drop</t>
+  </si>
+  <si>
+    <t>å selge</t>
+  </si>
+  <si>
+    <t>å spørre</t>
+  </si>
+  <si>
+    <t>å la</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>å ta</t>
+  </si>
+  <si>
     <t>griller</t>
   </si>
   <si>
@@ -412,6 +478,42 @@
     <t>gjør</t>
   </si>
   <si>
+    <t>¨nyter</t>
+  </si>
+  <si>
+    <t>går</t>
+  </si>
+  <si>
+    <t>skriver</t>
+  </si>
+  <si>
+    <t>ber</t>
+  </si>
+  <si>
+    <t>drikker</t>
+  </si>
+  <si>
+    <t>slipper</t>
+  </si>
+  <si>
+    <t>selger</t>
+  </si>
+  <si>
+    <t>sporrer</t>
+  </si>
+  <si>
+    <t>ler</t>
+  </si>
+  <si>
+    <t>fortsette</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>tar</t>
+  </si>
+  <si>
     <t>grillte¨</t>
   </si>
   <si>
@@ -544,6 +646,42 @@
     <t>satt</t>
   </si>
   <si>
+    <t>nutte</t>
+  </si>
+  <si>
+    <t>gjore</t>
+  </si>
+  <si>
+    <t>skrivte</t>
+  </si>
+  <si>
+    <t>berte</t>
+  </si>
+  <si>
+    <t>drukk</t>
+  </si>
+  <si>
+    <t>slippte</t>
+  </si>
+  <si>
+    <t>solgte</t>
+  </si>
+  <si>
+    <t>spørte</t>
+  </si>
+  <si>
+    <t>drev / dreiv</t>
+  </si>
+  <si>
+    <t>forsatt</t>
+  </si>
+  <si>
+    <t>ba</t>
+  </si>
+  <si>
+    <t>tatt</t>
+  </si>
+  <si>
     <t>grillte</t>
   </si>
   <si>
@@ -665,6 +803,45 @@
   </si>
   <si>
     <t>har satt</t>
+  </si>
+  <si>
+    <t>nyte</t>
+  </si>
+  <si>
+    <t>gikk</t>
+  </si>
+  <si>
+    <t>skrevte</t>
+  </si>
+  <si>
+    <t>har berte</t>
+  </si>
+  <si>
+    <t>har drått</t>
+  </si>
+  <si>
+    <t>har drakk</t>
+  </si>
+  <si>
+    <t>har slapp</t>
+  </si>
+  <si>
+    <t>har salgt</t>
+  </si>
+  <si>
+    <t>har spurt</t>
+  </si>
+  <si>
+    <t>har drev</t>
+  </si>
+  <si>
+    <t>har latt</t>
+  </si>
+  <si>
+    <t>har forsatt</t>
+  </si>
+  <si>
+    <t>har tokte</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1199,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1056,19 +1233,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -1079,19 +1256,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="F3" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -1102,19 +1279,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -1125,19 +1302,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="F5" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="G5">
         <v>50</v>
@@ -1148,19 +1325,19 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="F6" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1171,19 +1348,19 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="F7" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="G7">
         <v>25</v>
@@ -1194,19 +1371,19 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="F8" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="G8">
         <v>25</v>
@@ -1217,19 +1394,19 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="F9" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="G9">
         <v>50</v>
@@ -1240,19 +1417,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="F10" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1263,19 +1440,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="F11" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="G11">
         <v>25</v>
@@ -1286,19 +1463,19 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="F12" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="G12">
         <v>75</v>
@@ -1309,19 +1486,19 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="F13" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="G13">
         <v>25</v>
@@ -1332,19 +1509,19 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="E14" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="F14" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="G14">
         <v>50</v>
@@ -1355,19 +1532,19 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="E15" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="F15" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1378,19 +1555,19 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="E16" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="F16" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="G16">
         <v>25</v>
@@ -1401,19 +1578,19 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="F17" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="G17">
         <v>50</v>
@@ -1424,19 +1601,19 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="E18" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="F18" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="G18">
         <v>50</v>
@@ -1447,19 +1624,19 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="F19" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="G19">
         <v>25</v>
@@ -1470,19 +1647,19 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="E20" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="F20" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="G20">
         <v>25</v>
@@ -1493,19 +1670,19 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E21" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="G21">
         <v>75</v>
@@ -1516,19 +1693,19 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="F22" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1539,19 +1716,19 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="F23" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1562,19 +1739,19 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="E24" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="F24" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="G24">
         <v>25</v>
@@ -1585,19 +1762,19 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="F25" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
       <c r="G25">
         <v>25</v>
@@ -1608,19 +1785,19 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="F26" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="G26">
         <v>25</v>
@@ -1631,19 +1808,19 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="E27" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="F27" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="G27">
         <v>25</v>
@@ -1654,19 +1831,19 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="E28" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="F28" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="G28">
         <v>25</v>
@@ -1677,19 +1854,19 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="E29" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="F29" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="G29">
         <v>25</v>
@@ -1700,19 +1877,19 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="E30" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="F30" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="G30">
         <v>25</v>
@@ -1723,19 +1900,19 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="E31" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="F31" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="G31">
         <v>25</v>
@@ -1746,19 +1923,19 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="E32" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="F32" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="G32">
         <v>75</v>
@@ -1769,19 +1946,19 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="E33" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="F33" t="s">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1792,19 +1969,19 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="E34" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="F34" t="s">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="G34">
         <v>25</v>
@@ -1815,16 +1992,16 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D35" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="E35" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="F35" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1835,19 +2012,19 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D36" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E36" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="F36" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="G36">
         <v>100</v>
@@ -1858,19 +2035,19 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D37" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="E37" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="F37" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="G37">
         <v>25</v>
@@ -1881,19 +2058,19 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E38" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="F38" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1904,19 +2081,19 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="E39" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="F39" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="G39">
         <v>25</v>
@@ -1927,19 +2104,19 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="E40" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="F40" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="G40">
         <v>25</v>
@@ -1950,19 +2127,19 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="E41" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="F41" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="G41">
         <v>50</v>
@@ -1973,19 +2150,19 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="E42" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="F42" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="G42">
         <v>50</v>
@@ -1996,19 +2173,19 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D43" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="E43" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="F43" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="G43">
         <v>50</v>
@@ -2019,19 +2196,19 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D44" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="E44" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="F44" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2042,22 +2219,367 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="E45" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="F45" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="G45">
         <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" t="s">
+        <v>154</v>
+      </c>
+      <c r="E46" t="s">
+        <v>210</v>
+      </c>
+      <c r="F46" t="s">
+        <v>263</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" t="s">
+        <v>155</v>
+      </c>
+      <c r="E47" t="s">
+        <v>211</v>
+      </c>
+      <c r="F47" t="s">
+        <v>264</v>
+      </c>
+      <c r="G47">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" t="s">
+        <v>156</v>
+      </c>
+      <c r="E48" t="s">
+        <v>212</v>
+      </c>
+      <c r="F48" t="s">
+        <v>265</v>
+      </c>
+      <c r="G48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" t="s">
+        <v>157</v>
+      </c>
+      <c r="E49" t="s">
+        <v>213</v>
+      </c>
+      <c r="F49" t="s">
+        <v>266</v>
+      </c>
+      <c r="G49">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" t="s">
+        <v>150</v>
+      </c>
+      <c r="E50" t="s">
+        <v>204</v>
+      </c>
+      <c r="F50" t="s">
+        <v>267</v>
+      </c>
+      <c r="G50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" t="s">
+        <v>214</v>
+      </c>
+      <c r="F51" t="s">
+        <v>268</v>
+      </c>
+      <c r="G51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52" t="s">
+        <v>215</v>
+      </c>
+      <c r="F52" t="s">
+        <v>269</v>
+      </c>
+      <c r="G52">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" t="s">
+        <v>160</v>
+      </c>
+      <c r="E53" t="s">
+        <v>216</v>
+      </c>
+      <c r="F53" t="s">
+        <v>270</v>
+      </c>
+      <c r="G53">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" t="s">
+        <v>161</v>
+      </c>
+      <c r="E54" t="s">
+        <v>217</v>
+      </c>
+      <c r="F54" t="s">
+        <v>271</v>
+      </c>
+      <c r="G54">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" t="s">
+        <v>150</v>
+      </c>
+      <c r="E55" t="s">
+        <v>218</v>
+      </c>
+      <c r="F55" t="s">
+        <v>272</v>
+      </c>
+      <c r="G55">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" t="s">
+        <v>162</v>
+      </c>
+      <c r="E56" t="s">
+        <v>162</v>
+      </c>
+      <c r="F56" t="s">
+        <v>273</v>
+      </c>
+      <c r="G56">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" t="s">
+        <v>163</v>
+      </c>
+      <c r="E57" t="s">
+        <v>219</v>
+      </c>
+      <c r="F57" t="s">
+        <v>274</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" t="s">
+        <v>157</v>
+      </c>
+      <c r="E58" t="s">
+        <v>220</v>
+      </c>
+      <c r="F58" t="s">
+        <v>266</v>
+      </c>
+      <c r="G58">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" t="s">
+        <v>164</v>
+      </c>
+      <c r="E59" t="s">
+        <v>164</v>
+      </c>
+      <c r="F59" t="s">
+        <v>164</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" t="s">
+        <v>165</v>
+      </c>
+      <c r="E60" t="s">
+        <v>221</v>
+      </c>
+      <c r="F60" t="s">
+        <v>275</v>
+      </c>
+      <c r="G60">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/VerbBender.xlsx
+++ b/VerbBender.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Edite/Documents/GitHub/Norsk/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16C3E3A-B66B-5A42-8390-DAD31CD148DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="315">
   <si>
     <t>Date</t>
   </si>
@@ -205,6 +211,24 @@
     <t>take</t>
   </si>
   <si>
+    <t>interrupt</t>
+  </si>
+  <si>
+    <t>bear, carry</t>
+  </si>
+  <si>
+    <t>violate, break</t>
+  </si>
+  <si>
+    <t>get/receive</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>prefer</t>
+  </si>
+  <si>
     <t>å grille</t>
   </si>
   <si>
@@ -358,6 +382,24 @@
     <t>å ta</t>
   </si>
   <si>
+    <t>å le</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>å brake</t>
+  </si>
+  <si>
+    <t>å gå</t>
+  </si>
+  <si>
+    <t>å finne</t>
+  </si>
+  <si>
+    <t>å</t>
+  </si>
+  <si>
     <t>griller</t>
   </si>
   <si>
@@ -514,6 +556,27 @@
     <t>tar</t>
   </si>
   <si>
+    <t>avryter</t>
+  </si>
+  <si>
+    <t>bærer</t>
+  </si>
+  <si>
+    <t>b er</t>
+  </si>
+  <si>
+    <t>blir</t>
+  </si>
+  <si>
+    <t>bryter</t>
+  </si>
+  <si>
+    <t>får</t>
+  </si>
+  <si>
+    <t>foretrekker</t>
+  </si>
+  <si>
     <t>grillte¨</t>
   </si>
   <si>
@@ -640,9 +703,6 @@
     <t>gjørte</t>
   </si>
   <si>
-    <t>blir</t>
-  </si>
-  <si>
     <t>satt</t>
   </si>
   <si>
@@ -682,6 +742,36 @@
     <t>tatt</t>
   </si>
   <si>
+    <t>ansatt</t>
+  </si>
+  <si>
+    <t>avbrytte</t>
+  </si>
+  <si>
+    <t>bærte</t>
+  </si>
+  <si>
+    <t>bedre</t>
+  </si>
+  <si>
+    <t>blidr</t>
+  </si>
+  <si>
+    <t>brytte</t>
+  </si>
+  <si>
+    <t>drikte</t>
+  </si>
+  <si>
+    <t>fidd</t>
+  </si>
+  <si>
+    <t>finte</t>
+  </si>
+  <si>
+    <t>fortrakk</t>
+  </si>
+  <si>
     <t>grillte</t>
   </si>
   <si>
@@ -842,13 +932,46 @@
   </si>
   <si>
     <t>har tokte</t>
+  </si>
+  <si>
+    <t>har ansett</t>
+  </si>
+  <si>
+    <t>har avbrytt</t>
+  </si>
+  <si>
+    <t>har bærte</t>
+  </si>
+  <si>
+    <t>har batt</t>
+  </si>
+  <si>
+    <t>har blett</t>
+  </si>
+  <si>
+    <t>har brytt</t>
+  </si>
+  <si>
+    <t>har drikk</t>
+  </si>
+  <si>
+    <t>har drevt</t>
+  </si>
+  <si>
+    <t>har fikk</t>
+  </si>
+  <si>
+    <t>har fanet</t>
+  </si>
+  <si>
+    <t>har foretrakket</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -911,6 +1034,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -957,7 +1088,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -989,9 +1120,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1023,6 +1172,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1198,14 +1365,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="61.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1228,7 +1400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1236,22 +1408,22 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="F2" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="G2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1259,22 +1431,22 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="F3" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="G3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1282,22 +1454,22 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="F4" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="G4">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1305,22 +1477,22 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="F5" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="G5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1328,22 +1500,22 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="F6" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1351,22 +1523,22 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="F7" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="G7">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1374,22 +1546,22 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="F8" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="G8">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1397,22 +1569,22 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E9" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="F9" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="G9">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1420,22 +1592,22 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E10" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="F10" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1443,22 +1615,22 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E11" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="F11" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="G11">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1466,22 +1638,22 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E12" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="F12" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="G12">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1489,22 +1661,22 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E13" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="F13" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="G13">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1512,22 +1684,22 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="F14" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="G14">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1535,22 +1707,22 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E15" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="F15" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1558,22 +1730,22 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E16" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="F16" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="G16">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1581,22 +1753,22 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E17" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="F17" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="G17">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1604,22 +1776,22 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E18" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="F18" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="G18">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1627,22 +1799,22 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E19" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="G19">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1650,22 +1822,22 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="F20" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="G20">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1673,22 +1845,22 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E21" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="F21" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="G21">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1696,22 +1868,22 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E22" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="F22" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1719,22 +1891,22 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E23" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="F23" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1742,22 +1914,22 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E24" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="F24" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="G24">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1765,22 +1937,22 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E25" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="F25" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="G25">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1788,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E26" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="F26" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="G26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1811,22 +1983,22 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="E27" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="F27" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="G27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -1834,22 +2006,22 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E28" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="F28" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="G28">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -1857,22 +2029,22 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E29" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="F29" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="G29">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1880,22 +2052,22 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E30" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="F30" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="G30">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -1903,22 +2075,22 @@
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E31" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="F31" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="G31">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -1926,22 +2098,22 @@
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E32" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="F32" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="G32">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1949,22 +2121,22 @@
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="E33" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="F33" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1972,42 +2144,42 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E34" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="F34" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="G34">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="E35" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="F35" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -2015,22 +2187,22 @@
         <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D36" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="E36" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F36" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="G36">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -2038,22 +2210,22 @@
         <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="E37" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="F37" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="G37">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -2061,22 +2233,22 @@
         <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E38" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="F38" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -2084,22 +2256,22 @@
         <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D39" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E39" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="F39" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="G39">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -2107,22 +2279,22 @@
         <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D40" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E40" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="F40" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="G40">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2130,22 +2302,22 @@
         <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D41" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="E41" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="F41" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="G41">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -2153,22 +2325,22 @@
         <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D42" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="E42" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="F42" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="G42">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -2176,22 +2348,22 @@
         <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E43" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="F43" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="G43">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -2199,22 +2371,22 @@
         <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D44" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E44" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="F44" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -2222,22 +2394,22 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D45" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="E45" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="F45" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="G45">
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -2245,22 +2417,22 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D46" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="E46" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="F46" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -2268,22 +2440,22 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D47" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="E47" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="F47" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="G47">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -2291,22 +2463,22 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D48" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="E48" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="F48" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="G48">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2314,22 +2486,22 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D49" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E49" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="F49" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="G49">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -2337,22 +2509,22 @@
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D50" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E50" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="F50" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="G50">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -2360,22 +2532,22 @@
         <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D51" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="E51" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="F51" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="G51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -2383,22 +2555,22 @@
         <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D52" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="E52" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="F52" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="G52">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -2406,22 +2578,22 @@
         <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D53" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="E53" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="F53" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="G53">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -2429,22 +2601,22 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D54" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="E54" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="F54" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="G54">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -2452,22 +2624,22 @@
         <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D55" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E55" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="F55" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="G55">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -2475,22 +2647,22 @@
         <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D56" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="E56" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="F56" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="G56">
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -2498,22 +2670,22 @@
         <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D57" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="E57" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="F57" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -2521,22 +2693,22 @@
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D58" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E58" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="F58" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="G58">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -2544,22 +2716,22 @@
         <v>50</v>
       </c>
       <c r="C59" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D59" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="E59" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="F59" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -2567,19 +2739,272 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D60" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="E60" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="F60" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="G60">
         <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" t="s">
+        <v>117</v>
+      </c>
+      <c r="D61" t="s">
+        <v>164</v>
+      </c>
+      <c r="E61" t="s">
+        <v>240</v>
+      </c>
+      <c r="F61" t="s">
+        <v>304</v>
+      </c>
+      <c r="G61">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="s">
+        <v>120</v>
+      </c>
+      <c r="D62" t="s">
+        <v>178</v>
+      </c>
+      <c r="E62" t="s">
+        <v>241</v>
+      </c>
+      <c r="F62" t="s">
+        <v>305</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" t="s">
+        <v>121</v>
+      </c>
+      <c r="D63" t="s">
+        <v>179</v>
+      </c>
+      <c r="E63" t="s">
+        <v>242</v>
+      </c>
+      <c r="F63" t="s">
+        <v>306</v>
+      </c>
+      <c r="G63">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64" t="s">
+        <v>180</v>
+      </c>
+      <c r="E64" t="s">
+        <v>243</v>
+      </c>
+      <c r="F64" t="s">
+        <v>307</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" t="s">
+        <v>181</v>
+      </c>
+      <c r="E65" t="s">
+        <v>244</v>
+      </c>
+      <c r="F65" t="s">
+        <v>308</v>
+      </c>
+      <c r="G65">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>122</v>
+      </c>
+      <c r="D66" t="s">
+        <v>182</v>
+      </c>
+      <c r="E66" t="s">
+        <v>245</v>
+      </c>
+      <c r="F66" t="s">
+        <v>309</v>
+      </c>
+      <c r="G66">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" t="s">
+        <v>113</v>
+      </c>
+      <c r="D67" t="s">
+        <v>170</v>
+      </c>
+      <c r="E67" t="s">
+        <v>246</v>
+      </c>
+      <c r="F67" t="s">
+        <v>310</v>
+      </c>
+      <c r="G67">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" t="s">
+        <v>112</v>
+      </c>
+      <c r="D68" t="s">
+        <v>162</v>
+      </c>
+      <c r="E68" t="s">
+        <v>223</v>
+      </c>
+      <c r="F68" t="s">
+        <v>311</v>
+      </c>
+      <c r="G68">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" t="s">
+        <v>123</v>
+      </c>
+      <c r="D69" t="s">
+        <v>183</v>
+      </c>
+      <c r="E69" t="s">
+        <v>247</v>
+      </c>
+      <c r="F69" t="s">
+        <v>312</v>
+      </c>
+      <c r="G69">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" t="s">
+        <v>124</v>
+      </c>
+      <c r="D70" t="s">
+        <v>134</v>
+      </c>
+      <c r="E70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F70" t="s">
+        <v>313</v>
+      </c>
+      <c r="G70">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" t="s">
+        <v>125</v>
+      </c>
+      <c r="D71" t="s">
+        <v>184</v>
+      </c>
+      <c r="E71" t="s">
+        <v>249</v>
+      </c>
+      <c r="F71" t="s">
+        <v>314</v>
+      </c>
+      <c r="G71">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/VerbBender.xlsx
+++ b/VerbBender.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Edite/Documents/GitHub/Norsk/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16C3E3A-B66B-5A42-8390-DAD31CD148DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="324">
   <si>
     <t>Date</t>
   </si>
@@ -64,6 +58,15 @@
     <t>07/01/2021</t>
   </si>
   <si>
+    <t>07/01/2021 00:00:00</t>
+  </si>
+  <si>
+    <t>07/01/2021 00:00:00.f</t>
+  </si>
+  <si>
+    <t>07/01/2021 00:00:00.000000</t>
+  </si>
+  <si>
     <t>Grill</t>
   </si>
   <si>
@@ -400,6 +403,18 @@
     <t>å</t>
   </si>
   <si>
+    <t>å savsla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ </t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>å ansette</t>
+  </si>
+  <si>
     <t>griller</t>
   </si>
   <si>
@@ -577,6 +592,12 @@
     <t>foretrekker</t>
   </si>
   <si>
+    <t>avbryter</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
     <t>grillte¨</t>
   </si>
   <si>
@@ -676,9 +697,6 @@
     <t>knekkte</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>spiste</t>
   </si>
   <si>
@@ -965,13 +983,16 @@
   </si>
   <si>
     <t>har foretrakket</t>
+  </si>
+  <si>
+    <t>har avbrutt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1034,14 +1055,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1088,7 +1101,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1120,27 +1133,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1172,24 +1167,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1365,19 +1342,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="61.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1400,1611 +1372,1772 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="F2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="G2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="F3" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="G3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F4" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="G4">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="F5" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="G5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F6" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="F7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="G7">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E8" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F8" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="G8">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E9" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="F9" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="G9">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E10" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="F10" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E11" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="F11" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="G11">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="F12" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="G12">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E13" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="F13" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G13">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E14" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F14" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="G14">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E15" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="F15" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E16" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F16" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="G16">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E17" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="F17" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="G17">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E18" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F18" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="G18">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E19" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="F19" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="G19">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E20" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F20" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="G20">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E21" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="F21" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="G21">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E22" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="F22" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E23" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F23" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E24" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F24" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="G24">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E25" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="F25" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="G25">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E26" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F26" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="G26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E27" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="F27" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="G27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D28" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E28" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="F28" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="G28">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F29" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="G29">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E30" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F30" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="G30">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E31" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="F31" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="G31">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E32" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="F32" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="G32">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E33" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F33" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D34" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E34" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="F34" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="G34">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E35" t="s">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="F35" t="s">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D36" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E36" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="F36" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="G36">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D37" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E37" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="F37" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="G37">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D38" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E38" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F38" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D39" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E39" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F39" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="G39">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D40" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E40" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="F40" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="G40">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D41" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E41" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="F41" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="G41">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D42" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E42" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="F42" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="G42">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D43" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E43" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F43" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="G43">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D44" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E44" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F44" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E45" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="F45" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="G45">
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E46" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="F46" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D47" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E47" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="F47" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="G47">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D48" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E48" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F48" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="G48">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D49" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E49" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="F49" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="G49">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D50" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E50" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="F50" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="G50">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D51" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E51" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="F51" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="G51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D52" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E52" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="F52" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="G52">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D53" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E53" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="F53" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="G53">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D54" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E54" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F54" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="G54">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D55" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E55" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="F55" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="G55">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D56" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E56" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F56" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="G56">
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D57" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E57" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="F57" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D58" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E58" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F58" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="G58">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C59" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D59" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E59" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F59" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D60" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E60" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F60" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="G60">
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C61" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D61" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E61" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F61" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="G61">
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D62" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E62" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="F62" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D63" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E63" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="F63" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="G63">
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C64" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D64" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E64" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F64" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C65" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D65" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E65" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="F65" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="G65">
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D66" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E66" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F66" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="G66">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C67" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D67" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E67" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="F67" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="G67">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C68" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D68" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E68" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="F68" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="G68">
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D69" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E69" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F69" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="G69">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D70" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E70" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="F70" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="G70">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D71" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E71" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F71" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="G71">
         <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" t="s">
+        <v>129</v>
+      </c>
+      <c r="D72" t="s">
+        <v>171</v>
+      </c>
+      <c r="E72" t="s">
+        <v>248</v>
+      </c>
+      <c r="F72" t="s">
+        <v>312</v>
+      </c>
+      <c r="G72">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" t="s">
+        <v>123</v>
+      </c>
+      <c r="D73" t="s">
+        <v>192</v>
+      </c>
+      <c r="E73" t="s">
+        <v>249</v>
+      </c>
+      <c r="F73" t="s">
+        <v>323</v>
+      </c>
+      <c r="G73">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" t="s">
+        <v>130</v>
+      </c>
+      <c r="D74" t="s">
+        <v>193</v>
+      </c>
+      <c r="E74" t="s">
+        <v>124</v>
+      </c>
+      <c r="F74" t="s">
+        <v>124</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" t="s">
+        <v>131</v>
+      </c>
+      <c r="D75" t="s">
+        <v>131</v>
+      </c>
+      <c r="E75" t="s">
+        <v>131</v>
+      </c>
+      <c r="F75" t="s">
+        <v>131</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76" t="s">
+        <v>131</v>
+      </c>
+      <c r="D76" t="s">
+        <v>131</v>
+      </c>
+      <c r="E76" t="s">
+        <v>131</v>
+      </c>
+      <c r="F76" t="s">
+        <v>131</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>59</v>
+      </c>
+      <c r="C77" t="s">
+        <v>131</v>
+      </c>
+      <c r="D77" t="s">
+        <v>131</v>
+      </c>
+      <c r="E77" t="s">
+        <v>131</v>
+      </c>
+      <c r="F77" t="s">
+        <v>131</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78" t="s">
+        <v>132</v>
+      </c>
+      <c r="D78" t="s">
+        <v>171</v>
+      </c>
+      <c r="E78" t="s">
+        <v>248</v>
+      </c>
+      <c r="F78" t="s">
+        <v>312</v>
+      </c>
+      <c r="G78">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/VerbBender.xlsx
+++ b/VerbBender.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Edite/Documents/GitHub/Norsk/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7358E4D8-AF9A-1149-A1B0-1697802B2A62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="330">
   <si>
     <t>Date</t>
   </si>
@@ -61,12 +67,18 @@
     <t>07/01/2021 00:00:00</t>
   </si>
   <si>
-    <t>07/01/2021 00:00:00.f</t>
-  </si>
-  <si>
     <t>07/01/2021 00:00:00.000000</t>
   </si>
   <si>
+    <t>07/01/2021 12:09:51.275367</t>
+  </si>
+  <si>
+    <t>07/01/2021 12:10:19.471407</t>
+  </si>
+  <si>
+    <t>07/01/2021 12:11:01.496334</t>
+  </si>
+  <si>
     <t>Grill</t>
   </si>
   <si>
@@ -406,15 +418,18 @@
     <t>å savsla</t>
   </si>
   <si>
-    <t xml:space="preserve">[ </t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
     <t>å ansette</t>
   </si>
   <si>
+    <t>å interup</t>
+  </si>
+  <si>
+    <t>å be</t>
+  </si>
+  <si>
     <t>griller</t>
   </si>
   <si>
@@ -595,9 +610,6 @@
     <t>avbryter</t>
   </si>
   <si>
-    <t>z</t>
-  </si>
-  <si>
     <t>grillte¨</t>
   </si>
   <si>
@@ -790,6 +802,12 @@
     <t>fortrakk</t>
   </si>
   <si>
+    <t>ansatte</t>
+  </si>
+  <si>
+    <t>bp</t>
+  </si>
+  <si>
     <t>grillte</t>
   </si>
   <si>
@@ -986,13 +1004,19 @@
   </si>
   <si>
     <t>har avbrutt</t>
+  </si>
+  <si>
+    <t>har avbrøtt</t>
+  </si>
+  <si>
+    <t>har b@rte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1055,6 +1079,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1101,7 +1133,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1133,9 +1165,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1167,6 +1217,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1342,14 +1410,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74:G74"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1372,1772 +1451,1749 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F3" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G4">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F6" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G7">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G8">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F9" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G9">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F11" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G11">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E12" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F12" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G12">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F13" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G13">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E14" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F14" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G14">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E15" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F15" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E16" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F16" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G16">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F17" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G17">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E18" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F18" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G18">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E19" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F19" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G19">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F20" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G20">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E21" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F21" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G21">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E22" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F22" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E23" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F23" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E24" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F24" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G24">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E25" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F25" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G25">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E26" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F26" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E27" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F27" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E28" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F28" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G28">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E29" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F29" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G29">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F30" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G30">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D31" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E31" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F31" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G31">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E32" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F32" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G32">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F33" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E34" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F34" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G34">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E36" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F36" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G36">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D37" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E37" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F37" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G37">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D38" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E38" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F38" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D39" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E39" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F39" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G39">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D40" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E40" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F40" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G40">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D41" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E41" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F41" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G41">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D42" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E42" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F42" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G42">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D43" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E43" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F43" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G43">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D44" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E44" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F44" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D45" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E45" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F45" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G45">
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D46" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E46" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F46" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D47" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E47" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F47" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G47">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D48" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E48" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F48" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="G48">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D49" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E49" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F49" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G49">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D50" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E50" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F50" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G50">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D51" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E51" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F51" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D52" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E52" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F52" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G52">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D53" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E53" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F53" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G53">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D54" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E54" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F54" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G54">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D55" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E55" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F55" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G55">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D56" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E56" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F56" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G56">
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D57" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E57" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F57" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D58" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E58" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F58" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G58">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D59" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E59" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F59" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D60" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E60" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F60" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G60">
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C61" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D61" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E61" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F61" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="G61">
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D62" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E62" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F62" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D63" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E63" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F63" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G63">
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D64" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E64" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F64" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C65" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D65" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E65" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F65" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G65">
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D66" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E66" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F66" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G66">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C67" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D67" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E67" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F67" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G67">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C68" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D68" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E68" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F68" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G68">
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D69" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E69" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F69" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G69">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D70" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E70" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F70" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G70">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D71" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E71" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F71" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G71">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C72" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D72" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E72" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F72" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="G72">
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C73" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D73" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E73" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F73" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G73">
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C74" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D74" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="E74" t="s">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="F74" t="s">
-        <v>124</v>
+        <v>316</v>
       </c>
       <c r="G74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C75" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D75" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="E75" t="s">
-        <v>131</v>
+        <v>260</v>
       </c>
       <c r="F75" t="s">
-        <v>131</v>
+        <v>299</v>
       </c>
       <c r="G75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C76" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D76" t="s">
-        <v>131</v>
+        <v>195</v>
       </c>
       <c r="E76" t="s">
-        <v>131</v>
+        <v>251</v>
       </c>
       <c r="F76" t="s">
-        <v>131</v>
+        <v>328</v>
       </c>
       <c r="G76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B77" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C77" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D77" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="E77" t="s">
-        <v>131</v>
+        <v>261</v>
       </c>
       <c r="F77" t="s">
-        <v>131</v>
+        <v>329</v>
       </c>
       <c r="G77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" t="s">
-        <v>16</v>
-      </c>
-      <c r="B78" t="s">
-        <v>53</v>
-      </c>
-      <c r="C78" t="s">
-        <v>132</v>
-      </c>
-      <c r="D78" t="s">
-        <v>171</v>
-      </c>
-      <c r="E78" t="s">
-        <v>248</v>
-      </c>
-      <c r="F78" t="s">
-        <v>312</v>
-      </c>
-      <c r="G78">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/VerbBender.xlsx
+++ b/VerbBender.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Edite/Documents/GitHub/Norsk/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7358E4D8-AF9A-1149-A1B0-1697802B2A62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="346">
   <si>
     <t>Date</t>
   </si>
@@ -79,6 +73,24 @@
     <t>07/01/2021 12:11:01.496334</t>
   </si>
   <si>
+    <t>08/01/2021 16:29:34.881099</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:30:11.629536</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:31:25.410194</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:31:40.852129</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:31:59.917084</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:32:18.503537</t>
+  </si>
+  <si>
     <t>Grill</t>
   </si>
   <si>
@@ -418,297 +430,309 @@
     <t>å savsla</t>
   </si>
   <si>
+    <t>å ansette</t>
+  </si>
+  <si>
+    <t>å interup</t>
+  </si>
+  <si>
+    <t>å be</t>
+  </si>
+  <si>
+    <t>å ansett</t>
+  </si>
+  <si>
+    <t>å avbrypte</t>
+  </si>
+  <si>
+    <t>å ba</t>
+  </si>
+  <si>
+    <t>å anstva</t>
+  </si>
+  <si>
+    <t>griller</t>
+  </si>
+  <si>
+    <t>snø</t>
+  </si>
+  <si>
+    <t>hjelper</t>
+  </si>
+  <si>
+    <t>diskuterer</t>
+  </si>
+  <si>
+    <t>å består</t>
+  </si>
+  <si>
+    <t>føler seg</t>
+  </si>
+  <si>
+    <t>griper</t>
+  </si>
+  <si>
+    <t>eser</t>
+  </si>
+  <si>
+    <t>finner</t>
+  </si>
+  <si>
+    <t>beslår</t>
+  </si>
+  <si>
+    <t>kjøper</t>
+  </si>
+  <si>
+    <t>trer</t>
+  </si>
+  <si>
+    <t>tjener</t>
+  </si>
+  <si>
+    <t>triver</t>
+  </si>
+  <si>
+    <t>flytter</t>
+  </si>
+  <si>
+    <t>gaper</t>
+  </si>
+  <si>
+    <t>venter</t>
+  </si>
+  <si>
+    <t>underskriver</t>
+  </si>
+  <si>
+    <t>faller</t>
+  </si>
+  <si>
+    <t>bryer</t>
+  </si>
+  <si>
+    <t>fyler</t>
+  </si>
+  <si>
+    <t>smitter</t>
+  </si>
+  <si>
+    <t>veier</t>
+  </si>
+  <si>
+    <t>gruer seg</t>
+  </si>
+  <si>
+    <t>hugger</t>
+  </si>
+  <si>
+    <t>overskriver</t>
+  </si>
+  <si>
+    <t>galer</t>
+  </si>
+  <si>
+    <t>blør</t>
+  </si>
+  <si>
+    <t>drømmer</t>
+  </si>
+  <si>
+    <t>tvingler</t>
+  </si>
+  <si>
+    <t>knekker</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>spiser</t>
+  </si>
+  <si>
+    <t>rir</t>
+  </si>
+  <si>
+    <t>freffer</t>
+  </si>
+  <si>
+    <t>bli</t>
+  </si>
+  <si>
+    <t>driver</t>
+  </si>
+  <si>
+    <t>sitter</t>
+  </si>
+  <si>
+    <t>ansetter</t>
+  </si>
+  <si>
+    <t>gjør</t>
+  </si>
+  <si>
+    <t>¨nyter</t>
+  </si>
+  <si>
+    <t>går</t>
+  </si>
+  <si>
+    <t>skriver</t>
+  </si>
+  <si>
+    <t>ber</t>
+  </si>
+  <si>
+    <t>drikker</t>
+  </si>
+  <si>
+    <t>slipper</t>
+  </si>
+  <si>
+    <t>selger</t>
+  </si>
+  <si>
+    <t>sporrer</t>
+  </si>
+  <si>
+    <t>ler</t>
+  </si>
+  <si>
+    <t>fortsette</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>tar</t>
+  </si>
+  <si>
+    <t>avryter</t>
+  </si>
+  <si>
+    <t>bærer</t>
+  </si>
+  <si>
+    <t>b er</t>
+  </si>
+  <si>
+    <t>blir</t>
+  </si>
+  <si>
+    <t>bryter</t>
+  </si>
+  <si>
+    <t>får</t>
+  </si>
+  <si>
+    <t>foretrekker</t>
+  </si>
+  <si>
+    <t>avbryter</t>
+  </si>
+  <si>
+    <t>grillte¨</t>
+  </si>
+  <si>
+    <t>snørte</t>
+  </si>
+  <si>
+    <t>hjelpte</t>
+  </si>
+  <si>
+    <t>diskuterte</t>
+  </si>
+  <si>
+    <t>bestør</t>
+  </si>
+  <si>
+    <t>felte seg</t>
+  </si>
+  <si>
+    <t>grippte</t>
+  </si>
+  <si>
+    <t>este</t>
+  </si>
+  <si>
+    <t>finde</t>
+  </si>
+  <si>
+    <t>beslør</t>
+  </si>
+  <si>
+    <t>kjøpte</t>
+  </si>
+  <si>
+    <t>trete</t>
+  </si>
+  <si>
+    <t>tjente</t>
+  </si>
+  <si>
+    <t>tridde</t>
+  </si>
+  <si>
+    <t>flutte</t>
+  </si>
+  <si>
+    <t>gapte</t>
+  </si>
+  <si>
+    <t>vent</t>
+  </si>
+  <si>
+    <t>underskrevte</t>
+  </si>
+  <si>
+    <t>fallte</t>
+  </si>
+  <si>
+    <t>underskrev</t>
+  </si>
+  <si>
+    <t>bridde</t>
+  </si>
+  <si>
+    <t>fyllte</t>
+  </si>
+  <si>
+    <t>smitet</t>
+  </si>
+  <si>
+    <t>veste</t>
+  </si>
+  <si>
+    <t>beståte</t>
+  </si>
+  <si>
+    <t>grued seg</t>
+  </si>
+  <si>
+    <t>huggte</t>
+  </si>
+  <si>
+    <t>overskrivte</t>
+  </si>
+  <si>
+    <t>galte</t>
+  </si>
+  <si>
+    <t>blørte</t>
+  </si>
+  <si>
+    <t>drømte</t>
+  </si>
+  <si>
+    <t>tvinglte</t>
+  </si>
+  <si>
+    <t>knekkte</t>
+  </si>
+  <si>
     <t>d</t>
   </si>
   <si>
-    <t>å ansette</t>
-  </si>
-  <si>
-    <t>å interup</t>
-  </si>
-  <si>
-    <t>å be</t>
-  </si>
-  <si>
-    <t>griller</t>
-  </si>
-  <si>
-    <t>snø</t>
-  </si>
-  <si>
-    <t>hjelper</t>
-  </si>
-  <si>
-    <t>diskuterer</t>
-  </si>
-  <si>
-    <t>å består</t>
-  </si>
-  <si>
-    <t>føler seg</t>
-  </si>
-  <si>
-    <t>griper</t>
-  </si>
-  <si>
-    <t>eser</t>
-  </si>
-  <si>
-    <t>finner</t>
-  </si>
-  <si>
-    <t>beslår</t>
-  </si>
-  <si>
-    <t>kjøper</t>
-  </si>
-  <si>
-    <t>trer</t>
-  </si>
-  <si>
-    <t>tjener</t>
-  </si>
-  <si>
-    <t>triver</t>
-  </si>
-  <si>
-    <t>flytter</t>
-  </si>
-  <si>
-    <t>gaper</t>
-  </si>
-  <si>
-    <t>venter</t>
-  </si>
-  <si>
-    <t>underskriver</t>
-  </si>
-  <si>
-    <t>faller</t>
-  </si>
-  <si>
-    <t>bryer</t>
-  </si>
-  <si>
-    <t>fyler</t>
-  </si>
-  <si>
-    <t>smitter</t>
-  </si>
-  <si>
-    <t>veier</t>
-  </si>
-  <si>
-    <t>gruer seg</t>
-  </si>
-  <si>
-    <t>hugger</t>
-  </si>
-  <si>
-    <t>overskriver</t>
-  </si>
-  <si>
-    <t>galer</t>
-  </si>
-  <si>
-    <t>blør</t>
-  </si>
-  <si>
-    <t>drømmer</t>
-  </si>
-  <si>
-    <t>tvingler</t>
-  </si>
-  <si>
-    <t>knekker</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>spiser</t>
-  </si>
-  <si>
-    <t>rir</t>
-  </si>
-  <si>
-    <t>freffer</t>
-  </si>
-  <si>
-    <t>bli</t>
-  </si>
-  <si>
-    <t>driver</t>
-  </si>
-  <si>
-    <t>sitter</t>
-  </si>
-  <si>
-    <t>ansetter</t>
-  </si>
-  <si>
-    <t>gjør</t>
-  </si>
-  <si>
-    <t>¨nyter</t>
-  </si>
-  <si>
-    <t>går</t>
-  </si>
-  <si>
-    <t>skriver</t>
-  </si>
-  <si>
-    <t>ber</t>
-  </si>
-  <si>
-    <t>drikker</t>
-  </si>
-  <si>
-    <t>slipper</t>
-  </si>
-  <si>
-    <t>selger</t>
-  </si>
-  <si>
-    <t>sporrer</t>
-  </si>
-  <si>
-    <t>ler</t>
-  </si>
-  <si>
-    <t>fortsette</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>tar</t>
-  </si>
-  <si>
-    <t>avryter</t>
-  </si>
-  <si>
-    <t>bærer</t>
-  </si>
-  <si>
-    <t>b er</t>
-  </si>
-  <si>
-    <t>blir</t>
-  </si>
-  <si>
-    <t>bryter</t>
-  </si>
-  <si>
-    <t>får</t>
-  </si>
-  <si>
-    <t>foretrekker</t>
-  </si>
-  <si>
-    <t>avbryter</t>
-  </si>
-  <si>
-    <t>grillte¨</t>
-  </si>
-  <si>
-    <t>snørte</t>
-  </si>
-  <si>
-    <t>hjelpte</t>
-  </si>
-  <si>
-    <t>diskuterte</t>
-  </si>
-  <si>
-    <t>bestør</t>
-  </si>
-  <si>
-    <t>felte seg</t>
-  </si>
-  <si>
-    <t>grippte</t>
-  </si>
-  <si>
-    <t>este</t>
-  </si>
-  <si>
-    <t>finde</t>
-  </si>
-  <si>
-    <t>beslør</t>
-  </si>
-  <si>
-    <t>kjøpte</t>
-  </si>
-  <si>
-    <t>trete</t>
-  </si>
-  <si>
-    <t>tjente</t>
-  </si>
-  <si>
-    <t>tridde</t>
-  </si>
-  <si>
-    <t>flutte</t>
-  </si>
-  <si>
-    <t>gapte</t>
-  </si>
-  <si>
-    <t>vent</t>
-  </si>
-  <si>
-    <t>underskrevte</t>
-  </si>
-  <si>
-    <t>fallte</t>
-  </si>
-  <si>
-    <t>underskrev</t>
-  </si>
-  <si>
-    <t>bridde</t>
-  </si>
-  <si>
-    <t>fyllte</t>
-  </si>
-  <si>
-    <t>smitet</t>
-  </si>
-  <si>
-    <t>veste</t>
-  </si>
-  <si>
-    <t>beståte</t>
-  </si>
-  <si>
-    <t>grued seg</t>
-  </si>
-  <si>
-    <t>huggte</t>
-  </si>
-  <si>
-    <t>overskrivte</t>
-  </si>
-  <si>
-    <t>galte</t>
-  </si>
-  <si>
-    <t>blørte</t>
-  </si>
-  <si>
-    <t>drømte</t>
-  </si>
-  <si>
-    <t>tvinglte</t>
-  </si>
-  <si>
-    <t>knekkte</t>
-  </si>
-  <si>
     <t>spiste</t>
   </si>
   <si>
@@ -808,6 +832,15 @@
     <t>bp</t>
   </si>
   <si>
+    <t>avbritt</t>
+  </si>
+  <si>
+    <t>betta</t>
+  </si>
+  <si>
+    <t>blirde</t>
+  </si>
+  <si>
     <t>grillte</t>
   </si>
   <si>
@@ -1010,13 +1043,22 @@
   </si>
   <si>
     <t>har b@rte</t>
+  </si>
+  <si>
+    <t>har avbritte</t>
+  </si>
+  <si>
+    <t>har bett</t>
+  </si>
+  <si>
+    <t>har brotte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1079,14 +1121,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1133,7 +1167,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1165,27 +1199,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1217,24 +1233,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1410,25 +1408,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74:G74"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1451,1748 +1438,1883 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="G2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F3" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="G3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="F4" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="G4">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E5" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F5" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="G5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="F6" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="G7">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E8" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="F8" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="G8">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E9" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F9" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="G9">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E10" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="F10" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="F11" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="G11">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F12" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="G12">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E13" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F13" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="G13">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E14" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="F14" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="G14">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F15" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E16" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="F16" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="G16">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E17" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="F17" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="G17">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E18" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F18" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="G18">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E19" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F19" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G19">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E20" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="F20" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="G20">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E21" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="F21" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="G21">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E22" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F22" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E23" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="F23" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E24" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="F24" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="G24">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E25" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="F25" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="G25">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E26" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="F26" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="G26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E27" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="F27" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="G27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D28" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E28" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F28" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="G28">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E29" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="F29" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="G29">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E30" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F30" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="G30">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E31" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="F31" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="G31">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E32" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="F32" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="G32">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D33" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E33" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="F33" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D34" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E34" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="F34" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="G34">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E35" t="s">
-        <v>132</v>
+        <v>238</v>
       </c>
       <c r="F35" t="s">
-        <v>132</v>
+        <v>238</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D36" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E36" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="F36" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="G36">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D37" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E37" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="F37" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="G37">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D38" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E38" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F38" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E39" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="F39" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="G39">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D40" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="E40" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F40" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="G40">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D41" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E41" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="F41" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="G41">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D42" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E42" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F42" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="G42">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D43" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E43" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="F43" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="G43">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D44" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E44" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F44" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D45" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E45" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="F45" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="G45">
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D46" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="E46" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="F46" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D47" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E47" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="F47" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="G47">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D48" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E48" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="F48" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="G48">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D49" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E49" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F49" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="G49">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D50" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="E50" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F50" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="G50">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D51" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E51" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="F51" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="G51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C52" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D52" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E52" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="F52" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="G52">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D53" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E53" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="F53" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="G53">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D54" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E54" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="F54" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="G54">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D55" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="E55" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="F55" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="G55">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C56" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D56" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E56" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F56" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="G56">
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C57" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D57" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E57" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="F57" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D58" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E58" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="F58" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="G58">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D59" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E59" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="F59" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C60" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D60" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="E60" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="F60" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="G60">
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D61" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E61" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="F61" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="G61">
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C62" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D62" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="E62" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="F62" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D63" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="E63" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="F63" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="G63">
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D64" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="E64" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="F64" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D65" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="E65" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="F65" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="G65">
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D66" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="E66" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="F66" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="G66">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D67" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E67" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="F67" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="G67">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D68" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="E68" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F68" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="G68">
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D69" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="E69" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="F69" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="G69">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C70" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D70" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E70" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F70" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="G70">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C71" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D71" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="E71" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="F71" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="G71">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C72" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D72" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E72" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="F72" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="G72">
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D73" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E73" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="F73" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="G73">
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C74" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D74" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E74" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="F74" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="G74">
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C75" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D75" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E75" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="F75" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="G75">
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D76" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E76" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="F76" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="G76">
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>18</v>
       </c>
       <c r="B77" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D77" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="E77" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="F77" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="G77">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78" t="s">
+        <v>141</v>
+      </c>
+      <c r="D78" t="s">
+        <v>183</v>
+      </c>
+      <c r="E78" t="s">
+        <v>270</v>
+      </c>
+      <c r="F78" t="s">
+        <v>312</v>
+      </c>
+      <c r="G78">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" t="s">
+        <v>142</v>
+      </c>
+      <c r="D79" t="s">
+        <v>204</v>
+      </c>
+      <c r="E79" t="s">
+        <v>272</v>
+      </c>
+      <c r="F79" t="s">
+        <v>343</v>
+      </c>
+      <c r="G79">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" t="s">
+        <v>75</v>
+      </c>
+      <c r="C80" t="s">
+        <v>143</v>
+      </c>
+      <c r="D80" t="s">
+        <v>198</v>
+      </c>
+      <c r="E80" t="s">
+        <v>200</v>
+      </c>
+      <c r="F80" t="s">
+        <v>332</v>
+      </c>
+      <c r="G80">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81" t="s">
+        <v>144</v>
+      </c>
+      <c r="D81" t="s">
+        <v>188</v>
+      </c>
+      <c r="E81" t="s">
+        <v>273</v>
+      </c>
+      <c r="F81" t="s">
+        <v>344</v>
+      </c>
+      <c r="G81">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" t="s">
+        <v>200</v>
+      </c>
+      <c r="E82" t="s">
+        <v>274</v>
+      </c>
+      <c r="F82" t="s">
+        <v>333</v>
+      </c>
+      <c r="G82">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" t="s">
+        <v>133</v>
+      </c>
+      <c r="D83" t="s">
+        <v>201</v>
+      </c>
+      <c r="E83" t="s">
+        <v>265</v>
+      </c>
+      <c r="F83" t="s">
+        <v>345</v>
+      </c>
+      <c r="G83">
         <v>25</v>
       </c>
     </row>

--- a/VerbBender.xlsx
+++ b/VerbBender.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="373">
   <si>
     <t>Date</t>
   </si>
@@ -91,6 +91,27 @@
     <t>08/01/2021 16:32:18.503537</t>
   </si>
   <si>
+    <t>08/01/2021 16:44:51.067765</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:45:22.778817</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:45:49.819417</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:46:16.713204</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:46:42.654675</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:47:08.782873</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:47:22.762670</t>
+  </si>
+  <si>
     <t>Grill</t>
   </si>
   <si>
@@ -256,6 +277,15 @@
     <t>prefer</t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>to bake</t>
+  </si>
+  <si>
     <t>å grille</t>
   </si>
   <si>
@@ -451,6 +481,15 @@
     <t>å anstva</t>
   </si>
   <si>
+    <t>å avbryte</t>
+  </si>
+  <si>
+    <t>å avslutt</t>
+  </si>
+  <si>
+    <t>å bake</t>
+  </si>
+  <si>
     <t>griller</t>
   </si>
   <si>
@@ -631,6 +670,18 @@
     <t>avbryter</t>
   </si>
   <si>
+    <t>åpner</t>
+  </si>
+  <si>
+    <t>arbeider</t>
+  </si>
+  <si>
+    <t>avbrytter</t>
+  </si>
+  <si>
+    <t>baker</t>
+  </si>
+  <si>
     <t>grillte¨</t>
   </si>
   <si>
@@ -841,6 +892,18 @@
     <t>blirde</t>
   </si>
   <si>
+    <t>åpnet</t>
+  </si>
+  <si>
+    <t>arbeidet</t>
+  </si>
+  <si>
+    <t>avbrutt</t>
+  </si>
+  <si>
+    <t>bakte</t>
+  </si>
+  <si>
     <t>grillte</t>
   </si>
   <si>
@@ -1052,6 +1115,24 @@
   </si>
   <si>
     <t>har brotte</t>
+  </si>
+  <si>
+    <t>har åpnet</t>
+  </si>
+  <si>
+    <t>har arbeidet</t>
+  </si>
+  <si>
+    <t>har avbrutte</t>
+  </si>
+  <si>
+    <t>har bær</t>
+  </si>
+  <si>
+    <t>har bakte</t>
+  </si>
+  <si>
+    <t>har ber</t>
   </si>
 </sst>
 </file>
@@ -1409,7 +1490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1443,19 +1524,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="F2" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -1466,19 +1547,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="F3" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -1489,19 +1570,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="F4" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -1512,19 +1593,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="F5" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="G5">
         <v>50</v>
@@ -1535,19 +1616,19 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="E6" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="F6" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1558,19 +1639,19 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="E7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F7" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="G7">
         <v>25</v>
@@ -1581,19 +1662,19 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="E8" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="F8" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="G8">
         <v>25</v>
@@ -1604,19 +1685,19 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="E9" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="F9" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="G9">
         <v>50</v>
@@ -1627,19 +1708,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E10" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="F10" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1650,19 +1731,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="E11" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="F11" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="G11">
         <v>25</v>
@@ -1673,19 +1754,19 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E12" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F12" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="G12">
         <v>75</v>
@@ -1696,19 +1777,19 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="E13" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="F13" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="G13">
         <v>25</v>
@@ -1719,19 +1800,19 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="E14" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="F14" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="G14">
         <v>50</v>
@@ -1742,19 +1823,19 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="E15" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="F15" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1765,19 +1846,19 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="E16" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="F16" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="G16">
         <v>25</v>
@@ -1788,19 +1869,19 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="E17" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="F17" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="G17">
         <v>50</v>
@@ -1811,19 +1892,19 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D18" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="E18" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="F18" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="G18">
         <v>50</v>
@@ -1834,19 +1915,19 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="E19" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="F19" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="G19">
         <v>25</v>
@@ -1857,19 +1938,19 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="E20" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="F20" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="G20">
         <v>25</v>
@@ -1880,19 +1961,19 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="E21" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="F21" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="G21">
         <v>75</v>
@@ -1903,19 +1984,19 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D22" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="E22" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="F22" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1926,19 +2007,19 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="E23" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="F23" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1949,19 +2030,19 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D24" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="E24" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="F24" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="G24">
         <v>25</v>
@@ -1972,19 +2053,19 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D25" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="E25" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="F25" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="G25">
         <v>25</v>
@@ -1995,19 +2076,19 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="E26" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="F26" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="G26">
         <v>25</v>
@@ -2018,19 +2099,19 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D27" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="E27" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="F27" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="G27">
         <v>25</v>
@@ -2041,19 +2122,19 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D28" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="E28" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="F28" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="G28">
         <v>25</v>
@@ -2064,19 +2145,19 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="E29" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="F29" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="G29">
         <v>25</v>
@@ -2087,19 +2168,19 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E30" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="F30" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="G30">
         <v>25</v>
@@ -2110,19 +2191,19 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E31" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="F31" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="G31">
         <v>25</v>
@@ -2133,19 +2214,19 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="E32" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="F32" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="G32">
         <v>75</v>
@@ -2156,19 +2237,19 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D33" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="E33" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="F33" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2179,19 +2260,19 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D34" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="E34" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="F34" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="G34">
         <v>25</v>
@@ -2202,16 +2283,16 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D35" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E35" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="F35" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2222,19 +2303,19 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D36" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E36" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="F36" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="G36">
         <v>100</v>
@@ -2245,19 +2326,19 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D37" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="E37" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="F37" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="G37">
         <v>25</v>
@@ -2268,19 +2349,19 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D38" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="E38" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="F38" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2291,19 +2372,19 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D39" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="E39" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="F39" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="G39">
         <v>25</v>
@@ -2314,19 +2395,19 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D40" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="E40" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="F40" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="G40">
         <v>25</v>
@@ -2337,19 +2418,19 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D41" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="E41" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="F41" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="G41">
         <v>50</v>
@@ -2360,19 +2441,19 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D42" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E42" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="F42" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="G42">
         <v>50</v>
@@ -2383,19 +2464,19 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D43" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="E43" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="F43" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="G43">
         <v>50</v>
@@ -2406,19 +2487,19 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D44" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="E44" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="F44" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2429,19 +2510,19 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D45" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="E45" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="F45" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="G45">
         <v>75</v>
@@ -2452,19 +2533,19 @@
         <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C46" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D46" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="E46" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="F46" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2475,19 +2556,19 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D47" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="E47" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="F47" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="G47">
         <v>25</v>
@@ -2498,19 +2579,19 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D48" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="E48" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="F48" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="G48">
         <v>50</v>
@@ -2521,19 +2602,19 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D49" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E49" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="F49" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="G49">
         <v>25</v>
@@ -2544,19 +2625,19 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D50" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="E50" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="F50" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="G50">
         <v>50</v>
@@ -2567,19 +2648,19 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D51" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="E51" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="F51" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="G51">
         <v>50</v>
@@ -2590,19 +2671,19 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D52" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="E52" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="F52" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="G52">
         <v>25</v>
@@ -2613,19 +2694,19 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D53" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="E53" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="F53" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="G53">
         <v>75</v>
@@ -2636,19 +2717,19 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D54" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="E54" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="F54" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="G54">
         <v>50</v>
@@ -2659,19 +2740,19 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D55" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="E55" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="F55" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="G55">
         <v>75</v>
@@ -2682,19 +2763,19 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C56" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D56" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="E56" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="F56" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="G56">
         <v>25</v>
@@ -2705,19 +2786,19 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C57" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D57" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="E57" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="F57" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2728,19 +2809,19 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C58" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D58" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E58" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="F58" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="G58">
         <v>50</v>
@@ -2751,19 +2832,19 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D59" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="E59" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="F59" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2774,19 +2855,19 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D60" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="E60" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="F60" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="G60">
         <v>50</v>
@@ -2797,19 +2878,19 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D61" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E61" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="F61" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="G61">
         <v>25</v>
@@ -2820,19 +2901,19 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C62" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D62" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="E62" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="F62" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -2843,19 +2924,19 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C63" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D63" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="E63" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="F63" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="G63">
         <v>25</v>
@@ -2866,19 +2947,19 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D64" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="E64" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="F64" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -2889,19 +2970,19 @@
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D65" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="E65" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="F65" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="G65">
         <v>25</v>
@@ -2912,19 +2993,19 @@
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C66" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D66" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="E66" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="F66" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="G66">
         <v>25</v>
@@ -2935,19 +3016,19 @@
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D67" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="E67" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="F67" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="G67">
         <v>50</v>
@@ -2958,19 +3039,19 @@
         <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D68" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="E68" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="F68" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="G68">
         <v>50</v>
@@ -2981,19 +3062,19 @@
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C69" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D69" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="E69" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="F69" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="G69">
         <v>25</v>
@@ -3004,19 +3085,19 @@
         <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C70" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D70" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E70" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="F70" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="G70">
         <v>50</v>
@@ -3027,19 +3108,19 @@
         <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C71" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D71" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E71" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="F71" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="G71">
         <v>25</v>
@@ -3050,19 +3131,19 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D72" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E72" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="F72" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="G72">
         <v>25</v>
@@ -3073,19 +3154,19 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D73" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="E73" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="F73" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="G73">
         <v>50</v>
@@ -3096,19 +3177,19 @@
         <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C74" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D74" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E74" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="F74" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="G74">
         <v>50</v>
@@ -3119,19 +3200,19 @@
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C75" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D75" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E75" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="F75" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="G75">
         <v>100</v>
@@ -3142,19 +3223,19 @@
         <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D76" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="E76" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="F76" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="G76">
         <v>25</v>
@@ -3165,19 +3246,19 @@
         <v>18</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D77" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="E77" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="F77" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="G77">
         <v>25</v>
@@ -3188,19 +3269,19 @@
         <v>19</v>
       </c>
       <c r="B78" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C78" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D78" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E78" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="F78" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="G78">
         <v>75</v>
@@ -3211,19 +3292,19 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="D79" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="E79" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="F79" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="G79">
         <v>25</v>
@@ -3234,19 +3315,19 @@
         <v>21</v>
       </c>
       <c r="B80" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D80" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="E80" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="F80" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="G80">
         <v>25</v>
@@ -3257,19 +3338,19 @@
         <v>22</v>
       </c>
       <c r="B81" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C81" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D81" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E81" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="F81" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="G81">
         <v>25</v>
@@ -3280,16 +3361,16 @@
         <v>23</v>
       </c>
       <c r="B82" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D82" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="E82" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="F82" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="G82">
         <v>25</v>
@@ -3300,21 +3381,182 @@
         <v>24</v>
       </c>
       <c r="B83" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D83" t="s">
+        <v>214</v>
+      </c>
+      <c r="E83" t="s">
+        <v>282</v>
+      </c>
+      <c r="F83" t="s">
+        <v>366</v>
+      </c>
+      <c r="G83">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" t="s">
+        <v>68</v>
+      </c>
+      <c r="C84" t="s">
+        <v>155</v>
+      </c>
+      <c r="D84" t="s">
+        <v>196</v>
+      </c>
+      <c r="E84" t="s">
+        <v>277</v>
+      </c>
+      <c r="F84" t="s">
+        <v>350</v>
+      </c>
+      <c r="G84">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" t="s">
+        <v>151</v>
+      </c>
+      <c r="D85" t="s">
+        <v>218</v>
+      </c>
+      <c r="E85" t="s">
+        <v>292</v>
+      </c>
+      <c r="F85" t="s">
+        <v>367</v>
+      </c>
+      <c r="G85">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>27</v>
+      </c>
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" t="s">
+        <v>128</v>
+      </c>
+      <c r="D86" t="s">
+        <v>219</v>
+      </c>
+      <c r="E86" t="s">
+        <v>293</v>
+      </c>
+      <c r="F86" t="s">
+        <v>368</v>
+      </c>
+      <c r="G86">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" t="s">
+        <v>156</v>
+      </c>
+      <c r="D87" t="s">
+        <v>220</v>
+      </c>
+      <c r="E87" t="s">
+        <v>294</v>
+      </c>
+      <c r="F87" t="s">
+        <v>369</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88" t="s">
+        <v>82</v>
+      </c>
+      <c r="C88" t="s">
+        <v>125</v>
+      </c>
+      <c r="D88" t="s">
+        <v>211</v>
+      </c>
+      <c r="E88" t="s">
+        <v>279</v>
+      </c>
+      <c r="F88" t="s">
+        <v>370</v>
+      </c>
+      <c r="G88">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" t="s">
+        <v>157</v>
+      </c>
+      <c r="D89" t="s">
+        <v>221</v>
+      </c>
+      <c r="E89" t="s">
+        <v>295</v>
+      </c>
+      <c r="F89" t="s">
+        <v>371</v>
+      </c>
+      <c r="G89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>31</v>
+      </c>
+      <c r="B90" t="s">
+        <v>74</v>
+      </c>
+      <c r="C90" t="s">
+        <v>132</v>
+      </c>
+      <c r="D90" t="s">
         <v>201</v>
       </c>
-      <c r="E83" t="s">
-        <v>265</v>
-      </c>
-      <c r="F83" t="s">
-        <v>345</v>
-      </c>
-      <c r="G83">
+      <c r="E90" t="s">
+        <v>268</v>
+      </c>
+      <c r="F90" t="s">
+        <v>372</v>
+      </c>
+      <c r="G90">
         <v>25</v>
       </c>
     </row>

--- a/VerbBender.xlsx
+++ b/VerbBender.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Edite/Documents/GitHub/Norsk/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C948FC10-4BC1-2646-A539-DBE54CDCC86F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$203</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="944">
   <si>
     <t>Date</t>
   </si>
@@ -85,9 +94,6 @@
     <t>08/01/2021 16:31:40.852129</t>
   </si>
   <si>
-    <t>08/01/2021 16:31:59.917084</t>
-  </si>
-  <si>
     <t>08/01/2021 16:32:18.503537</t>
   </si>
   <si>
@@ -112,6 +118,348 @@
     <t>08/01/2021 16:47:22.762670</t>
   </si>
   <si>
+    <t>08/01/2021 16:47:38.724389</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:49:09.333802</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:49:30.125537</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:49:52.162961</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:50:19.689324</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:50:34.161027</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:50:49.676527</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:51:05.656594</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:51:30.987916</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:51:57.039073</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:53:09.810681</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:53:23.941515</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:53:45.259390</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:54:02.639571</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:54:21.226992</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:54:39.499214</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:54:53.678161</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:55:06.443282</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:55:55.852784</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:56:25.376066</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:56:45.523454</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:57:24.881931</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:58:00.457030</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:58:24.484827</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:58:40.690412</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:58:57.036642</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:59:13.377909</t>
+  </si>
+  <si>
+    <t>08/01/2021 16:59:50.821261</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:00:06.656872</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:00:42.360331</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:01:09.028844</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:01:33.123046</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:01:48.489723</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:02:02.755488</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:02:26.141188</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:02:40.598327</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:02:59.835765</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:03:19.645842</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:03:33.392703</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:03:56.720107</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:04:14.645943</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:04:31.551682</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:07:17.883121</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:07:36.379140</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:07:58.470051</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:08:17.562282</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:08:30.128607</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:09:06.700664</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:10:14.278993</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:10:27.282162</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:10:40.372855</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:10:53.877796</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:11:04.638740</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:11:21.666248</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:11:36.636607</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:11:46.522541</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:12:06.698226</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:12:23.596769</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:12:40.402981</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:13:08.637526</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:14:07.217750</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:14:27.584060</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:14:49.782206</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:15:09.183359</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:15:37.734219</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:15:56.621222</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:16:11.246406</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:16:24.555717</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:16:46.565077</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:17:00.495094</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:17:30.211848</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:17:40.874694</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:17:55.489871</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:18:11.352680</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:18:32.738662</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:18:47.473323</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:19:01.136152</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:19:22.610948</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:19:56.641206</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:20:10.634703</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:20:23.809428</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:20:40.623989</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:21:50.998901</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:22:03.280807</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:22:24.203276</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:22:35.564235</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:22:46.044421</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:23:23.613077</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:23:36.394794</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:23:55.836474</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:24:43.554283</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:25:02.604934</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:25:20.622540</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:25:38.641827</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:25:57.359296</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:26:10.440644</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:26:24.783324</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:26:39.710432</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:26:56.242123</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:27:04.952559</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:27:24.442692</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:27:36.607711</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:27:51.578159</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:28:06.747040</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:28:23.367233</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:28:35.042272</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:28:51.509127</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:29:03.224751</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:29:19.677593</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:29:40.230992</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:29:52.655856</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:30:05.348904</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:30:20.465473</t>
+  </si>
+  <si>
+    <t>08/01/2021 17:30:33.711883</t>
+  </si>
+  <si>
     <t>Grill</t>
   </si>
   <si>
@@ -286,6 +634,264 @@
     <t>to bake</t>
   </si>
   <si>
+    <t>begin</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>mean, signify</t>
+  </si>
+  <si>
+    <t>to move</t>
+  </si>
+  <si>
+    <t>live, reside</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>should</t>
+  </si>
+  <si>
+    <t>to cover</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>go/travel</t>
+  </si>
+  <si>
+    <t>shower</t>
+  </si>
+  <si>
+    <t>explain</t>
+  </si>
+  <si>
+    <t>understand</t>
+  </si>
+  <si>
+    <t>disappear</t>
+  </si>
+  <si>
+    <t>tell, explain</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>marry</t>
+  </si>
+  <si>
+    <t>to hide</t>
+  </si>
+  <si>
+    <t>repeat</t>
+  </si>
+  <si>
+    <t>look forward</t>
+  </si>
+  <si>
+    <t>forget</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>fetch, bring</t>
+  </si>
+  <si>
+    <t>be called/named</t>
+  </si>
+  <si>
+    <t>greet</t>
+  </si>
+  <si>
+    <t>jump</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>cough</t>
+  </si>
+  <si>
+    <t>remember</t>
+  </si>
+  <si>
+    <t>cast</t>
+  </si>
+  <si>
+    <t>know (person, place)</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>cost, sweep</t>
+  </si>
+  <si>
+    <t>can/be able to</t>
+  </si>
+  <si>
+    <t>make, create</t>
+  </si>
+  <si>
+    <t>lay/put</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>live, be alive</t>
+  </si>
+  <si>
+    <t>lie</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>must/have to </t>
+  </si>
+  <si>
+    <t>to fix</t>
+  </si>
+  <si>
+    <t>exaggerate</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>try, attempt</t>
+  </si>
+  <si>
+    <t>clean, polish</t>
+  </si>
+  <si>
+    <t>to breathe</t>
+  </si>
+  <si>
+    <t>reach</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>call, shout</t>
+  </si>
+  <si>
+    <t>tidy</t>
+  </si>
+  <si>
+    <t>to realx</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>set/put/place</t>
+  </si>
+  <si>
+    <t>say, tell</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>to scare</t>
+  </si>
+  <si>
+    <t>should, shall</t>
+  </si>
+  <si>
+    <t>hit, strike</t>
+  </si>
+  <si>
+    <t>end, close</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>sneak</t>
+  </si>
+  <si>
+    <t>snow</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>stand, stand up</t>
+  </si>
+  <si>
+    <t>roast, fry, bake</t>
+  </si>
+  <si>
+    <t>vote, agree</t>
+  </si>
+  <si>
+    <t>steal</t>
+  </si>
+  <si>
+    <t>stroke</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>answer, reply</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>think, intend</t>
+  </si>
+  <si>
+    <t>pull</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>believe</t>
+  </si>
+  <si>
+    <t>to print</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to joke </t>
+  </si>
+  <si>
+    <t>wake, awaken</t>
+  </si>
+  <si>
+    <t>wash</t>
+  </si>
+  <si>
+    <t>want to, will</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
     <t>å grille</t>
   </si>
   <si>
@@ -490,6 +1096,249 @@
     <t>å bake</t>
   </si>
   <si>
+    <t>å begynere</t>
+  </si>
+  <si>
+    <t>å betale</t>
+  </si>
+  <si>
+    <t>å betyr</t>
+  </si>
+  <si>
+    <t>å flytte</t>
+  </si>
+  <si>
+    <t>å bli</t>
+  </si>
+  <si>
+    <t>å bruke</t>
+  </si>
+  <si>
+    <t>å bråke</t>
+  </si>
+  <si>
+    <t>å b</t>
+  </si>
+  <si>
+    <t>å dø</t>
+  </si>
+  <si>
+    <t>å ferie</t>
+  </si>
+  <si>
+    <t>å dusje</t>
+  </si>
+  <si>
+    <t>å fa</t>
+  </si>
+  <si>
+    <t>å choice</t>
+  </si>
+  <si>
+    <t>å d</t>
+  </si>
+  <si>
+    <t>å forstorre</t>
+  </si>
+  <si>
+    <t>å fortelle</t>
+  </si>
+  <si>
+    <t>å f</t>
+  </si>
+  <si>
+    <t>å gifte seg</t>
+  </si>
+  <si>
+    <t>å h</t>
+  </si>
+  <si>
+    <t>å g</t>
+  </si>
+  <si>
+    <t>å for</t>
+  </si>
+  <si>
+    <t>å bringe</t>
+  </si>
+  <si>
+    <t>å heter</t>
+  </si>
+  <si>
+    <t>å gratulere</t>
+  </si>
+  <si>
+    <t>å hjelp</t>
+  </si>
+  <si>
+    <t>å jumpe</t>
+  </si>
+  <si>
+    <t>å høre</t>
+  </si>
+  <si>
+    <t>å glemme</t>
+  </si>
+  <si>
+    <t>å kjenne</t>
+  </si>
+  <si>
+    <t>å lage</t>
+  </si>
+  <si>
+    <t>å kame</t>
+  </si>
+  <si>
+    <t>å koste</t>
+  </si>
+  <si>
+    <t>å kunne@</t>
+  </si>
+  <si>
+    <t>å lå</t>
+  </si>
+  <si>
+    <t>å ligge</t>
+  </si>
+  <si>
+    <t>å leke</t>
+  </si>
+  <si>
+    <t>å liv</t>
+  </si>
+  <si>
+    <t>å lytte</t>
+  </si>
+  <si>
+    <t>å må</t>
+  </si>
+  <si>
+    <t>å o</t>
+  </si>
+  <si>
+    <t>å oversl</t>
+  </si>
+  <si>
+    <t>å fit</t>
+  </si>
+  <si>
+    <t>å try</t>
+  </si>
+  <si>
+    <t>å rene</t>
+  </si>
+  <si>
+    <t>å pulse</t>
+  </si>
+  <si>
+    <t>å r</t>
+  </si>
+  <si>
+    <t>å ridde</t>
+  </si>
+  <si>
+    <t>å ringe</t>
+  </si>
+  <si>
+    <t>å l</t>
+  </si>
+  <si>
+    <t>å rydde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">å slape </t>
+  </si>
+  <si>
+    <t>å se</t>
+  </si>
+  <si>
+    <t>å senne</t>
+  </si>
+  <si>
+    <t>å selle</t>
+  </si>
+  <si>
+    <t>å si</t>
+  </si>
+  <si>
+    <t>å skjære</t>
+  </si>
+  <si>
+    <t>å forstå</t>
+  </si>
+  <si>
+    <t>å s</t>
+  </si>
+  <si>
+    <t>å skulle</t>
+  </si>
+  <si>
+    <t>å slå</t>
+  </si>
+  <si>
+    <t>¨</t>
+  </si>
+  <si>
+    <t>å slutt</t>
+  </si>
+  <si>
+    <t>å smile</t>
+  </si>
+  <si>
+    <t>å sove</t>
+  </si>
+  <si>
+    <t>å spille</t>
+  </si>
+  <si>
+    <t>å stande</t>
+  </si>
+  <si>
+    <t>å steke</t>
+  </si>
+  <si>
+    <t>å røyke</t>
+  </si>
+  <si>
+    <t>å svære</t>
+  </si>
+  <si>
+    <t>å telle</t>
+  </si>
+  <si>
+    <t>å tenke</t>
+  </si>
+  <si>
+    <t>å treffe</t>
+  </si>
+  <si>
+    <t>å t</t>
+  </si>
+  <si>
+    <t>å trenge</t>
+  </si>
+  <si>
+    <t>å tro</t>
+  </si>
+  <si>
+    <t>å trikke</t>
+  </si>
+  <si>
+    <t>p d</t>
+  </si>
+  <si>
+    <t>å våke</t>
+  </si>
+  <si>
+    <t>å vaske</t>
+  </si>
+  <si>
+    <t>å ville</t>
+  </si>
+  <si>
+    <t>å vet</t>
+  </si>
+  <si>
     <t>griller</t>
   </si>
   <si>
@@ -682,6 +1531,288 @@
     <t>baker</t>
   </si>
   <si>
+    <t>begynner</t>
+  </si>
+  <si>
+    <t>betaler</t>
+  </si>
+  <si>
+    <t>betyr</t>
+  </si>
+  <si>
+    <t>beveger</t>
+  </si>
+  <si>
+    <t>bor</t>
+  </si>
+  <si>
+    <t>bruker</t>
+  </si>
+  <si>
+    <t>burder</t>
+  </si>
+  <si>
+    <t>dekker</t>
+  </si>
+  <si>
+    <t>dør</t>
+  </si>
+  <si>
+    <t>drar</t>
+  </si>
+  <si>
+    <t>dusjer</t>
+  </si>
+  <si>
+    <t>fortrekker</t>
+  </si>
+  <si>
+    <t>forklarer</t>
+  </si>
+  <si>
+    <t>forstår</t>
+  </si>
+  <si>
+    <t>forsvinner</t>
+  </si>
+  <si>
+    <t>forteller</t>
+  </si>
+  <si>
+    <t>fortsetter</t>
+  </si>
+  <si>
+    <t>gir</t>
+  </si>
+  <si>
+    <t>gifter</t>
+  </si>
+  <si>
+    <t>gjemmer</t>
+  </si>
+  <si>
+    <t>gjenter</t>
+  </si>
+  <si>
+    <t>gjå</t>
+  </si>
+  <si>
+    <t>gleder seg</t>
+  </si>
+  <si>
+    <t>glemmer</t>
+  </si>
+  <si>
+    <t>har</t>
+  </si>
+  <si>
+    <t>henter</t>
+  </si>
+  <si>
+    <t>heter</t>
+  </si>
+  <si>
+    <t>hilser</t>
+  </si>
+  <si>
+    <t>hopper</t>
+  </si>
+  <si>
+    <t>høorer</t>
+  </si>
+  <si>
+    <t>hoster</t>
+  </si>
+  <si>
+    <t>husker</t>
+  </si>
+  <si>
+    <t>kaster</t>
+  </si>
+  <si>
+    <t>kjenner</t>
+  </si>
+  <si>
+    <t>koker</t>
+  </si>
+  <si>
+    <t>kommer</t>
+  </si>
+  <si>
+    <t>koster</t>
+  </si>
+  <si>
+    <t>kunner</t>
+  </si>
+  <si>
+    <t>lager</t>
+  </si>
+  <si>
+    <t>legger</t>
+  </si>
+  <si>
+    <t>leker</t>
+  </si>
+  <si>
+    <t>lever</t>
+  </si>
+  <si>
+    <t>ligger</t>
+  </si>
+  <si>
+    <t>liker</t>
+  </si>
+  <si>
+    <t>lytter</t>
+  </si>
+  <si>
+    <t>matte</t>
+  </si>
+  <si>
+    <t>nyter</t>
+  </si>
+  <si>
+    <t>ordner</t>
+  </si>
+  <si>
+    <t>overdriver</t>
+  </si>
+  <si>
+    <t>passer</t>
+  </si>
+  <si>
+    <t>prøver</t>
+  </si>
+  <si>
+    <t>pusser</t>
+  </si>
+  <si>
+    <t>puster</t>
+  </si>
+  <si>
+    <t>rekker</t>
+  </si>
+  <si>
+    <t>ringer</t>
+  </si>
+  <si>
+    <t>roper</t>
+  </si>
+  <si>
+    <t>rydder</t>
+  </si>
+  <si>
+    <t>sapper</t>
+  </si>
+  <si>
+    <t>ser</t>
+  </si>
+  <si>
+    <t>sender</t>
+  </si>
+  <si>
+    <t>setter</t>
+  </si>
+  <si>
+    <t>sir</t>
+  </si>
+  <si>
+    <t>skjærer</t>
+  </si>
+  <si>
+    <t>skjonner</t>
+  </si>
+  <si>
+    <t>skremmer</t>
+  </si>
+  <si>
+    <t>må</t>
+  </si>
+  <si>
+    <t>slår</t>
+  </si>
+  <si>
+    <t>slutter</t>
+  </si>
+  <si>
+    <t>smiler</t>
+  </si>
+  <si>
+    <t>sniker</t>
+  </si>
+  <si>
+    <t>snør</t>
+  </si>
+  <si>
+    <t>sover</t>
+  </si>
+  <si>
+    <t>har spilt</t>
+  </si>
+  <si>
+    <t>spørrer</t>
+  </si>
+  <si>
+    <t>står</t>
+  </si>
+  <si>
+    <t>steker</t>
+  </si>
+  <si>
+    <t>stemmer</t>
+  </si>
+  <si>
+    <t>stjele</t>
+  </si>
+  <si>
+    <t>strykker</t>
+  </si>
+  <si>
+    <t>studerer</t>
+  </si>
+  <si>
+    <t>svarer</t>
+  </si>
+  <si>
+    <t>teller</t>
+  </si>
+  <si>
+    <t>tenker</t>
+  </si>
+  <si>
+    <t>treffer</t>
+  </si>
+  <si>
+    <t>trekker</t>
+  </si>
+  <si>
+    <t>trenger</t>
+  </si>
+  <si>
+    <t>tror</t>
+  </si>
+  <si>
+    <t>trykker</t>
+  </si>
+  <si>
+    <t>tuller</t>
+  </si>
+  <si>
+    <t>våkner</t>
+  </si>
+  <si>
+    <t>vasker</t>
+  </si>
+  <si>
+    <t>skal</t>
+  </si>
+  <si>
+    <t>viser</t>
+  </si>
+  <si>
+    <t>viter</t>
+  </si>
+  <si>
     <t>grillte¨</t>
   </si>
   <si>
@@ -889,9 +2020,6 @@
     <t>betta</t>
   </si>
   <si>
-    <t>blirde</t>
-  </si>
-  <si>
     <t>åpnet</t>
   </si>
   <si>
@@ -904,6 +2032,300 @@
     <t>bakte</t>
   </si>
   <si>
+    <t>begynnet</t>
+  </si>
+  <si>
+    <t>batalte</t>
+  </si>
+  <si>
+    <t>berydde</t>
+  </si>
+  <si>
+    <t>beveget</t>
+  </si>
+  <si>
+    <t>blid</t>
+  </si>
+  <si>
+    <t>bodde</t>
+  </si>
+  <si>
+    <t>brukte</t>
+  </si>
+  <si>
+    <t>bryttet</t>
+  </si>
+  <si>
+    <t>bør</t>
+  </si>
+  <si>
+    <t>dekkte</t>
+  </si>
+  <si>
+    <t>dodde</t>
+  </si>
+  <si>
+    <t>drukt</t>
+  </si>
+  <si>
+    <t>drikkte</t>
+  </si>
+  <si>
+    <t>drøvte</t>
+  </si>
+  <si>
+    <t>dusjte</t>
+  </si>
+  <si>
+    <t>fatt</t>
+  </si>
+  <si>
+    <t>følte</t>
+  </si>
+  <si>
+    <t>foklarte</t>
+  </si>
+  <si>
+    <t>forstør</t>
+  </si>
+  <si>
+    <t>forsvinn</t>
+  </si>
+  <si>
+    <t>fortelte</t>
+  </si>
+  <si>
+    <t>gikk</t>
+  </si>
+  <si>
+    <t>giftet</t>
+  </si>
+  <si>
+    <t>gjemmte</t>
+  </si>
+  <si>
+    <t>gjenate</t>
+  </si>
+  <si>
+    <t>gledte seg</t>
+  </si>
+  <si>
+    <t>glemmte</t>
+  </si>
+  <si>
+    <t>hadde</t>
+  </si>
+  <si>
+    <t>hentet</t>
+  </si>
+  <si>
+    <t>hilste</t>
+  </si>
+  <si>
+    <t>hoppet</t>
+  </si>
+  <si>
+    <t>har hørte</t>
+  </si>
+  <si>
+    <t>hostet</t>
+  </si>
+  <si>
+    <t>husket</t>
+  </si>
+  <si>
+    <t>kaste</t>
+  </si>
+  <si>
+    <t>kjennte</t>
+  </si>
+  <si>
+    <t>kokte</t>
+  </si>
+  <si>
+    <t>komt</t>
+  </si>
+  <si>
+    <t>koste</t>
+  </si>
+  <si>
+    <t>kude</t>
+  </si>
+  <si>
+    <t>lagte</t>
+  </si>
+  <si>
+    <t>lete</t>
+  </si>
+  <si>
+    <t>legte</t>
+  </si>
+  <si>
+    <t>lekte</t>
+  </si>
+  <si>
+    <t>levd</t>
+  </si>
+  <si>
+    <t>liggte</t>
+  </si>
+  <si>
+    <t>likte</t>
+  </si>
+  <si>
+    <t>lyttet</t>
+  </si>
+  <si>
+    <t>minne</t>
+  </si>
+  <si>
+    <t>nytte</t>
+  </si>
+  <si>
+    <t>ordnet</t>
+  </si>
+  <si>
+    <t>overdrivte@</t>
+  </si>
+  <si>
+    <t>passte</t>
+  </si>
+  <si>
+    <t>provde</t>
+  </si>
+  <si>
+    <t>puste</t>
+  </si>
+  <si>
+    <t>pustet</t>
+  </si>
+  <si>
+    <t>rekket</t>
+  </si>
+  <si>
+    <t>ride3</t>
+  </si>
+  <si>
+    <t>ringte</t>
+  </si>
+  <si>
+    <t>ropte</t>
+  </si>
+  <si>
+    <t>ryddte</t>
+  </si>
+  <si>
+    <t>slappte</t>
+  </si>
+  <si>
+    <t>sor</t>
+  </si>
+  <si>
+    <t>sølgte</t>
+  </si>
+  <si>
+    <t>sente</t>
+  </si>
+  <si>
+    <t>sett</t>
+  </si>
+  <si>
+    <t>skjærte</t>
+  </si>
+  <si>
+    <t>skjønnte</t>
+  </si>
+  <si>
+    <t>skremmte</t>
+  </si>
+  <si>
+    <t>skrevte</t>
+  </si>
+  <si>
+    <t>slårr</t>
+  </si>
+  <si>
+    <t>slipte</t>
+  </si>
+  <si>
+    <t>slut</t>
+  </si>
+  <si>
+    <t>smilte</t>
+  </si>
+  <si>
+    <t>snikte</t>
+  </si>
+  <si>
+    <t>sovte</t>
+  </si>
+  <si>
+    <t>studd</t>
+  </si>
+  <si>
+    <t>stekte</t>
+  </si>
+  <si>
+    <t>stemmte</t>
+  </si>
+  <si>
+    <t>stjeler</t>
+  </si>
+  <si>
+    <t>strukte</t>
+  </si>
+  <si>
+    <t>studerte</t>
+  </si>
+  <si>
+    <t>svarte</t>
+  </si>
+  <si>
+    <t>tok</t>
+  </si>
+  <si>
+    <t>tellte</t>
+  </si>
+  <si>
+    <t>tenkte</t>
+  </si>
+  <si>
+    <t>trekte</t>
+  </si>
+  <si>
+    <t>trengte</t>
+  </si>
+  <si>
+    <t>trodde</t>
+  </si>
+  <si>
+    <t>trykte</t>
+  </si>
+  <si>
+    <t>tullte</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>våknte</t>
+  </si>
+  <si>
+    <t>vasket</t>
+  </si>
+  <si>
+    <t>vente</t>
+  </si>
+  <si>
+    <t>vil</t>
+  </si>
+  <si>
+    <t>viste</t>
+  </si>
+  <si>
+    <t>har vet</t>
+  </si>
+  <si>
     <t>grillte</t>
   </si>
   <si>
@@ -1030,12 +2452,6 @@
     <t>nyte</t>
   </si>
   <si>
-    <t>gikk</t>
-  </si>
-  <si>
-    <t>skrevte</t>
-  </si>
-  <si>
     <t>har berte</t>
   </si>
   <si>
@@ -1133,13 +2549,322 @@
   </si>
   <si>
     <t>har ber</t>
+  </si>
+  <si>
+    <t>har begynte</t>
+  </si>
+  <si>
+    <t>har betalte</t>
+  </si>
+  <si>
+    <t>har betod</t>
+  </si>
+  <si>
+    <t>har bevegte</t>
+  </si>
+  <si>
+    <t>har blidd</t>
+  </si>
+  <si>
+    <t>har bodt</t>
+  </si>
+  <si>
+    <t>har brukte</t>
+  </si>
+  <si>
+    <t>har bratt</t>
+  </si>
+  <si>
+    <t>har burdet</t>
+  </si>
+  <si>
+    <t>har dekket</t>
+  </si>
+  <si>
+    <t>har død</t>
+  </si>
+  <si>
+    <t>har drukt</t>
+  </si>
+  <si>
+    <t>har drukk</t>
+  </si>
+  <si>
+    <t>har drøvte</t>
+  </si>
+  <si>
+    <t>har dusjet</t>
+  </si>
+  <si>
+    <t>har fatt</t>
+  </si>
+  <si>
+    <t>har funt</t>
+  </si>
+  <si>
+    <t>har følte seg</t>
+  </si>
+  <si>
+    <t>har fortrakk</t>
+  </si>
+  <si>
+    <t>har forklart</t>
+  </si>
+  <si>
+    <t>har forstudd</t>
+  </si>
+  <si>
+    <t>har forsvant</t>
+  </si>
+  <si>
+    <t>har forte</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>har gjort</t>
+  </si>
+  <si>
+    <t>gått</t>
+  </si>
+  <si>
+    <t>har giftet</t>
+  </si>
+  <si>
+    <t>har gjemmte</t>
+  </si>
+  <si>
+    <t>har gjentakk</t>
+  </si>
+  <si>
+    <t>har gjordet</t>
+  </si>
+  <si>
+    <t>har gledet seg</t>
+  </si>
+  <si>
+    <t>har glemmte</t>
+  </si>
+  <si>
+    <t>har hatt</t>
+  </si>
+  <si>
+    <t>har hentet</t>
+  </si>
+  <si>
+    <t>har hett</t>
+  </si>
+  <si>
+    <t>har hilste</t>
+  </si>
+  <si>
+    <t>har hjelp</t>
+  </si>
+  <si>
+    <t>har hoppt</t>
+  </si>
+  <si>
+    <t>har hostt</t>
+  </si>
+  <si>
+    <t>har husket</t>
+  </si>
+  <si>
+    <t>har kastet</t>
+  </si>
+  <si>
+    <t>har kjent</t>
+  </si>
+  <si>
+    <t>har kjæopy</t>
+  </si>
+  <si>
+    <t>har kokte</t>
+  </si>
+  <si>
+    <t>har kom</t>
+  </si>
+  <si>
+    <t>har kostet</t>
+  </si>
+  <si>
+    <t>har kanne</t>
+  </si>
+  <si>
+    <t>har laget</t>
+  </si>
+  <si>
+    <t>har lekt</t>
+  </si>
+  <si>
+    <t>har levd</t>
+  </si>
+  <si>
+    <t>har likt</t>
+  </si>
+  <si>
+    <t>har lytt</t>
+  </si>
+  <si>
+    <t>mas</t>
+  </si>
+  <si>
+    <t>har not</t>
+  </si>
+  <si>
+    <t>har ordnet</t>
+  </si>
+  <si>
+    <t>har overdrevt</t>
+  </si>
+  <si>
+    <t>har passet</t>
+  </si>
+  <si>
+    <t>har prøv</t>
+  </si>
+  <si>
+    <t>har pusst</t>
+  </si>
+  <si>
+    <t>har pustet</t>
+  </si>
+  <si>
+    <t>har rakte</t>
+  </si>
+  <si>
+    <t>har rød</t>
+  </si>
+  <si>
+    <t>har ringt</t>
+  </si>
+  <si>
+    <t>har ropt</t>
+  </si>
+  <si>
+    <t>har rydd</t>
+  </si>
+  <si>
+    <t>har slappet</t>
+  </si>
+  <si>
+    <t>har sølgt</t>
+  </si>
+  <si>
+    <t>har sent</t>
+  </si>
+  <si>
+    <t>har sa</t>
+  </si>
+  <si>
+    <t>har skjærte</t>
+  </si>
+  <si>
+    <t>har skjøbt</t>
+  </si>
+  <si>
+    <t>har skremt</t>
+  </si>
+  <si>
+    <t>har skrevte</t>
+  </si>
+  <si>
+    <t>,å</t>
+  </si>
+  <si>
+    <t>har slott</t>
+  </si>
+  <si>
+    <t>har slut</t>
+  </si>
+  <si>
+    <t>har s milt</t>
+  </si>
+  <si>
+    <t>har snet</t>
+  </si>
+  <si>
+    <t>har sudde</t>
+  </si>
+  <si>
+    <t>har sov</t>
+  </si>
+  <si>
+    <t>har spist</t>
+  </si>
+  <si>
+    <t>har stud</t>
+  </si>
+  <si>
+    <t>har stekt</t>
+  </si>
+  <si>
+    <t>gar stemt</t>
+  </si>
+  <si>
+    <t>har stjal</t>
+  </si>
+  <si>
+    <t>har studert</t>
+  </si>
+  <si>
+    <t>har svart</t>
+  </si>
+  <si>
+    <t>har tok</t>
+  </si>
+  <si>
+    <t>har telt</t>
+  </si>
+  <si>
+    <t>har tenkt</t>
+  </si>
+  <si>
+    <t>har traff</t>
+  </si>
+  <si>
+    <t>har trak</t>
+  </si>
+  <si>
+    <t>har trengt</t>
+  </si>
+  <si>
+    <t>har trod</t>
+  </si>
+  <si>
+    <t>trikker</t>
+  </si>
+  <si>
+    <t>har tullet</t>
+  </si>
+  <si>
+    <t>har hat</t>
+  </si>
+  <si>
+    <t>har våkt</t>
+  </si>
+  <si>
+    <t>har vaskt</t>
+  </si>
+  <si>
+    <t>har vent</t>
+  </si>
+  <si>
+    <t>har vil</t>
+  </si>
+  <si>
+    <t>vister</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ am/pm"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1191,17 +2916,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1248,7 +2982,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1280,9 +3014,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1314,6 +3066,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1489,14 +3259,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F204" sqref="F204"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1519,2046 +3301,4642 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>289</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>438</v>
       </c>
       <c r="E2" t="s">
-        <v>222</v>
+        <v>596</v>
       </c>
       <c r="F2" t="s">
-        <v>296</v>
+        <v>767</v>
       </c>
       <c r="G2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>290</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>439</v>
       </c>
       <c r="E3" t="s">
-        <v>223</v>
+        <v>597</v>
       </c>
       <c r="F3" t="s">
-        <v>297</v>
+        <v>768</v>
       </c>
       <c r="G3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>291</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>440</v>
       </c>
       <c r="E4" t="s">
-        <v>224</v>
+        <v>598</v>
       </c>
       <c r="F4" t="s">
-        <v>298</v>
+        <v>769</v>
       </c>
       <c r="G4">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>292</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>441</v>
       </c>
       <c r="E5" t="s">
-        <v>225</v>
+        <v>599</v>
       </c>
       <c r="F5" t="s">
-        <v>299</v>
+        <v>770</v>
       </c>
       <c r="G5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>293</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>442</v>
       </c>
       <c r="E6" t="s">
-        <v>226</v>
+        <v>600</v>
       </c>
       <c r="F6" t="s">
-        <v>300</v>
+        <v>771</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>294</v>
       </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>443</v>
       </c>
       <c r="E7" t="s">
-        <v>227</v>
+        <v>601</v>
       </c>
       <c r="F7" t="s">
-        <v>301</v>
+        <v>772</v>
       </c>
       <c r="G7">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>295</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>444</v>
       </c>
       <c r="E8" t="s">
-        <v>228</v>
+        <v>602</v>
       </c>
       <c r="F8" t="s">
-        <v>302</v>
+        <v>773</v>
       </c>
       <c r="G8">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>296</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>445</v>
       </c>
       <c r="E9" t="s">
-        <v>229</v>
+        <v>603</v>
       </c>
       <c r="F9" t="s">
-        <v>303</v>
+        <v>774</v>
       </c>
       <c r="G9">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>297</v>
       </c>
       <c r="D10" t="s">
-        <v>166</v>
+        <v>446</v>
       </c>
       <c r="E10" t="s">
-        <v>230</v>
+        <v>604</v>
       </c>
       <c r="F10" t="s">
-        <v>304</v>
+        <v>775</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>298</v>
       </c>
       <c r="D11" t="s">
-        <v>167</v>
+        <v>447</v>
       </c>
       <c r="E11" t="s">
-        <v>231</v>
+        <v>605</v>
       </c>
       <c r="F11" t="s">
-        <v>305</v>
+        <v>776</v>
       </c>
       <c r="G11">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>299</v>
       </c>
       <c r="D12" t="s">
-        <v>168</v>
+        <v>448</v>
       </c>
       <c r="E12" t="s">
-        <v>232</v>
+        <v>606</v>
       </c>
       <c r="F12" t="s">
-        <v>306</v>
+        <v>777</v>
       </c>
       <c r="G12">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="D13" t="s">
-        <v>169</v>
+        <v>449</v>
       </c>
       <c r="E13" t="s">
-        <v>233</v>
+        <v>607</v>
       </c>
       <c r="F13" t="s">
-        <v>307</v>
+        <v>778</v>
       </c>
       <c r="G13">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>301</v>
       </c>
       <c r="D14" t="s">
-        <v>170</v>
+        <v>450</v>
       </c>
       <c r="E14" t="s">
-        <v>234</v>
+        <v>608</v>
       </c>
       <c r="F14" t="s">
-        <v>308</v>
+        <v>779</v>
       </c>
       <c r="G14">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>302</v>
       </c>
       <c r="D15" t="s">
-        <v>171</v>
+        <v>451</v>
       </c>
       <c r="E15" t="s">
-        <v>235</v>
+        <v>609</v>
       </c>
       <c r="F15" t="s">
-        <v>309</v>
+        <v>780</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>303</v>
       </c>
       <c r="D16" t="s">
-        <v>172</v>
+        <v>452</v>
       </c>
       <c r="E16" t="s">
-        <v>236</v>
+        <v>610</v>
       </c>
       <c r="F16" t="s">
-        <v>310</v>
+        <v>781</v>
       </c>
       <c r="G16">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>304</v>
       </c>
       <c r="D17" t="s">
-        <v>173</v>
+        <v>453</v>
       </c>
       <c r="E17" t="s">
-        <v>237</v>
+        <v>611</v>
       </c>
       <c r="F17" t="s">
-        <v>311</v>
+        <v>782</v>
       </c>
       <c r="G17">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>305</v>
       </c>
       <c r="D18" t="s">
-        <v>174</v>
+        <v>454</v>
       </c>
       <c r="E18" t="s">
-        <v>238</v>
+        <v>612</v>
       </c>
       <c r="F18" t="s">
-        <v>312</v>
+        <v>783</v>
       </c>
       <c r="G18">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>306</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>455</v>
       </c>
       <c r="E19" t="s">
-        <v>239</v>
+        <v>613</v>
       </c>
       <c r="F19" t="s">
-        <v>239</v>
+        <v>613</v>
       </c>
       <c r="G19">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>307</v>
       </c>
       <c r="D20" t="s">
-        <v>176</v>
+        <v>456</v>
       </c>
       <c r="E20" t="s">
-        <v>240</v>
+        <v>614</v>
       </c>
       <c r="F20" t="s">
-        <v>313</v>
+        <v>784</v>
       </c>
       <c r="G20">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>308</v>
       </c>
       <c r="D21" t="s">
-        <v>175</v>
+        <v>455</v>
       </c>
       <c r="E21" t="s">
-        <v>241</v>
+        <v>615</v>
       </c>
       <c r="F21" t="s">
-        <v>314</v>
+        <v>785</v>
       </c>
       <c r="G21">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>309</v>
       </c>
       <c r="D22" t="s">
-        <v>177</v>
+        <v>457</v>
       </c>
       <c r="E22" t="s">
-        <v>242</v>
+        <v>616</v>
       </c>
       <c r="F22" t="s">
-        <v>315</v>
+        <v>786</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>310</v>
       </c>
       <c r="D23" t="s">
-        <v>178</v>
+        <v>458</v>
       </c>
       <c r="E23" t="s">
-        <v>243</v>
+        <v>617</v>
       </c>
       <c r="F23" t="s">
-        <v>316</v>
+        <v>787</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>311</v>
       </c>
       <c r="D24" t="s">
-        <v>179</v>
+        <v>459</v>
       </c>
       <c r="E24" t="s">
-        <v>244</v>
+        <v>618</v>
       </c>
       <c r="F24" t="s">
-        <v>317</v>
+        <v>788</v>
       </c>
       <c r="G24">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>312</v>
       </c>
       <c r="D25" t="s">
-        <v>180</v>
+        <v>460</v>
       </c>
       <c r="E25" t="s">
-        <v>245</v>
+        <v>619</v>
       </c>
       <c r="F25" t="s">
-        <v>318</v>
+        <v>789</v>
       </c>
       <c r="G25">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>313</v>
       </c>
       <c r="D26" t="s">
-        <v>167</v>
+        <v>447</v>
       </c>
       <c r="E26" t="s">
-        <v>246</v>
+        <v>620</v>
       </c>
       <c r="F26" t="s">
-        <v>319</v>
+        <v>790</v>
       </c>
       <c r="G26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>314</v>
       </c>
       <c r="D27" t="s">
-        <v>181</v>
+        <v>461</v>
       </c>
       <c r="E27" t="s">
-        <v>247</v>
+        <v>621</v>
       </c>
       <c r="F27" t="s">
-        <v>320</v>
+        <v>791</v>
       </c>
       <c r="G27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>169</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>315</v>
       </c>
       <c r="D28" t="s">
-        <v>182</v>
+        <v>462</v>
       </c>
       <c r="E28" t="s">
-        <v>248</v>
+        <v>622</v>
       </c>
       <c r="F28" t="s">
-        <v>321</v>
+        <v>792</v>
       </c>
       <c r="G28">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>306</v>
       </c>
       <c r="D29" t="s">
-        <v>183</v>
+        <v>463</v>
       </c>
       <c r="E29" t="s">
-        <v>249</v>
+        <v>623</v>
       </c>
       <c r="F29" t="s">
-        <v>322</v>
+        <v>793</v>
       </c>
       <c r="G29">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>316</v>
       </c>
       <c r="D30" t="s">
-        <v>184</v>
+        <v>464</v>
       </c>
       <c r="E30" t="s">
-        <v>250</v>
+        <v>624</v>
       </c>
       <c r="F30" t="s">
-        <v>323</v>
+        <v>794</v>
       </c>
       <c r="G30">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>317</v>
       </c>
       <c r="D31" t="s">
-        <v>185</v>
+        <v>465</v>
       </c>
       <c r="E31" t="s">
-        <v>251</v>
+        <v>625</v>
       </c>
       <c r="F31" t="s">
-        <v>324</v>
+        <v>795</v>
       </c>
       <c r="G31">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>172</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>314</v>
       </c>
       <c r="D32" t="s">
-        <v>186</v>
+        <v>466</v>
       </c>
       <c r="E32" t="s">
-        <v>252</v>
+        <v>626</v>
       </c>
       <c r="F32" t="s">
-        <v>325</v>
+        <v>796</v>
       </c>
       <c r="G32">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>318</v>
       </c>
       <c r="D33" t="s">
-        <v>187</v>
+        <v>467</v>
       </c>
       <c r="E33" t="s">
-        <v>253</v>
+        <v>627</v>
       </c>
       <c r="F33" t="s">
-        <v>326</v>
+        <v>797</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>319</v>
       </c>
       <c r="D34" t="s">
-        <v>188</v>
+        <v>468</v>
       </c>
       <c r="E34" t="s">
-        <v>254</v>
+        <v>628</v>
       </c>
       <c r="F34" t="s">
-        <v>327</v>
+        <v>798</v>
       </c>
       <c r="G34">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>320</v>
       </c>
       <c r="D35" t="s">
-        <v>189</v>
+        <v>469</v>
       </c>
       <c r="E35" t="s">
-        <v>255</v>
+        <v>629</v>
       </c>
       <c r="F35" t="s">
-        <v>255</v>
+        <v>629</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>321</v>
       </c>
       <c r="D36" t="s">
-        <v>190</v>
+        <v>470</v>
       </c>
       <c r="E36" t="s">
-        <v>256</v>
+        <v>630</v>
       </c>
       <c r="F36" t="s">
-        <v>328</v>
+        <v>799</v>
       </c>
       <c r="G36">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>176</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>322</v>
       </c>
       <c r="D37" t="s">
-        <v>191</v>
+        <v>471</v>
       </c>
       <c r="E37" t="s">
-        <v>257</v>
+        <v>631</v>
       </c>
       <c r="F37" t="s">
-        <v>329</v>
+        <v>800</v>
       </c>
       <c r="G37">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>177</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>323</v>
       </c>
       <c r="D38" t="s">
-        <v>192</v>
+        <v>472</v>
       </c>
       <c r="E38" t="s">
-        <v>258</v>
+        <v>632</v>
       </c>
       <c r="F38" t="s">
-        <v>330</v>
+        <v>801</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>178</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>324</v>
       </c>
       <c r="D39" t="s">
-        <v>193</v>
+        <v>473</v>
       </c>
       <c r="E39" t="s">
-        <v>259</v>
+        <v>633</v>
       </c>
       <c r="F39" t="s">
-        <v>331</v>
+        <v>802</v>
       </c>
       <c r="G39">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="C40" t="s">
-        <v>126</v>
+        <v>325</v>
       </c>
       <c r="D40" t="s">
-        <v>194</v>
+        <v>474</v>
       </c>
       <c r="E40" t="s">
-        <v>260</v>
+        <v>634</v>
       </c>
       <c r="F40" t="s">
-        <v>332</v>
+        <v>803</v>
       </c>
       <c r="G40">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="C41" t="s">
-        <v>127</v>
+        <v>326</v>
       </c>
       <c r="D41" t="s">
-        <v>195</v>
+        <v>475</v>
       </c>
       <c r="E41" t="s">
-        <v>261</v>
+        <v>635</v>
       </c>
       <c r="F41" t="s">
-        <v>264</v>
+        <v>638</v>
       </c>
       <c r="G41">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>327</v>
       </c>
       <c r="D42" t="s">
-        <v>196</v>
+        <v>476</v>
       </c>
       <c r="E42" t="s">
-        <v>262</v>
+        <v>636</v>
       </c>
       <c r="F42" t="s">
-        <v>333</v>
+        <v>804</v>
       </c>
       <c r="G42">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>182</v>
       </c>
       <c r="C43" t="s">
-        <v>129</v>
+        <v>328</v>
       </c>
       <c r="D43" t="s">
-        <v>197</v>
+        <v>477</v>
       </c>
       <c r="E43" t="s">
-        <v>263</v>
+        <v>637</v>
       </c>
       <c r="F43" t="s">
-        <v>334</v>
+        <v>805</v>
       </c>
       <c r="G43">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>324</v>
       </c>
       <c r="D44" t="s">
-        <v>193</v>
+        <v>473</v>
       </c>
       <c r="E44" t="s">
-        <v>213</v>
+        <v>493</v>
       </c>
       <c r="F44" t="s">
-        <v>335</v>
+        <v>806</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>326</v>
       </c>
       <c r="D45" t="s">
-        <v>195</v>
+        <v>475</v>
       </c>
       <c r="E45" t="s">
-        <v>264</v>
+        <v>638</v>
       </c>
       <c r="F45" t="s">
-        <v>336</v>
+        <v>807</v>
       </c>
       <c r="G45">
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>184</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>329</v>
       </c>
       <c r="D46" t="s">
-        <v>198</v>
+        <v>478</v>
       </c>
       <c r="E46" t="s">
-        <v>265</v>
+        <v>639</v>
       </c>
       <c r="F46" t="s">
-        <v>337</v>
+        <v>808</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c r="C47" t="s">
-        <v>131</v>
+        <v>330</v>
       </c>
       <c r="D47" t="s">
-        <v>199</v>
+        <v>479</v>
       </c>
       <c r="E47" t="s">
-        <v>266</v>
+        <v>640</v>
       </c>
       <c r="F47" t="s">
-        <v>338</v>
+        <v>690</v>
       </c>
       <c r="G47">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>306</v>
       </c>
       <c r="D48" t="s">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="E48" t="s">
-        <v>267</v>
+        <v>641</v>
       </c>
       <c r="F48" t="s">
-        <v>339</v>
+        <v>738</v>
       </c>
       <c r="G48">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="C49" t="s">
-        <v>132</v>
+        <v>331</v>
       </c>
       <c r="D49" t="s">
-        <v>201</v>
+        <v>481</v>
       </c>
       <c r="E49" t="s">
-        <v>268</v>
+        <v>642</v>
       </c>
       <c r="F49" t="s">
-        <v>340</v>
+        <v>809</v>
       </c>
       <c r="G49">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="C50" t="s">
-        <v>133</v>
+        <v>332</v>
       </c>
       <c r="D50" t="s">
-        <v>194</v>
+        <v>474</v>
       </c>
       <c r="E50" t="s">
-        <v>260</v>
+        <v>634</v>
       </c>
       <c r="F50" t="s">
-        <v>341</v>
+        <v>810</v>
       </c>
       <c r="G50">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="C51" t="s">
-        <v>134</v>
+        <v>333</v>
       </c>
       <c r="D51" t="s">
-        <v>202</v>
+        <v>482</v>
       </c>
       <c r="E51" t="s">
-        <v>269</v>
+        <v>643</v>
       </c>
       <c r="F51" t="s">
-        <v>342</v>
+        <v>811</v>
       </c>
       <c r="G51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="C52" t="s">
-        <v>135</v>
+        <v>334</v>
       </c>
       <c r="D52" t="s">
-        <v>203</v>
+        <v>483</v>
       </c>
       <c r="E52" t="s">
-        <v>270</v>
+        <v>644</v>
       </c>
       <c r="F52" t="s">
-        <v>343</v>
+        <v>812</v>
       </c>
       <c r="G52">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
+        <v>335</v>
       </c>
       <c r="D53" t="s">
-        <v>204</v>
+        <v>484</v>
       </c>
       <c r="E53" t="s">
-        <v>271</v>
+        <v>645</v>
       </c>
       <c r="F53" t="s">
-        <v>344</v>
+        <v>813</v>
       </c>
       <c r="G53">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>336</v>
       </c>
       <c r="D54" t="s">
-        <v>205</v>
+        <v>485</v>
       </c>
       <c r="E54" t="s">
-        <v>272</v>
+        <v>646</v>
       </c>
       <c r="F54" t="s">
-        <v>345</v>
+        <v>814</v>
       </c>
       <c r="G54">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>332</v>
       </c>
       <c r="D55" t="s">
-        <v>194</v>
+        <v>474</v>
       </c>
       <c r="E55" t="s">
-        <v>273</v>
+        <v>647</v>
       </c>
       <c r="F55" t="s">
-        <v>346</v>
+        <v>815</v>
       </c>
       <c r="G55">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="C56" t="s">
-        <v>138</v>
+        <v>337</v>
       </c>
       <c r="D56" t="s">
-        <v>206</v>
+        <v>486</v>
       </c>
       <c r="E56" t="s">
-        <v>206</v>
+        <v>486</v>
       </c>
       <c r="F56" t="s">
-        <v>347</v>
+        <v>816</v>
       </c>
       <c r="G56">
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="C57" t="s">
-        <v>131</v>
+        <v>330</v>
       </c>
       <c r="D57" t="s">
-        <v>207</v>
+        <v>487</v>
       </c>
       <c r="E57" t="s">
-        <v>274</v>
+        <v>648</v>
       </c>
       <c r="F57" t="s">
-        <v>348</v>
+        <v>817</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="C58" t="s">
-        <v>132</v>
+        <v>331</v>
       </c>
       <c r="D58" t="s">
-        <v>201</v>
+        <v>481</v>
       </c>
       <c r="E58" t="s">
-        <v>275</v>
+        <v>649</v>
       </c>
       <c r="F58" t="s">
-        <v>340</v>
+        <v>809</v>
       </c>
       <c r="G58">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="C59" t="s">
-        <v>139</v>
+        <v>338</v>
       </c>
       <c r="D59" t="s">
-        <v>208</v>
+        <v>488</v>
       </c>
       <c r="E59" t="s">
-        <v>208</v>
+        <v>488</v>
       </c>
       <c r="F59" t="s">
-        <v>208</v>
+        <v>488</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="C60" t="s">
-        <v>140</v>
+        <v>339</v>
       </c>
       <c r="D60" t="s">
-        <v>209</v>
+        <v>489</v>
       </c>
       <c r="E60" t="s">
-        <v>276</v>
+        <v>650</v>
       </c>
       <c r="F60" t="s">
-        <v>349</v>
+        <v>818</v>
       </c>
       <c r="G60">
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="C61" t="s">
-        <v>138</v>
+        <v>337</v>
       </c>
       <c r="D61" t="s">
-        <v>196</v>
+        <v>476</v>
       </c>
       <c r="E61" t="s">
-        <v>277</v>
+        <v>651</v>
       </c>
       <c r="F61" t="s">
-        <v>350</v>
+        <v>819</v>
       </c>
       <c r="G61">
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="C62" t="s">
-        <v>141</v>
+        <v>340</v>
       </c>
       <c r="D62" t="s">
-        <v>210</v>
+        <v>490</v>
       </c>
       <c r="E62" t="s">
-        <v>278</v>
+        <v>652</v>
       </c>
       <c r="F62" t="s">
-        <v>351</v>
+        <v>820</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="C63" t="s">
-        <v>142</v>
+        <v>341</v>
       </c>
       <c r="D63" t="s">
-        <v>211</v>
+        <v>491</v>
       </c>
       <c r="E63" t="s">
-        <v>279</v>
+        <v>653</v>
       </c>
       <c r="F63" t="s">
-        <v>352</v>
+        <v>821</v>
       </c>
       <c r="G63">
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="C64" t="s">
-        <v>132</v>
+        <v>331</v>
       </c>
       <c r="D64" t="s">
-        <v>212</v>
+        <v>492</v>
       </c>
       <c r="E64" t="s">
-        <v>280</v>
+        <v>654</v>
       </c>
       <c r="F64" t="s">
-        <v>353</v>
+        <v>822</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="C65" t="s">
-        <v>125</v>
+        <v>324</v>
       </c>
       <c r="D65" t="s">
-        <v>213</v>
+        <v>493</v>
       </c>
       <c r="E65" t="s">
-        <v>281</v>
+        <v>655</v>
       </c>
       <c r="F65" t="s">
-        <v>354</v>
+        <v>823</v>
       </c>
       <c r="G65">
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="C66" t="s">
-        <v>143</v>
+        <v>342</v>
       </c>
       <c r="D66" t="s">
-        <v>214</v>
+        <v>494</v>
       </c>
       <c r="E66" t="s">
-        <v>282</v>
+        <v>656</v>
       </c>
       <c r="F66" t="s">
-        <v>355</v>
+        <v>824</v>
       </c>
       <c r="G66">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="C67" t="s">
-        <v>134</v>
+        <v>333</v>
       </c>
       <c r="D67" t="s">
-        <v>202</v>
+        <v>482</v>
       </c>
       <c r="E67" t="s">
-        <v>283</v>
+        <v>657</v>
       </c>
       <c r="F67" t="s">
-        <v>356</v>
+        <v>825</v>
       </c>
       <c r="G67">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="C68" t="s">
-        <v>133</v>
+        <v>332</v>
       </c>
       <c r="D68" t="s">
-        <v>194</v>
+        <v>474</v>
       </c>
       <c r="E68" t="s">
-        <v>260</v>
+        <v>634</v>
       </c>
       <c r="F68" t="s">
-        <v>357</v>
+        <v>826</v>
       </c>
       <c r="G68">
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
       <c r="C69" t="s">
-        <v>144</v>
+        <v>343</v>
       </c>
       <c r="D69" t="s">
-        <v>215</v>
+        <v>495</v>
       </c>
       <c r="E69" t="s">
-        <v>284</v>
+        <v>658</v>
       </c>
       <c r="F69" t="s">
-        <v>358</v>
+        <v>827</v>
       </c>
       <c r="G69">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>85</v>
+        <v>198</v>
       </c>
       <c r="C70" t="s">
-        <v>145</v>
+        <v>344</v>
       </c>
       <c r="D70" t="s">
-        <v>166</v>
+        <v>446</v>
       </c>
       <c r="E70" t="s">
-        <v>285</v>
+        <v>659</v>
       </c>
       <c r="F70" t="s">
-        <v>359</v>
+        <v>828</v>
       </c>
       <c r="G70">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="C71" t="s">
-        <v>146</v>
+        <v>345</v>
       </c>
       <c r="D71" t="s">
-        <v>216</v>
+        <v>496</v>
       </c>
       <c r="E71" t="s">
-        <v>286</v>
+        <v>660</v>
       </c>
       <c r="F71" t="s">
-        <v>360</v>
+        <v>829</v>
       </c>
       <c r="G71">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="C72" t="s">
-        <v>147</v>
+        <v>346</v>
       </c>
       <c r="D72" t="s">
-        <v>196</v>
+        <v>476</v>
       </c>
       <c r="E72" t="s">
-        <v>277</v>
+        <v>651</v>
       </c>
       <c r="F72" t="s">
-        <v>350</v>
+        <v>819</v>
       </c>
       <c r="G72">
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="C73" t="s">
-        <v>141</v>
+        <v>340</v>
       </c>
       <c r="D73" t="s">
-        <v>217</v>
+        <v>497</v>
       </c>
       <c r="E73" t="s">
-        <v>278</v>
+        <v>652</v>
       </c>
       <c r="F73" t="s">
-        <v>361</v>
+        <v>830</v>
       </c>
       <c r="G73">
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="C74" t="s">
-        <v>148</v>
+        <v>347</v>
       </c>
       <c r="D74" t="s">
-        <v>196</v>
+        <v>476</v>
       </c>
       <c r="E74" t="s">
-        <v>277</v>
+        <v>651</v>
       </c>
       <c r="F74" t="s">
-        <v>350</v>
+        <v>819</v>
       </c>
       <c r="G74">
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="C75" t="s">
-        <v>148</v>
+        <v>347</v>
       </c>
       <c r="D75" t="s">
-        <v>196</v>
+        <v>476</v>
       </c>
       <c r="E75" t="s">
-        <v>287</v>
+        <v>661</v>
       </c>
       <c r="F75" t="s">
-        <v>333</v>
+        <v>804</v>
       </c>
       <c r="G75">
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="C76" t="s">
-        <v>149</v>
+        <v>348</v>
       </c>
       <c r="D76" t="s">
-        <v>217</v>
+        <v>497</v>
       </c>
       <c r="E76" t="s">
-        <v>278</v>
+        <v>652</v>
       </c>
       <c r="F76" t="s">
-        <v>362</v>
+        <v>831</v>
       </c>
       <c r="G76">
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>18</v>
       </c>
       <c r="B77" t="s">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="C77" t="s">
-        <v>150</v>
+        <v>349</v>
       </c>
       <c r="D77" t="s">
-        <v>211</v>
+        <v>491</v>
       </c>
       <c r="E77" t="s">
-        <v>288</v>
+        <v>662</v>
       </c>
       <c r="F77" t="s">
-        <v>363</v>
+        <v>832</v>
       </c>
       <c r="G77">
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>19</v>
       </c>
       <c r="B78" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="C78" t="s">
-        <v>151</v>
+        <v>350</v>
       </c>
       <c r="D78" t="s">
-        <v>196</v>
+        <v>476</v>
       </c>
       <c r="E78" t="s">
-        <v>287</v>
+        <v>661</v>
       </c>
       <c r="F78" t="s">
-        <v>333</v>
+        <v>804</v>
       </c>
       <c r="G78">
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="C79" t="s">
-        <v>152</v>
+        <v>351</v>
       </c>
       <c r="D79" t="s">
-        <v>217</v>
+        <v>497</v>
       </c>
       <c r="E79" t="s">
-        <v>289</v>
+        <v>663</v>
       </c>
       <c r="F79" t="s">
-        <v>364</v>
+        <v>833</v>
       </c>
       <c r="G79">
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>21</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="C80" t="s">
-        <v>153</v>
+        <v>352</v>
       </c>
       <c r="D80" t="s">
-        <v>211</v>
+        <v>491</v>
       </c>
       <c r="E80" t="s">
-        <v>213</v>
+        <v>493</v>
       </c>
       <c r="F80" t="s">
-        <v>353</v>
+        <v>822</v>
       </c>
       <c r="G80">
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>22</v>
       </c>
       <c r="B81" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="C81" t="s">
-        <v>154</v>
+        <v>353</v>
       </c>
       <c r="D81" t="s">
-        <v>201</v>
+        <v>481</v>
       </c>
       <c r="E81" t="s">
-        <v>290</v>
+        <v>664</v>
       </c>
       <c r="F81" t="s">
-        <v>365</v>
+        <v>834</v>
       </c>
       <c r="G81">
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>23</v>
       </c>
       <c r="B82" t="s">
-        <v>70</v>
+        <v>196</v>
+      </c>
+      <c r="C82" t="s">
+        <v>342</v>
       </c>
       <c r="D82" t="s">
-        <v>213</v>
+        <v>494</v>
       </c>
       <c r="E82" t="s">
-        <v>291</v>
+        <v>656</v>
       </c>
       <c r="F82" t="s">
-        <v>354</v>
+        <v>835</v>
       </c>
       <c r="G82">
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>24</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="C83" t="s">
-        <v>143</v>
+        <v>354</v>
       </c>
       <c r="D83" t="s">
-        <v>214</v>
+        <v>476</v>
       </c>
       <c r="E83" t="s">
-        <v>282</v>
+        <v>651</v>
       </c>
       <c r="F83" t="s">
-        <v>366</v>
+        <v>819</v>
       </c>
       <c r="G83">
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>25</v>
       </c>
       <c r="B84" t="s">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="C84" t="s">
-        <v>155</v>
+        <v>350</v>
       </c>
       <c r="D84" t="s">
-        <v>196</v>
+        <v>498</v>
       </c>
       <c r="E84" t="s">
-        <v>277</v>
+        <v>665</v>
       </c>
       <c r="F84" t="s">
-        <v>350</v>
+        <v>836</v>
       </c>
       <c r="G84">
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>26</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>201</v>
       </c>
       <c r="C85" t="s">
-        <v>151</v>
+        <v>327</v>
       </c>
       <c r="D85" t="s">
-        <v>218</v>
+        <v>499</v>
       </c>
       <c r="E85" t="s">
-        <v>292</v>
+        <v>666</v>
       </c>
       <c r="F85" t="s">
-        <v>367</v>
+        <v>837</v>
       </c>
       <c r="G85">
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>27</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="C86" t="s">
-        <v>128</v>
+        <v>355</v>
       </c>
       <c r="D86" t="s">
-        <v>219</v>
+        <v>500</v>
       </c>
       <c r="E86" t="s">
-        <v>293</v>
+        <v>667</v>
       </c>
       <c r="F86" t="s">
-        <v>368</v>
+        <v>838</v>
       </c>
       <c r="G86">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>28</v>
       </c>
       <c r="B87" t="s">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="C87" t="s">
-        <v>156</v>
+        <v>324</v>
       </c>
       <c r="D87" t="s">
-        <v>220</v>
+        <v>491</v>
       </c>
       <c r="E87" t="s">
-        <v>294</v>
+        <v>653</v>
       </c>
       <c r="F87" t="s">
-        <v>369</v>
+        <v>839</v>
       </c>
       <c r="G87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>29</v>
       </c>
       <c r="B88" t="s">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="C88" t="s">
-        <v>125</v>
+        <v>356</v>
       </c>
       <c r="D88" t="s">
-        <v>211</v>
+        <v>501</v>
       </c>
       <c r="E88" t="s">
-        <v>279</v>
+        <v>668</v>
       </c>
       <c r="F88" t="s">
-        <v>370</v>
+        <v>840</v>
       </c>
       <c r="G88">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>30</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>187</v>
       </c>
       <c r="C89" t="s">
-        <v>157</v>
+        <v>331</v>
       </c>
       <c r="D89" t="s">
-        <v>221</v>
+        <v>481</v>
       </c>
       <c r="E89" t="s">
-        <v>295</v>
+        <v>642</v>
       </c>
       <c r="F89" t="s">
-        <v>371</v>
+        <v>841</v>
       </c>
       <c r="G89">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>31</v>
       </c>
       <c r="B90" t="s">
+        <v>203</v>
+      </c>
+      <c r="C90" t="s">
+        <v>357</v>
+      </c>
+      <c r="D90" t="s">
+        <v>502</v>
+      </c>
+      <c r="E90" t="s">
+        <v>669</v>
+      </c>
+      <c r="F90" t="s">
+        <v>842</v>
+      </c>
+      <c r="G90">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>32</v>
+      </c>
+      <c r="B91" t="s">
+        <v>204</v>
+      </c>
+      <c r="C91" t="s">
+        <v>358</v>
+      </c>
+      <c r="D91" t="s">
+        <v>503</v>
+      </c>
+      <c r="E91" t="s">
+        <v>670</v>
+      </c>
+      <c r="F91" t="s">
+        <v>843</v>
+      </c>
+      <c r="G91">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" t="s">
+        <v>205</v>
+      </c>
+      <c r="C92" t="s">
+        <v>359</v>
+      </c>
+      <c r="D92" t="s">
+        <v>504</v>
+      </c>
+      <c r="E92" t="s">
+        <v>671</v>
+      </c>
+      <c r="F92" t="s">
+        <v>844</v>
+      </c>
+      <c r="G92">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>34</v>
+      </c>
+      <c r="B93" t="s">
+        <v>206</v>
+      </c>
+      <c r="C93" t="s">
+        <v>360</v>
+      </c>
+      <c r="D93" t="s">
+        <v>505</v>
+      </c>
+      <c r="E93" t="s">
+        <v>672</v>
+      </c>
+      <c r="F93" t="s">
+        <v>845</v>
+      </c>
+      <c r="G93">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>35</v>
+      </c>
+      <c r="B94" t="s">
+        <v>183</v>
+      </c>
+      <c r="C94" t="s">
+        <v>361</v>
+      </c>
+      <c r="D94" t="s">
+        <v>493</v>
+      </c>
+      <c r="E94" t="s">
+        <v>673</v>
+      </c>
+      <c r="F94" t="s">
+        <v>846</v>
+      </c>
+      <c r="G94">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>36</v>
+      </c>
+      <c r="B95" t="s">
+        <v>207</v>
+      </c>
+      <c r="C95" t="s">
+        <v>360</v>
+      </c>
+      <c r="D95" t="s">
+        <v>506</v>
+      </c>
+      <c r="E95" t="s">
+        <v>674</v>
+      </c>
+      <c r="F95" t="s">
+        <v>847</v>
+      </c>
+      <c r="G95">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>37</v>
+      </c>
+      <c r="B96" t="s">
+        <v>208</v>
+      </c>
+      <c r="C96" t="s">
+        <v>362</v>
+      </c>
+      <c r="D96" t="s">
+        <v>507</v>
+      </c>
+      <c r="E96" t="s">
+        <v>675</v>
+      </c>
+      <c r="F96" t="s">
+        <v>848</v>
+      </c>
+      <c r="G96">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>38</v>
+      </c>
+      <c r="B97" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" t="s">
+        <v>363</v>
+      </c>
+      <c r="D97" t="s">
+        <v>494</v>
+      </c>
+      <c r="E97" t="s">
+        <v>676</v>
+      </c>
+      <c r="F97" t="s">
+        <v>849</v>
+      </c>
+      <c r="G97">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>39</v>
+      </c>
+      <c r="B98" t="s">
+        <v>209</v>
+      </c>
+      <c r="C98" t="s">
+        <v>361</v>
+      </c>
+      <c r="D98" t="s">
+        <v>508</v>
+      </c>
+      <c r="E98" t="s">
+        <v>677</v>
+      </c>
+      <c r="F98" t="s">
+        <v>850</v>
+      </c>
+      <c r="G98">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>40</v>
+      </c>
+      <c r="B99" t="s">
+        <v>210</v>
+      </c>
+      <c r="C99" t="s">
+        <v>364</v>
+      </c>
+      <c r="D99" t="s">
+        <v>509</v>
+      </c>
+      <c r="E99" t="s">
+        <v>678</v>
+      </c>
+      <c r="F99" t="s">
+        <v>851</v>
+      </c>
+      <c r="G99">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>41</v>
+      </c>
+      <c r="B100" t="s">
+        <v>211</v>
+      </c>
+      <c r="C100" t="s">
+        <v>365</v>
+      </c>
+      <c r="D100" t="s">
+        <v>510</v>
+      </c>
+      <c r="E100" t="s">
+        <v>679</v>
+      </c>
+      <c r="F100" t="s">
+        <v>852</v>
+      </c>
+      <c r="G100">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>42</v>
+      </c>
+      <c r="B101" t="s">
+        <v>212</v>
+      </c>
+      <c r="C101" t="s">
+        <v>366</v>
+      </c>
+      <c r="D101" t="s">
+        <v>511</v>
+      </c>
+      <c r="E101" t="s">
+        <v>680</v>
+      </c>
+      <c r="F101" t="s">
+        <v>853</v>
+      </c>
+      <c r="G101">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>43</v>
+      </c>
+      <c r="B102" t="s">
+        <v>188</v>
+      </c>
+      <c r="C102" t="s">
+        <v>333</v>
+      </c>
+      <c r="D102" t="s">
+        <v>482</v>
+      </c>
+      <c r="E102" t="s">
+        <v>681</v>
+      </c>
+      <c r="F102" t="s">
+        <v>854</v>
+      </c>
+      <c r="G102">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>44</v>
+      </c>
+      <c r="B103" t="s">
+        <v>179</v>
+      </c>
+      <c r="C103" t="s">
+        <v>332</v>
+      </c>
+      <c r="D103" t="s">
+        <v>474</v>
+      </c>
+      <c r="E103" t="s">
+        <v>682</v>
+      </c>
+      <c r="F103" t="s">
+        <v>855</v>
+      </c>
+      <c r="G103">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>45</v>
+      </c>
+      <c r="B104" t="s">
+        <v>213</v>
+      </c>
+      <c r="C104" t="s">
+        <v>367</v>
+      </c>
+      <c r="D104" t="s">
+        <v>512</v>
+      </c>
+      <c r="E104" t="s">
+        <v>683</v>
+      </c>
+      <c r="F104" t="s">
+        <v>856</v>
+      </c>
+      <c r="G104">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>46</v>
+      </c>
+      <c r="B105" t="s">
+        <v>197</v>
+      </c>
+      <c r="C105" t="s">
+        <v>368</v>
+      </c>
+      <c r="D105" t="s">
+        <v>495</v>
+      </c>
+      <c r="E105" t="s">
+        <v>684</v>
+      </c>
+      <c r="F105" t="s">
+        <v>857</v>
+      </c>
+      <c r="G105">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>47</v>
+      </c>
+      <c r="B106" t="s">
+        <v>198</v>
+      </c>
+      <c r="C106" t="s">
+        <v>344</v>
+      </c>
+      <c r="D106" t="s">
+        <v>446</v>
+      </c>
+      <c r="E106" t="s">
+        <v>659</v>
+      </c>
+      <c r="F106" t="s">
+        <v>858</v>
+      </c>
+      <c r="G106">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>48</v>
+      </c>
+      <c r="B107" t="s">
+        <v>150</v>
+      </c>
+      <c r="C107" t="s">
+        <v>294</v>
+      </c>
+      <c r="D107" t="s">
+        <v>443</v>
+      </c>
+      <c r="E107" t="s">
+        <v>685</v>
+      </c>
+      <c r="F107" t="s">
+        <v>859</v>
+      </c>
+      <c r="G107">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>49</v>
+      </c>
+      <c r="B108" t="s">
+        <v>199</v>
+      </c>
+      <c r="C108" t="s">
+        <v>369</v>
+      </c>
+      <c r="D108" t="s">
+        <v>513</v>
+      </c>
+      <c r="E108" t="s">
+        <v>660</v>
+      </c>
+      <c r="F108" t="s">
+        <v>860</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>50</v>
+      </c>
+      <c r="B109" t="s">
+        <v>214</v>
+      </c>
+      <c r="C109" t="s">
+        <v>370</v>
+      </c>
+      <c r="D109" t="s">
+        <v>514</v>
+      </c>
+      <c r="E109" t="s">
+        <v>686</v>
+      </c>
+      <c r="F109" t="s">
+        <v>861</v>
+      </c>
+      <c r="G109">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>51</v>
+      </c>
+      <c r="B110" t="s">
+        <v>215</v>
+      </c>
+      <c r="C110" t="s">
+        <v>371</v>
+      </c>
+      <c r="D110" t="s">
+        <v>515</v>
+      </c>
+      <c r="E110" t="s">
+        <v>687</v>
+      </c>
+      <c r="F110" t="s">
+        <v>862</v>
+      </c>
+      <c r="G110">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>52</v>
+      </c>
+      <c r="B111" t="s">
+        <v>216</v>
+      </c>
+      <c r="C111" t="s">
+        <v>370</v>
+      </c>
+      <c r="D111" t="s">
+        <v>516</v>
+      </c>
+      <c r="E111" t="s">
+        <v>688</v>
+      </c>
+      <c r="F111" t="s">
+        <v>863</v>
+      </c>
+      <c r="G111">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>53</v>
+      </c>
+      <c r="B112" t="s">
+        <v>217</v>
+      </c>
+      <c r="C112" t="s">
+        <v>372</v>
+      </c>
+      <c r="D112" t="s">
+        <v>517</v>
+      </c>
+      <c r="E112" t="s">
+        <v>689</v>
+      </c>
+      <c r="F112" t="s">
+        <v>864</v>
+      </c>
+      <c r="G112">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>54</v>
+      </c>
+      <c r="B113" t="s">
+        <v>192</v>
+      </c>
+      <c r="C113" t="s">
+        <v>373</v>
+      </c>
+      <c r="D113" t="s">
+        <v>518</v>
+      </c>
+      <c r="E113" t="s">
+        <v>648</v>
+      </c>
+      <c r="F113" t="s">
+        <v>865</v>
+      </c>
+      <c r="G113">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>55</v>
+      </c>
+      <c r="B114" t="s">
+        <v>185</v>
+      </c>
+      <c r="C114" t="s">
+        <v>330</v>
+      </c>
+      <c r="D114" t="s">
+        <v>479</v>
+      </c>
+      <c r="E114" t="s">
+        <v>690</v>
+      </c>
+      <c r="F114" t="s">
+        <v>866</v>
+      </c>
+      <c r="G114">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>56</v>
+      </c>
+      <c r="B115" t="s">
+        <v>218</v>
+      </c>
+      <c r="C115" t="s">
+        <v>343</v>
+      </c>
+      <c r="D115" t="s">
+        <v>519</v>
+      </c>
+      <c r="E115" t="s">
+        <v>690</v>
+      </c>
+      <c r="F115" t="s">
+        <v>867</v>
+      </c>
+      <c r="G115">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>57</v>
+      </c>
+      <c r="B116" t="s">
+        <v>219</v>
+      </c>
+      <c r="C116" t="s">
+        <v>374</v>
+      </c>
+      <c r="D116" t="s">
+        <v>520</v>
+      </c>
+      <c r="E116" t="s">
+        <v>691</v>
+      </c>
+      <c r="F116" t="s">
+        <v>868</v>
+      </c>
+      <c r="G116">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>58</v>
+      </c>
+      <c r="B117" t="s">
+        <v>220</v>
+      </c>
+      <c r="C117" t="s">
+        <v>375</v>
+      </c>
+      <c r="D117" t="s">
+        <v>521</v>
+      </c>
+      <c r="E117" t="s">
+        <v>692</v>
+      </c>
+      <c r="F117" t="s">
+        <v>869</v>
+      </c>
+      <c r="G117">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>59</v>
+      </c>
+      <c r="B118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C118" t="s">
+        <v>376</v>
+      </c>
+      <c r="D118" t="s">
+        <v>522</v>
+      </c>
+      <c r="E118" t="s">
+        <v>693</v>
+      </c>
+      <c r="F118" t="s">
+        <v>870</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>60</v>
+      </c>
+      <c r="B119" t="s">
+        <v>182</v>
+      </c>
+      <c r="C119" t="s">
+        <v>376</v>
+      </c>
+      <c r="D119" t="s">
+        <v>523</v>
+      </c>
+      <c r="E119" t="s">
+        <v>690</v>
+      </c>
+      <c r="F119" t="s">
+        <v>871</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>61</v>
+      </c>
+      <c r="B120" t="s">
+        <v>222</v>
+      </c>
+      <c r="C120" t="s">
+        <v>337</v>
+      </c>
+      <c r="D120" t="s">
+        <v>524</v>
+      </c>
+      <c r="E120" t="s">
+        <v>694</v>
+      </c>
+      <c r="F120" t="s">
+        <v>872</v>
+      </c>
+      <c r="G120">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>62</v>
+      </c>
+      <c r="B121" t="s">
+        <v>223</v>
+      </c>
+      <c r="C121" t="s">
+        <v>377</v>
+      </c>
+      <c r="D121" t="s">
+        <v>525</v>
+      </c>
+      <c r="E121" t="s">
+        <v>695</v>
+      </c>
+      <c r="F121" t="s">
+        <v>873</v>
+      </c>
+      <c r="G121">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>63</v>
+      </c>
+      <c r="B122" t="s">
+        <v>224</v>
+      </c>
+      <c r="C122" t="s">
+        <v>375</v>
+      </c>
+      <c r="D122" t="s">
+        <v>526</v>
+      </c>
+      <c r="E122" t="s">
+        <v>696</v>
+      </c>
+      <c r="F122" t="s">
+        <v>874</v>
+      </c>
+      <c r="G122">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>64</v>
+      </c>
+      <c r="B123" t="s">
+        <v>225</v>
+      </c>
+      <c r="C123" t="s">
+        <v>378</v>
+      </c>
+      <c r="D123" t="s">
+        <v>527</v>
+      </c>
+      <c r="E123" t="s">
+        <v>697</v>
+      </c>
+      <c r="F123" t="s">
+        <v>875</v>
+      </c>
+      <c r="G123">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>65</v>
+      </c>
+      <c r="B124" t="s">
+        <v>226</v>
+      </c>
+      <c r="C124" t="s">
+        <v>379</v>
+      </c>
+      <c r="D124" t="s">
+        <v>528</v>
+      </c>
+      <c r="E124" t="s">
+        <v>528</v>
+      </c>
+      <c r="F124" t="s">
+        <v>876</v>
+      </c>
+      <c r="G124">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>66</v>
+      </c>
+      <c r="B125" t="s">
+        <v>227</v>
+      </c>
+      <c r="C125" t="s">
+        <v>380</v>
+      </c>
+      <c r="D125" t="s">
+        <v>529</v>
+      </c>
+      <c r="E125" t="s">
+        <v>698</v>
+      </c>
+      <c r="F125" t="s">
+        <v>877</v>
+      </c>
+      <c r="G125">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>67</v>
+      </c>
+      <c r="B126" t="s">
+        <v>147</v>
+      </c>
+      <c r="C126" t="s">
+        <v>381</v>
+      </c>
+      <c r="D126" t="s">
+        <v>440</v>
+      </c>
+      <c r="E126" t="s">
+        <v>598</v>
+      </c>
+      <c r="F126" t="s">
+        <v>878</v>
+      </c>
+      <c r="G126">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>68</v>
+      </c>
+      <c r="B127" t="s">
+        <v>228</v>
+      </c>
+      <c r="C127" t="s">
+        <v>382</v>
+      </c>
+      <c r="D127" t="s">
+        <v>530</v>
+      </c>
+      <c r="E127" t="s">
+        <v>699</v>
+      </c>
+      <c r="F127" t="s">
+        <v>879</v>
+      </c>
+      <c r="G127">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>69</v>
+      </c>
+      <c r="B128" t="s">
+        <v>229</v>
+      </c>
+      <c r="C128" t="s">
+        <v>383</v>
+      </c>
+      <c r="D128" t="s">
+        <v>531</v>
+      </c>
+      <c r="E128" t="s">
+        <v>700</v>
+      </c>
+      <c r="F128" t="s">
+        <v>700</v>
+      </c>
+      <c r="G128">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>70</v>
+      </c>
+      <c r="B129" t="s">
+        <v>230</v>
+      </c>
+      <c r="C129" t="s">
+        <v>375</v>
+      </c>
+      <c r="D129" t="s">
+        <v>532</v>
+      </c>
+      <c r="E129" t="s">
+        <v>701</v>
+      </c>
+      <c r="F129" t="s">
+        <v>880</v>
+      </c>
+      <c r="G129">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>71</v>
+      </c>
+      <c r="B130" t="s">
+        <v>231</v>
+      </c>
+      <c r="C130" t="s">
+        <v>384</v>
+      </c>
+      <c r="D130" t="s">
+        <v>533</v>
+      </c>
+      <c r="E130" t="s">
+        <v>702</v>
+      </c>
+      <c r="F130" t="s">
+        <v>881</v>
+      </c>
+      <c r="G130">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>72</v>
+      </c>
+      <c r="B131" t="s">
+        <v>232</v>
+      </c>
+      <c r="C131" t="s">
+        <v>338</v>
+      </c>
+      <c r="D131" t="s">
+        <v>534</v>
+      </c>
+      <c r="E131" t="s">
+        <v>703</v>
+      </c>
+      <c r="F131" t="s">
+        <v>882</v>
+      </c>
+      <c r="G131">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>73</v>
+      </c>
+      <c r="B132" t="s">
+        <v>233</v>
+      </c>
+      <c r="C132" t="s">
+        <v>385</v>
+      </c>
+      <c r="D132" t="s">
+        <v>535</v>
+      </c>
+      <c r="E132" t="s">
+        <v>704</v>
+      </c>
+      <c r="F132" t="s">
+        <v>883</v>
+      </c>
+      <c r="G132">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>74</v>
       </c>
-      <c r="C90" t="s">
+      <c r="B133" t="s">
+        <v>155</v>
+      </c>
+      <c r="C133" t="s">
+        <v>299</v>
+      </c>
+      <c r="D133" t="s">
+        <v>448</v>
+      </c>
+      <c r="E133" t="s">
+        <v>606</v>
+      </c>
+      <c r="F133" t="s">
+        <v>884</v>
+      </c>
+      <c r="G133">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>75</v>
+      </c>
+      <c r="B134" t="s">
+        <v>234</v>
+      </c>
+      <c r="C134" t="s">
+        <v>386</v>
+      </c>
+      <c r="D134" t="s">
+        <v>536</v>
+      </c>
+      <c r="E134" t="s">
+        <v>705</v>
+      </c>
+      <c r="F134" t="s">
+        <v>885</v>
+      </c>
+      <c r="G134">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>76</v>
+      </c>
+      <c r="B135" t="s">
+        <v>235</v>
+      </c>
+      <c r="C135" t="s">
+        <v>387</v>
+      </c>
+      <c r="D135" t="s">
+        <v>537</v>
+      </c>
+      <c r="E135" t="s">
+        <v>706</v>
+      </c>
+      <c r="F135" t="s">
+        <v>886</v>
+      </c>
+      <c r="G135">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>77</v>
+      </c>
+      <c r="B136" t="s">
+        <v>236</v>
+      </c>
+      <c r="C136" t="s">
+        <v>388</v>
+      </c>
+      <c r="D136" t="s">
+        <v>538</v>
+      </c>
+      <c r="E136" t="s">
+        <v>707</v>
+      </c>
+      <c r="F136" t="s">
+        <v>887</v>
+      </c>
+      <c r="G136">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>78</v>
+      </c>
+      <c r="B137" t="s">
+        <v>237</v>
+      </c>
+      <c r="C137" t="s">
+        <v>389</v>
+      </c>
+      <c r="D137" t="s">
+        <v>539</v>
+      </c>
+      <c r="E137" t="s">
+        <v>708</v>
+      </c>
+      <c r="F137" t="s">
+        <v>888</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>79</v>
+      </c>
+      <c r="B138" t="s">
+        <v>238</v>
+      </c>
+      <c r="C138" t="s">
+        <v>386</v>
+      </c>
+      <c r="D138" t="s">
+        <v>540</v>
+      </c>
+      <c r="E138" t="s">
+        <v>709</v>
+      </c>
+      <c r="F138" t="s">
+        <v>889</v>
+      </c>
+      <c r="G138">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>80</v>
+      </c>
+      <c r="B139" t="s">
+        <v>191</v>
+      </c>
+      <c r="C139" t="s">
+        <v>390</v>
+      </c>
+      <c r="D139" t="s">
+        <v>486</v>
+      </c>
+      <c r="E139" t="s">
+        <v>710</v>
+      </c>
+      <c r="F139" t="s">
+        <v>816</v>
+      </c>
+      <c r="G139">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>81</v>
+      </c>
+      <c r="B140" t="s">
+        <v>239</v>
+      </c>
+      <c r="C140" t="s">
+        <v>391</v>
+      </c>
+      <c r="D140" t="s">
+        <v>541</v>
+      </c>
+      <c r="E140" t="s">
+        <v>711</v>
+      </c>
+      <c r="F140" t="s">
+        <v>816</v>
+      </c>
+      <c r="G140">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>82</v>
+      </c>
+      <c r="B141" t="s">
+        <v>240</v>
+      </c>
+      <c r="C141" t="s">
+        <v>392</v>
+      </c>
+      <c r="D141" t="s">
+        <v>542</v>
+      </c>
+      <c r="E141" t="s">
+        <v>712</v>
+      </c>
+      <c r="F141" t="s">
+        <v>890</v>
+      </c>
+      <c r="G141">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>83</v>
+      </c>
+      <c r="B142" t="s">
+        <v>241</v>
+      </c>
+      <c r="C142" t="s">
+        <v>393</v>
+      </c>
+      <c r="D142" t="s">
+        <v>543</v>
+      </c>
+      <c r="E142" t="s">
+        <v>713</v>
+      </c>
+      <c r="F142" t="s">
+        <v>891</v>
+      </c>
+      <c r="G142">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>84</v>
+      </c>
+      <c r="B143" t="s">
+        <v>242</v>
+      </c>
+      <c r="C143" t="s">
+        <v>340</v>
+      </c>
+      <c r="D143" t="s">
+        <v>544</v>
+      </c>
+      <c r="E143" t="s">
+        <v>714</v>
+      </c>
+      <c r="F143" t="s">
+        <v>816</v>
+      </c>
+      <c r="G143">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>85</v>
+      </c>
+      <c r="B144" t="s">
+        <v>243</v>
+      </c>
+      <c r="C144" t="s">
+        <v>329</v>
+      </c>
+      <c r="D144" t="s">
+        <v>545</v>
+      </c>
+      <c r="E144" t="s">
+        <v>715</v>
+      </c>
+      <c r="F144" t="s">
+        <v>892</v>
+      </c>
+      <c r="G144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>86</v>
+      </c>
+      <c r="B145" t="s">
+        <v>244</v>
+      </c>
+      <c r="C145" t="s">
+        <v>394</v>
+      </c>
+      <c r="D145" t="s">
+        <v>546</v>
+      </c>
+      <c r="E145" t="s">
+        <v>716</v>
+      </c>
+      <c r="F145" t="s">
+        <v>893</v>
+      </c>
+      <c r="G145">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>87</v>
+      </c>
+      <c r="B146" t="s">
+        <v>245</v>
+      </c>
+      <c r="C146" t="s">
+        <v>395</v>
+      </c>
+      <c r="D146" t="s">
+        <v>547</v>
+      </c>
+      <c r="E146" t="s">
+        <v>717</v>
+      </c>
+      <c r="F146" t="s">
+        <v>894</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>88</v>
+      </c>
+      <c r="B147" t="s">
+        <v>184</v>
+      </c>
+      <c r="C147" t="s">
+        <v>396</v>
+      </c>
+      <c r="D147" t="s">
+        <v>548</v>
+      </c>
+      <c r="E147" t="s">
+        <v>718</v>
+      </c>
+      <c r="F147" t="s">
+        <v>895</v>
+      </c>
+      <c r="G147">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>89</v>
+      </c>
+      <c r="B148" t="s">
+        <v>246</v>
+      </c>
+      <c r="D148" t="s">
+        <v>549</v>
+      </c>
+      <c r="E148" t="s">
+        <v>719</v>
+      </c>
+      <c r="F148" t="s">
+        <v>896</v>
+      </c>
+      <c r="G148">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>90</v>
+      </c>
+      <c r="B149" t="s">
+        <v>247</v>
+      </c>
+      <c r="C149" t="s">
+        <v>397</v>
+      </c>
+      <c r="D149" t="s">
+        <v>550</v>
+      </c>
+      <c r="E149" t="s">
+        <v>720</v>
+      </c>
+      <c r="F149" t="s">
+        <v>897</v>
+      </c>
+      <c r="G149">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>91</v>
+      </c>
+      <c r="B150" t="s">
+        <v>248</v>
+      </c>
+      <c r="C150" t="s">
+        <v>398</v>
+      </c>
+      <c r="D150" t="s">
+        <v>551</v>
+      </c>
+      <c r="E150" t="s">
+        <v>721</v>
+      </c>
+      <c r="F150" t="s">
+        <v>898</v>
+      </c>
+      <c r="G150">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>92</v>
+      </c>
+      <c r="B151" t="s">
+        <v>249</v>
+      </c>
+      <c r="C151" t="s">
+        <v>399</v>
+      </c>
+      <c r="D151" t="s">
+        <v>552</v>
+      </c>
+      <c r="E151" t="s">
+        <v>722</v>
+      </c>
+      <c r="F151" t="s">
+        <v>899</v>
+      </c>
+      <c r="G151">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>93</v>
+      </c>
+      <c r="B152" t="s">
+        <v>250</v>
+      </c>
+      <c r="C152" t="s">
+        <v>400</v>
+      </c>
+      <c r="D152" t="s">
+        <v>553</v>
+      </c>
+      <c r="E152" t="s">
+        <v>723</v>
+      </c>
+      <c r="F152" t="s">
+        <v>900</v>
+      </c>
+      <c r="G152">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>94</v>
+      </c>
+      <c r="B153" t="s">
+        <v>251</v>
+      </c>
+      <c r="C153" t="s">
+        <v>401</v>
+      </c>
+      <c r="D153" t="s">
+        <v>554</v>
+      </c>
+      <c r="E153" t="s">
+        <v>724</v>
+      </c>
+      <c r="F153" t="s">
+        <v>901</v>
+      </c>
+      <c r="G153">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>95</v>
+      </c>
+      <c r="B154" t="s">
+        <v>252</v>
+      </c>
+      <c r="C154" t="s">
+        <v>402</v>
+      </c>
+      <c r="D154" t="s">
+        <v>555</v>
+      </c>
+      <c r="E154" t="s">
+        <v>725</v>
+      </c>
+      <c r="F154" t="s">
+        <v>902</v>
+      </c>
+      <c r="G154">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>96</v>
+      </c>
+      <c r="B155" t="s">
+        <v>176</v>
+      </c>
+      <c r="C155" t="s">
+        <v>403</v>
+      </c>
+      <c r="E155" t="s">
+        <v>726</v>
+      </c>
+      <c r="F155" t="s">
+        <v>903</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>97</v>
+      </c>
+      <c r="B156" t="s">
+        <v>253</v>
+      </c>
+      <c r="C156" t="s">
+        <v>404</v>
+      </c>
+      <c r="D156" t="s">
+        <v>556</v>
+      </c>
+      <c r="E156" t="s">
+        <v>727</v>
+      </c>
+      <c r="F156" t="s">
+        <v>904</v>
+      </c>
+      <c r="G156">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>98</v>
+      </c>
+      <c r="B157" t="s">
+        <v>254</v>
+      </c>
+      <c r="C157" t="s">
+        <v>405</v>
+      </c>
+      <c r="D157" t="s">
+        <v>557</v>
+      </c>
+      <c r="E157" t="s">
+        <v>728</v>
+      </c>
+      <c r="F157" t="s">
+        <v>905</v>
+      </c>
+      <c r="G157">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>99</v>
+      </c>
+      <c r="B158" t="s">
+        <v>255</v>
+      </c>
+      <c r="C158" t="s">
+        <v>406</v>
+      </c>
+      <c r="D158" t="s">
+        <v>558</v>
+      </c>
+      <c r="E158" t="s">
+        <v>729</v>
+      </c>
+      <c r="F158" t="s">
+        <v>906</v>
+      </c>
+      <c r="G158">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>100</v>
+      </c>
+      <c r="B159" t="s">
+        <v>256</v>
+      </c>
+      <c r="C159" t="s">
+        <v>407</v>
+      </c>
+      <c r="D159" t="s">
+        <v>559</v>
+      </c>
+      <c r="E159" t="s">
+        <v>730</v>
+      </c>
+      <c r="F159" t="s">
+        <v>907</v>
+      </c>
+      <c r="G159">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>101</v>
+      </c>
+      <c r="B160" t="s">
+        <v>257</v>
+      </c>
+      <c r="C160" t="s">
+        <v>408</v>
+      </c>
+      <c r="D160" t="s">
+        <v>560</v>
+      </c>
+      <c r="E160" t="s">
+        <v>731</v>
+      </c>
+      <c r="F160" t="s">
+        <v>341</v>
+      </c>
+      <c r="G160">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>102</v>
+      </c>
+      <c r="B161" t="s">
+        <v>190</v>
+      </c>
+      <c r="C161" t="s">
+        <v>335</v>
+      </c>
+      <c r="D161" t="s">
+        <v>484</v>
+      </c>
+      <c r="E161" t="s">
+        <v>732</v>
+      </c>
+      <c r="F161" t="s">
+        <v>908</v>
+      </c>
+      <c r="G161">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>103</v>
+      </c>
+      <c r="B162" t="s">
+        <v>258</v>
+      </c>
+      <c r="C162" t="s">
+        <v>409</v>
+      </c>
+      <c r="D162" t="s">
+        <v>561</v>
+      </c>
+      <c r="E162" t="s">
+        <v>733</v>
+      </c>
+      <c r="F162" t="s">
+        <v>909</v>
+      </c>
+      <c r="G162">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>104</v>
+      </c>
+      <c r="B163" t="s">
+        <v>259</v>
+      </c>
+      <c r="C163" t="s">
+        <v>410</v>
+      </c>
+      <c r="D163" t="s">
+        <v>562</v>
+      </c>
+      <c r="E163" t="s">
+        <v>734</v>
+      </c>
+      <c r="F163" t="s">
+        <v>807</v>
+      </c>
+      <c r="G163">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>105</v>
+      </c>
+      <c r="B164" t="s">
+        <v>260</v>
+      </c>
+      <c r="C164" t="s">
+        <v>411</v>
+      </c>
+      <c r="D164" t="s">
+        <v>563</v>
+      </c>
+      <c r="E164" t="s">
+        <v>563</v>
+      </c>
+      <c r="F164" t="s">
+        <v>910</v>
+      </c>
+      <c r="G164">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>106</v>
+      </c>
+      <c r="B165" t="s">
+        <v>180</v>
+      </c>
+      <c r="C165" t="s">
+        <v>326</v>
+      </c>
+      <c r="D165" t="s">
+        <v>475</v>
+      </c>
+      <c r="E165" t="s">
+        <v>638</v>
+      </c>
+      <c r="F165" t="s">
+        <v>807</v>
+      </c>
+      <c r="G165">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>107</v>
+      </c>
+      <c r="B166" t="s">
+        <v>261</v>
+      </c>
+      <c r="C166" t="s">
+        <v>412</v>
+      </c>
+      <c r="D166" t="s">
+        <v>564</v>
+      </c>
+      <c r="E166" t="s">
+        <v>735</v>
+      </c>
+      <c r="F166" t="s">
+        <v>911</v>
+      </c>
+      <c r="G166">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>108</v>
+      </c>
+      <c r="B167" t="s">
+        <v>215</v>
+      </c>
+      <c r="C167" t="s">
+        <v>413</v>
+      </c>
+      <c r="D167" t="s">
+        <v>565</v>
+      </c>
+      <c r="E167" t="s">
+        <v>736</v>
+      </c>
+      <c r="F167" t="s">
+        <v>912</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>109</v>
+      </c>
+      <c r="B168" t="s">
+        <v>262</v>
+      </c>
+      <c r="C168" t="s">
+        <v>414</v>
+      </c>
+      <c r="D168" t="s">
+        <v>566</v>
+      </c>
+      <c r="E168" t="s">
+        <v>737</v>
+      </c>
+      <c r="F168" t="s">
+        <v>913</v>
+      </c>
+      <c r="G168">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>110</v>
+      </c>
+      <c r="B169" t="s">
+        <v>186</v>
+      </c>
+      <c r="C169" t="s">
+        <v>306</v>
+      </c>
+      <c r="D169" t="s">
+        <v>480</v>
+      </c>
+      <c r="E169" t="s">
+        <v>738</v>
+      </c>
+      <c r="F169" t="s">
+        <v>914</v>
+      </c>
+      <c r="G169">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>111</v>
+      </c>
+      <c r="B170" t="s">
+        <v>263</v>
+      </c>
+      <c r="C170" t="s">
+        <v>415</v>
+      </c>
+      <c r="D170" t="s">
+        <v>567</v>
+      </c>
+      <c r="E170" t="s">
+        <v>567</v>
+      </c>
+      <c r="F170" t="s">
+        <v>915</v>
+      </c>
+      <c r="G170">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>112</v>
+      </c>
+      <c r="B171" t="s">
+        <v>264</v>
+      </c>
+      <c r="C171" t="s">
+        <v>416</v>
+      </c>
+      <c r="D171" t="s">
+        <v>568</v>
+      </c>
+      <c r="E171" t="s">
+        <v>739</v>
+      </c>
+      <c r="F171" t="s">
+        <v>916</v>
+      </c>
+      <c r="G171">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>113</v>
+      </c>
+      <c r="B172" t="s">
+        <v>189</v>
+      </c>
+      <c r="C172" t="s">
+        <v>417</v>
+      </c>
+      <c r="D172" t="s">
+        <v>483</v>
+      </c>
+      <c r="E172" t="s">
+        <v>740</v>
+      </c>
+      <c r="F172" t="s">
+        <v>812</v>
+      </c>
+      <c r="G172">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>114</v>
+      </c>
+      <c r="B173" t="s">
+        <v>265</v>
+      </c>
+      <c r="C173" t="s">
+        <v>418</v>
+      </c>
+      <c r="D173" t="s">
+        <v>569</v>
+      </c>
+      <c r="E173" t="s">
+        <v>741</v>
+      </c>
+      <c r="F173" t="s">
+        <v>917</v>
+      </c>
+      <c r="G173">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>115</v>
+      </c>
+      <c r="B174" t="s">
+        <v>266</v>
+      </c>
+      <c r="C174" t="s">
+        <v>419</v>
+      </c>
+      <c r="D174" t="s">
+        <v>570</v>
+      </c>
+      <c r="E174" t="s">
+        <v>742</v>
+      </c>
+      <c r="F174" t="s">
+        <v>918</v>
+      </c>
+      <c r="G174">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>116</v>
+      </c>
+      <c r="B175" t="s">
+        <v>267</v>
+      </c>
+      <c r="C175" t="s">
+        <v>414</v>
+      </c>
+      <c r="D175" t="s">
+        <v>571</v>
+      </c>
+      <c r="E175" t="s">
+        <v>743</v>
+      </c>
+      <c r="F175" t="s">
+        <v>919</v>
+      </c>
+      <c r="G175">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>117</v>
+      </c>
+      <c r="B176" t="s">
+        <v>268</v>
+      </c>
+      <c r="C176" t="s">
+        <v>290</v>
+      </c>
+      <c r="D176" t="s">
+        <v>572</v>
+      </c>
+      <c r="E176" t="s">
+        <v>572</v>
+      </c>
+      <c r="F176" t="s">
+        <v>920</v>
+      </c>
+      <c r="G176">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>118</v>
+      </c>
+      <c r="B177" t="s">
+        <v>269</v>
+      </c>
+      <c r="C177" t="s">
+        <v>420</v>
+      </c>
+      <c r="D177" t="s">
+        <v>573</v>
+      </c>
+      <c r="E177" t="s">
+        <v>744</v>
+      </c>
+      <c r="F177" t="s">
+        <v>921</v>
+      </c>
+      <c r="G177">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>119</v>
+      </c>
+      <c r="B178" t="s">
+        <v>240</v>
+      </c>
+      <c r="C178" t="s">
+        <v>421</v>
+      </c>
+      <c r="D178" t="s">
+        <v>574</v>
+      </c>
+      <c r="E178" t="s">
+        <v>574</v>
+      </c>
+      <c r="F178" t="s">
+        <v>574</v>
+      </c>
+      <c r="G178">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>120</v>
+      </c>
+      <c r="B179" t="s">
+        <v>175</v>
+      </c>
+      <c r="C179" t="s">
+        <v>321</v>
+      </c>
+      <c r="D179" t="s">
+        <v>470</v>
+      </c>
+      <c r="E179" t="s">
+        <v>630</v>
+      </c>
+      <c r="F179" t="s">
+        <v>922</v>
+      </c>
+      <c r="G179">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>121</v>
+      </c>
+      <c r="B180" t="s">
+        <v>187</v>
+      </c>
+      <c r="C180" t="s">
+        <v>336</v>
+      </c>
+      <c r="D180" t="s">
+        <v>575</v>
+      </c>
+      <c r="E180" t="s">
+        <v>646</v>
+      </c>
+      <c r="F180" t="s">
+        <v>814</v>
+      </c>
+      <c r="G180">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>122</v>
+      </c>
+      <c r="B181" t="s">
+        <v>270</v>
+      </c>
+      <c r="C181" t="s">
+        <v>422</v>
+      </c>
+      <c r="D181" t="s">
+        <v>576</v>
+      </c>
+      <c r="E181" t="s">
+        <v>745</v>
+      </c>
+      <c r="F181" t="s">
+        <v>923</v>
+      </c>
+      <c r="G181">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>123</v>
+      </c>
+      <c r="B182" t="s">
+        <v>271</v>
+      </c>
+      <c r="C182" t="s">
+        <v>423</v>
+      </c>
+      <c r="D182" t="s">
+        <v>577</v>
+      </c>
+      <c r="E182" t="s">
+        <v>746</v>
+      </c>
+      <c r="F182" t="s">
+        <v>924</v>
+      </c>
+      <c r="G182">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>124</v>
+      </c>
+      <c r="B183" t="s">
+        <v>272</v>
+      </c>
+      <c r="C183" t="s">
+        <v>414</v>
+      </c>
+      <c r="D183" t="s">
+        <v>578</v>
+      </c>
+      <c r="E183" t="s">
+        <v>747</v>
+      </c>
+      <c r="F183" t="s">
+        <v>925</v>
+      </c>
+      <c r="G183">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>125</v>
+      </c>
+      <c r="B184" t="s">
+        <v>273</v>
+      </c>
+      <c r="C184" t="s">
+        <v>414</v>
+      </c>
+      <c r="D184" t="s">
+        <v>579</v>
+      </c>
+      <c r="E184" t="s">
+        <v>748</v>
+      </c>
+      <c r="F184" t="s">
+        <v>926</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>126</v>
+      </c>
+      <c r="B185" t="s">
+        <v>274</v>
+      </c>
+      <c r="C185" t="s">
+        <v>424</v>
+      </c>
+      <c r="D185" t="s">
+        <v>580</v>
+      </c>
+      <c r="E185" t="s">
+        <v>749</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>127</v>
+      </c>
+      <c r="B186" t="s">
+        <v>275</v>
+      </c>
+      <c r="C186" t="s">
+        <v>337</v>
+      </c>
+      <c r="D186" t="s">
+        <v>581</v>
+      </c>
+      <c r="E186" t="s">
+        <v>750</v>
+      </c>
+      <c r="F186" t="s">
+        <v>927</v>
+      </c>
+      <c r="G186">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>128</v>
+      </c>
+      <c r="B187" t="s">
+        <v>276</v>
+      </c>
+      <c r="C187" t="s">
+        <v>425</v>
+      </c>
+      <c r="D187" t="s">
+        <v>582</v>
+      </c>
+      <c r="E187" t="s">
+        <v>751</v>
+      </c>
+      <c r="F187" t="s">
+        <v>928</v>
+      </c>
+      <c r="G187">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>129</v>
+      </c>
+      <c r="B188" t="s">
+        <v>193</v>
+      </c>
+      <c r="C188" t="s">
+        <v>339</v>
+      </c>
+      <c r="D188" t="s">
+        <v>489</v>
+      </c>
+      <c r="E188" t="s">
+        <v>752</v>
+      </c>
+      <c r="F188" t="s">
+        <v>929</v>
+      </c>
+      <c r="G188">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>130</v>
+      </c>
+      <c r="B189" t="s">
+        <v>277</v>
+      </c>
+      <c r="C189" t="s">
+        <v>426</v>
+      </c>
+      <c r="D189" t="s">
+        <v>583</v>
+      </c>
+      <c r="E189" t="s">
+        <v>753</v>
+      </c>
+      <c r="F189" t="s">
+        <v>930</v>
+      </c>
+      <c r="G189">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>131</v>
+      </c>
+      <c r="B190" t="s">
+        <v>278</v>
+      </c>
+      <c r="C190" t="s">
+        <v>427</v>
+      </c>
+      <c r="D190" t="s">
+        <v>584</v>
+      </c>
+      <c r="E190" t="s">
+        <v>754</v>
+      </c>
+      <c r="F190" t="s">
+        <v>931</v>
+      </c>
+      <c r="G190">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
         <v>132</v>
       </c>
-      <c r="D90" t="s">
-        <v>201</v>
-      </c>
-      <c r="E90" t="s">
-        <v>268</v>
-      </c>
-      <c r="F90" t="s">
-        <v>372</v>
-      </c>
-      <c r="G90">
-        <v>25</v>
-      </c>
+      <c r="B191" t="s">
+        <v>177</v>
+      </c>
+      <c r="C191" t="s">
+        <v>428</v>
+      </c>
+      <c r="D191" t="s">
+        <v>585</v>
+      </c>
+      <c r="E191" t="s">
+        <v>632</v>
+      </c>
+      <c r="F191" t="s">
+        <v>932</v>
+      </c>
+      <c r="G191">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>133</v>
+      </c>
+      <c r="B192" t="s">
+        <v>279</v>
+      </c>
+      <c r="C192" t="s">
+        <v>429</v>
+      </c>
+      <c r="D192" t="s">
+        <v>586</v>
+      </c>
+      <c r="E192" t="s">
+        <v>755</v>
+      </c>
+      <c r="F192" t="s">
+        <v>933</v>
+      </c>
+      <c r="G192">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>134</v>
+      </c>
+      <c r="B193" t="s">
+        <v>280</v>
+      </c>
+      <c r="C193" t="s">
+        <v>430</v>
+      </c>
+      <c r="D193" t="s">
+        <v>587</v>
+      </c>
+      <c r="E193" t="s">
+        <v>756</v>
+      </c>
+      <c r="F193" t="s">
+        <v>934</v>
+      </c>
+      <c r="G193">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>135</v>
+      </c>
+      <c r="B194" t="s">
+        <v>281</v>
+      </c>
+      <c r="C194" t="s">
+        <v>431</v>
+      </c>
+      <c r="D194" t="s">
+        <v>588</v>
+      </c>
+      <c r="E194" t="s">
+        <v>757</v>
+      </c>
+      <c r="F194" t="s">
+        <v>935</v>
+      </c>
+      <c r="G194">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>136</v>
+      </c>
+      <c r="B195" t="s">
+        <v>282</v>
+      </c>
+      <c r="C195" t="s">
+        <v>432</v>
+      </c>
+      <c r="D195" t="s">
+        <v>589</v>
+      </c>
+      <c r="E195" t="s">
+        <v>758</v>
+      </c>
+      <c r="F195" t="s">
+        <v>936</v>
+      </c>
+      <c r="G195">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>137</v>
+      </c>
+      <c r="B196" t="s">
+        <v>283</v>
+      </c>
+      <c r="C196" t="s">
+        <v>433</v>
+      </c>
+      <c r="D196" t="s">
+        <v>590</v>
+      </c>
+      <c r="E196" t="s">
+        <v>759</v>
+      </c>
+      <c r="F196" t="s">
+        <v>937</v>
+      </c>
+      <c r="G196">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>138</v>
+      </c>
+      <c r="B197" t="s">
+        <v>178</v>
+      </c>
+      <c r="C197" t="s">
+        <v>324</v>
+      </c>
+      <c r="D197" t="s">
+        <v>183</v>
+      </c>
+      <c r="E197" t="s">
+        <v>760</v>
+      </c>
+      <c r="F197" t="s">
+        <v>938</v>
+      </c>
+      <c r="G197">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>139</v>
+      </c>
+      <c r="B198" t="s">
+        <v>284</v>
+      </c>
+      <c r="C198" t="s">
+        <v>434</v>
+      </c>
+      <c r="D198" t="s">
+        <v>591</v>
+      </c>
+      <c r="E198" t="s">
+        <v>761</v>
+      </c>
+      <c r="F198" t="s">
+        <v>939</v>
+      </c>
+      <c r="G198">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>140</v>
+      </c>
+      <c r="B199" t="s">
+        <v>285</v>
+      </c>
+      <c r="C199" t="s">
+        <v>435</v>
+      </c>
+      <c r="D199" t="s">
+        <v>592</v>
+      </c>
+      <c r="E199" t="s">
+        <v>762</v>
+      </c>
+      <c r="F199" t="s">
+        <v>940</v>
+      </c>
+      <c r="G199">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>141</v>
+      </c>
+      <c r="B200" t="s">
+        <v>161</v>
+      </c>
+      <c r="C200" t="s">
+        <v>305</v>
+      </c>
+      <c r="D200" t="s">
+        <v>454</v>
+      </c>
+      <c r="E200" t="s">
+        <v>763</v>
+      </c>
+      <c r="F200" t="s">
+        <v>941</v>
+      </c>
+      <c r="G200">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>142</v>
+      </c>
+      <c r="B201" t="s">
+        <v>286</v>
+      </c>
+      <c r="C201" t="s">
+        <v>436</v>
+      </c>
+      <c r="D201" t="s">
+        <v>593</v>
+      </c>
+      <c r="E201" t="s">
+        <v>764</v>
+      </c>
+      <c r="F201" t="s">
+        <v>942</v>
+      </c>
+      <c r="G201">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>143</v>
+      </c>
+      <c r="B202" t="s">
+        <v>287</v>
+      </c>
+      <c r="C202" t="s">
+        <v>370</v>
+      </c>
+      <c r="D202" t="s">
+        <v>594</v>
+      </c>
+      <c r="E202" t="s">
+        <v>765</v>
+      </c>
+      <c r="F202" t="s">
+        <v>943</v>
+      </c>
+      <c r="G202">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>144</v>
+      </c>
+      <c r="B203" t="s">
+        <v>288</v>
+      </c>
+      <c r="C203" t="s">
+        <v>437</v>
+      </c>
+      <c r="D203" t="s">
+        <v>595</v>
+      </c>
+      <c r="E203" t="s">
+        <v>766</v>
+      </c>
+      <c r="F203" t="s">
+        <v>766</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B210" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VerbBender.xlsx
+++ b/VerbBender.xlsx
@@ -1,29 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Edite/Documents/GitHub/Norsk/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C948FC10-4BC1-2646-A539-DBE54CDCC86F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$203</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="946">
   <si>
     <t>Date</t>
   </si>
@@ -460,6 +451,9 @@
     <t>08/01/2021 17:30:33.711883</t>
   </si>
   <si>
+    <t>09/01/2021 20:30:20.618122</t>
+  </si>
+  <si>
     <t>Grill</t>
   </si>
   <si>
@@ -760,7 +754,7 @@
     <t>listen</t>
   </si>
   <si>
-    <t>must/have to </t>
+    <t xml:space="preserve">must/have to </t>
   </si>
   <si>
     <t>to fix</t>
@@ -1339,6 +1333,9 @@
     <t>å vet</t>
   </si>
   <si>
+    <t>å åpne</t>
+  </si>
+  <si>
     <t>griller</t>
   </si>
   <si>
@@ -1813,6 +1810,9 @@
     <t>viter</t>
   </si>
   <si>
+    <t>åpnet</t>
+  </si>
+  <si>
     <t>grillte¨</t>
   </si>
   <si>
@@ -2018,9 +2018,6 @@
   </si>
   <si>
     <t>betta</t>
-  </si>
-  <si>
-    <t>åpnet</t>
   </si>
   <si>
     <t>arbeidet</t>
@@ -2860,11 +2857,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ am/pm"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2916,26 +2910,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2982,7 +2967,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3014,27 +2999,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3066,24 +3033,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3259,26 +3208,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G210"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F204" sqref="F204"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3301,4642 +3238,4662 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E2" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="F2" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="G2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D3" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E3" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="F3" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="G3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D4" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E4" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="F4" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="G4">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D5" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E5" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="F5" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="G5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D6" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E6" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="F6" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="F7" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="G7">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D8" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E8" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="F8" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="G8">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D9" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E9" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F9" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="G9">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D10" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E10" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F10" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D11" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E11" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="F11" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="G11">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D12" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E12" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="F12" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="G12">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D13" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E13" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="F13" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="G13">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D14" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E14" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="F14" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="G14">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D15" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E15" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="F15" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D16" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E16" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="F16" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="G16">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D17" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E17" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="F17" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="G17">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D18" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E18" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="F18" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="G18">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C19" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D19" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E19" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="F19" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="G19">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C20" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D20" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E20" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="F20" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="G20">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C21" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D21" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E21" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="F21" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="G21">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C22" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D22" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E22" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="F22" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C23" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D23" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E23" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="F23" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C24" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D24" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E24" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="F24" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="G24">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C25" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D25" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E25" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="F25" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="G25">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C26" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E26" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="F26" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="G26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C27" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D27" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E27" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="F27" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="G27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D28" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E28" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="F28" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="G28">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C29" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D29" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E29" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F29" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="G29">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C30" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D30" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E30" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="F30" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="G30">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C31" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D31" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E31" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="F31" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="G31">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C32" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D32" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E32" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="F32" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="G32">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C33" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D33" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E33" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="F33" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C34" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D34" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E34" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="F34" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="G34">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D35" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E35" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="F35" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C36" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D36" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E36" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="F36" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="G36">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C37" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E37" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="F37" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="G37">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C38" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D38" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E38" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="F38" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C39" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D39" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E39" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="F39" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="G39">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C40" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D40" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E40" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="F40" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="G40">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D41" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E41" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="F41" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="G41">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C42" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D42" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E42" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="F42" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="G42">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C43" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D43" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="F43" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="G43">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C44" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D44" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E44" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F44" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C45" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D45" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E45" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="F45" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="G45">
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C46" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D46" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E46" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="F46" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C47" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D47" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E47" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="F47" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="G47">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C48" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D48" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E48" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="F48" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="G48">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C49" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D49" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E49" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="F49" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="G49">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C50" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D50" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E50" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="F50" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="G50">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C51" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D51" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E51" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="F51" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C52" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D52" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E52" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="F52" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="G52">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C53" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D53" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E53" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="F53" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="G53">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C54" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D54" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E54" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="F54" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="G54">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C55" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D55" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E55" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="F55" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="G55">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C56" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D56" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E56" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F56" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="G56">
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C57" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D57" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E57" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="F57" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C58" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D58" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E58" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="F58" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="G58">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C59" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D59" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E59" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F59" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C60" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D60" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E60" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="F60" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="G60">
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C61" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D61" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E61" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="F61" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="G61">
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C62" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D62" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E62" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="F62" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C63" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D63" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E63" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="F63" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="G63">
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C64" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D64" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E64" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="F64" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C65" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D65" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E65" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="F65" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="G65">
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C66" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D66" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E66" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="F66" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="G66">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C67" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D67" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E67" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="F67" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="G67">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C68" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D68" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E68" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="F68" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="G68">
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C69" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D69" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E69" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="F69" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="G69">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C70" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D70" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E70" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F70" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="G70">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C71" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D71" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E71" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="F71" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="G71">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C72" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D72" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E72" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="F72" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="G72">
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C73" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D73" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E73" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="F73" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="G73">
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C74" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D74" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E74" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="F74" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="G74">
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C75" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D75" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E75" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="F75" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="G75">
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C76" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D76" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E76" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="F76" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="G76">
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>18</v>
       </c>
       <c r="B77" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C77" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D77" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E77" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="F77" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="G77">
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>19</v>
       </c>
       <c r="B78" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C78" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D78" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E78" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="F78" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="G78">
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C79" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D79" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E79" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="F79" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="G79">
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>21</v>
       </c>
       <c r="B80" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C80" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D80" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E80" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F80" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="G80">
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>22</v>
       </c>
       <c r="B81" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C81" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D81" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E81" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="F81" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="G81">
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>23</v>
       </c>
       <c r="B82" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C82" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D82" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E82" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="F82" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="G82">
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>24</v>
       </c>
       <c r="B83" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C83" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D83" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E83" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="F83" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="G83">
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>25</v>
       </c>
       <c r="B84" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C84" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D84" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E84" t="s">
-        <v>665</v>
+        <v>598</v>
       </c>
       <c r="F84" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="G84">
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>26</v>
       </c>
       <c r="B85" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C85" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D85" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E85" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="F85" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="G85">
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>27</v>
       </c>
       <c r="B86" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C86" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D86" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E86" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F86" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>28</v>
       </c>
       <c r="B87" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C87" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D87" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E87" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="F87" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="G87">
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>29</v>
       </c>
       <c r="B88" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C88" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D88" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E88" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="F88" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="G88">
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>30</v>
       </c>
       <c r="B89" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C89" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D89" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E89" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="F89" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="G89">
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>31</v>
       </c>
       <c r="B90" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C90" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D90" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E90" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="F90" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="G90">
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>32</v>
       </c>
       <c r="B91" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C91" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D91" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E91" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="F91" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="G91">
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>33</v>
       </c>
       <c r="B92" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C92" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D92" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E92" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="F92" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="G92">
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>34</v>
       </c>
       <c r="B93" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C93" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D93" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E93" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="F93" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="G93">
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>35</v>
       </c>
       <c r="B94" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C94" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D94" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E94" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F94" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="G94">
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>36</v>
       </c>
       <c r="B95" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C95" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D95" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E95" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="F95" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="G95">
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>37</v>
       </c>
       <c r="B96" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C96" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D96" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E96" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="F96" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="G96">
         <v>75</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>38</v>
       </c>
       <c r="B97" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C97" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D97" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E97" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="F97" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="G97">
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>39</v>
       </c>
       <c r="B98" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C98" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D98" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E98" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F98" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="G98">
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>40</v>
       </c>
       <c r="B99" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C99" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D99" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E99" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="F99" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="G99">
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>41</v>
       </c>
       <c r="B100" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C100" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D100" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E100" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F100" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="G100">
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>42</v>
       </c>
       <c r="B101" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C101" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D101" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E101" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="F101" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="G101">
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>43</v>
       </c>
       <c r="B102" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C102" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D102" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E102" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="F102" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="G102">
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>44</v>
       </c>
       <c r="B103" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C103" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D103" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E103" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F103" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="G103">
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>45</v>
       </c>
       <c r="B104" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C104" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D104" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E104" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F104" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="G104">
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>46</v>
       </c>
       <c r="B105" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C105" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D105" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E105" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="F105" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="G105">
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>47</v>
       </c>
       <c r="B106" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C106" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D106" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E106" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F106" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="G106">
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>48</v>
       </c>
       <c r="B107" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C107" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D107" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E107" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F107" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="G107">
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>49</v>
       </c>
       <c r="B108" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C108" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D108" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E108" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="F108" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>50</v>
       </c>
       <c r="B109" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C109" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D109" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E109" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="F109" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="G109">
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>51</v>
       </c>
       <c r="B110" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C110" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D110" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E110" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F110" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="G110">
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>52</v>
       </c>
       <c r="B111" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C111" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D111" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E111" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="F111" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="G111">
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>53</v>
       </c>
       <c r="B112" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C112" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D112" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E112" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F112" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="G112">
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>54</v>
       </c>
       <c r="B113" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C113" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D113" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E113" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="F113" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="G113">
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>55</v>
       </c>
       <c r="B114" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C114" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D114" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E114" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="F114" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="G114">
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>56</v>
       </c>
       <c r="B115" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C115" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D115" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E115" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="F115" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="G115">
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>57</v>
       </c>
       <c r="B116" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C116" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D116" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E116" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F116" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="G116">
         <v>75</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>58</v>
       </c>
       <c r="B117" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C117" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D117" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E117" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F117" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="G117">
         <v>50</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>59</v>
       </c>
       <c r="B118" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C118" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D118" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E118" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F118" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>60</v>
       </c>
       <c r="B119" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C119" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D119" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E119" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="F119" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>61</v>
       </c>
       <c r="B120" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C120" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D120" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E120" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F120" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="G120">
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>62</v>
       </c>
       <c r="B121" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C121" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D121" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E121" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F121" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="G121">
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>63</v>
       </c>
       <c r="B122" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C122" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D122" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E122" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="F122" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="G122">
         <v>75</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>64</v>
       </c>
       <c r="B123" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C123" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D123" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E123" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F123" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="G123">
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>65</v>
       </c>
       <c r="B124" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C124" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D124" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E124" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F124" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="G124">
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>66</v>
       </c>
       <c r="B125" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C125" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D125" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E125" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="F125" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="G125">
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>67</v>
       </c>
       <c r="B126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C126" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D126" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E126" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="F126" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="G126">
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>68</v>
       </c>
       <c r="B127" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C127" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D127" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E127" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F127" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="G127">
         <v>50</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>69</v>
       </c>
       <c r="B128" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C128" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D128" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E128" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="F128" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="G128">
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>70</v>
       </c>
       <c r="B129" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C129" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D129" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E129" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F129" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="G129">
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>71</v>
       </c>
       <c r="B130" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C130" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D130" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E130" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="F130" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="G130">
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>72</v>
       </c>
       <c r="B131" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C131" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D131" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E131" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="F131" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="G131">
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
         <v>73</v>
       </c>
       <c r="B132" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C132" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D132" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E132" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="F132" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="G132">
         <v>75</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>74</v>
       </c>
       <c r="B133" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C133" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D133" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E133" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="F133" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="G133">
         <v>75</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>75</v>
       </c>
       <c r="B134" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C134" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D134" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E134" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F134" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="G134">
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>76</v>
       </c>
       <c r="B135" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C135" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D135" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E135" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="F135" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="G135">
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>77</v>
       </c>
       <c r="B136" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C136" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D136" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E136" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="F136" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="G136">
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
         <v>78</v>
       </c>
       <c r="B137" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C137" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D137" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E137" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="F137" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="G137">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>79</v>
       </c>
       <c r="B138" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C138" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D138" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E138" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="F138" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="G138">
         <v>75</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>80</v>
       </c>
       <c r="B139" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C139" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D139" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E139" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="F139" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="G139">
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>81</v>
       </c>
       <c r="B140" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C140" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D140" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E140" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F140" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="G140">
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>82</v>
       </c>
       <c r="B141" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C141" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D141" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E141" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="F141" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="G141">
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>83</v>
       </c>
       <c r="B142" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C142" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D142" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E142" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="F142" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="G142">
         <v>50</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>84</v>
       </c>
       <c r="B143" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C143" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D143" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E143" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F143" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="G143">
         <v>25</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>85</v>
       </c>
       <c r="B144" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C144" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D144" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E144" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="F144" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="G144">
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>86</v>
       </c>
       <c r="B145" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C145" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D145" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E145" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="F145" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="G145">
         <v>75</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>87</v>
       </c>
       <c r="B146" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C146" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D146" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E146" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="F146" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="G146">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>88</v>
       </c>
       <c r="B147" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C147" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D147" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E147" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="F147" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="G147">
         <v>25</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>89</v>
       </c>
       <c r="B148" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D148" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E148" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="F148" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="G148">
         <v>75</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
         <v>90</v>
       </c>
       <c r="B149" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C149" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D149" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E149" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="F149" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="G149">
         <v>25</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>91</v>
       </c>
       <c r="B150" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C150" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D150" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E150" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="F150" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="G150">
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>92</v>
       </c>
       <c r="B151" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C151" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D151" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E151" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="F151" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="G151">
         <v>25</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
         <v>93</v>
       </c>
       <c r="B152" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C152" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D152" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E152" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="F152" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="G152">
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
         <v>94</v>
       </c>
       <c r="B153" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C153" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D153" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E153" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="F153" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="G153">
         <v>75</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
         <v>95</v>
       </c>
       <c r="B154" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C154" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D154" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E154" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="F154" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="G154">
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
         <v>96</v>
       </c>
       <c r="B155" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C155" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E155" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="F155" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="G155">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
         <v>97</v>
       </c>
       <c r="B156" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C156" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D156" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E156" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="F156" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="G156">
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
         <v>98</v>
       </c>
       <c r="B157" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C157" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D157" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E157" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="F157" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="G157">
         <v>75</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
         <v>99</v>
       </c>
       <c r="B158" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C158" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D158" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E158" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="F158" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="G158">
         <v>50</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
         <v>100</v>
       </c>
       <c r="B159" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C159" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D159" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E159" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="F159" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="G159">
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
         <v>101</v>
       </c>
       <c r="B160" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C160" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D160" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E160" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="F160" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G160">
         <v>50</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
         <v>102</v>
       </c>
       <c r="B161" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C161" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D161" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E161" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="F161" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="G161">
         <v>50</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7">
       <c r="A162" t="s">
         <v>103</v>
       </c>
       <c r="B162" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C162" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D162" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E162" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="F162" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="G162">
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7">
       <c r="A163" t="s">
         <v>104</v>
       </c>
       <c r="B163" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C163" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D163" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E163" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="F163" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="G163">
         <v>50</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7">
       <c r="A164" t="s">
         <v>105</v>
       </c>
       <c r="B164" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C164" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D164" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E164" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F164" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="G164">
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
         <v>106</v>
       </c>
       <c r="B165" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C165" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D165" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E165" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="F165" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="G165">
         <v>75</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7">
       <c r="A166" t="s">
         <v>107</v>
       </c>
       <c r="B166" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C166" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D166" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E166" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="F166" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="G166">
         <v>50</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7">
       <c r="A167" t="s">
         <v>108</v>
       </c>
       <c r="B167" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C167" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D167" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E167" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="F167" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="G167">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7">
       <c r="A168" t="s">
         <v>109</v>
       </c>
       <c r="B168" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C168" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D168" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E168" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="F168" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="G168">
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7">
       <c r="A169" t="s">
         <v>110</v>
       </c>
       <c r="B169" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C169" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D169" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E169" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="F169" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="G169">
         <v>50</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7">
       <c r="A170" t="s">
         <v>111</v>
       </c>
       <c r="B170" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C170" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D170" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E170" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F170" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="G170">
         <v>25</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7">
       <c r="A171" t="s">
         <v>112</v>
       </c>
       <c r="B171" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C171" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D171" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E171" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="F171" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="G171">
         <v>50</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7">
       <c r="A172" t="s">
         <v>113</v>
       </c>
       <c r="B172" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C172" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D172" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E172" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="F172" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="G172">
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7">
       <c r="A173" t="s">
         <v>114</v>
       </c>
       <c r="B173" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C173" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D173" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E173" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="F173" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="G173">
         <v>25</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7">
       <c r="A174" t="s">
         <v>115</v>
       </c>
       <c r="B174" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C174" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D174" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E174" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="F174" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="G174">
         <v>75</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7">
       <c r="A175" t="s">
         <v>116</v>
       </c>
       <c r="B175" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C175" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D175" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E175" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="F175" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="G175">
         <v>25</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7">
       <c r="A176" t="s">
         <v>117</v>
       </c>
       <c r="B176" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D176" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E176" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F176" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="G176">
         <v>50</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
         <v>118</v>
       </c>
       <c r="B177" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C177" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D177" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E177" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="F177" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="G177">
         <v>50</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7">
       <c r="A178" t="s">
         <v>119</v>
       </c>
       <c r="B178" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C178" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D178" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E178" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F178" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G178">
         <v>50</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7">
       <c r="A179" t="s">
         <v>120</v>
       </c>
       <c r="B179" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C179" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D179" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E179" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="F179" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="G179">
         <v>100</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7">
       <c r="A180" t="s">
         <v>121</v>
       </c>
       <c r="B180" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C180" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D180" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E180" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="F180" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="G180">
         <v>50</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
         <v>122</v>
       </c>
       <c r="B181" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C181" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D181" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E181" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="F181" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="G181">
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7">
       <c r="A182" t="s">
         <v>123</v>
       </c>
       <c r="B182" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C182" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D182" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="E182" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="F182" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="G182">
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7">
       <c r="A183" t="s">
         <v>124</v>
       </c>
       <c r="B183" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C183" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D183" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E183" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="F183" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="G183">
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7">
       <c r="A184" t="s">
         <v>125</v>
       </c>
       <c r="B184" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C184" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D184" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E184" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="F184" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="G184">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7">
       <c r="A185" t="s">
         <v>126</v>
       </c>
       <c r="B185" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C185" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D185" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E185" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="G185">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7">
       <c r="A186" t="s">
         <v>127</v>
       </c>
       <c r="B186" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C186" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D186" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E186" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="F186" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="G186">
         <v>75</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7">
       <c r="A187" t="s">
         <v>128</v>
       </c>
       <c r="B187" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C187" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D187" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E187" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="F187" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="G187">
         <v>75</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7">
       <c r="A188" t="s">
         <v>129</v>
       </c>
       <c r="B188" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C188" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D188" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E188" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="F188" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G188">
         <v>75</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7">
       <c r="A189" t="s">
         <v>130</v>
       </c>
       <c r="B189" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C189" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D189" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E189" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="F189" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="G189">
         <v>50</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7">
       <c r="A190" t="s">
         <v>131</v>
       </c>
       <c r="B190" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C190" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D190" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="E190" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="F190" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="G190">
         <v>100</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7">
       <c r="A191" t="s">
         <v>132</v>
       </c>
       <c r="B191" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C191" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D191" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E191" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="F191" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="G191">
         <v>50</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7">
       <c r="A192" t="s">
         <v>133</v>
       </c>
       <c r="B192" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C192" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D192" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E192" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="F192" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="G192">
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7">
       <c r="A193" t="s">
         <v>134</v>
       </c>
       <c r="B193" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C193" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D193" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E193" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="F193" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="G193">
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7">
       <c r="A194" t="s">
         <v>135</v>
       </c>
       <c r="B194" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C194" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D194" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E194" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="F194" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="G194">
         <v>75</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7">
       <c r="A195" t="s">
         <v>136</v>
       </c>
       <c r="B195" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C195" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D195" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E195" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="F195" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="G195">
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7">
       <c r="A196" t="s">
         <v>137</v>
       </c>
       <c r="B196" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C196" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D196" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E196" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="F196" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="G196">
         <v>50</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7">
       <c r="A197" t="s">
         <v>138</v>
       </c>
       <c r="B197" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C197" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D197" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E197" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="F197" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="G197">
         <v>50</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7">
       <c r="A198" t="s">
         <v>139</v>
       </c>
       <c r="B198" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C198" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D198" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E198" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="F198" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="G198">
         <v>25</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7">
       <c r="A199" t="s">
         <v>140</v>
       </c>
       <c r="B199" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C199" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D199" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E199" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="F199" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="G199">
         <v>75</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7">
       <c r="A200" t="s">
         <v>141</v>
       </c>
       <c r="B200" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C200" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D200" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E200" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="F200" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="G200">
         <v>50</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7">
       <c r="A201" t="s">
         <v>142</v>
       </c>
       <c r="B201" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C201" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D201" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E201" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="F201" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="G201">
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7">
       <c r="A202" t="s">
         <v>143</v>
       </c>
       <c r="B202" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C202" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D202" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E202" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="F202" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="G202">
         <v>50</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7">
       <c r="A203" t="s">
         <v>144</v>
       </c>
       <c r="B203" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C203" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D203" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E203" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="F203" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="G203">
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B210" s="2"/>
+    <row r="204" spans="1:7">
+      <c r="A204" t="s">
+        <v>145</v>
+      </c>
+      <c r="B204" t="s">
+        <v>201</v>
+      </c>
+      <c r="C204" t="s">
+        <v>439</v>
+      </c>
+      <c r="D204" t="s">
+        <v>598</v>
+      </c>
+      <c r="E204" t="s">
+        <v>598</v>
+      </c>
+      <c r="F204" t="s">
+        <v>838</v>
+      </c>
+      <c r="G204">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VerbBender.xlsx
+++ b/VerbBender.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="1114">
   <si>
     <t>Date</t>
   </si>
@@ -454,6 +454,204 @@
     <t>09/01/2021 20:30:20.618122</t>
   </si>
   <si>
+    <t>09/01/2021 20:35:39.973857</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:36:09.645265</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:36:31.103164</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:36:46.457682</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:37:09.148131</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:38:18.096015</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:38:46.530537</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:39:03.377460</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:39:18.092060</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:39:36.652194</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:41:28.167642</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:41:50.583793</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:42:38.138471</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:44:06.725373</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:44:33.073249</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:45:05.096155</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:46:45.763523</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:47:28.421795</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:49:45.250406</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:50:28.121002</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:50:53.190413</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:51:32.902415</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:53:22.335574</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:53:44.385472</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:54:03.164498</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:54:23.463526</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:54:42.108822</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:55:04.412663</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:55:27.643014</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:55:39.577265</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:56:30.780183</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:56:42.395242</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:56:52.146270</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:57:12.232565</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:57:22.135469</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:57:36.866266</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:58:04.425950</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:58:23.410118</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:58:40.412110</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:59:05.448653</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:59:27.627577</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:59:38.303858</t>
+  </si>
+  <si>
+    <t>09/01/2021 20:59:54.621749</t>
+  </si>
+  <si>
+    <t>09/01/2021 21:00:11.125072</t>
+  </si>
+  <si>
+    <t>09/01/2021 21:01:41.373949</t>
+  </si>
+  <si>
+    <t>09/01/2021 21:01:54.013969</t>
+  </si>
+  <si>
+    <t>09/01/2021 21:02:16.538984</t>
+  </si>
+  <si>
+    <t>09/01/2021 21:03:02.654172</t>
+  </si>
+  <si>
+    <t>09/01/2021 21:03:21.240550</t>
+  </si>
+  <si>
+    <t>09/01/2021 21:03:40.220016</t>
+  </si>
+  <si>
+    <t>09/01/2021 21:03:51.647847</t>
+  </si>
+  <si>
+    <t>09/01/2021 21:04:06.394246</t>
+  </si>
+  <si>
+    <t>09/01/2021 21:04:29.362432</t>
+  </si>
+  <si>
+    <t>09/01/2021 21:04:39.682518</t>
+  </si>
+  <si>
+    <t>09/01/2021 21:04:54.436597</t>
+  </si>
+  <si>
+    <t>09/01/2021 21:05:08.532321</t>
+  </si>
+  <si>
+    <t>09/01/2021 21:06:29.614526</t>
+  </si>
+  <si>
+    <t>09/01/2021 21:06:40.205098</t>
+  </si>
+  <si>
+    <t>09/01/2021 21:06:53.699457</t>
+  </si>
+  <si>
+    <t>09/01/2021 21:07:04.928915</t>
+  </si>
+  <si>
+    <t>09/01/2021 21:07:19.119049</t>
+  </si>
+  <si>
+    <t>09/01/2021 21:08:01.709155</t>
+  </si>
+  <si>
+    <t>09/01/2021 21:08:24.302088</t>
+  </si>
+  <si>
+    <t>09/01/2021 21:09:14.496360</t>
+  </si>
+  <si>
+    <t>09/01/2021 21:09:31.021226</t>
+  </si>
+  <si>
+    <t>09/01/2021 21:09:44.934420</t>
+  </si>
+  <si>
     <t>Grill</t>
   </si>
   <si>
@@ -1336,6 +1534,96 @@
     <t>å åpne</t>
   </si>
   <si>
+    <t>å arbeide</t>
+  </si>
+  <si>
+    <t>å begynne</t>
+  </si>
+  <si>
+    <t>å bety</t>
+  </si>
+  <si>
+    <t>å bo</t>
+  </si>
+  <si>
+    <t>å forkla</t>
+  </si>
+  <si>
+    <t>å gifte</t>
+  </si>
+  <si>
+    <t>å hyd</t>
+  </si>
+  <si>
+    <t>å glede seg</t>
+  </si>
+  <si>
+    <t>å henta</t>
+  </si>
+  <si>
+    <t>å hete</t>
+  </si>
+  <si>
+    <t>å hilse</t>
+  </si>
+  <si>
+    <t>å heste</t>
+  </si>
+  <si>
+    <t>å huske</t>
+  </si>
+  <si>
+    <t>å leve</t>
+  </si>
+  <si>
+    <t>å fixe</t>
+  </si>
+  <si>
+    <t>å pusse</t>
+  </si>
+  <si>
+    <t>å puste</t>
+  </si>
+  <si>
+    <t>å skrike</t>
+  </si>
+  <si>
+    <t>å slape</t>
+  </si>
+  <si>
+    <t>å sende</t>
+  </si>
+  <si>
+    <t>å sjære</t>
+  </si>
+  <si>
+    <t>å forstæ</t>
+  </si>
+  <si>
+    <t>åd</t>
+  </si>
+  <si>
+    <t>å spile</t>
+  </si>
+  <si>
+    <t>å studere</t>
+  </si>
+  <si>
+    <t>å svare</t>
+  </si>
+  <si>
+    <t>å trø</t>
+  </si>
+  <si>
+    <t>å trykke</t>
+  </si>
+  <si>
+    <t>å j</t>
+  </si>
+  <si>
+    <t>å vake</t>
+  </si>
+  <si>
     <t>griller</t>
   </si>
   <si>
@@ -1813,6 +2101,21 @@
     <t>åpnet</t>
   </si>
   <si>
+    <t>døor</t>
+  </si>
+  <si>
+    <t>hører</t>
+  </si>
+  <si>
+    <t>skjønner</t>
+  </si>
+  <si>
+    <t>spiller</t>
+  </si>
+  <si>
+    <t>ventee</t>
+  </si>
+  <si>
     <t>grillte¨</t>
   </si>
   <si>
@@ -2323,6 +2626,90 @@
     <t>har vet</t>
   </si>
   <si>
+    <t>begynte</t>
+  </si>
+  <si>
+    <t>betalte</t>
+  </si>
+  <si>
+    <t>betydde</t>
+  </si>
+  <si>
+    <t>bevegte</t>
+  </si>
+  <si>
+    <t>dekket</t>
+  </si>
+  <si>
+    <t>døde</t>
+  </si>
+  <si>
+    <t>dusjet</t>
+  </si>
+  <si>
+    <t>følte seg</t>
+  </si>
+  <si>
+    <t>forlart</t>
+  </si>
+  <si>
+    <t>gjemte</t>
+  </si>
+  <si>
+    <t>gledet seg</t>
+  </si>
+  <si>
+    <t>glemte</t>
+  </si>
+  <si>
+    <t>hetet</t>
+  </si>
+  <si>
+    <t>hørte</t>
+  </si>
+  <si>
+    <t>kastet</t>
+  </si>
+  <si>
+    <t>kostet</t>
+  </si>
+  <si>
+    <t>levde</t>
+  </si>
+  <si>
+    <t>prøvde</t>
+  </si>
+  <si>
+    <t>puset</t>
+  </si>
+  <si>
+    <t>ryddet</t>
+  </si>
+  <si>
+    <t>slappet</t>
+  </si>
+  <si>
+    <t>skremte</t>
+  </si>
+  <si>
+    <t>sluttet</t>
+  </si>
+  <si>
+    <t>snodde</t>
+  </si>
+  <si>
+    <t>spillte</t>
+  </si>
+  <si>
+    <t>trykket</t>
+  </si>
+  <si>
+    <t>våknet</t>
+  </si>
+  <si>
+    <t>ventet</t>
+  </si>
+  <si>
     <t>grillte</t>
   </si>
   <si>
@@ -2852,6 +3239,123 @@
   </si>
   <si>
     <t>vister</t>
+  </si>
+  <si>
+    <t>har bakt</t>
+  </si>
+  <si>
+    <t>har betydd</t>
+  </si>
+  <si>
+    <t>har bevegt</t>
+  </si>
+  <si>
+    <t>har bodd</t>
+  </si>
+  <si>
+    <t>har brukt</t>
+  </si>
+  <si>
+    <t>har dekkt</t>
+  </si>
+  <si>
+    <t>har dødd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasr </t>
+  </si>
+  <si>
+    <t>har gjemmt</t>
+  </si>
+  <si>
+    <t>har gledt seg</t>
+  </si>
+  <si>
+    <t>har glemt</t>
+  </si>
+  <si>
+    <t>har het</t>
+  </si>
+  <si>
+    <t>har hilst</t>
+  </si>
+  <si>
+    <t>har hørt</t>
+  </si>
+  <si>
+    <t>har huskt</t>
+  </si>
+  <si>
+    <t>har kjønt</t>
+  </si>
+  <si>
+    <t>har kjøpt</t>
+  </si>
+  <si>
+    <t>har kokt</t>
+  </si>
+  <si>
+    <t>har kost</t>
+  </si>
+  <si>
+    <t>har lagt</t>
+  </si>
+  <si>
+    <t>har ordet</t>
+  </si>
+  <si>
+    <t>har passt</t>
+  </si>
+  <si>
+    <t>har prøvd</t>
+  </si>
+  <si>
+    <t>har puss</t>
+  </si>
+  <si>
+    <t>har ring</t>
+  </si>
+  <si>
+    <t>har slappt</t>
+  </si>
+  <si>
+    <t>har sendt</t>
+  </si>
+  <si>
+    <t>har skart</t>
+  </si>
+  <si>
+    <t>har skjøtt</t>
+  </si>
+  <si>
+    <t>har slått</t>
+  </si>
+  <si>
+    <t>har smilt</t>
+  </si>
+  <si>
+    <t>har snødd</t>
+  </si>
+  <si>
+    <t>har stemt</t>
+  </si>
+  <si>
+    <t>har trodd</t>
+  </si>
+  <si>
+    <t>har trikket</t>
+  </si>
+  <si>
+    <t>har tullt</t>
+  </si>
+  <si>
+    <t>har våknt</t>
+  </si>
+  <si>
+    <t>har ventet</t>
+  </si>
+  <si>
+    <t>har vist</t>
   </si>
 </sst>
 </file>
@@ -3209,7 +3713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G204"/>
+  <dimension ref="A1:G270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3243,19 +3747,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="C2" t="s">
-        <v>290</v>
+        <v>356</v>
       </c>
       <c r="D2" t="s">
-        <v>440</v>
+        <v>536</v>
       </c>
       <c r="E2" t="s">
-        <v>599</v>
+        <v>700</v>
       </c>
       <c r="F2" t="s">
-        <v>769</v>
+        <v>898</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -3266,19 +3770,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="C3" t="s">
-        <v>291</v>
+        <v>357</v>
       </c>
       <c r="D3" t="s">
-        <v>441</v>
+        <v>537</v>
       </c>
       <c r="E3" t="s">
-        <v>600</v>
+        <v>701</v>
       </c>
       <c r="F3" t="s">
-        <v>770</v>
+        <v>899</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -3289,19 +3793,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="C4" t="s">
-        <v>292</v>
+        <v>358</v>
       </c>
       <c r="D4" t="s">
-        <v>442</v>
+        <v>538</v>
       </c>
       <c r="E4" t="s">
-        <v>601</v>
+        <v>702</v>
       </c>
       <c r="F4" t="s">
-        <v>771</v>
+        <v>900</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -3312,19 +3816,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>215</v>
       </c>
       <c r="C5" t="s">
-        <v>293</v>
+        <v>359</v>
       </c>
       <c r="D5" t="s">
-        <v>443</v>
+        <v>539</v>
       </c>
       <c r="E5" t="s">
-        <v>602</v>
+        <v>703</v>
       </c>
       <c r="F5" t="s">
-        <v>772</v>
+        <v>901</v>
       </c>
       <c r="G5">
         <v>50</v>
@@ -3335,19 +3839,19 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>216</v>
       </c>
       <c r="C6" t="s">
-        <v>294</v>
+        <v>360</v>
       </c>
       <c r="D6" t="s">
-        <v>444</v>
+        <v>540</v>
       </c>
       <c r="E6" t="s">
-        <v>603</v>
+        <v>704</v>
       </c>
       <c r="F6" t="s">
-        <v>773</v>
+        <v>902</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3358,19 +3862,19 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>217</v>
       </c>
       <c r="C7" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="D7" t="s">
-        <v>445</v>
+        <v>541</v>
       </c>
       <c r="E7" t="s">
-        <v>604</v>
+        <v>705</v>
       </c>
       <c r="F7" t="s">
-        <v>774</v>
+        <v>903</v>
       </c>
       <c r="G7">
         <v>25</v>
@@ -3381,19 +3885,19 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="C8" t="s">
-        <v>296</v>
+        <v>362</v>
       </c>
       <c r="D8" t="s">
-        <v>446</v>
+        <v>542</v>
       </c>
       <c r="E8" t="s">
-        <v>605</v>
+        <v>706</v>
       </c>
       <c r="F8" t="s">
-        <v>775</v>
+        <v>904</v>
       </c>
       <c r="G8">
         <v>25</v>
@@ -3404,19 +3908,19 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>219</v>
       </c>
       <c r="C9" t="s">
-        <v>297</v>
+        <v>363</v>
       </c>
       <c r="D9" t="s">
-        <v>447</v>
+        <v>543</v>
       </c>
       <c r="E9" t="s">
-        <v>606</v>
+        <v>707</v>
       </c>
       <c r="F9" t="s">
-        <v>776</v>
+        <v>905</v>
       </c>
       <c r="G9">
         <v>50</v>
@@ -3427,19 +3931,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="C10" t="s">
-        <v>298</v>
+        <v>364</v>
       </c>
       <c r="D10" t="s">
-        <v>448</v>
+        <v>544</v>
       </c>
       <c r="E10" t="s">
-        <v>607</v>
+        <v>708</v>
       </c>
       <c r="F10" t="s">
-        <v>777</v>
+        <v>906</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -3450,19 +3954,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="C11" t="s">
-        <v>299</v>
+        <v>365</v>
       </c>
       <c r="D11" t="s">
-        <v>449</v>
+        <v>545</v>
       </c>
       <c r="E11" t="s">
-        <v>608</v>
+        <v>709</v>
       </c>
       <c r="F11" t="s">
-        <v>778</v>
+        <v>907</v>
       </c>
       <c r="G11">
         <v>25</v>
@@ -3473,19 +3977,19 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="C12" t="s">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="D12" t="s">
-        <v>450</v>
+        <v>546</v>
       </c>
       <c r="E12" t="s">
-        <v>609</v>
+        <v>710</v>
       </c>
       <c r="F12" t="s">
-        <v>779</v>
+        <v>908</v>
       </c>
       <c r="G12">
         <v>75</v>
@@ -3496,19 +4000,19 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="C13" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="D13" t="s">
-        <v>451</v>
+        <v>547</v>
       </c>
       <c r="E13" t="s">
-        <v>610</v>
+        <v>711</v>
       </c>
       <c r="F13" t="s">
-        <v>780</v>
+        <v>909</v>
       </c>
       <c r="G13">
         <v>25</v>
@@ -3519,19 +4023,19 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>224</v>
       </c>
       <c r="C14" t="s">
-        <v>302</v>
+        <v>368</v>
       </c>
       <c r="D14" t="s">
-        <v>452</v>
+        <v>548</v>
       </c>
       <c r="E14" t="s">
-        <v>611</v>
+        <v>712</v>
       </c>
       <c r="F14" t="s">
-        <v>781</v>
+        <v>910</v>
       </c>
       <c r="G14">
         <v>50</v>
@@ -3542,19 +4046,19 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>225</v>
       </c>
       <c r="C15" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="D15" t="s">
-        <v>453</v>
+        <v>549</v>
       </c>
       <c r="E15" t="s">
-        <v>612</v>
+        <v>713</v>
       </c>
       <c r="F15" t="s">
-        <v>782</v>
+        <v>911</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -3565,19 +4069,19 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="C16" t="s">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="D16" t="s">
-        <v>454</v>
+        <v>550</v>
       </c>
       <c r="E16" t="s">
-        <v>613</v>
+        <v>714</v>
       </c>
       <c r="F16" t="s">
-        <v>783</v>
+        <v>912</v>
       </c>
       <c r="G16">
         <v>25</v>
@@ -3588,19 +4092,19 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="C17" t="s">
-        <v>305</v>
+        <v>371</v>
       </c>
       <c r="D17" t="s">
-        <v>455</v>
+        <v>551</v>
       </c>
       <c r="E17" t="s">
-        <v>614</v>
+        <v>715</v>
       </c>
       <c r="F17" t="s">
-        <v>784</v>
+        <v>913</v>
       </c>
       <c r="G17">
         <v>50</v>
@@ -3611,19 +4115,19 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>162</v>
+        <v>228</v>
       </c>
       <c r="C18" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
       <c r="D18" t="s">
-        <v>456</v>
+        <v>552</v>
       </c>
       <c r="E18" t="s">
-        <v>615</v>
+        <v>716</v>
       </c>
       <c r="F18" t="s">
-        <v>785</v>
+        <v>914</v>
       </c>
       <c r="G18">
         <v>50</v>
@@ -3634,19 +4138,19 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="C19" t="s">
-        <v>307</v>
+        <v>373</v>
       </c>
       <c r="D19" t="s">
-        <v>457</v>
+        <v>553</v>
       </c>
       <c r="E19" t="s">
-        <v>616</v>
+        <v>717</v>
       </c>
       <c r="F19" t="s">
-        <v>616</v>
+        <v>717</v>
       </c>
       <c r="G19">
         <v>25</v>
@@ -3657,19 +4161,19 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="C20" t="s">
-        <v>308</v>
+        <v>374</v>
       </c>
       <c r="D20" t="s">
-        <v>458</v>
+        <v>554</v>
       </c>
       <c r="E20" t="s">
-        <v>617</v>
+        <v>718</v>
       </c>
       <c r="F20" t="s">
-        <v>786</v>
+        <v>915</v>
       </c>
       <c r="G20">
         <v>25</v>
@@ -3680,19 +4184,19 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="C21" t="s">
-        <v>309</v>
+        <v>375</v>
       </c>
       <c r="D21" t="s">
-        <v>457</v>
+        <v>553</v>
       </c>
       <c r="E21" t="s">
-        <v>618</v>
+        <v>719</v>
       </c>
       <c r="F21" t="s">
-        <v>787</v>
+        <v>916</v>
       </c>
       <c r="G21">
         <v>75</v>
@@ -3703,19 +4207,19 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
+        <v>231</v>
       </c>
       <c r="C22" t="s">
-        <v>310</v>
+        <v>376</v>
       </c>
       <c r="D22" t="s">
-        <v>459</v>
+        <v>555</v>
       </c>
       <c r="E22" t="s">
-        <v>619</v>
+        <v>720</v>
       </c>
       <c r="F22" t="s">
-        <v>788</v>
+        <v>917</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -3726,19 +4230,19 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="C23" t="s">
-        <v>311</v>
+        <v>377</v>
       </c>
       <c r="D23" t="s">
-        <v>460</v>
+        <v>556</v>
       </c>
       <c r="E23" t="s">
-        <v>620</v>
+        <v>721</v>
       </c>
       <c r="F23" t="s">
-        <v>789</v>
+        <v>918</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -3749,19 +4253,19 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="C24" t="s">
-        <v>312</v>
+        <v>378</v>
       </c>
       <c r="D24" t="s">
-        <v>461</v>
+        <v>557</v>
       </c>
       <c r="E24" t="s">
-        <v>621</v>
+        <v>722</v>
       </c>
       <c r="F24" t="s">
-        <v>790</v>
+        <v>919</v>
       </c>
       <c r="G24">
         <v>25</v>
@@ -3772,19 +4276,19 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>168</v>
+        <v>234</v>
       </c>
       <c r="C25" t="s">
-        <v>313</v>
+        <v>379</v>
       </c>
       <c r="D25" t="s">
-        <v>462</v>
+        <v>558</v>
       </c>
       <c r="E25" t="s">
-        <v>622</v>
+        <v>723</v>
       </c>
       <c r="F25" t="s">
-        <v>791</v>
+        <v>920</v>
       </c>
       <c r="G25">
         <v>25</v>
@@ -3795,19 +4299,19 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="C26" t="s">
-        <v>314</v>
+        <v>380</v>
       </c>
       <c r="D26" t="s">
-        <v>449</v>
+        <v>545</v>
       </c>
       <c r="E26" t="s">
-        <v>623</v>
+        <v>724</v>
       </c>
       <c r="F26" t="s">
-        <v>792</v>
+        <v>921</v>
       </c>
       <c r="G26">
         <v>25</v>
@@ -3818,19 +4322,19 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="C27" t="s">
-        <v>315</v>
+        <v>381</v>
       </c>
       <c r="D27" t="s">
-        <v>463</v>
+        <v>559</v>
       </c>
       <c r="E27" t="s">
-        <v>624</v>
+        <v>725</v>
       </c>
       <c r="F27" t="s">
-        <v>793</v>
+        <v>922</v>
       </c>
       <c r="G27">
         <v>25</v>
@@ -3841,19 +4345,19 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="C28" t="s">
-        <v>316</v>
+        <v>382</v>
       </c>
       <c r="D28" t="s">
-        <v>464</v>
+        <v>560</v>
       </c>
       <c r="E28" t="s">
-        <v>625</v>
+        <v>726</v>
       </c>
       <c r="F28" t="s">
-        <v>794</v>
+        <v>923</v>
       </c>
       <c r="G28">
         <v>25</v>
@@ -3864,19 +4368,19 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="C29" t="s">
-        <v>307</v>
+        <v>373</v>
       </c>
       <c r="D29" t="s">
-        <v>465</v>
+        <v>561</v>
       </c>
       <c r="E29" t="s">
-        <v>626</v>
+        <v>727</v>
       </c>
       <c r="F29" t="s">
-        <v>795</v>
+        <v>924</v>
       </c>
       <c r="G29">
         <v>25</v>
@@ -3887,19 +4391,19 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="C30" t="s">
-        <v>317</v>
+        <v>383</v>
       </c>
       <c r="D30" t="s">
-        <v>466</v>
+        <v>562</v>
       </c>
       <c r="E30" t="s">
-        <v>627</v>
+        <v>728</v>
       </c>
       <c r="F30" t="s">
-        <v>796</v>
+        <v>925</v>
       </c>
       <c r="G30">
         <v>25</v>
@@ -3910,19 +4414,19 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="C31" t="s">
-        <v>318</v>
+        <v>384</v>
       </c>
       <c r="D31" t="s">
-        <v>467</v>
+        <v>563</v>
       </c>
       <c r="E31" t="s">
-        <v>628</v>
+        <v>729</v>
       </c>
       <c r="F31" t="s">
-        <v>797</v>
+        <v>926</v>
       </c>
       <c r="G31">
         <v>25</v>
@@ -3933,19 +4437,19 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="C32" t="s">
-        <v>315</v>
+        <v>381</v>
       </c>
       <c r="D32" t="s">
-        <v>468</v>
+        <v>564</v>
       </c>
       <c r="E32" t="s">
-        <v>629</v>
+        <v>730</v>
       </c>
       <c r="F32" t="s">
-        <v>798</v>
+        <v>927</v>
       </c>
       <c r="G32">
         <v>75</v>
@@ -3956,19 +4460,19 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="C33" t="s">
-        <v>319</v>
+        <v>385</v>
       </c>
       <c r="D33" t="s">
-        <v>469</v>
+        <v>565</v>
       </c>
       <c r="E33" t="s">
-        <v>630</v>
+        <v>731</v>
       </c>
       <c r="F33" t="s">
-        <v>799</v>
+        <v>928</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3979,19 +4483,19 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>175</v>
+        <v>241</v>
       </c>
       <c r="C34" t="s">
-        <v>320</v>
+        <v>386</v>
       </c>
       <c r="D34" t="s">
-        <v>470</v>
+        <v>566</v>
       </c>
       <c r="E34" t="s">
-        <v>631</v>
+        <v>732</v>
       </c>
       <c r="F34" t="s">
-        <v>800</v>
+        <v>929</v>
       </c>
       <c r="G34">
         <v>25</v>
@@ -4002,16 +4506,16 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>321</v>
+        <v>387</v>
       </c>
       <c r="D35" t="s">
-        <v>471</v>
+        <v>567</v>
       </c>
       <c r="E35" t="s">
-        <v>632</v>
+        <v>733</v>
       </c>
       <c r="F35" t="s">
-        <v>632</v>
+        <v>733</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -4022,19 +4526,19 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="C36" t="s">
-        <v>322</v>
+        <v>388</v>
       </c>
       <c r="D36" t="s">
-        <v>472</v>
+        <v>568</v>
       </c>
       <c r="E36" t="s">
-        <v>633</v>
+        <v>734</v>
       </c>
       <c r="F36" t="s">
-        <v>801</v>
+        <v>930</v>
       </c>
       <c r="G36">
         <v>100</v>
@@ -4045,19 +4549,19 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="C37" t="s">
-        <v>323</v>
+        <v>389</v>
       </c>
       <c r="D37" t="s">
-        <v>473</v>
+        <v>569</v>
       </c>
       <c r="E37" t="s">
-        <v>634</v>
+        <v>735</v>
       </c>
       <c r="F37" t="s">
-        <v>802</v>
+        <v>931</v>
       </c>
       <c r="G37">
         <v>25</v>
@@ -4068,19 +4572,19 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>178</v>
+        <v>244</v>
       </c>
       <c r="C38" t="s">
-        <v>324</v>
+        <v>390</v>
       </c>
       <c r="D38" t="s">
-        <v>474</v>
+        <v>570</v>
       </c>
       <c r="E38" t="s">
-        <v>635</v>
+        <v>736</v>
       </c>
       <c r="F38" t="s">
-        <v>803</v>
+        <v>932</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -4091,19 +4595,19 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="C39" t="s">
-        <v>325</v>
+        <v>391</v>
       </c>
       <c r="D39" t="s">
-        <v>475</v>
+        <v>571</v>
       </c>
       <c r="E39" t="s">
-        <v>636</v>
+        <v>737</v>
       </c>
       <c r="F39" t="s">
-        <v>804</v>
+        <v>933</v>
       </c>
       <c r="G39">
         <v>25</v>
@@ -4114,19 +4618,19 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="C40" t="s">
-        <v>326</v>
+        <v>392</v>
       </c>
       <c r="D40" t="s">
-        <v>476</v>
+        <v>572</v>
       </c>
       <c r="E40" t="s">
-        <v>637</v>
+        <v>738</v>
       </c>
       <c r="F40" t="s">
-        <v>805</v>
+        <v>934</v>
       </c>
       <c r="G40">
         <v>25</v>
@@ -4137,19 +4641,19 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="C41" t="s">
-        <v>327</v>
+        <v>393</v>
       </c>
       <c r="D41" t="s">
-        <v>477</v>
+        <v>573</v>
       </c>
       <c r="E41" t="s">
-        <v>638</v>
+        <v>739</v>
       </c>
       <c r="F41" t="s">
-        <v>641</v>
+        <v>742</v>
       </c>
       <c r="G41">
         <v>50</v>
@@ -4160,19 +4664,19 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="C42" t="s">
-        <v>328</v>
+        <v>394</v>
       </c>
       <c r="D42" t="s">
-        <v>478</v>
+        <v>574</v>
       </c>
       <c r="E42" t="s">
-        <v>639</v>
+        <v>740</v>
       </c>
       <c r="F42" t="s">
-        <v>806</v>
+        <v>935</v>
       </c>
       <c r="G42">
         <v>50</v>
@@ -4183,19 +4687,19 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="C43" t="s">
-        <v>329</v>
+        <v>395</v>
       </c>
       <c r="D43" t="s">
-        <v>479</v>
+        <v>575</v>
       </c>
       <c r="E43" t="s">
-        <v>640</v>
+        <v>741</v>
       </c>
       <c r="F43" t="s">
-        <v>807</v>
+        <v>936</v>
       </c>
       <c r="G43">
         <v>50</v>
@@ -4206,19 +4710,19 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="C44" t="s">
-        <v>325</v>
+        <v>391</v>
       </c>
       <c r="D44" t="s">
-        <v>475</v>
+        <v>571</v>
       </c>
       <c r="E44" t="s">
-        <v>495</v>
+        <v>591</v>
       </c>
       <c r="F44" t="s">
-        <v>808</v>
+        <v>937</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4229,19 +4733,19 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="C45" t="s">
-        <v>327</v>
+        <v>393</v>
       </c>
       <c r="D45" t="s">
-        <v>477</v>
+        <v>573</v>
       </c>
       <c r="E45" t="s">
-        <v>641</v>
+        <v>742</v>
       </c>
       <c r="F45" t="s">
-        <v>809</v>
+        <v>938</v>
       </c>
       <c r="G45">
         <v>75</v>
@@ -4252,19 +4756,19 @@
         <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="C46" t="s">
-        <v>330</v>
+        <v>396</v>
       </c>
       <c r="D46" t="s">
-        <v>480</v>
+        <v>576</v>
       </c>
       <c r="E46" t="s">
-        <v>642</v>
+        <v>743</v>
       </c>
       <c r="F46" t="s">
-        <v>810</v>
+        <v>939</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4275,19 +4779,19 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>186</v>
+        <v>252</v>
       </c>
       <c r="C47" t="s">
-        <v>331</v>
+        <v>397</v>
       </c>
       <c r="D47" t="s">
-        <v>481</v>
+        <v>577</v>
       </c>
       <c r="E47" t="s">
-        <v>643</v>
+        <v>744</v>
       </c>
       <c r="F47" t="s">
-        <v>692</v>
+        <v>793</v>
       </c>
       <c r="G47">
         <v>25</v>
@@ -4298,19 +4802,19 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="C48" t="s">
-        <v>307</v>
+        <v>373</v>
       </c>
       <c r="D48" t="s">
-        <v>482</v>
+        <v>578</v>
       </c>
       <c r="E48" t="s">
-        <v>644</v>
+        <v>745</v>
       </c>
       <c r="F48" t="s">
-        <v>740</v>
+        <v>841</v>
       </c>
       <c r="G48">
         <v>50</v>
@@ -4321,19 +4825,19 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="C49" t="s">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="D49" t="s">
-        <v>483</v>
+        <v>579</v>
       </c>
       <c r="E49" t="s">
-        <v>645</v>
+        <v>746</v>
       </c>
       <c r="F49" t="s">
-        <v>811</v>
+        <v>940</v>
       </c>
       <c r="G49">
         <v>25</v>
@@ -4344,19 +4848,19 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="C50" t="s">
-        <v>333</v>
+        <v>399</v>
       </c>
       <c r="D50" t="s">
-        <v>476</v>
+        <v>572</v>
       </c>
       <c r="E50" t="s">
-        <v>637</v>
+        <v>738</v>
       </c>
       <c r="F50" t="s">
-        <v>812</v>
+        <v>941</v>
       </c>
       <c r="G50">
         <v>50</v>
@@ -4367,19 +4871,19 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>189</v>
+        <v>255</v>
       </c>
       <c r="C51" t="s">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="D51" t="s">
-        <v>484</v>
+        <v>580</v>
       </c>
       <c r="E51" t="s">
-        <v>646</v>
+        <v>747</v>
       </c>
       <c r="F51" t="s">
-        <v>813</v>
+        <v>942</v>
       </c>
       <c r="G51">
         <v>50</v>
@@ -4390,19 +4894,19 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="C52" t="s">
-        <v>335</v>
+        <v>401</v>
       </c>
       <c r="D52" t="s">
-        <v>485</v>
+        <v>581</v>
       </c>
       <c r="E52" t="s">
-        <v>647</v>
+        <v>748</v>
       </c>
       <c r="F52" t="s">
-        <v>814</v>
+        <v>943</v>
       </c>
       <c r="G52">
         <v>25</v>
@@ -4413,19 +4917,19 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="C53" t="s">
-        <v>336</v>
+        <v>402</v>
       </c>
       <c r="D53" t="s">
-        <v>486</v>
+        <v>582</v>
       </c>
       <c r="E53" t="s">
-        <v>648</v>
+        <v>749</v>
       </c>
       <c r="F53" t="s">
-        <v>815</v>
+        <v>944</v>
       </c>
       <c r="G53">
         <v>75</v>
@@ -4436,19 +4940,19 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="C54" t="s">
-        <v>337</v>
+        <v>403</v>
       </c>
       <c r="D54" t="s">
-        <v>487</v>
+        <v>583</v>
       </c>
       <c r="E54" t="s">
-        <v>649</v>
+        <v>750</v>
       </c>
       <c r="F54" t="s">
-        <v>816</v>
+        <v>945</v>
       </c>
       <c r="G54">
         <v>50</v>
@@ -4459,19 +4963,19 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="C55" t="s">
-        <v>333</v>
+        <v>399</v>
       </c>
       <c r="D55" t="s">
-        <v>476</v>
+        <v>572</v>
       </c>
       <c r="E55" t="s">
-        <v>650</v>
+        <v>751</v>
       </c>
       <c r="F55" t="s">
-        <v>817</v>
+        <v>946</v>
       </c>
       <c r="G55">
         <v>75</v>
@@ -4482,19 +4986,19 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>192</v>
+        <v>258</v>
       </c>
       <c r="C56" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="D56" t="s">
-        <v>488</v>
+        <v>584</v>
       </c>
       <c r="E56" t="s">
-        <v>488</v>
+        <v>584</v>
       </c>
       <c r="F56" t="s">
-        <v>818</v>
+        <v>947</v>
       </c>
       <c r="G56">
         <v>25</v>
@@ -4505,19 +5009,19 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>193</v>
+        <v>259</v>
       </c>
       <c r="C57" t="s">
-        <v>331</v>
+        <v>397</v>
       </c>
       <c r="D57" t="s">
-        <v>489</v>
+        <v>585</v>
       </c>
       <c r="E57" t="s">
-        <v>651</v>
+        <v>752</v>
       </c>
       <c r="F57" t="s">
-        <v>819</v>
+        <v>948</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -4528,19 +5032,19 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="C58" t="s">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="D58" t="s">
-        <v>483</v>
+        <v>579</v>
       </c>
       <c r="E58" t="s">
-        <v>652</v>
+        <v>753</v>
       </c>
       <c r="F58" t="s">
-        <v>811</v>
+        <v>940</v>
       </c>
       <c r="G58">
         <v>50</v>
@@ -4551,19 +5055,19 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="C59" t="s">
-        <v>339</v>
+        <v>405</v>
       </c>
       <c r="D59" t="s">
-        <v>490</v>
+        <v>586</v>
       </c>
       <c r="E59" t="s">
-        <v>490</v>
+        <v>586</v>
       </c>
       <c r="F59" t="s">
-        <v>490</v>
+        <v>586</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -4574,19 +5078,19 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
       <c r="C60" t="s">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="D60" t="s">
-        <v>491</v>
+        <v>587</v>
       </c>
       <c r="E60" t="s">
-        <v>653</v>
+        <v>754</v>
       </c>
       <c r="F60" t="s">
-        <v>820</v>
+        <v>949</v>
       </c>
       <c r="G60">
         <v>50</v>
@@ -4597,19 +5101,19 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="C61" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="D61" t="s">
-        <v>478</v>
+        <v>574</v>
       </c>
       <c r="E61" t="s">
-        <v>654</v>
+        <v>755</v>
       </c>
       <c r="F61" t="s">
-        <v>821</v>
+        <v>950</v>
       </c>
       <c r="G61">
         <v>25</v>
@@ -4620,19 +5124,19 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="C62" t="s">
-        <v>341</v>
+        <v>407</v>
       </c>
       <c r="D62" t="s">
-        <v>492</v>
+        <v>588</v>
       </c>
       <c r="E62" t="s">
-        <v>655</v>
+        <v>756</v>
       </c>
       <c r="F62" t="s">
-        <v>822</v>
+        <v>951</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -4643,19 +5147,19 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>196</v>
+        <v>262</v>
       </c>
       <c r="C63" t="s">
-        <v>342</v>
+        <v>408</v>
       </c>
       <c r="D63" t="s">
-        <v>493</v>
+        <v>589</v>
       </c>
       <c r="E63" t="s">
-        <v>656</v>
+        <v>757</v>
       </c>
       <c r="F63" t="s">
-        <v>823</v>
+        <v>952</v>
       </c>
       <c r="G63">
         <v>25</v>
@@ -4666,19 +5170,19 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="C64" t="s">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="D64" t="s">
-        <v>494</v>
+        <v>590</v>
       </c>
       <c r="E64" t="s">
-        <v>657</v>
+        <v>758</v>
       </c>
       <c r="F64" t="s">
-        <v>824</v>
+        <v>953</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -4689,19 +5193,19 @@
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="C65" t="s">
-        <v>325</v>
+        <v>391</v>
       </c>
       <c r="D65" t="s">
-        <v>495</v>
+        <v>591</v>
       </c>
       <c r="E65" t="s">
-        <v>658</v>
+        <v>759</v>
       </c>
       <c r="F65" t="s">
-        <v>825</v>
+        <v>954</v>
       </c>
       <c r="G65">
         <v>25</v>
@@ -4712,19 +5216,19 @@
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="C66" t="s">
-        <v>343</v>
+        <v>409</v>
       </c>
       <c r="D66" t="s">
-        <v>496</v>
+        <v>592</v>
       </c>
       <c r="E66" t="s">
-        <v>659</v>
+        <v>760</v>
       </c>
       <c r="F66" t="s">
-        <v>826</v>
+        <v>955</v>
       </c>
       <c r="G66">
         <v>25</v>
@@ -4735,19 +5239,19 @@
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>189</v>
+        <v>255</v>
       </c>
       <c r="C67" t="s">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="D67" t="s">
-        <v>484</v>
+        <v>580</v>
       </c>
       <c r="E67" t="s">
-        <v>660</v>
+        <v>761</v>
       </c>
       <c r="F67" t="s">
-        <v>827</v>
+        <v>956</v>
       </c>
       <c r="G67">
         <v>50</v>
@@ -4758,19 +5262,19 @@
         <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="C68" t="s">
-        <v>333</v>
+        <v>399</v>
       </c>
       <c r="D68" t="s">
-        <v>476</v>
+        <v>572</v>
       </c>
       <c r="E68" t="s">
-        <v>637</v>
+        <v>738</v>
       </c>
       <c r="F68" t="s">
-        <v>828</v>
+        <v>957</v>
       </c>
       <c r="G68">
         <v>50</v>
@@ -4781,19 +5285,19 @@
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>198</v>
+        <v>264</v>
       </c>
       <c r="C69" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="D69" t="s">
-        <v>497</v>
+        <v>593</v>
       </c>
       <c r="E69" t="s">
-        <v>661</v>
+        <v>762</v>
       </c>
       <c r="F69" t="s">
-        <v>829</v>
+        <v>958</v>
       </c>
       <c r="G69">
         <v>25</v>
@@ -4804,19 +5308,19 @@
         <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>199</v>
+        <v>265</v>
       </c>
       <c r="C70" t="s">
-        <v>345</v>
+        <v>411</v>
       </c>
       <c r="D70" t="s">
-        <v>448</v>
+        <v>544</v>
       </c>
       <c r="E70" t="s">
-        <v>662</v>
+        <v>763</v>
       </c>
       <c r="F70" t="s">
-        <v>830</v>
+        <v>959</v>
       </c>
       <c r="G70">
         <v>50</v>
@@ -4827,19 +5331,19 @@
         <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="C71" t="s">
-        <v>346</v>
+        <v>412</v>
       </c>
       <c r="D71" t="s">
-        <v>498</v>
+        <v>594</v>
       </c>
       <c r="E71" t="s">
-        <v>663</v>
+        <v>764</v>
       </c>
       <c r="F71" t="s">
-        <v>831</v>
+        <v>960</v>
       </c>
       <c r="G71">
         <v>25</v>
@@ -4850,19 +5354,19 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="C72" t="s">
-        <v>347</v>
+        <v>413</v>
       </c>
       <c r="D72" t="s">
-        <v>478</v>
+        <v>574</v>
       </c>
       <c r="E72" t="s">
-        <v>654</v>
+        <v>755</v>
       </c>
       <c r="F72" t="s">
-        <v>821</v>
+        <v>950</v>
       </c>
       <c r="G72">
         <v>25</v>
@@ -4873,19 +5377,19 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="C73" t="s">
-        <v>341</v>
+        <v>407</v>
       </c>
       <c r="D73" t="s">
-        <v>499</v>
+        <v>595</v>
       </c>
       <c r="E73" t="s">
-        <v>655</v>
+        <v>756</v>
       </c>
       <c r="F73" t="s">
-        <v>832</v>
+        <v>961</v>
       </c>
       <c r="G73">
         <v>50</v>
@@ -4896,19 +5400,19 @@
         <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="C74" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="D74" t="s">
-        <v>478</v>
+        <v>574</v>
       </c>
       <c r="E74" t="s">
-        <v>654</v>
+        <v>755</v>
       </c>
       <c r="F74" t="s">
-        <v>821</v>
+        <v>950</v>
       </c>
       <c r="G74">
         <v>50</v>
@@ -4919,19 +5423,19 @@
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="C75" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="D75" t="s">
-        <v>478</v>
+        <v>574</v>
       </c>
       <c r="E75" t="s">
-        <v>664</v>
+        <v>765</v>
       </c>
       <c r="F75" t="s">
-        <v>806</v>
+        <v>935</v>
       </c>
       <c r="G75">
         <v>100</v>
@@ -4942,19 +5446,19 @@
         <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="C76" t="s">
-        <v>349</v>
+        <v>415</v>
       </c>
       <c r="D76" t="s">
-        <v>499</v>
+        <v>595</v>
       </c>
       <c r="E76" t="s">
-        <v>655</v>
+        <v>756</v>
       </c>
       <c r="F76" t="s">
-        <v>833</v>
+        <v>962</v>
       </c>
       <c r="G76">
         <v>25</v>
@@ -4965,19 +5469,19 @@
         <v>18</v>
       </c>
       <c r="B77" t="s">
-        <v>196</v>
+        <v>262</v>
       </c>
       <c r="C77" t="s">
-        <v>350</v>
+        <v>416</v>
       </c>
       <c r="D77" t="s">
-        <v>493</v>
+        <v>589</v>
       </c>
       <c r="E77" t="s">
-        <v>665</v>
+        <v>766</v>
       </c>
       <c r="F77" t="s">
-        <v>834</v>
+        <v>963</v>
       </c>
       <c r="G77">
         <v>25</v>
@@ -4988,19 +5492,19 @@
         <v>19</v>
       </c>
       <c r="B78" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="C78" t="s">
-        <v>351</v>
+        <v>417</v>
       </c>
       <c r="D78" t="s">
-        <v>478</v>
+        <v>574</v>
       </c>
       <c r="E78" t="s">
-        <v>664</v>
+        <v>765</v>
       </c>
       <c r="F78" t="s">
-        <v>806</v>
+        <v>935</v>
       </c>
       <c r="G78">
         <v>75</v>
@@ -5011,19 +5515,19 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="C79" t="s">
-        <v>352</v>
+        <v>418</v>
       </c>
       <c r="D79" t="s">
-        <v>499</v>
+        <v>595</v>
       </c>
       <c r="E79" t="s">
-        <v>666</v>
+        <v>767</v>
       </c>
       <c r="F79" t="s">
-        <v>835</v>
+        <v>964</v>
       </c>
       <c r="G79">
         <v>25</v>
@@ -5034,19 +5538,19 @@
         <v>21</v>
       </c>
       <c r="B80" t="s">
-        <v>196</v>
+        <v>262</v>
       </c>
       <c r="C80" t="s">
-        <v>353</v>
+        <v>419</v>
       </c>
       <c r="D80" t="s">
-        <v>493</v>
+        <v>589</v>
       </c>
       <c r="E80" t="s">
-        <v>495</v>
+        <v>591</v>
       </c>
       <c r="F80" t="s">
-        <v>824</v>
+        <v>953</v>
       </c>
       <c r="G80">
         <v>25</v>
@@ -5057,19 +5561,19 @@
         <v>22</v>
       </c>
       <c r="B81" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="C81" t="s">
-        <v>354</v>
+        <v>420</v>
       </c>
       <c r="D81" t="s">
-        <v>483</v>
+        <v>579</v>
       </c>
       <c r="E81" t="s">
-        <v>667</v>
+        <v>768</v>
       </c>
       <c r="F81" t="s">
-        <v>836</v>
+        <v>965</v>
       </c>
       <c r="G81">
         <v>25</v>
@@ -5080,19 +5584,19 @@
         <v>23</v>
       </c>
       <c r="B82" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="C82" t="s">
-        <v>343</v>
+        <v>409</v>
       </c>
       <c r="D82" t="s">
-        <v>496</v>
+        <v>592</v>
       </c>
       <c r="E82" t="s">
-        <v>659</v>
+        <v>760</v>
       </c>
       <c r="F82" t="s">
-        <v>837</v>
+        <v>966</v>
       </c>
       <c r="G82">
         <v>25</v>
@@ -5103,19 +5607,19 @@
         <v>24</v>
       </c>
       <c r="B83" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="C83" t="s">
-        <v>355</v>
+        <v>421</v>
       </c>
       <c r="D83" t="s">
-        <v>478</v>
+        <v>574</v>
       </c>
       <c r="E83" t="s">
-        <v>654</v>
+        <v>755</v>
       </c>
       <c r="F83" t="s">
-        <v>821</v>
+        <v>950</v>
       </c>
       <c r="G83">
         <v>25</v>
@@ -5126,19 +5630,19 @@
         <v>25</v>
       </c>
       <c r="B84" t="s">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="C84" t="s">
-        <v>351</v>
+        <v>417</v>
       </c>
       <c r="D84" t="s">
-        <v>500</v>
+        <v>596</v>
       </c>
       <c r="E84" t="s">
-        <v>598</v>
+        <v>694</v>
       </c>
       <c r="F84" t="s">
-        <v>838</v>
+        <v>967</v>
       </c>
       <c r="G84">
         <v>25</v>
@@ -5149,19 +5653,19 @@
         <v>26</v>
       </c>
       <c r="B85" t="s">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="C85" t="s">
-        <v>328</v>
+        <v>394</v>
       </c>
       <c r="D85" t="s">
-        <v>501</v>
+        <v>597</v>
       </c>
       <c r="E85" t="s">
-        <v>668</v>
+        <v>769</v>
       </c>
       <c r="F85" t="s">
-        <v>839</v>
+        <v>968</v>
       </c>
       <c r="G85">
         <v>25</v>
@@ -5172,19 +5676,19 @@
         <v>27</v>
       </c>
       <c r="B86" t="s">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="C86" t="s">
-        <v>356</v>
+        <v>422</v>
       </c>
       <c r="D86" t="s">
-        <v>502</v>
+        <v>598</v>
       </c>
       <c r="E86" t="s">
-        <v>669</v>
+        <v>770</v>
       </c>
       <c r="F86" t="s">
-        <v>840</v>
+        <v>969</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -5195,19 +5699,19 @@
         <v>28</v>
       </c>
       <c r="B87" t="s">
-        <v>196</v>
+        <v>262</v>
       </c>
       <c r="C87" t="s">
-        <v>325</v>
+        <v>391</v>
       </c>
       <c r="D87" t="s">
-        <v>493</v>
+        <v>589</v>
       </c>
       <c r="E87" t="s">
-        <v>656</v>
+        <v>757</v>
       </c>
       <c r="F87" t="s">
-        <v>841</v>
+        <v>970</v>
       </c>
       <c r="G87">
         <v>25</v>
@@ -5218,19 +5722,19 @@
         <v>29</v>
       </c>
       <c r="B88" t="s">
-        <v>203</v>
+        <v>269</v>
       </c>
       <c r="C88" t="s">
-        <v>357</v>
+        <v>423</v>
       </c>
       <c r="D88" t="s">
-        <v>503</v>
+        <v>599</v>
       </c>
       <c r="E88" t="s">
-        <v>670</v>
+        <v>771</v>
       </c>
       <c r="F88" t="s">
-        <v>842</v>
+        <v>971</v>
       </c>
       <c r="G88">
         <v>100</v>
@@ -5241,19 +5745,19 @@
         <v>30</v>
       </c>
       <c r="B89" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="C89" t="s">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="D89" t="s">
-        <v>483</v>
+        <v>579</v>
       </c>
       <c r="E89" t="s">
-        <v>645</v>
+        <v>746</v>
       </c>
       <c r="F89" t="s">
-        <v>843</v>
+        <v>972</v>
       </c>
       <c r="G89">
         <v>25</v>
@@ -5264,19 +5768,19 @@
         <v>31</v>
       </c>
       <c r="B90" t="s">
-        <v>204</v>
+        <v>270</v>
       </c>
       <c r="C90" t="s">
-        <v>358</v>
+        <v>424</v>
       </c>
       <c r="D90" t="s">
-        <v>504</v>
+        <v>600</v>
       </c>
       <c r="E90" t="s">
-        <v>671</v>
+        <v>772</v>
       </c>
       <c r="F90" t="s">
-        <v>844</v>
+        <v>973</v>
       </c>
       <c r="G90">
         <v>25</v>
@@ -5287,19 +5791,19 @@
         <v>32</v>
       </c>
       <c r="B91" t="s">
-        <v>205</v>
+        <v>271</v>
       </c>
       <c r="C91" t="s">
-        <v>359</v>
+        <v>425</v>
       </c>
       <c r="D91" t="s">
-        <v>505</v>
+        <v>601</v>
       </c>
       <c r="E91" t="s">
-        <v>672</v>
+        <v>773</v>
       </c>
       <c r="F91" t="s">
-        <v>845</v>
+        <v>974</v>
       </c>
       <c r="G91">
         <v>50</v>
@@ -5310,19 +5814,19 @@
         <v>33</v>
       </c>
       <c r="B92" t="s">
-        <v>206</v>
+        <v>272</v>
       </c>
       <c r="C92" t="s">
-        <v>360</v>
+        <v>426</v>
       </c>
       <c r="D92" t="s">
-        <v>506</v>
+        <v>602</v>
       </c>
       <c r="E92" t="s">
-        <v>673</v>
+        <v>774</v>
       </c>
       <c r="F92" t="s">
-        <v>846</v>
+        <v>975</v>
       </c>
       <c r="G92">
         <v>25</v>
@@ -5333,19 +5837,19 @@
         <v>34</v>
       </c>
       <c r="B93" t="s">
-        <v>207</v>
+        <v>273</v>
       </c>
       <c r="C93" t="s">
-        <v>361</v>
+        <v>427</v>
       </c>
       <c r="D93" t="s">
-        <v>507</v>
+        <v>603</v>
       </c>
       <c r="E93" t="s">
-        <v>674</v>
+        <v>775</v>
       </c>
       <c r="F93" t="s">
-        <v>847</v>
+        <v>976</v>
       </c>
       <c r="G93">
         <v>50</v>
@@ -5356,19 +5860,19 @@
         <v>35</v>
       </c>
       <c r="B94" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="C94" t="s">
-        <v>362</v>
+        <v>428</v>
       </c>
       <c r="D94" t="s">
-        <v>495</v>
+        <v>591</v>
       </c>
       <c r="E94" t="s">
-        <v>675</v>
+        <v>776</v>
       </c>
       <c r="F94" t="s">
-        <v>848</v>
+        <v>977</v>
       </c>
       <c r="G94">
         <v>50</v>
@@ -5379,19 +5883,19 @@
         <v>36</v>
       </c>
       <c r="B95" t="s">
-        <v>208</v>
+        <v>274</v>
       </c>
       <c r="C95" t="s">
-        <v>361</v>
+        <v>427</v>
       </c>
       <c r="D95" t="s">
-        <v>508</v>
+        <v>604</v>
       </c>
       <c r="E95" t="s">
-        <v>676</v>
+        <v>777</v>
       </c>
       <c r="F95" t="s">
-        <v>849</v>
+        <v>978</v>
       </c>
       <c r="G95">
         <v>50</v>
@@ -5402,19 +5906,19 @@
         <v>37</v>
       </c>
       <c r="B96" t="s">
-        <v>209</v>
+        <v>275</v>
       </c>
       <c r="C96" t="s">
-        <v>363</v>
+        <v>429</v>
       </c>
       <c r="D96" t="s">
-        <v>509</v>
+        <v>605</v>
       </c>
       <c r="E96" t="s">
-        <v>677</v>
+        <v>778</v>
       </c>
       <c r="F96" t="s">
-        <v>850</v>
+        <v>979</v>
       </c>
       <c r="G96">
         <v>75</v>
@@ -5425,19 +5929,19 @@
         <v>38</v>
       </c>
       <c r="B97" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="C97" t="s">
-        <v>364</v>
+        <v>430</v>
       </c>
       <c r="D97" t="s">
-        <v>496</v>
+        <v>592</v>
       </c>
       <c r="E97" t="s">
-        <v>678</v>
+        <v>779</v>
       </c>
       <c r="F97" t="s">
-        <v>851</v>
+        <v>980</v>
       </c>
       <c r="G97">
         <v>25</v>
@@ -5448,19 +5952,19 @@
         <v>39</v>
       </c>
       <c r="B98" t="s">
-        <v>210</v>
+        <v>276</v>
       </c>
       <c r="C98" t="s">
-        <v>362</v>
+        <v>428</v>
       </c>
       <c r="D98" t="s">
-        <v>510</v>
+        <v>606</v>
       </c>
       <c r="E98" t="s">
-        <v>679</v>
+        <v>780</v>
       </c>
       <c r="F98" t="s">
-        <v>852</v>
+        <v>981</v>
       </c>
       <c r="G98">
         <v>25</v>
@@ -5471,19 +5975,19 @@
         <v>40</v>
       </c>
       <c r="B99" t="s">
-        <v>211</v>
+        <v>277</v>
       </c>
       <c r="C99" t="s">
-        <v>365</v>
+        <v>431</v>
       </c>
       <c r="D99" t="s">
-        <v>511</v>
+        <v>607</v>
       </c>
       <c r="E99" t="s">
-        <v>680</v>
+        <v>781</v>
       </c>
       <c r="F99" t="s">
-        <v>853</v>
+        <v>982</v>
       </c>
       <c r="G99">
         <v>50</v>
@@ -5494,19 +5998,19 @@
         <v>41</v>
       </c>
       <c r="B100" t="s">
-        <v>212</v>
+        <v>278</v>
       </c>
       <c r="C100" t="s">
-        <v>366</v>
+        <v>432</v>
       </c>
       <c r="D100" t="s">
-        <v>512</v>
+        <v>608</v>
       </c>
       <c r="E100" t="s">
-        <v>681</v>
+        <v>782</v>
       </c>
       <c r="F100" t="s">
-        <v>854</v>
+        <v>983</v>
       </c>
       <c r="G100">
         <v>50</v>
@@ -5517,19 +6021,19 @@
         <v>42</v>
       </c>
       <c r="B101" t="s">
-        <v>213</v>
+        <v>279</v>
       </c>
       <c r="C101" t="s">
-        <v>367</v>
+        <v>433</v>
       </c>
       <c r="D101" t="s">
-        <v>513</v>
+        <v>609</v>
       </c>
       <c r="E101" t="s">
-        <v>682</v>
+        <v>783</v>
       </c>
       <c r="F101" t="s">
-        <v>855</v>
+        <v>984</v>
       </c>
       <c r="G101">
         <v>25</v>
@@ -5540,19 +6044,19 @@
         <v>43</v>
       </c>
       <c r="B102" t="s">
-        <v>189</v>
+        <v>255</v>
       </c>
       <c r="C102" t="s">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="D102" t="s">
-        <v>484</v>
+        <v>580</v>
       </c>
       <c r="E102" t="s">
-        <v>683</v>
+        <v>784</v>
       </c>
       <c r="F102" t="s">
-        <v>856</v>
+        <v>985</v>
       </c>
       <c r="G102">
         <v>50</v>
@@ -5563,19 +6067,19 @@
         <v>44</v>
       </c>
       <c r="B103" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="C103" t="s">
-        <v>333</v>
+        <v>399</v>
       </c>
       <c r="D103" t="s">
-        <v>476</v>
+        <v>572</v>
       </c>
       <c r="E103" t="s">
-        <v>684</v>
+        <v>785</v>
       </c>
       <c r="F103" t="s">
-        <v>857</v>
+        <v>986</v>
       </c>
       <c r="G103">
         <v>50</v>
@@ -5586,19 +6090,19 @@
         <v>45</v>
       </c>
       <c r="B104" t="s">
-        <v>214</v>
+        <v>280</v>
       </c>
       <c r="C104" t="s">
-        <v>368</v>
+        <v>434</v>
       </c>
       <c r="D104" t="s">
-        <v>514</v>
+        <v>610</v>
       </c>
       <c r="E104" t="s">
-        <v>685</v>
+        <v>786</v>
       </c>
       <c r="F104" t="s">
-        <v>858</v>
+        <v>987</v>
       </c>
       <c r="G104">
         <v>75</v>
@@ -5609,19 +6113,19 @@
         <v>46</v>
       </c>
       <c r="B105" t="s">
-        <v>198</v>
+        <v>264</v>
       </c>
       <c r="C105" t="s">
-        <v>369</v>
+        <v>435</v>
       </c>
       <c r="D105" t="s">
-        <v>497</v>
+        <v>593</v>
       </c>
       <c r="E105" t="s">
-        <v>686</v>
+        <v>787</v>
       </c>
       <c r="F105" t="s">
-        <v>859</v>
+        <v>988</v>
       </c>
       <c r="G105">
         <v>25</v>
@@ -5632,19 +6136,19 @@
         <v>47</v>
       </c>
       <c r="B106" t="s">
-        <v>199</v>
+        <v>265</v>
       </c>
       <c r="C106" t="s">
-        <v>345</v>
+        <v>411</v>
       </c>
       <c r="D106" t="s">
-        <v>448</v>
+        <v>544</v>
       </c>
       <c r="E106" t="s">
-        <v>662</v>
+        <v>763</v>
       </c>
       <c r="F106" t="s">
-        <v>860</v>
+        <v>989</v>
       </c>
       <c r="G106">
         <v>50</v>
@@ -5655,19 +6159,19 @@
         <v>48</v>
       </c>
       <c r="B107" t="s">
-        <v>151</v>
+        <v>217</v>
       </c>
       <c r="C107" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="D107" t="s">
-        <v>445</v>
+        <v>541</v>
       </c>
       <c r="E107" t="s">
-        <v>687</v>
+        <v>788</v>
       </c>
       <c r="F107" t="s">
-        <v>861</v>
+        <v>990</v>
       </c>
       <c r="G107">
         <v>25</v>
@@ -5678,19 +6182,19 @@
         <v>49</v>
       </c>
       <c r="B108" t="s">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="C108" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="D108" t="s">
-        <v>515</v>
+        <v>611</v>
       </c>
       <c r="E108" t="s">
-        <v>663</v>
+        <v>764</v>
       </c>
       <c r="F108" t="s">
-        <v>862</v>
+        <v>991</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -5701,19 +6205,19 @@
         <v>50</v>
       </c>
       <c r="B109" t="s">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="C109" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="D109" t="s">
-        <v>516</v>
+        <v>612</v>
       </c>
       <c r="E109" t="s">
-        <v>688</v>
+        <v>789</v>
       </c>
       <c r="F109" t="s">
-        <v>863</v>
+        <v>992</v>
       </c>
       <c r="G109">
         <v>25</v>
@@ -5724,19 +6228,19 @@
         <v>51</v>
       </c>
       <c r="B110" t="s">
-        <v>216</v>
+        <v>282</v>
       </c>
       <c r="C110" t="s">
-        <v>372</v>
+        <v>438</v>
       </c>
       <c r="D110" t="s">
-        <v>517</v>
+        <v>613</v>
       </c>
       <c r="E110" t="s">
-        <v>689</v>
+        <v>790</v>
       </c>
       <c r="F110" t="s">
-        <v>864</v>
+        <v>993</v>
       </c>
       <c r="G110">
         <v>25</v>
@@ -5747,19 +6251,19 @@
         <v>52</v>
       </c>
       <c r="B111" t="s">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="C111" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="D111" t="s">
-        <v>518</v>
+        <v>614</v>
       </c>
       <c r="E111" t="s">
-        <v>690</v>
+        <v>791</v>
       </c>
       <c r="F111" t="s">
-        <v>865</v>
+        <v>994</v>
       </c>
       <c r="G111">
         <v>25</v>
@@ -5770,19 +6274,19 @@
         <v>53</v>
       </c>
       <c r="B112" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="C112" t="s">
-        <v>373</v>
+        <v>439</v>
       </c>
       <c r="D112" t="s">
-        <v>519</v>
+        <v>615</v>
       </c>
       <c r="E112" t="s">
-        <v>691</v>
+        <v>792</v>
       </c>
       <c r="F112" t="s">
-        <v>866</v>
+        <v>995</v>
       </c>
       <c r="G112">
         <v>50</v>
@@ -5793,19 +6297,19 @@
         <v>54</v>
       </c>
       <c r="B113" t="s">
-        <v>193</v>
+        <v>259</v>
       </c>
       <c r="C113" t="s">
-        <v>374</v>
+        <v>440</v>
       </c>
       <c r="D113" t="s">
-        <v>520</v>
+        <v>616</v>
       </c>
       <c r="E113" t="s">
-        <v>651</v>
+        <v>752</v>
       </c>
       <c r="F113" t="s">
-        <v>867</v>
+        <v>996</v>
       </c>
       <c r="G113">
         <v>25</v>
@@ -5816,19 +6320,19 @@
         <v>55</v>
       </c>
       <c r="B114" t="s">
-        <v>186</v>
+        <v>252</v>
       </c>
       <c r="C114" t="s">
-        <v>331</v>
+        <v>397</v>
       </c>
       <c r="D114" t="s">
-        <v>481</v>
+        <v>577</v>
       </c>
       <c r="E114" t="s">
-        <v>692</v>
+        <v>793</v>
       </c>
       <c r="F114" t="s">
-        <v>868</v>
+        <v>997</v>
       </c>
       <c r="G114">
         <v>50</v>
@@ -5839,19 +6343,19 @@
         <v>56</v>
       </c>
       <c r="B115" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="C115" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="D115" t="s">
-        <v>521</v>
+        <v>617</v>
       </c>
       <c r="E115" t="s">
-        <v>692</v>
+        <v>793</v>
       </c>
       <c r="F115" t="s">
-        <v>869</v>
+        <v>998</v>
       </c>
       <c r="G115">
         <v>25</v>
@@ -5862,19 +6366,19 @@
         <v>57</v>
       </c>
       <c r="B116" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="C116" t="s">
-        <v>375</v>
+        <v>441</v>
       </c>
       <c r="D116" t="s">
-        <v>522</v>
+        <v>618</v>
       </c>
       <c r="E116" t="s">
-        <v>693</v>
+        <v>794</v>
       </c>
       <c r="F116" t="s">
-        <v>870</v>
+        <v>999</v>
       </c>
       <c r="G116">
         <v>75</v>
@@ -5885,19 +6389,19 @@
         <v>58</v>
       </c>
       <c r="B117" t="s">
-        <v>221</v>
+        <v>287</v>
       </c>
       <c r="C117" t="s">
-        <v>376</v>
+        <v>442</v>
       </c>
       <c r="D117" t="s">
-        <v>523</v>
+        <v>619</v>
       </c>
       <c r="E117" t="s">
-        <v>694</v>
+        <v>795</v>
       </c>
       <c r="F117" t="s">
-        <v>871</v>
+        <v>1000</v>
       </c>
       <c r="G117">
         <v>50</v>
@@ -5908,19 +6412,19 @@
         <v>59</v>
       </c>
       <c r="B118" t="s">
-        <v>222</v>
+        <v>288</v>
       </c>
       <c r="C118" t="s">
-        <v>377</v>
+        <v>443</v>
       </c>
       <c r="D118" t="s">
-        <v>524</v>
+        <v>620</v>
       </c>
       <c r="E118" t="s">
-        <v>695</v>
+        <v>796</v>
       </c>
       <c r="F118" t="s">
-        <v>872</v>
+        <v>1001</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -5931,19 +6435,19 @@
         <v>60</v>
       </c>
       <c r="B119" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="C119" t="s">
-        <v>377</v>
+        <v>443</v>
       </c>
       <c r="D119" t="s">
-        <v>525</v>
+        <v>621</v>
       </c>
       <c r="E119" t="s">
-        <v>692</v>
+        <v>793</v>
       </c>
       <c r="F119" t="s">
-        <v>873</v>
+        <v>1002</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -5954,19 +6458,19 @@
         <v>61</v>
       </c>
       <c r="B120" t="s">
-        <v>223</v>
+        <v>289</v>
       </c>
       <c r="C120" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="D120" t="s">
-        <v>526</v>
+        <v>622</v>
       </c>
       <c r="E120" t="s">
-        <v>696</v>
+        <v>797</v>
       </c>
       <c r="F120" t="s">
-        <v>874</v>
+        <v>1003</v>
       </c>
       <c r="G120">
         <v>50</v>
@@ -5977,19 +6481,19 @@
         <v>62</v>
       </c>
       <c r="B121" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="C121" t="s">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="D121" t="s">
-        <v>527</v>
+        <v>623</v>
       </c>
       <c r="E121" t="s">
-        <v>697</v>
+        <v>798</v>
       </c>
       <c r="F121" t="s">
-        <v>875</v>
+        <v>1004</v>
       </c>
       <c r="G121">
         <v>25</v>
@@ -6000,19 +6504,19 @@
         <v>63</v>
       </c>
       <c r="B122" t="s">
-        <v>225</v>
+        <v>291</v>
       </c>
       <c r="C122" t="s">
-        <v>376</v>
+        <v>442</v>
       </c>
       <c r="D122" t="s">
-        <v>528</v>
+        <v>624</v>
       </c>
       <c r="E122" t="s">
-        <v>698</v>
+        <v>799</v>
       </c>
       <c r="F122" t="s">
-        <v>876</v>
+        <v>1005</v>
       </c>
       <c r="G122">
         <v>75</v>
@@ -6023,19 +6527,19 @@
         <v>64</v>
       </c>
       <c r="B123" t="s">
-        <v>226</v>
+        <v>292</v>
       </c>
       <c r="C123" t="s">
-        <v>379</v>
+        <v>445</v>
       </c>
       <c r="D123" t="s">
-        <v>529</v>
+        <v>625</v>
       </c>
       <c r="E123" t="s">
-        <v>699</v>
+        <v>800</v>
       </c>
       <c r="F123" t="s">
-        <v>877</v>
+        <v>1006</v>
       </c>
       <c r="G123">
         <v>25</v>
@@ -6046,19 +6550,19 @@
         <v>65</v>
       </c>
       <c r="B124" t="s">
-        <v>227</v>
+        <v>293</v>
       </c>
       <c r="C124" t="s">
-        <v>380</v>
+        <v>446</v>
       </c>
       <c r="D124" t="s">
-        <v>530</v>
+        <v>626</v>
       </c>
       <c r="E124" t="s">
-        <v>530</v>
+        <v>626</v>
       </c>
       <c r="F124" t="s">
-        <v>878</v>
+        <v>1007</v>
       </c>
       <c r="G124">
         <v>50</v>
@@ -6069,19 +6573,19 @@
         <v>66</v>
       </c>
       <c r="B125" t="s">
-        <v>228</v>
+        <v>294</v>
       </c>
       <c r="C125" t="s">
-        <v>381</v>
+        <v>447</v>
       </c>
       <c r="D125" t="s">
-        <v>531</v>
+        <v>627</v>
       </c>
       <c r="E125" t="s">
-        <v>700</v>
+        <v>801</v>
       </c>
       <c r="F125" t="s">
-        <v>879</v>
+        <v>1008</v>
       </c>
       <c r="G125">
         <v>50</v>
@@ -6092,19 +6596,19 @@
         <v>67</v>
       </c>
       <c r="B126" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="C126" t="s">
-        <v>382</v>
+        <v>448</v>
       </c>
       <c r="D126" t="s">
-        <v>442</v>
+        <v>538</v>
       </c>
       <c r="E126" t="s">
-        <v>601</v>
+        <v>702</v>
       </c>
       <c r="F126" t="s">
-        <v>880</v>
+        <v>1009</v>
       </c>
       <c r="G126">
         <v>25</v>
@@ -6115,19 +6619,19 @@
         <v>68</v>
       </c>
       <c r="B127" t="s">
-        <v>229</v>
+        <v>295</v>
       </c>
       <c r="C127" t="s">
-        <v>383</v>
+        <v>449</v>
       </c>
       <c r="D127" t="s">
-        <v>532</v>
+        <v>628</v>
       </c>
       <c r="E127" t="s">
-        <v>701</v>
+        <v>802</v>
       </c>
       <c r="F127" t="s">
-        <v>881</v>
+        <v>1010</v>
       </c>
       <c r="G127">
         <v>50</v>
@@ -6138,19 +6642,19 @@
         <v>69</v>
       </c>
       <c r="B128" t="s">
-        <v>230</v>
+        <v>296</v>
       </c>
       <c r="C128" t="s">
-        <v>384</v>
+        <v>450</v>
       </c>
       <c r="D128" t="s">
-        <v>533</v>
+        <v>629</v>
       </c>
       <c r="E128" t="s">
-        <v>702</v>
+        <v>803</v>
       </c>
       <c r="F128" t="s">
-        <v>702</v>
+        <v>803</v>
       </c>
       <c r="G128">
         <v>25</v>
@@ -6161,19 +6665,19 @@
         <v>70</v>
       </c>
       <c r="B129" t="s">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c r="C129" t="s">
-        <v>376</v>
+        <v>442</v>
       </c>
       <c r="D129" t="s">
-        <v>534</v>
+        <v>630</v>
       </c>
       <c r="E129" t="s">
-        <v>703</v>
+        <v>804</v>
       </c>
       <c r="F129" t="s">
-        <v>882</v>
+        <v>1011</v>
       </c>
       <c r="G129">
         <v>50</v>
@@ -6184,19 +6688,19 @@
         <v>71</v>
       </c>
       <c r="B130" t="s">
-        <v>232</v>
+        <v>298</v>
       </c>
       <c r="C130" t="s">
-        <v>385</v>
+        <v>451</v>
       </c>
       <c r="D130" t="s">
-        <v>535</v>
+        <v>631</v>
       </c>
       <c r="E130" t="s">
-        <v>704</v>
+        <v>805</v>
       </c>
       <c r="F130" t="s">
-        <v>883</v>
+        <v>1012</v>
       </c>
       <c r="G130">
         <v>25</v>
@@ -6207,19 +6711,19 @@
         <v>72</v>
       </c>
       <c r="B131" t="s">
-        <v>233</v>
+        <v>299</v>
       </c>
       <c r="C131" t="s">
-        <v>339</v>
+        <v>405</v>
       </c>
       <c r="D131" t="s">
-        <v>536</v>
+        <v>632</v>
       </c>
       <c r="E131" t="s">
-        <v>705</v>
+        <v>806</v>
       </c>
       <c r="F131" t="s">
-        <v>884</v>
+        <v>1013</v>
       </c>
       <c r="G131">
         <v>50</v>
@@ -6230,19 +6734,19 @@
         <v>73</v>
       </c>
       <c r="B132" t="s">
-        <v>234</v>
+        <v>300</v>
       </c>
       <c r="C132" t="s">
-        <v>386</v>
+        <v>452</v>
       </c>
       <c r="D132" t="s">
-        <v>537</v>
+        <v>633</v>
       </c>
       <c r="E132" t="s">
-        <v>706</v>
+        <v>807</v>
       </c>
       <c r="F132" t="s">
-        <v>885</v>
+        <v>1014</v>
       </c>
       <c r="G132">
         <v>75</v>
@@ -6253,19 +6757,19 @@
         <v>74</v>
       </c>
       <c r="B133" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="C133" t="s">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="D133" t="s">
-        <v>450</v>
+        <v>546</v>
       </c>
       <c r="E133" t="s">
-        <v>609</v>
+        <v>710</v>
       </c>
       <c r="F133" t="s">
-        <v>886</v>
+        <v>1015</v>
       </c>
       <c r="G133">
         <v>75</v>
@@ -6276,19 +6780,19 @@
         <v>75</v>
       </c>
       <c r="B134" t="s">
-        <v>235</v>
+        <v>301</v>
       </c>
       <c r="C134" t="s">
-        <v>387</v>
+        <v>453</v>
       </c>
       <c r="D134" t="s">
-        <v>538</v>
+        <v>634</v>
       </c>
       <c r="E134" t="s">
-        <v>707</v>
+        <v>808</v>
       </c>
       <c r="F134" t="s">
-        <v>887</v>
+        <v>1016</v>
       </c>
       <c r="G134">
         <v>50</v>
@@ -6299,19 +6803,19 @@
         <v>76</v>
       </c>
       <c r="B135" t="s">
-        <v>236</v>
+        <v>302</v>
       </c>
       <c r="C135" t="s">
-        <v>388</v>
+        <v>454</v>
       </c>
       <c r="D135" t="s">
-        <v>539</v>
+        <v>635</v>
       </c>
       <c r="E135" t="s">
-        <v>708</v>
+        <v>809</v>
       </c>
       <c r="F135" t="s">
-        <v>888</v>
+        <v>1017</v>
       </c>
       <c r="G135">
         <v>25</v>
@@ -6322,19 +6826,19 @@
         <v>77</v>
       </c>
       <c r="B136" t="s">
-        <v>237</v>
+        <v>303</v>
       </c>
       <c r="C136" t="s">
-        <v>389</v>
+        <v>455</v>
       </c>
       <c r="D136" t="s">
-        <v>540</v>
+        <v>636</v>
       </c>
       <c r="E136" t="s">
-        <v>709</v>
+        <v>810</v>
       </c>
       <c r="F136" t="s">
-        <v>889</v>
+        <v>1018</v>
       </c>
       <c r="G136">
         <v>50</v>
@@ -6345,19 +6849,19 @@
         <v>78</v>
       </c>
       <c r="B137" t="s">
-        <v>238</v>
+        <v>304</v>
       </c>
       <c r="C137" t="s">
-        <v>390</v>
+        <v>456</v>
       </c>
       <c r="D137" t="s">
-        <v>541</v>
+        <v>637</v>
       </c>
       <c r="E137" t="s">
-        <v>710</v>
+        <v>811</v>
       </c>
       <c r="F137" t="s">
-        <v>890</v>
+        <v>1019</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -6368,19 +6872,19 @@
         <v>79</v>
       </c>
       <c r="B138" t="s">
-        <v>239</v>
+        <v>305</v>
       </c>
       <c r="C138" t="s">
-        <v>387</v>
+        <v>453</v>
       </c>
       <c r="D138" t="s">
-        <v>542</v>
+        <v>638</v>
       </c>
       <c r="E138" t="s">
-        <v>711</v>
+        <v>812</v>
       </c>
       <c r="F138" t="s">
-        <v>891</v>
+        <v>1020</v>
       </c>
       <c r="G138">
         <v>75</v>
@@ -6391,19 +6895,19 @@
         <v>80</v>
       </c>
       <c r="B139" t="s">
-        <v>192</v>
+        <v>258</v>
       </c>
       <c r="C139" t="s">
-        <v>391</v>
+        <v>457</v>
       </c>
       <c r="D139" t="s">
-        <v>488</v>
+        <v>584</v>
       </c>
       <c r="E139" t="s">
-        <v>712</v>
+        <v>813</v>
       </c>
       <c r="F139" t="s">
-        <v>818</v>
+        <v>947</v>
       </c>
       <c r="G139">
         <v>25</v>
@@ -6414,19 +6918,19 @@
         <v>81</v>
       </c>
       <c r="B140" t="s">
-        <v>240</v>
+        <v>306</v>
       </c>
       <c r="C140" t="s">
-        <v>392</v>
+        <v>458</v>
       </c>
       <c r="D140" t="s">
-        <v>543</v>
+        <v>639</v>
       </c>
       <c r="E140" t="s">
-        <v>713</v>
+        <v>814</v>
       </c>
       <c r="F140" t="s">
-        <v>818</v>
+        <v>947</v>
       </c>
       <c r="G140">
         <v>25</v>
@@ -6437,19 +6941,19 @@
         <v>82</v>
       </c>
       <c r="B141" t="s">
-        <v>241</v>
+        <v>307</v>
       </c>
       <c r="C141" t="s">
-        <v>393</v>
+        <v>459</v>
       </c>
       <c r="D141" t="s">
-        <v>544</v>
+        <v>640</v>
       </c>
       <c r="E141" t="s">
-        <v>714</v>
+        <v>815</v>
       </c>
       <c r="F141" t="s">
-        <v>892</v>
+        <v>1021</v>
       </c>
       <c r="G141">
         <v>100</v>
@@ -6460,19 +6964,19 @@
         <v>83</v>
       </c>
       <c r="B142" t="s">
-        <v>242</v>
+        <v>308</v>
       </c>
       <c r="C142" t="s">
-        <v>394</v>
+        <v>460</v>
       </c>
       <c r="D142" t="s">
-        <v>545</v>
+        <v>641</v>
       </c>
       <c r="E142" t="s">
-        <v>715</v>
+        <v>816</v>
       </c>
       <c r="F142" t="s">
-        <v>893</v>
+        <v>1022</v>
       </c>
       <c r="G142">
         <v>50</v>
@@ -6483,19 +6987,19 @@
         <v>84</v>
       </c>
       <c r="B143" t="s">
-        <v>243</v>
+        <v>309</v>
       </c>
       <c r="C143" t="s">
-        <v>341</v>
+        <v>407</v>
       </c>
       <c r="D143" t="s">
-        <v>546</v>
+        <v>642</v>
       </c>
       <c r="E143" t="s">
-        <v>716</v>
+        <v>817</v>
       </c>
       <c r="F143" t="s">
-        <v>818</v>
+        <v>947</v>
       </c>
       <c r="G143">
         <v>25</v>
@@ -6506,19 +7010,19 @@
         <v>85</v>
       </c>
       <c r="B144" t="s">
-        <v>244</v>
+        <v>310</v>
       </c>
       <c r="C144" t="s">
-        <v>330</v>
+        <v>396</v>
       </c>
       <c r="D144" t="s">
-        <v>547</v>
+        <v>643</v>
       </c>
       <c r="E144" t="s">
-        <v>717</v>
+        <v>818</v>
       </c>
       <c r="F144" t="s">
-        <v>894</v>
+        <v>1023</v>
       </c>
       <c r="G144">
         <v>100</v>
@@ -6529,19 +7033,19 @@
         <v>86</v>
       </c>
       <c r="B145" t="s">
-        <v>245</v>
+        <v>311</v>
       </c>
       <c r="C145" t="s">
-        <v>395</v>
+        <v>461</v>
       </c>
       <c r="D145" t="s">
-        <v>548</v>
+        <v>644</v>
       </c>
       <c r="E145" t="s">
-        <v>718</v>
+        <v>819</v>
       </c>
       <c r="F145" t="s">
-        <v>895</v>
+        <v>1024</v>
       </c>
       <c r="G145">
         <v>75</v>
@@ -6552,19 +7056,19 @@
         <v>87</v>
       </c>
       <c r="B146" t="s">
-        <v>246</v>
+        <v>312</v>
       </c>
       <c r="C146" t="s">
-        <v>396</v>
+        <v>462</v>
       </c>
       <c r="D146" t="s">
-        <v>549</v>
+        <v>645</v>
       </c>
       <c r="E146" t="s">
-        <v>719</v>
+        <v>820</v>
       </c>
       <c r="F146" t="s">
-        <v>896</v>
+        <v>1025</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -6575,19 +7079,19 @@
         <v>88</v>
       </c>
       <c r="B147" t="s">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="C147" t="s">
-        <v>397</v>
+        <v>463</v>
       </c>
       <c r="D147" t="s">
-        <v>550</v>
+        <v>646</v>
       </c>
       <c r="E147" t="s">
-        <v>720</v>
+        <v>821</v>
       </c>
       <c r="F147" t="s">
-        <v>897</v>
+        <v>1026</v>
       </c>
       <c r="G147">
         <v>25</v>
@@ -6598,16 +7102,16 @@
         <v>89</v>
       </c>
       <c r="B148" t="s">
-        <v>247</v>
+        <v>313</v>
       </c>
       <c r="D148" t="s">
-        <v>551</v>
+        <v>647</v>
       </c>
       <c r="E148" t="s">
-        <v>721</v>
+        <v>822</v>
       </c>
       <c r="F148" t="s">
-        <v>898</v>
+        <v>1027</v>
       </c>
       <c r="G148">
         <v>75</v>
@@ -6618,19 +7122,19 @@
         <v>90</v>
       </c>
       <c r="B149" t="s">
-        <v>248</v>
+        <v>314</v>
       </c>
       <c r="C149" t="s">
-        <v>398</v>
+        <v>464</v>
       </c>
       <c r="D149" t="s">
-        <v>552</v>
+        <v>648</v>
       </c>
       <c r="E149" t="s">
-        <v>722</v>
+        <v>823</v>
       </c>
       <c r="F149" t="s">
-        <v>899</v>
+        <v>1028</v>
       </c>
       <c r="G149">
         <v>25</v>
@@ -6641,19 +7145,19 @@
         <v>91</v>
       </c>
       <c r="B150" t="s">
-        <v>249</v>
+        <v>315</v>
       </c>
       <c r="C150" t="s">
-        <v>399</v>
+        <v>465</v>
       </c>
       <c r="D150" t="s">
-        <v>553</v>
+        <v>649</v>
       </c>
       <c r="E150" t="s">
-        <v>723</v>
+        <v>824</v>
       </c>
       <c r="F150" t="s">
-        <v>900</v>
+        <v>1029</v>
       </c>
       <c r="G150">
         <v>50</v>
@@ -6664,19 +7168,19 @@
         <v>92</v>
       </c>
       <c r="B151" t="s">
-        <v>250</v>
+        <v>316</v>
       </c>
       <c r="C151" t="s">
-        <v>400</v>
+        <v>466</v>
       </c>
       <c r="D151" t="s">
-        <v>554</v>
+        <v>650</v>
       </c>
       <c r="E151" t="s">
-        <v>724</v>
+        <v>825</v>
       </c>
       <c r="F151" t="s">
-        <v>901</v>
+        <v>1030</v>
       </c>
       <c r="G151">
         <v>25</v>
@@ -6687,19 +7191,19 @@
         <v>93</v>
       </c>
       <c r="B152" t="s">
-        <v>251</v>
+        <v>317</v>
       </c>
       <c r="C152" t="s">
-        <v>401</v>
+        <v>467</v>
       </c>
       <c r="D152" t="s">
-        <v>555</v>
+        <v>651</v>
       </c>
       <c r="E152" t="s">
-        <v>725</v>
+        <v>826</v>
       </c>
       <c r="F152" t="s">
-        <v>902</v>
+        <v>1031</v>
       </c>
       <c r="G152">
         <v>25</v>
@@ -6710,19 +7214,19 @@
         <v>94</v>
       </c>
       <c r="B153" t="s">
-        <v>252</v>
+        <v>318</v>
       </c>
       <c r="C153" t="s">
-        <v>402</v>
+        <v>468</v>
       </c>
       <c r="D153" t="s">
-        <v>556</v>
+        <v>652</v>
       </c>
       <c r="E153" t="s">
-        <v>726</v>
+        <v>827</v>
       </c>
       <c r="F153" t="s">
-        <v>903</v>
+        <v>1032</v>
       </c>
       <c r="G153">
         <v>75</v>
@@ -6733,19 +7237,19 @@
         <v>95</v>
       </c>
       <c r="B154" t="s">
-        <v>253</v>
+        <v>319</v>
       </c>
       <c r="C154" t="s">
-        <v>403</v>
+        <v>469</v>
       </c>
       <c r="D154" t="s">
-        <v>557</v>
+        <v>653</v>
       </c>
       <c r="E154" t="s">
-        <v>727</v>
+        <v>828</v>
       </c>
       <c r="F154" t="s">
-        <v>904</v>
+        <v>1033</v>
       </c>
       <c r="G154">
         <v>25</v>
@@ -6756,16 +7260,16 @@
         <v>96</v>
       </c>
       <c r="B155" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="C155" t="s">
-        <v>404</v>
+        <v>470</v>
       </c>
       <c r="E155" t="s">
-        <v>728</v>
+        <v>829</v>
       </c>
       <c r="F155" t="s">
-        <v>905</v>
+        <v>1034</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -6776,19 +7280,19 @@
         <v>97</v>
       </c>
       <c r="B156" t="s">
-        <v>254</v>
+        <v>320</v>
       </c>
       <c r="C156" t="s">
-        <v>405</v>
+        <v>471</v>
       </c>
       <c r="D156" t="s">
-        <v>558</v>
+        <v>654</v>
       </c>
       <c r="E156" t="s">
-        <v>729</v>
+        <v>830</v>
       </c>
       <c r="F156" t="s">
-        <v>906</v>
+        <v>1035</v>
       </c>
       <c r="G156">
         <v>100</v>
@@ -6799,19 +7303,19 @@
         <v>98</v>
       </c>
       <c r="B157" t="s">
-        <v>255</v>
+        <v>321</v>
       </c>
       <c r="C157" t="s">
-        <v>406</v>
+        <v>472</v>
       </c>
       <c r="D157" t="s">
-        <v>559</v>
+        <v>655</v>
       </c>
       <c r="E157" t="s">
-        <v>730</v>
+        <v>831</v>
       </c>
       <c r="F157" t="s">
-        <v>907</v>
+        <v>1036</v>
       </c>
       <c r="G157">
         <v>75</v>
@@ -6822,19 +7326,19 @@
         <v>99</v>
       </c>
       <c r="B158" t="s">
-        <v>256</v>
+        <v>322</v>
       </c>
       <c r="C158" t="s">
-        <v>407</v>
+        <v>473</v>
       </c>
       <c r="D158" t="s">
-        <v>560</v>
+        <v>656</v>
       </c>
       <c r="E158" t="s">
-        <v>731</v>
+        <v>832</v>
       </c>
       <c r="F158" t="s">
-        <v>908</v>
+        <v>1037</v>
       </c>
       <c r="G158">
         <v>50</v>
@@ -6845,19 +7349,19 @@
         <v>100</v>
       </c>
       <c r="B159" t="s">
-        <v>257</v>
+        <v>323</v>
       </c>
       <c r="C159" t="s">
-        <v>408</v>
+        <v>474</v>
       </c>
       <c r="D159" t="s">
-        <v>561</v>
+        <v>657</v>
       </c>
       <c r="E159" t="s">
-        <v>732</v>
+        <v>833</v>
       </c>
       <c r="F159" t="s">
-        <v>909</v>
+        <v>1038</v>
       </c>
       <c r="G159">
         <v>25</v>
@@ -6868,19 +7372,19 @@
         <v>101</v>
       </c>
       <c r="B160" t="s">
-        <v>258</v>
+        <v>324</v>
       </c>
       <c r="C160" t="s">
-        <v>409</v>
+        <v>475</v>
       </c>
       <c r="D160" t="s">
-        <v>562</v>
+        <v>658</v>
       </c>
       <c r="E160" t="s">
-        <v>733</v>
+        <v>834</v>
       </c>
       <c r="F160" t="s">
-        <v>342</v>
+        <v>408</v>
       </c>
       <c r="G160">
         <v>50</v>
@@ -6891,19 +7395,19 @@
         <v>102</v>
       </c>
       <c r="B161" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="C161" t="s">
-        <v>336</v>
+        <v>402</v>
       </c>
       <c r="D161" t="s">
-        <v>486</v>
+        <v>582</v>
       </c>
       <c r="E161" t="s">
-        <v>734</v>
+        <v>835</v>
       </c>
       <c r="F161" t="s">
-        <v>910</v>
+        <v>1039</v>
       </c>
       <c r="G161">
         <v>50</v>
@@ -6914,19 +7418,19 @@
         <v>103</v>
       </c>
       <c r="B162" t="s">
-        <v>259</v>
+        <v>325</v>
       </c>
       <c r="C162" t="s">
-        <v>410</v>
+        <v>476</v>
       </c>
       <c r="D162" t="s">
-        <v>563</v>
+        <v>659</v>
       </c>
       <c r="E162" t="s">
-        <v>735</v>
+        <v>836</v>
       </c>
       <c r="F162" t="s">
-        <v>911</v>
+        <v>1040</v>
       </c>
       <c r="G162">
         <v>25</v>
@@ -6937,19 +7441,19 @@
         <v>104</v>
       </c>
       <c r="B163" t="s">
-        <v>260</v>
+        <v>326</v>
       </c>
       <c r="C163" t="s">
-        <v>411</v>
+        <v>477</v>
       </c>
       <c r="D163" t="s">
-        <v>564</v>
+        <v>660</v>
       </c>
       <c r="E163" t="s">
-        <v>736</v>
+        <v>837</v>
       </c>
       <c r="F163" t="s">
-        <v>809</v>
+        <v>938</v>
       </c>
       <c r="G163">
         <v>50</v>
@@ -6960,19 +7464,19 @@
         <v>105</v>
       </c>
       <c r="B164" t="s">
-        <v>261</v>
+        <v>327</v>
       </c>
       <c r="C164" t="s">
-        <v>412</v>
+        <v>478</v>
       </c>
       <c r="D164" t="s">
-        <v>565</v>
+        <v>661</v>
       </c>
       <c r="E164" t="s">
-        <v>565</v>
+        <v>661</v>
       </c>
       <c r="F164" t="s">
-        <v>912</v>
+        <v>1041</v>
       </c>
       <c r="G164">
         <v>25</v>
@@ -6983,19 +7487,19 @@
         <v>106</v>
       </c>
       <c r="B165" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="C165" t="s">
-        <v>327</v>
+        <v>393</v>
       </c>
       <c r="D165" t="s">
-        <v>477</v>
+        <v>573</v>
       </c>
       <c r="E165" t="s">
-        <v>641</v>
+        <v>742</v>
       </c>
       <c r="F165" t="s">
-        <v>809</v>
+        <v>938</v>
       </c>
       <c r="G165">
         <v>75</v>
@@ -7006,19 +7510,19 @@
         <v>107</v>
       </c>
       <c r="B166" t="s">
-        <v>262</v>
+        <v>328</v>
       </c>
       <c r="C166" t="s">
-        <v>413</v>
+        <v>479</v>
       </c>
       <c r="D166" t="s">
-        <v>566</v>
+        <v>662</v>
       </c>
       <c r="E166" t="s">
-        <v>737</v>
+        <v>838</v>
       </c>
       <c r="F166" t="s">
-        <v>913</v>
+        <v>1042</v>
       </c>
       <c r="G166">
         <v>50</v>
@@ -7029,19 +7533,19 @@
         <v>108</v>
       </c>
       <c r="B167" t="s">
-        <v>216</v>
+        <v>282</v>
       </c>
       <c r="C167" t="s">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="D167" t="s">
-        <v>567</v>
+        <v>663</v>
       </c>
       <c r="E167" t="s">
-        <v>738</v>
+        <v>839</v>
       </c>
       <c r="F167" t="s">
-        <v>914</v>
+        <v>1043</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -7052,19 +7556,19 @@
         <v>109</v>
       </c>
       <c r="B168" t="s">
-        <v>263</v>
+        <v>329</v>
       </c>
       <c r="C168" t="s">
-        <v>415</v>
+        <v>481</v>
       </c>
       <c r="D168" t="s">
-        <v>568</v>
+        <v>664</v>
       </c>
       <c r="E168" t="s">
-        <v>739</v>
+        <v>840</v>
       </c>
       <c r="F168" t="s">
-        <v>915</v>
+        <v>1044</v>
       </c>
       <c r="G168">
         <v>25</v>
@@ -7075,19 +7579,19 @@
         <v>110</v>
       </c>
       <c r="B169" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="C169" t="s">
-        <v>307</v>
+        <v>373</v>
       </c>
       <c r="D169" t="s">
-        <v>482</v>
+        <v>578</v>
       </c>
       <c r="E169" t="s">
-        <v>740</v>
+        <v>841</v>
       </c>
       <c r="F169" t="s">
-        <v>916</v>
+        <v>1045</v>
       </c>
       <c r="G169">
         <v>50</v>
@@ -7098,19 +7602,19 @@
         <v>111</v>
       </c>
       <c r="B170" t="s">
-        <v>264</v>
+        <v>330</v>
       </c>
       <c r="C170" t="s">
-        <v>416</v>
+        <v>482</v>
       </c>
       <c r="D170" t="s">
-        <v>569</v>
+        <v>665</v>
       </c>
       <c r="E170" t="s">
-        <v>569</v>
+        <v>665</v>
       </c>
       <c r="F170" t="s">
-        <v>917</v>
+        <v>1046</v>
       </c>
       <c r="G170">
         <v>25</v>
@@ -7121,19 +7625,19 @@
         <v>112</v>
       </c>
       <c r="B171" t="s">
-        <v>265</v>
+        <v>331</v>
       </c>
       <c r="C171" t="s">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="D171" t="s">
-        <v>570</v>
+        <v>666</v>
       </c>
       <c r="E171" t="s">
-        <v>741</v>
+        <v>842</v>
       </c>
       <c r="F171" t="s">
-        <v>918</v>
+        <v>1047</v>
       </c>
       <c r="G171">
         <v>50</v>
@@ -7144,19 +7648,19 @@
         <v>113</v>
       </c>
       <c r="B172" t="s">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="C172" t="s">
-        <v>418</v>
+        <v>484</v>
       </c>
       <c r="D172" t="s">
-        <v>485</v>
+        <v>581</v>
       </c>
       <c r="E172" t="s">
-        <v>742</v>
+        <v>843</v>
       </c>
       <c r="F172" t="s">
-        <v>814</v>
+        <v>943</v>
       </c>
       <c r="G172">
         <v>25</v>
@@ -7167,19 +7671,19 @@
         <v>114</v>
       </c>
       <c r="B173" t="s">
-        <v>266</v>
+        <v>332</v>
       </c>
       <c r="C173" t="s">
-        <v>419</v>
+        <v>485</v>
       </c>
       <c r="D173" t="s">
-        <v>571</v>
+        <v>667</v>
       </c>
       <c r="E173" t="s">
-        <v>743</v>
+        <v>844</v>
       </c>
       <c r="F173" t="s">
-        <v>919</v>
+        <v>1048</v>
       </c>
       <c r="G173">
         <v>25</v>
@@ -7190,19 +7694,19 @@
         <v>115</v>
       </c>
       <c r="B174" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="C174" t="s">
-        <v>420</v>
+        <v>486</v>
       </c>
       <c r="D174" t="s">
-        <v>572</v>
+        <v>668</v>
       </c>
       <c r="E174" t="s">
-        <v>744</v>
+        <v>845</v>
       </c>
       <c r="F174" t="s">
-        <v>920</v>
+        <v>1049</v>
       </c>
       <c r="G174">
         <v>75</v>
@@ -7213,19 +7717,19 @@
         <v>116</v>
       </c>
       <c r="B175" t="s">
-        <v>268</v>
+        <v>334</v>
       </c>
       <c r="C175" t="s">
-        <v>415</v>
+        <v>481</v>
       </c>
       <c r="D175" t="s">
-        <v>573</v>
+        <v>669</v>
       </c>
       <c r="E175" t="s">
-        <v>745</v>
+        <v>846</v>
       </c>
       <c r="F175" t="s">
-        <v>921</v>
+        <v>1050</v>
       </c>
       <c r="G175">
         <v>25</v>
@@ -7236,19 +7740,19 @@
         <v>117</v>
       </c>
       <c r="B176" t="s">
-        <v>269</v>
+        <v>335</v>
       </c>
       <c r="C176" t="s">
-        <v>291</v>
+        <v>357</v>
       </c>
       <c r="D176" t="s">
-        <v>574</v>
+        <v>670</v>
       </c>
       <c r="E176" t="s">
-        <v>574</v>
+        <v>670</v>
       </c>
       <c r="F176" t="s">
-        <v>922</v>
+        <v>1051</v>
       </c>
       <c r="G176">
         <v>50</v>
@@ -7259,19 +7763,19 @@
         <v>118</v>
       </c>
       <c r="B177" t="s">
-        <v>270</v>
+        <v>336</v>
       </c>
       <c r="C177" t="s">
-        <v>421</v>
+        <v>487</v>
       </c>
       <c r="D177" t="s">
-        <v>575</v>
+        <v>671</v>
       </c>
       <c r="E177" t="s">
-        <v>746</v>
+        <v>847</v>
       </c>
       <c r="F177" t="s">
-        <v>923</v>
+        <v>1052</v>
       </c>
       <c r="G177">
         <v>50</v>
@@ -7282,19 +7786,19 @@
         <v>119</v>
       </c>
       <c r="B178" t="s">
-        <v>241</v>
+        <v>307</v>
       </c>
       <c r="C178" t="s">
-        <v>422</v>
+        <v>488</v>
       </c>
       <c r="D178" t="s">
-        <v>576</v>
+        <v>672</v>
       </c>
       <c r="E178" t="s">
-        <v>576</v>
+        <v>672</v>
       </c>
       <c r="F178" t="s">
-        <v>576</v>
+        <v>672</v>
       </c>
       <c r="G178">
         <v>50</v>
@@ -7305,19 +7809,19 @@
         <v>120</v>
       </c>
       <c r="B179" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="C179" t="s">
-        <v>322</v>
+        <v>388</v>
       </c>
       <c r="D179" t="s">
-        <v>472</v>
+        <v>568</v>
       </c>
       <c r="E179" t="s">
-        <v>633</v>
+        <v>734</v>
       </c>
       <c r="F179" t="s">
-        <v>924</v>
+        <v>1053</v>
       </c>
       <c r="G179">
         <v>100</v>
@@ -7328,19 +7832,19 @@
         <v>121</v>
       </c>
       <c r="B180" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="C180" t="s">
-        <v>337</v>
+        <v>403</v>
       </c>
       <c r="D180" t="s">
-        <v>577</v>
+        <v>673</v>
       </c>
       <c r="E180" t="s">
-        <v>649</v>
+        <v>750</v>
       </c>
       <c r="F180" t="s">
-        <v>816</v>
+        <v>945</v>
       </c>
       <c r="G180">
         <v>50</v>
@@ -7351,19 +7855,19 @@
         <v>122</v>
       </c>
       <c r="B181" t="s">
-        <v>271</v>
+        <v>337</v>
       </c>
       <c r="C181" t="s">
-        <v>423</v>
+        <v>489</v>
       </c>
       <c r="D181" t="s">
-        <v>578</v>
+        <v>674</v>
       </c>
       <c r="E181" t="s">
-        <v>747</v>
+        <v>848</v>
       </c>
       <c r="F181" t="s">
-        <v>925</v>
+        <v>1054</v>
       </c>
       <c r="G181">
         <v>25</v>
@@ -7374,19 +7878,19 @@
         <v>123</v>
       </c>
       <c r="B182" t="s">
-        <v>272</v>
+        <v>338</v>
       </c>
       <c r="C182" t="s">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="D182" t="s">
-        <v>579</v>
+        <v>675</v>
       </c>
       <c r="E182" t="s">
-        <v>748</v>
+        <v>849</v>
       </c>
       <c r="F182" t="s">
-        <v>926</v>
+        <v>1055</v>
       </c>
       <c r="G182">
         <v>100</v>
@@ -7397,19 +7901,19 @@
         <v>124</v>
       </c>
       <c r="B183" t="s">
-        <v>273</v>
+        <v>339</v>
       </c>
       <c r="C183" t="s">
-        <v>415</v>
+        <v>481</v>
       </c>
       <c r="D183" t="s">
-        <v>580</v>
+        <v>676</v>
       </c>
       <c r="E183" t="s">
-        <v>749</v>
+        <v>850</v>
       </c>
       <c r="F183" t="s">
-        <v>927</v>
+        <v>1056</v>
       </c>
       <c r="G183">
         <v>25</v>
@@ -7420,19 +7924,19 @@
         <v>125</v>
       </c>
       <c r="B184" t="s">
-        <v>274</v>
+        <v>340</v>
       </c>
       <c r="C184" t="s">
-        <v>415</v>
+        <v>481</v>
       </c>
       <c r="D184" t="s">
-        <v>581</v>
+        <v>677</v>
       </c>
       <c r="E184" t="s">
-        <v>750</v>
+        <v>851</v>
       </c>
       <c r="F184" t="s">
-        <v>928</v>
+        <v>1057</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -7443,16 +7947,16 @@
         <v>126</v>
       </c>
       <c r="B185" t="s">
-        <v>275</v>
+        <v>341</v>
       </c>
       <c r="C185" t="s">
-        <v>425</v>
+        <v>491</v>
       </c>
       <c r="D185" t="s">
-        <v>582</v>
+        <v>678</v>
       </c>
       <c r="E185" t="s">
-        <v>751</v>
+        <v>852</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -7463,19 +7967,19 @@
         <v>127</v>
       </c>
       <c r="B186" t="s">
-        <v>276</v>
+        <v>342</v>
       </c>
       <c r="C186" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="D186" t="s">
-        <v>583</v>
+        <v>679</v>
       </c>
       <c r="E186" t="s">
-        <v>752</v>
+        <v>853</v>
       </c>
       <c r="F186" t="s">
-        <v>929</v>
+        <v>1058</v>
       </c>
       <c r="G186">
         <v>75</v>
@@ -7486,19 +7990,19 @@
         <v>128</v>
       </c>
       <c r="B187" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
       <c r="C187" t="s">
-        <v>426</v>
+        <v>492</v>
       </c>
       <c r="D187" t="s">
-        <v>584</v>
+        <v>680</v>
       </c>
       <c r="E187" t="s">
-        <v>753</v>
+        <v>854</v>
       </c>
       <c r="F187" t="s">
-        <v>930</v>
+        <v>1059</v>
       </c>
       <c r="G187">
         <v>75</v>
@@ -7509,19 +8013,19 @@
         <v>129</v>
       </c>
       <c r="B188" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
       <c r="C188" t="s">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="D188" t="s">
-        <v>491</v>
+        <v>587</v>
       </c>
       <c r="E188" t="s">
-        <v>754</v>
+        <v>855</v>
       </c>
       <c r="F188" t="s">
-        <v>931</v>
+        <v>1060</v>
       </c>
       <c r="G188">
         <v>75</v>
@@ -7532,19 +8036,19 @@
         <v>130</v>
       </c>
       <c r="B189" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="C189" t="s">
-        <v>427</v>
+        <v>493</v>
       </c>
       <c r="D189" t="s">
-        <v>585</v>
+        <v>681</v>
       </c>
       <c r="E189" t="s">
-        <v>755</v>
+        <v>856</v>
       </c>
       <c r="F189" t="s">
-        <v>932</v>
+        <v>1061</v>
       </c>
       <c r="G189">
         <v>50</v>
@@ -7555,19 +8059,19 @@
         <v>131</v>
       </c>
       <c r="B190" t="s">
-        <v>279</v>
+        <v>345</v>
       </c>
       <c r="C190" t="s">
-        <v>428</v>
+        <v>494</v>
       </c>
       <c r="D190" t="s">
-        <v>586</v>
+        <v>682</v>
       </c>
       <c r="E190" t="s">
-        <v>756</v>
+        <v>857</v>
       </c>
       <c r="F190" t="s">
-        <v>933</v>
+        <v>1062</v>
       </c>
       <c r="G190">
         <v>100</v>
@@ -7578,19 +8082,19 @@
         <v>132</v>
       </c>
       <c r="B191" t="s">
-        <v>178</v>
+        <v>244</v>
       </c>
       <c r="C191" t="s">
-        <v>429</v>
+        <v>495</v>
       </c>
       <c r="D191" t="s">
-        <v>587</v>
+        <v>683</v>
       </c>
       <c r="E191" t="s">
-        <v>635</v>
+        <v>736</v>
       </c>
       <c r="F191" t="s">
-        <v>934</v>
+        <v>1063</v>
       </c>
       <c r="G191">
         <v>50</v>
@@ -7601,19 +8105,19 @@
         <v>133</v>
       </c>
       <c r="B192" t="s">
-        <v>280</v>
+        <v>346</v>
       </c>
       <c r="C192" t="s">
-        <v>430</v>
+        <v>496</v>
       </c>
       <c r="D192" t="s">
-        <v>588</v>
+        <v>684</v>
       </c>
       <c r="E192" t="s">
-        <v>757</v>
+        <v>858</v>
       </c>
       <c r="F192" t="s">
-        <v>935</v>
+        <v>1064</v>
       </c>
       <c r="G192">
         <v>25</v>
@@ -7624,19 +8128,19 @@
         <v>134</v>
       </c>
       <c r="B193" t="s">
-        <v>281</v>
+        <v>347</v>
       </c>
       <c r="C193" t="s">
-        <v>431</v>
+        <v>497</v>
       </c>
       <c r="D193" t="s">
-        <v>589</v>
+        <v>685</v>
       </c>
       <c r="E193" t="s">
-        <v>758</v>
+        <v>859</v>
       </c>
       <c r="F193" t="s">
-        <v>936</v>
+        <v>1065</v>
       </c>
       <c r="G193">
         <v>100</v>
@@ -7647,19 +8151,19 @@
         <v>135</v>
       </c>
       <c r="B194" t="s">
-        <v>282</v>
+        <v>348</v>
       </c>
       <c r="C194" t="s">
-        <v>432</v>
+        <v>498</v>
       </c>
       <c r="D194" t="s">
-        <v>590</v>
+        <v>686</v>
       </c>
       <c r="E194" t="s">
-        <v>759</v>
+        <v>860</v>
       </c>
       <c r="F194" t="s">
-        <v>937</v>
+        <v>1066</v>
       </c>
       <c r="G194">
         <v>75</v>
@@ -7670,19 +8174,19 @@
         <v>136</v>
       </c>
       <c r="B195" t="s">
-        <v>283</v>
+        <v>349</v>
       </c>
       <c r="C195" t="s">
-        <v>433</v>
+        <v>499</v>
       </c>
       <c r="D195" t="s">
-        <v>591</v>
+        <v>687</v>
       </c>
       <c r="E195" t="s">
-        <v>760</v>
+        <v>861</v>
       </c>
       <c r="F195" t="s">
-        <v>938</v>
+        <v>1067</v>
       </c>
       <c r="G195">
         <v>25</v>
@@ -7693,19 +8197,19 @@
         <v>137</v>
       </c>
       <c r="B196" t="s">
-        <v>284</v>
+        <v>350</v>
       </c>
       <c r="C196" t="s">
-        <v>434</v>
+        <v>500</v>
       </c>
       <c r="D196" t="s">
-        <v>592</v>
+        <v>688</v>
       </c>
       <c r="E196" t="s">
-        <v>761</v>
+        <v>862</v>
       </c>
       <c r="F196" t="s">
-        <v>939</v>
+        <v>1068</v>
       </c>
       <c r="G196">
         <v>50</v>
@@ -7716,19 +8220,19 @@
         <v>138</v>
       </c>
       <c r="B197" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="C197" t="s">
-        <v>325</v>
+        <v>391</v>
       </c>
       <c r="D197" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="E197" t="s">
-        <v>762</v>
+        <v>863</v>
       </c>
       <c r="F197" t="s">
-        <v>940</v>
+        <v>1069</v>
       </c>
       <c r="G197">
         <v>50</v>
@@ -7739,19 +8243,19 @@
         <v>139</v>
       </c>
       <c r="B198" t="s">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="C198" t="s">
-        <v>435</v>
+        <v>501</v>
       </c>
       <c r="D198" t="s">
-        <v>593</v>
+        <v>689</v>
       </c>
       <c r="E198" t="s">
-        <v>763</v>
+        <v>864</v>
       </c>
       <c r="F198" t="s">
-        <v>941</v>
+        <v>1070</v>
       </c>
       <c r="G198">
         <v>25</v>
@@ -7762,19 +8266,19 @@
         <v>140</v>
       </c>
       <c r="B199" t="s">
-        <v>286</v>
+        <v>352</v>
       </c>
       <c r="C199" t="s">
-        <v>436</v>
+        <v>502</v>
       </c>
       <c r="D199" t="s">
-        <v>594</v>
+        <v>690</v>
       </c>
       <c r="E199" t="s">
-        <v>764</v>
+        <v>865</v>
       </c>
       <c r="F199" t="s">
-        <v>942</v>
+        <v>1071</v>
       </c>
       <c r="G199">
         <v>75</v>
@@ -7785,19 +8289,19 @@
         <v>141</v>
       </c>
       <c r="B200" t="s">
-        <v>162</v>
+        <v>228</v>
       </c>
       <c r="C200" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
       <c r="D200" t="s">
-        <v>456</v>
+        <v>552</v>
       </c>
       <c r="E200" t="s">
-        <v>765</v>
+        <v>866</v>
       </c>
       <c r="F200" t="s">
-        <v>943</v>
+        <v>1072</v>
       </c>
       <c r="G200">
         <v>50</v>
@@ -7808,19 +8312,19 @@
         <v>142</v>
       </c>
       <c r="B201" t="s">
-        <v>287</v>
+        <v>353</v>
       </c>
       <c r="C201" t="s">
-        <v>437</v>
+        <v>503</v>
       </c>
       <c r="D201" t="s">
-        <v>595</v>
+        <v>691</v>
       </c>
       <c r="E201" t="s">
-        <v>766</v>
+        <v>867</v>
       </c>
       <c r="F201" t="s">
-        <v>944</v>
+        <v>1073</v>
       </c>
       <c r="G201">
         <v>25</v>
@@ -7831,19 +8335,19 @@
         <v>143</v>
       </c>
       <c r="B202" t="s">
-        <v>288</v>
+        <v>354</v>
       </c>
       <c r="C202" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="D202" t="s">
-        <v>596</v>
+        <v>692</v>
       </c>
       <c r="E202" t="s">
-        <v>767</v>
+        <v>868</v>
       </c>
       <c r="F202" t="s">
-        <v>945</v>
+        <v>1074</v>
       </c>
       <c r="G202">
         <v>50</v>
@@ -7854,19 +8358,19 @@
         <v>144</v>
       </c>
       <c r="B203" t="s">
-        <v>289</v>
+        <v>355</v>
       </c>
       <c r="C203" t="s">
-        <v>438</v>
+        <v>504</v>
       </c>
       <c r="D203" t="s">
-        <v>597</v>
+        <v>693</v>
       </c>
       <c r="E203" t="s">
-        <v>768</v>
+        <v>869</v>
       </c>
       <c r="F203" t="s">
-        <v>768</v>
+        <v>869</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -7877,22 +8381,1540 @@
         <v>145</v>
       </c>
       <c r="B204" t="s">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="C204" t="s">
-        <v>439</v>
+        <v>505</v>
       </c>
       <c r="D204" t="s">
-        <v>598</v>
+        <v>694</v>
       </c>
       <c r="E204" t="s">
-        <v>598</v>
+        <v>694</v>
       </c>
       <c r="F204" t="s">
-        <v>838</v>
+        <v>967</v>
       </c>
       <c r="G204">
         <v>50</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" t="s">
+        <v>146</v>
+      </c>
+      <c r="B205" t="s">
+        <v>267</v>
+      </c>
+      <c r="C205" t="s">
+        <v>505</v>
+      </c>
+      <c r="D205" t="s">
+        <v>596</v>
+      </c>
+      <c r="E205" t="s">
+        <v>694</v>
+      </c>
+      <c r="F205" t="s">
+        <v>967</v>
+      </c>
+      <c r="G205">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" t="s">
+        <v>147</v>
+      </c>
+      <c r="B206" t="s">
+        <v>268</v>
+      </c>
+      <c r="C206" t="s">
+        <v>506</v>
+      </c>
+      <c r="D206" t="s">
+        <v>597</v>
+      </c>
+      <c r="E206" t="s">
+        <v>769</v>
+      </c>
+      <c r="F206" t="s">
+        <v>968</v>
+      </c>
+      <c r="G206">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" t="s">
+        <v>148</v>
+      </c>
+      <c r="B207" t="s">
+        <v>269</v>
+      </c>
+      <c r="C207" t="s">
+        <v>423</v>
+      </c>
+      <c r="D207" t="s">
+        <v>599</v>
+      </c>
+      <c r="E207" t="s">
+        <v>771</v>
+      </c>
+      <c r="F207" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G207">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" t="s">
+        <v>149</v>
+      </c>
+      <c r="B208" t="s">
+        <v>270</v>
+      </c>
+      <c r="C208" t="s">
+        <v>507</v>
+      </c>
+      <c r="D208" t="s">
+        <v>600</v>
+      </c>
+      <c r="E208" t="s">
+        <v>870</v>
+      </c>
+      <c r="F208" t="s">
+        <v>973</v>
+      </c>
+      <c r="G208">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" t="s">
+        <v>150</v>
+      </c>
+      <c r="B209" t="s">
+        <v>271</v>
+      </c>
+      <c r="C209" t="s">
+        <v>425</v>
+      </c>
+      <c r="D209" t="s">
+        <v>601</v>
+      </c>
+      <c r="E209" t="s">
+        <v>871</v>
+      </c>
+      <c r="F209" t="s">
+        <v>974</v>
+      </c>
+      <c r="G209">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" t="s">
+        <v>151</v>
+      </c>
+      <c r="B210" t="s">
+        <v>272</v>
+      </c>
+      <c r="C210" t="s">
+        <v>508</v>
+      </c>
+      <c r="D210" t="s">
+        <v>602</v>
+      </c>
+      <c r="E210" t="s">
+        <v>872</v>
+      </c>
+      <c r="F210" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G210">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" t="s">
+        <v>152</v>
+      </c>
+      <c r="B211" t="s">
+        <v>273</v>
+      </c>
+      <c r="C211" t="s">
+        <v>427</v>
+      </c>
+      <c r="D211" t="s">
+        <v>603</v>
+      </c>
+      <c r="E211" t="s">
+        <v>873</v>
+      </c>
+      <c r="F211" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G211">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" t="s">
+        <v>153</v>
+      </c>
+      <c r="B212" t="s">
+        <v>274</v>
+      </c>
+      <c r="C212" t="s">
+        <v>509</v>
+      </c>
+      <c r="D212" t="s">
+        <v>604</v>
+      </c>
+      <c r="E212" t="s">
+        <v>777</v>
+      </c>
+      <c r="F212" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G212">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" t="s">
+        <v>154</v>
+      </c>
+      <c r="B213" t="s">
+        <v>275</v>
+      </c>
+      <c r="C213" t="s">
+        <v>429</v>
+      </c>
+      <c r="D213" t="s">
+        <v>605</v>
+      </c>
+      <c r="E213" t="s">
+        <v>778</v>
+      </c>
+      <c r="F213" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G213">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" t="s">
+        <v>155</v>
+      </c>
+      <c r="B214" t="s">
+        <v>277</v>
+      </c>
+      <c r="C214" t="s">
+        <v>431</v>
+      </c>
+      <c r="D214" t="s">
+        <v>607</v>
+      </c>
+      <c r="E214" t="s">
+        <v>874</v>
+      </c>
+      <c r="F214" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G214">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" t="s">
+        <v>156</v>
+      </c>
+      <c r="B215" t="s">
+        <v>278</v>
+      </c>
+      <c r="C215" t="s">
+        <v>432</v>
+      </c>
+      <c r="D215" t="s">
+        <v>695</v>
+      </c>
+      <c r="E215" t="s">
+        <v>875</v>
+      </c>
+      <c r="F215" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G215">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" t="s">
+        <v>157</v>
+      </c>
+      <c r="B216" t="s">
+        <v>280</v>
+      </c>
+      <c r="C216" t="s">
+        <v>434</v>
+      </c>
+      <c r="D216" t="s">
+        <v>610</v>
+      </c>
+      <c r="E216" t="s">
+        <v>876</v>
+      </c>
+      <c r="F216" t="s">
+        <v>987</v>
+      </c>
+      <c r="G216">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" t="s">
+        <v>158</v>
+      </c>
+      <c r="B217" t="s">
+        <v>217</v>
+      </c>
+      <c r="C217" t="s">
+        <v>361</v>
+      </c>
+      <c r="D217" t="s">
+        <v>541</v>
+      </c>
+      <c r="E217" t="s">
+        <v>877</v>
+      </c>
+      <c r="F217" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G217">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" t="s">
+        <v>159</v>
+      </c>
+      <c r="B218" t="s">
+        <v>281</v>
+      </c>
+      <c r="C218" t="s">
+        <v>510</v>
+      </c>
+      <c r="D218" t="s">
+        <v>612</v>
+      </c>
+      <c r="E218" t="s">
+        <v>878</v>
+      </c>
+      <c r="F218" t="s">
+        <v>992</v>
+      </c>
+      <c r="G218">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" t="s">
+        <v>160</v>
+      </c>
+      <c r="B219" t="s">
+        <v>286</v>
+      </c>
+      <c r="C219" t="s">
+        <v>511</v>
+      </c>
+      <c r="D219" t="s">
+        <v>618</v>
+      </c>
+      <c r="E219" t="s">
+        <v>794</v>
+      </c>
+      <c r="F219" t="s">
+        <v>999</v>
+      </c>
+      <c r="G219">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" t="s">
+        <v>161</v>
+      </c>
+      <c r="B220" t="s">
+        <v>287</v>
+      </c>
+      <c r="C220" t="s">
+        <v>512</v>
+      </c>
+      <c r="D220" t="s">
+        <v>619</v>
+      </c>
+      <c r="E220" t="s">
+        <v>879</v>
+      </c>
+      <c r="F220" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G220">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" t="s">
+        <v>162</v>
+      </c>
+      <c r="B221" t="s">
+        <v>289</v>
+      </c>
+      <c r="C221" t="s">
+        <v>513</v>
+      </c>
+      <c r="D221" t="s">
+        <v>622</v>
+      </c>
+      <c r="E221" t="s">
+        <v>880</v>
+      </c>
+      <c r="F221" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G221">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" t="s">
+        <v>163</v>
+      </c>
+      <c r="B222" t="s">
+        <v>290</v>
+      </c>
+      <c r="C222" t="s">
+        <v>451</v>
+      </c>
+      <c r="D222" t="s">
+        <v>623</v>
+      </c>
+      <c r="E222" t="s">
+        <v>881</v>
+      </c>
+      <c r="F222" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G222">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" t="s">
+        <v>164</v>
+      </c>
+      <c r="B223" t="s">
+        <v>292</v>
+      </c>
+      <c r="C223" t="s">
+        <v>514</v>
+      </c>
+      <c r="D223" t="s">
+        <v>625</v>
+      </c>
+      <c r="E223" t="s">
+        <v>800</v>
+      </c>
+      <c r="F223" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G223">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" t="s">
+        <v>165</v>
+      </c>
+      <c r="B224" t="s">
+        <v>293</v>
+      </c>
+      <c r="C224" t="s">
+        <v>515</v>
+      </c>
+      <c r="D224" t="s">
+        <v>626</v>
+      </c>
+      <c r="E224" t="s">
+        <v>882</v>
+      </c>
+      <c r="F224" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G224">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" t="s">
+        <v>166</v>
+      </c>
+      <c r="B225" t="s">
+        <v>294</v>
+      </c>
+      <c r="C225" t="s">
+        <v>516</v>
+      </c>
+      <c r="D225" t="s">
+        <v>627</v>
+      </c>
+      <c r="E225" t="s">
+        <v>801</v>
+      </c>
+      <c r="F225" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G225">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" t="s">
+        <v>167</v>
+      </c>
+      <c r="B226" t="s">
+        <v>295</v>
+      </c>
+      <c r="C226" t="s">
+        <v>449</v>
+      </c>
+      <c r="D226" t="s">
+        <v>628</v>
+      </c>
+      <c r="E226" t="s">
+        <v>802</v>
+      </c>
+      <c r="F226" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G226">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" t="s">
+        <v>168</v>
+      </c>
+      <c r="B227" t="s">
+        <v>296</v>
+      </c>
+      <c r="C227" t="s">
+        <v>450</v>
+      </c>
+      <c r="D227" t="s">
+        <v>696</v>
+      </c>
+      <c r="E227" t="s">
+        <v>883</v>
+      </c>
+      <c r="F227" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G227">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" t="s">
+        <v>169</v>
+      </c>
+      <c r="B228" t="s">
+        <v>297</v>
+      </c>
+      <c r="C228" t="s">
+        <v>517</v>
+      </c>
+      <c r="D228" t="s">
+        <v>630</v>
+      </c>
+      <c r="E228" t="s">
+        <v>804</v>
+      </c>
+      <c r="F228" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G228">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" t="s">
+        <v>170</v>
+      </c>
+      <c r="B229" t="s">
+        <v>298</v>
+      </c>
+      <c r="C229" t="s">
+        <v>518</v>
+      </c>
+      <c r="D229" t="s">
+        <v>631</v>
+      </c>
+      <c r="E229" t="s">
+        <v>805</v>
+      </c>
+      <c r="F229" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G229">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" t="s">
+        <v>171</v>
+      </c>
+      <c r="B230" t="s">
+        <v>299</v>
+      </c>
+      <c r="C230" t="s">
+        <v>440</v>
+      </c>
+      <c r="D230" t="s">
+        <v>632</v>
+      </c>
+      <c r="E230" t="s">
+        <v>884</v>
+      </c>
+      <c r="F230" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G230">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" t="s">
+        <v>172</v>
+      </c>
+      <c r="B231" t="s">
+        <v>300</v>
+      </c>
+      <c r="C231" t="s">
+        <v>452</v>
+      </c>
+      <c r="D231" t="s">
+        <v>633</v>
+      </c>
+      <c r="E231" t="s">
+        <v>807</v>
+      </c>
+      <c r="F231" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G231">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" t="s">
+        <v>173</v>
+      </c>
+      <c r="B232" t="s">
+        <v>222</v>
+      </c>
+      <c r="C232" t="s">
+        <v>425</v>
+      </c>
+      <c r="D232" t="s">
+        <v>546</v>
+      </c>
+      <c r="E232" t="s">
+        <v>710</v>
+      </c>
+      <c r="F232" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G232">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" t="s">
+        <v>174</v>
+      </c>
+      <c r="B233" t="s">
+        <v>301</v>
+      </c>
+      <c r="C233" t="s">
+        <v>453</v>
+      </c>
+      <c r="D233" t="s">
+        <v>634</v>
+      </c>
+      <c r="E233" t="s">
+        <v>808</v>
+      </c>
+      <c r="F233" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G233">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" t="s">
+        <v>175</v>
+      </c>
+      <c r="B234" t="s">
+        <v>303</v>
+      </c>
+      <c r="C234" t="s">
+        <v>455</v>
+      </c>
+      <c r="D234" t="s">
+        <v>636</v>
+      </c>
+      <c r="E234" t="s">
+        <v>885</v>
+      </c>
+      <c r="F234" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G234">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" t="s">
+        <v>176</v>
+      </c>
+      <c r="B235" t="s">
+        <v>305</v>
+      </c>
+      <c r="C235" t="s">
+        <v>453</v>
+      </c>
+      <c r="D235" t="s">
+        <v>638</v>
+      </c>
+      <c r="E235" t="s">
+        <v>812</v>
+      </c>
+      <c r="F235" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G235">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" t="s">
+        <v>177</v>
+      </c>
+      <c r="B236" t="s">
+        <v>307</v>
+      </c>
+      <c r="C236" t="s">
+        <v>459</v>
+      </c>
+      <c r="D236" t="s">
+        <v>640</v>
+      </c>
+      <c r="E236" t="s">
+        <v>815</v>
+      </c>
+      <c r="F236" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G236">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" t="s">
+        <v>178</v>
+      </c>
+      <c r="B237" t="s">
+        <v>308</v>
+      </c>
+      <c r="C237" t="s">
+        <v>519</v>
+      </c>
+      <c r="D237" t="s">
+        <v>641</v>
+      </c>
+      <c r="E237" t="s">
+        <v>886</v>
+      </c>
+      <c r="F237" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G237">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" t="s">
+        <v>179</v>
+      </c>
+      <c r="B238" t="s">
+        <v>310</v>
+      </c>
+      <c r="C238" t="s">
+        <v>396</v>
+      </c>
+      <c r="D238" t="s">
+        <v>643</v>
+      </c>
+      <c r="E238" t="s">
+        <v>818</v>
+      </c>
+      <c r="F238" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G238">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" t="s">
+        <v>180</v>
+      </c>
+      <c r="B239" t="s">
+        <v>311</v>
+      </c>
+      <c r="C239" t="s">
+        <v>461</v>
+      </c>
+      <c r="D239" t="s">
+        <v>644</v>
+      </c>
+      <c r="E239" t="s">
+        <v>819</v>
+      </c>
+      <c r="F239" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G239">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" t="s">
+        <v>181</v>
+      </c>
+      <c r="B240" t="s">
+        <v>313</v>
+      </c>
+      <c r="C240" t="s">
+        <v>520</v>
+      </c>
+      <c r="D240" t="s">
+        <v>647</v>
+      </c>
+      <c r="E240" t="s">
+        <v>822</v>
+      </c>
+      <c r="F240" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G240">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" t="s">
+        <v>182</v>
+      </c>
+      <c r="B241" t="s">
+        <v>315</v>
+      </c>
+      <c r="C241" t="s">
+        <v>437</v>
+      </c>
+      <c r="D241" t="s">
+        <v>649</v>
+      </c>
+      <c r="E241" t="s">
+        <v>824</v>
+      </c>
+      <c r="F241" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G241">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" t="s">
+        <v>183</v>
+      </c>
+      <c r="B242" t="s">
+        <v>316</v>
+      </c>
+      <c r="C242" t="s">
+        <v>437</v>
+      </c>
+      <c r="D242" t="s">
+        <v>650</v>
+      </c>
+      <c r="E242" t="s">
+        <v>887</v>
+      </c>
+      <c r="F242" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G242">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" t="s">
+        <v>184</v>
+      </c>
+      <c r="B243" t="s">
+        <v>317</v>
+      </c>
+      <c r="C243" t="s">
+        <v>521</v>
+      </c>
+      <c r="D243" t="s">
+        <v>651</v>
+      </c>
+      <c r="E243" t="s">
+        <v>888</v>
+      </c>
+      <c r="F243" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G243">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" t="s">
+        <v>185</v>
+      </c>
+      <c r="B244" t="s">
+        <v>318</v>
+      </c>
+      <c r="C244" t="s">
+        <v>522</v>
+      </c>
+      <c r="D244" t="s">
+        <v>652</v>
+      </c>
+      <c r="E244" t="s">
+        <v>827</v>
+      </c>
+      <c r="F244" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G244">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" t="s">
+        <v>186</v>
+      </c>
+      <c r="B245" t="s">
+        <v>320</v>
+      </c>
+      <c r="C245" t="s">
+        <v>471</v>
+      </c>
+      <c r="D245" t="s">
+        <v>654</v>
+      </c>
+      <c r="E245" t="s">
+        <v>830</v>
+      </c>
+      <c r="F245" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G245">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" t="s">
+        <v>187</v>
+      </c>
+      <c r="B246" t="s">
+        <v>321</v>
+      </c>
+      <c r="C246" t="s">
+        <v>523</v>
+      </c>
+      <c r="D246" t="s">
+        <v>655</v>
+      </c>
+      <c r="E246" t="s">
+        <v>831</v>
+      </c>
+      <c r="F246" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G246">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" t="s">
+        <v>188</v>
+      </c>
+      <c r="B247" t="s">
+        <v>322</v>
+      </c>
+      <c r="C247" t="s">
+        <v>470</v>
+      </c>
+      <c r="D247" t="s">
+        <v>656</v>
+      </c>
+      <c r="E247" t="s">
+        <v>889</v>
+      </c>
+      <c r="F247" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G247">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" t="s">
+        <v>189</v>
+      </c>
+      <c r="B248" t="s">
+        <v>323</v>
+      </c>
+      <c r="C248" t="s">
+        <v>524</v>
+      </c>
+      <c r="D248" t="s">
+        <v>657</v>
+      </c>
+      <c r="E248" t="s">
+        <v>890</v>
+      </c>
+      <c r="F248" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G248">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" t="s">
+        <v>190</v>
+      </c>
+      <c r="B249" t="s">
+        <v>325</v>
+      </c>
+      <c r="C249" t="s">
+        <v>525</v>
+      </c>
+      <c r="D249" t="s">
+        <v>659</v>
+      </c>
+      <c r="E249" t="s">
+        <v>836</v>
+      </c>
+      <c r="F249" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G249">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" t="s">
+        <v>191</v>
+      </c>
+      <c r="B250" t="s">
+        <v>328</v>
+      </c>
+      <c r="C250" t="s">
+        <v>526</v>
+      </c>
+      <c r="D250" t="s">
+        <v>662</v>
+      </c>
+      <c r="E250" t="s">
+        <v>838</v>
+      </c>
+      <c r="F250" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G250">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" t="s">
+        <v>192</v>
+      </c>
+      <c r="B251" t="s">
+        <v>282</v>
+      </c>
+      <c r="C251" t="s">
+        <v>527</v>
+      </c>
+      <c r="D251" t="s">
+        <v>697</v>
+      </c>
+      <c r="E251" t="s">
+        <v>839</v>
+      </c>
+      <c r="F251" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G251">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" t="s">
+        <v>193</v>
+      </c>
+      <c r="B252" t="s">
+        <v>329</v>
+      </c>
+      <c r="C252" t="s">
+        <v>528</v>
+      </c>
+      <c r="D252" t="s">
+        <v>664</v>
+      </c>
+      <c r="E252" t="s">
+        <v>891</v>
+      </c>
+      <c r="F252" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" t="s">
+        <v>194</v>
+      </c>
+      <c r="B253" t="s">
+        <v>332</v>
+      </c>
+      <c r="C253" t="s">
+        <v>485</v>
+      </c>
+      <c r="D253" t="s">
+        <v>667</v>
+      </c>
+      <c r="E253" t="s">
+        <v>892</v>
+      </c>
+      <c r="F253" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G253">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" t="s">
+        <v>195</v>
+      </c>
+      <c r="B254" t="s">
+        <v>333</v>
+      </c>
+      <c r="C254" t="s">
+        <v>486</v>
+      </c>
+      <c r="D254" t="s">
+        <v>668</v>
+      </c>
+      <c r="E254" t="s">
+        <v>845</v>
+      </c>
+      <c r="F254" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G254">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" t="s">
+        <v>196</v>
+      </c>
+      <c r="B255" t="s">
+        <v>335</v>
+      </c>
+      <c r="C255" t="s">
+        <v>357</v>
+      </c>
+      <c r="D255" t="s">
+        <v>670</v>
+      </c>
+      <c r="E255" t="s">
+        <v>893</v>
+      </c>
+      <c r="F255" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G255">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" t="s">
+        <v>197</v>
+      </c>
+      <c r="B256" t="s">
+        <v>307</v>
+      </c>
+      <c r="C256" t="s">
+        <v>529</v>
+      </c>
+      <c r="D256" t="s">
+        <v>698</v>
+      </c>
+      <c r="E256" t="s">
+        <v>894</v>
+      </c>
+      <c r="F256" t="s">
+        <v>672</v>
+      </c>
+      <c r="G256">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" t="s">
+        <v>198</v>
+      </c>
+      <c r="B257" t="s">
+        <v>242</v>
+      </c>
+      <c r="C257" t="s">
+        <v>388</v>
+      </c>
+      <c r="D257" t="s">
+        <v>568</v>
+      </c>
+      <c r="E257" t="s">
+        <v>734</v>
+      </c>
+      <c r="F257" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G257">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" t="s">
+        <v>199</v>
+      </c>
+      <c r="B258" t="s">
+        <v>338</v>
+      </c>
+      <c r="C258" t="s">
+        <v>490</v>
+      </c>
+      <c r="D258" t="s">
+        <v>675</v>
+      </c>
+      <c r="E258" t="s">
+        <v>849</v>
+      </c>
+      <c r="F258" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G258">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" t="s">
+        <v>200</v>
+      </c>
+      <c r="B259" t="s">
+        <v>339</v>
+      </c>
+      <c r="C259" t="s">
+        <v>481</v>
+      </c>
+      <c r="D259" t="s">
+        <v>676</v>
+      </c>
+      <c r="E259" t="s">
+        <v>850</v>
+      </c>
+      <c r="F259" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G259">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" t="s">
+        <v>201</v>
+      </c>
+      <c r="B260" t="s">
+        <v>342</v>
+      </c>
+      <c r="C260" t="s">
+        <v>530</v>
+      </c>
+      <c r="D260" t="s">
+        <v>679</v>
+      </c>
+      <c r="E260" t="s">
+        <v>853</v>
+      </c>
+      <c r="F260" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G260">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" t="s">
+        <v>202</v>
+      </c>
+      <c r="B261" t="s">
+        <v>343</v>
+      </c>
+      <c r="C261" t="s">
+        <v>531</v>
+      </c>
+      <c r="D261" t="s">
+        <v>680</v>
+      </c>
+      <c r="E261" t="s">
+        <v>854</v>
+      </c>
+      <c r="F261" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G261">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" t="s">
+        <v>203</v>
+      </c>
+      <c r="B262" t="s">
+        <v>345</v>
+      </c>
+      <c r="C262" t="s">
+        <v>494</v>
+      </c>
+      <c r="D262" t="s">
+        <v>682</v>
+      </c>
+      <c r="E262" t="s">
+        <v>857</v>
+      </c>
+      <c r="F262" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G262">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" t="s">
+        <v>204</v>
+      </c>
+      <c r="B263" t="s">
+        <v>347</v>
+      </c>
+      <c r="C263" t="s">
+        <v>497</v>
+      </c>
+      <c r="D263" t="s">
+        <v>685</v>
+      </c>
+      <c r="E263" t="s">
+        <v>859</v>
+      </c>
+      <c r="F263" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G263">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" t="s">
+        <v>205</v>
+      </c>
+      <c r="B264" t="s">
+        <v>348</v>
+      </c>
+      <c r="C264" t="s">
+        <v>532</v>
+      </c>
+      <c r="D264" t="s">
+        <v>686</v>
+      </c>
+      <c r="E264" t="s">
+        <v>860</v>
+      </c>
+      <c r="F264" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G264">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" t="s">
+        <v>206</v>
+      </c>
+      <c r="B265" t="s">
+        <v>349</v>
+      </c>
+      <c r="C265" t="s">
+        <v>533</v>
+      </c>
+      <c r="D265" t="s">
+        <v>687</v>
+      </c>
+      <c r="E265" t="s">
+        <v>895</v>
+      </c>
+      <c r="F265" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G265">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" t="s">
+        <v>207</v>
+      </c>
+      <c r="B266" t="s">
+        <v>350</v>
+      </c>
+      <c r="C266" t="s">
+        <v>534</v>
+      </c>
+      <c r="D266" t="s">
+        <v>688</v>
+      </c>
+      <c r="E266" t="s">
+        <v>862</v>
+      </c>
+      <c r="F266" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G266">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" t="s">
+        <v>208</v>
+      </c>
+      <c r="B267" t="s">
+        <v>351</v>
+      </c>
+      <c r="C267" t="s">
+        <v>535</v>
+      </c>
+      <c r="D267" t="s">
+        <v>689</v>
+      </c>
+      <c r="E267" t="s">
+        <v>896</v>
+      </c>
+      <c r="F267" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G267">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" t="s">
+        <v>209</v>
+      </c>
+      <c r="B268" t="s">
+        <v>352</v>
+      </c>
+      <c r="C268" t="s">
+        <v>502</v>
+      </c>
+      <c r="D268" t="s">
+        <v>690</v>
+      </c>
+      <c r="E268" t="s">
+        <v>865</v>
+      </c>
+      <c r="F268" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G268">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" t="s">
+        <v>210</v>
+      </c>
+      <c r="B269" t="s">
+        <v>228</v>
+      </c>
+      <c r="C269" t="s">
+        <v>372</v>
+      </c>
+      <c r="D269" t="s">
+        <v>699</v>
+      </c>
+      <c r="E269" t="s">
+        <v>897</v>
+      </c>
+      <c r="F269" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G269">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" t="s">
+        <v>211</v>
+      </c>
+      <c r="B270" t="s">
+        <v>354</v>
+      </c>
+      <c r="C270" t="s">
+        <v>481</v>
+      </c>
+      <c r="D270" t="s">
+        <v>692</v>
+      </c>
+      <c r="E270" t="s">
+        <v>868</v>
+      </c>
+      <c r="F270" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G270">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/VerbBender.xlsx
+++ b/VerbBender.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Edite/Documents/GitHub/Norsk/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0693941A-80D1-3A45-8CBC-13359E90F20F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2687" uniqueCount="1126">
   <si>
     <t>Date</t>
   </si>
@@ -337,7 +343,7 @@
     <t>listen</t>
   </si>
   <si>
-    <t xml:space="preserve">must/have to </t>
+    <t>must/have to </t>
   </si>
   <si>
     <t>to fix</t>
@@ -3397,11 +3403,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3465,6 +3471,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3511,7 +3525,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3543,9 +3557,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3577,6 +3609,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3752,14 +3802,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G537"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G538"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A437" workbookViewId="0">
+      <selection activeCell="D474" sqref="D474"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3782,7 +3843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44159</v>
       </c>
@@ -3805,7 +3866,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44159</v>
       </c>
@@ -3828,7 +3889,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44159</v>
       </c>
@@ -3851,7 +3912,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44160</v>
       </c>
@@ -3874,7 +3935,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44160</v>
       </c>
@@ -3897,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44199</v>
       </c>
@@ -3920,7 +3981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44199</v>
       </c>
@@ -3943,7 +4004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44199</v>
       </c>
@@ -3966,7 +4027,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44199</v>
       </c>
@@ -3989,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44199</v>
       </c>
@@ -4012,7 +4073,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44199</v>
       </c>
@@ -4035,7 +4096,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44199</v>
       </c>
@@ -4058,7 +4119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44200</v>
       </c>
@@ -4081,7 +4142,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44200</v>
       </c>
@@ -4104,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44200</v>
       </c>
@@ -4127,7 +4188,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44200</v>
       </c>
@@ -4150,7 +4211,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44200</v>
       </c>
@@ -4173,7 +4234,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44200</v>
       </c>
@@ -4196,7 +4257,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44200</v>
       </c>
@@ -4219,7 +4280,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44200</v>
       </c>
@@ -4242,7 +4303,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44200</v>
       </c>
@@ -4265,7 +4326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44200</v>
       </c>
@@ -4288,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44200</v>
       </c>
@@ -4311,7 +4372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44201</v>
       </c>
@@ -4334,7 +4395,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>44201</v>
       </c>
@@ -4357,7 +4418,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>44201</v>
       </c>
@@ -4380,7 +4441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>44201</v>
       </c>
@@ -4403,7 +4464,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>44201</v>
       </c>
@@ -4426,7 +4487,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>44201</v>
       </c>
@@ -4449,7 +4510,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>44201</v>
       </c>
@@ -4472,7 +4533,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>44201</v>
       </c>
@@ -4495,7 +4556,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>44201</v>
       </c>
@@ -4518,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>44201</v>
       </c>
@@ -4541,7 +4602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>44201</v>
       </c>
@@ -4564,7 +4625,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>44202</v>
       </c>
@@ -4587,7 +4648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>44202</v>
       </c>
@@ -4610,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>44202</v>
       </c>
@@ -4633,7 +4694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>44202</v>
       </c>
@@ -4656,7 +4717,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>44202</v>
       </c>
@@ -4679,7 +4740,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>44202</v>
       </c>
@@ -4702,7 +4763,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>44202</v>
       </c>
@@ -4725,7 +4786,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>44202</v>
       </c>
@@ -4748,7 +4809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>44202</v>
       </c>
@@ -4771,7 +4832,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44203</v>
       </c>
@@ -4794,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44203</v>
       </c>
@@ -4817,7 +4878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>44203</v>
       </c>
@@ -4840,7 +4901,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>44203</v>
       </c>
@@ -4863,7 +4924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>44203</v>
       </c>
@@ -4886,7 +4947,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>44203</v>
       </c>
@@ -4909,7 +4970,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>44203</v>
       </c>
@@ -4932,7 +4993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>44203</v>
       </c>
@@ -4955,7 +5016,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>44203</v>
       </c>
@@ -4978,7 +5039,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>44203</v>
       </c>
@@ -5001,7 +5062,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>44203</v>
       </c>
@@ -5024,7 +5085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>44203</v>
       </c>
@@ -5047,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>44203</v>
       </c>
@@ -5070,7 +5131,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>44203</v>
       </c>
@@ -5093,7 +5154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>44203</v>
       </c>
@@ -5116,7 +5177,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>44203</v>
       </c>
@@ -5139,7 +5200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>44203</v>
       </c>
@@ -5162,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>44203</v>
       </c>
@@ -5185,7 +5246,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>44203</v>
       </c>
@@ -5208,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>44203</v>
       </c>
@@ -5231,7 +5292,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>44203</v>
       </c>
@@ -5254,7 +5315,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>44203</v>
       </c>
@@ -5277,7 +5338,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>44203</v>
       </c>
@@ -5300,7 +5361,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>44203</v>
       </c>
@@ -5323,7 +5384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>44203</v>
       </c>
@@ -5346,7 +5407,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>44203</v>
       </c>
@@ -5369,7 +5430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>44203</v>
       </c>
@@ -5392,7 +5453,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>44203</v>
       </c>
@@ -5415,7 +5476,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>44203</v>
       </c>
@@ -5438,9 +5499,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>44203.50684027778</v>
+        <v>44203.506840277783</v>
       </c>
       <c r="B74" t="s">
         <v>43</v>
@@ -5461,9 +5522,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>44203.50716435185</v>
+        <v>44203.507164351853</v>
       </c>
       <c r="B75" t="s">
         <v>56</v>
@@ -5484,9 +5545,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>44203.50765046296</v>
+        <v>44203.507650462961</v>
       </c>
       <c r="B76" t="s">
         <v>57</v>
@@ -5507,9 +5568,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>44204.68719907408</v>
+        <v>44204.687199074076</v>
       </c>
       <c r="B77" t="s">
         <v>43</v>
@@ -5530,9 +5591,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>44204.68762731482</v>
+        <v>44204.687627314823</v>
       </c>
       <c r="B78" t="s">
         <v>56</v>
@@ -5553,9 +5614,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>44204.68848379629</v>
+        <v>44204.688483796293</v>
       </c>
       <c r="B79" t="s">
         <v>57</v>
@@ -5576,9 +5637,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>44204.68865740741</v>
+        <v>44204.688657407409</v>
       </c>
       <c r="B80" t="s">
         <v>49</v>
@@ -5599,9 +5660,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>44204.68909722222</v>
+        <v>44204.689097222217</v>
       </c>
       <c r="B81" t="s">
         <v>58</v>
@@ -5622,9 +5683,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>44204.6978125</v>
+        <v>44204.697812500002</v>
       </c>
       <c r="B82" t="s">
         <v>43</v>
@@ -5645,9 +5706,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>44204.6981712963</v>
+        <v>44204.698171296302</v>
       </c>
       <c r="B83" t="s">
         <v>62</v>
@@ -5668,9 +5729,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>44204.6984837963</v>
+        <v>44204.698483796303</v>
       </c>
       <c r="B84" t="s">
         <v>63</v>
@@ -5691,9 +5752,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>44204.6987962963</v>
+        <v>44204.698796296303</v>
       </c>
       <c r="B85" t="s">
         <v>56</v>
@@ -5714,9 +5775,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>44204.69909722222</v>
+        <v>44204.699097222219</v>
       </c>
       <c r="B86" t="s">
         <v>57</v>
@@ -5737,7 +5798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>44204.69939814815</v>
       </c>
@@ -5760,9 +5821,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>44204.69956018519</v>
+        <v>44204.699560185189</v>
       </c>
       <c r="B88" t="s">
         <v>49</v>
@@ -5783,9 +5844,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>44204.69974537037</v>
+        <v>44204.699745370373</v>
       </c>
       <c r="B89" t="s">
         <v>65</v>
@@ -5806,9 +5867,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>44204.70079861111</v>
+        <v>44204.700798611113</v>
       </c>
       <c r="B90" t="s">
         <v>66</v>
@@ -5829,9 +5890,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>44204.70104166667</v>
+        <v>44204.701041666667</v>
       </c>
       <c r="B91" t="s">
         <v>67</v>
@@ -5852,9 +5913,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>44204.7012962963</v>
+        <v>44204.701296296298</v>
       </c>
       <c r="B92" t="s">
         <v>68</v>
@@ -5875,9 +5936,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>44204.7016087963</v>
+        <v>44204.701608796298</v>
       </c>
       <c r="B93" t="s">
         <v>45</v>
@@ -5898,9 +5959,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>44204.70178240741</v>
+        <v>44204.701782407406</v>
       </c>
       <c r="B94" t="s">
         <v>69</v>
@@ -5921,9 +5982,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>44204.70195601852</v>
+        <v>44204.701956018522</v>
       </c>
       <c r="B95" t="s">
         <v>70</v>
@@ -5944,9 +6005,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>44204.70214120371</v>
+        <v>44204.702141203707</v>
       </c>
       <c r="B96" t="s">
         <v>58</v>
@@ -5967,9 +6028,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>44204.70243055555</v>
+        <v>44204.702430555553</v>
       </c>
       <c r="B97" t="s">
         <v>71</v>
@@ -5990,9 +6051,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>44204.70274305555</v>
+        <v>44204.702743055554</v>
       </c>
       <c r="B98" t="s">
         <v>72</v>
@@ -6013,9 +6074,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>44204.70357638889</v>
+        <v>44204.703576388893</v>
       </c>
       <c r="B99" t="s">
         <v>73</v>
@@ -6036,9 +6097,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>44204.70373842592</v>
+        <v>44204.703738425917</v>
       </c>
       <c r="B100" t="s">
         <v>74</v>
@@ -6059,9 +6120,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>44204.70399305555</v>
+        <v>44204.703993055547</v>
       </c>
       <c r="B101" t="s">
         <v>50</v>
@@ -6082,9 +6143,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>44204.70418981482</v>
+        <v>44204.704189814824</v>
       </c>
       <c r="B102" t="s">
         <v>41</v>
@@ -6105,9 +6166,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>44204.70440972222</v>
+        <v>44204.704409722217</v>
       </c>
       <c r="B103" t="s">
         <v>75</v>
@@ -6128,9 +6189,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>44204.70461805556</v>
+        <v>44204.704618055563</v>
       </c>
       <c r="B104" t="s">
         <v>59</v>
@@ -6151,9 +6212,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>44204.70478009259</v>
+        <v>44204.704780092587</v>
       </c>
       <c r="B105" t="s">
         <v>60</v>
@@ -6174,9 +6235,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>44204.70493055556</v>
+        <v>44204.704930555563</v>
       </c>
       <c r="B106" t="s">
         <v>12</v>
@@ -6197,9 +6258,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>44204.70549768519</v>
+        <v>44204.705497685187</v>
       </c>
       <c r="B107" t="s">
         <v>61</v>
@@ -6220,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>44204.70584490741</v>
       </c>
@@ -6243,9 +6304,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>44204.70607638889</v>
+        <v>44204.706076388888</v>
       </c>
       <c r="B109" t="s">
         <v>77</v>
@@ -6266,7 +6327,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>44204.70652777778</v>
       </c>
@@ -6289,9 +6350,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>44204.70694444444</v>
+        <v>44204.706944444442</v>
       </c>
       <c r="B111" t="s">
         <v>79</v>
@@ -6312,7 +6373,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>44204.70722222222</v>
       </c>
@@ -6335,9 +6396,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>44204.7074074074</v>
+        <v>44204.707407407397</v>
       </c>
       <c r="B113" t="s">
         <v>47</v>
@@ -6358,9 +6419,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>44204.70760416667</v>
+        <v>44204.707604166673</v>
       </c>
       <c r="B114" t="s">
         <v>80</v>
@@ -6381,9 +6442,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>44204.70778935185</v>
+        <v>44204.707789351851</v>
       </c>
       <c r="B115" t="s">
         <v>81</v>
@@ -6404,7 +6465,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>44204.70821759259</v>
       </c>
@@ -6427,9 +6488,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>44204.70840277777</v>
+        <v>44204.708402777767</v>
       </c>
       <c r="B117" t="s">
         <v>83</v>
@@ -6450,9 +6511,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>44204.70881944444</v>
+        <v>44204.708819444437</v>
       </c>
       <c r="B118" t="s">
         <v>44</v>
@@ -6473,9 +6534,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>44204.70913194444</v>
+        <v>44204.709131944437</v>
       </c>
       <c r="B119" t="s">
         <v>84</v>
@@ -6496,9 +6557,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>44204.70940972222</v>
+        <v>44204.709409722222</v>
       </c>
       <c r="B120" t="s">
         <v>85</v>
@@ -6519,9 +6580,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>44204.70958333334</v>
+        <v>44204.709583333337</v>
       </c>
       <c r="B121" t="s">
         <v>86</v>
@@ -6542,9 +6603,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>44204.70974537037</v>
+        <v>44204.709745370368</v>
       </c>
       <c r="B122" t="s">
         <v>87</v>
@@ -6565,9 +6626,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
-        <v>44204.71002314815</v>
+        <v>44204.710023148153</v>
       </c>
       <c r="B123" t="s">
         <v>88</v>
@@ -6588,9 +6649,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
-        <v>44204.71018518518</v>
+        <v>44204.710185185177</v>
       </c>
       <c r="B124" t="s">
         <v>89</v>
@@ -6611,9 +6672,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>44204.71040509259</v>
+        <v>44204.710405092592</v>
       </c>
       <c r="B125" t="s">
         <v>9</v>
@@ -6634,9 +6695,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>44204.71063657408</v>
+        <v>44204.710636574076</v>
       </c>
       <c r="B126" t="s">
         <v>90</v>
@@ -6657,9 +6718,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>44204.71079861111</v>
+        <v>44204.710798611108</v>
       </c>
       <c r="B127" t="s">
         <v>91</v>
@@ -6680,9 +6741,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>44204.71106481482</v>
+        <v>44204.711064814823</v>
       </c>
       <c r="B128" t="s">
         <v>92</v>
@@ -6703,9 +6764,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>44204.71127314815</v>
+        <v>44204.711273148147</v>
       </c>
       <c r="B129" t="s">
         <v>93</v>
@@ -6726,9 +6787,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>44204.71146990741</v>
+        <v>44204.711469907408</v>
       </c>
       <c r="B130" t="s">
         <v>94</v>
@@ -6749,9 +6810,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>44204.7133912037</v>
+        <v>44204.713391203702</v>
       </c>
       <c r="B131" t="s">
         <v>95</v>
@@ -6772,7 +6833,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>44204.71361111111</v>
       </c>
@@ -6795,9 +6856,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
-        <v>44204.71386574074</v>
+        <v>44204.713865740741</v>
       </c>
       <c r="B133" t="s">
         <v>96</v>
@@ -6818,9 +6879,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
-        <v>44204.71408564815</v>
+        <v>44204.714085648149</v>
       </c>
       <c r="B134" t="s">
         <v>97</v>
@@ -6841,9 +6902,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
-        <v>44204.71423611111</v>
+        <v>44204.714236111111</v>
       </c>
       <c r="B135" t="s">
         <v>98</v>
@@ -6864,7 +6925,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>44204.71465277778</v>
       </c>
@@ -6887,9 +6948,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
-        <v>44204.71543981481</v>
+        <v>44204.715439814812</v>
       </c>
       <c r="B137" t="s">
         <v>100</v>
@@ -6910,9 +6971,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>44204.71559027778</v>
+        <v>44204.715590277781</v>
       </c>
       <c r="B138" t="s">
         <v>53</v>
@@ -6933,9 +6994,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>44204.71574074074</v>
+        <v>44204.715740740743</v>
       </c>
       <c r="B139" t="s">
         <v>101</v>
@@ -6956,9 +7017,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>44204.7158912037</v>
+        <v>44204.715891203698</v>
       </c>
       <c r="B140" t="s">
         <v>102</v>
@@ -6979,7 +7040,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>44204.71601851852</v>
       </c>
@@ -7002,9 +7063,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
-        <v>44204.71621527777</v>
+        <v>44204.716215277767</v>
       </c>
       <c r="B142" t="s">
         <v>104</v>
@@ -7025,7 +7086,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>44204.71638888889</v>
       </c>
@@ -7048,9 +7109,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
-        <v>44204.71650462963</v>
+        <v>44204.716504629629</v>
       </c>
       <c r="B144" t="s">
         <v>106</v>
@@ -7071,9 +7132,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
-        <v>44204.71673611111</v>
+        <v>44204.716736111113</v>
       </c>
       <c r="B145" t="s">
         <v>107</v>
@@ -7094,9 +7155,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
-        <v>44204.71693287037</v>
+        <v>44204.716932870368</v>
       </c>
       <c r="B146" t="s">
         <v>46</v>
@@ -7117,9 +7178,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
-        <v>44204.71712962963</v>
+        <v>44204.717129629629</v>
       </c>
       <c r="B147" t="s">
         <v>108</v>
@@ -7140,9 +7201,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
-        <v>44204.71745370371</v>
+        <v>44204.717453703714</v>
       </c>
       <c r="B148" t="s">
         <v>109</v>
@@ -7163,9 +7224,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
-        <v>44204.71813657408</v>
+        <v>44204.718136574083</v>
       </c>
       <c r="B149" t="s">
         <v>110</v>
@@ -7186,9 +7247,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>44204.71836805555</v>
+        <v>44204.718368055554</v>
       </c>
       <c r="B150" t="s">
         <v>111</v>
@@ -7209,9 +7270,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
-        <v>44204.71862268518</v>
+        <v>44204.718622685177</v>
       </c>
       <c r="B151" t="s">
         <v>112</v>
@@ -7232,9 +7293,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>44204.71885416667</v>
+        <v>44204.718854166669</v>
       </c>
       <c r="B152" t="s">
         <v>113</v>
@@ -7255,9 +7316,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
-        <v>44204.71917824074</v>
+        <v>44204.719178240739</v>
       </c>
       <c r="B153" t="s">
         <v>114</v>
@@ -7278,9 +7339,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
-        <v>44204.71939814815</v>
+        <v>44204.719398148147</v>
       </c>
       <c r="B154" t="s">
         <v>38</v>
@@ -7301,9 +7362,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
-        <v>44204.71957175926</v>
+        <v>44204.719571759262</v>
       </c>
       <c r="B155" t="s">
         <v>115</v>
@@ -7324,9 +7385,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
-        <v>44204.71972222222</v>
+        <v>44204.719722222217</v>
       </c>
       <c r="B156" t="s">
         <v>116</v>
@@ -7347,9 +7408,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
-        <v>44204.71997685185</v>
+        <v>44204.719976851848</v>
       </c>
       <c r="B157" t="s">
         <v>117</v>
@@ -7370,9 +7431,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
-        <v>44204.72013888889</v>
+        <v>44204.720138888893</v>
       </c>
       <c r="B158" t="s">
         <v>118</v>
@@ -7393,9 +7454,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
-        <v>44204.72048611111</v>
+        <v>44204.720486111109</v>
       </c>
       <c r="B159" t="s">
         <v>119</v>
@@ -7416,9 +7477,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
-        <v>44204.72060185186</v>
+        <v>44204.720601851863</v>
       </c>
       <c r="B160" t="s">
         <v>52</v>
@@ -7439,9 +7500,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
-        <v>44204.72077546296</v>
+        <v>44204.720775462964</v>
       </c>
       <c r="B161" t="s">
         <v>120</v>
@@ -7462,9 +7523,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
-        <v>44204.72096064815</v>
+        <v>44204.720960648148</v>
       </c>
       <c r="B162" t="s">
         <v>121</v>
@@ -7485,9 +7546,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>44204.7212037037</v>
+        <v>44204.721203703702</v>
       </c>
       <c r="B163" t="s">
         <v>122</v>
@@ -7508,9 +7569,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>44204.72137731482</v>
+        <v>44204.721377314818</v>
       </c>
       <c r="B164" t="s">
         <v>42</v>
@@ -7531,9 +7592,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
-        <v>44204.72153935185</v>
+        <v>44204.721539351849</v>
       </c>
       <c r="B165" t="s">
         <v>123</v>
@@ -7554,9 +7615,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
-        <v>44204.72178240741</v>
+        <v>44204.721782407411</v>
       </c>
       <c r="B166" t="s">
         <v>77</v>
@@ -7577,9 +7638,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>44204.72217592593</v>
+        <v>44204.722175925926</v>
       </c>
       <c r="B167" t="s">
         <v>124</v>
@@ -7600,9 +7661,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>44204.72233796296</v>
+        <v>44204.722337962958</v>
       </c>
       <c r="B168" t="s">
         <v>48</v>
@@ -7623,9 +7684,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>44204.72248842593</v>
+        <v>44204.722488425927</v>
       </c>
       <c r="B169" t="s">
         <v>125</v>
@@ -7646,9 +7707,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>44204.72268518519</v>
+        <v>44204.722685185188</v>
       </c>
       <c r="B170" t="s">
         <v>126</v>
@@ -7669,9 +7730,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>44204.72349537037</v>
+        <v>44204.723495370366</v>
       </c>
       <c r="B171" t="s">
         <v>51</v>
@@ -7692,9 +7753,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
-        <v>44204.72364583334</v>
+        <v>44204.723645833343</v>
       </c>
       <c r="B172" t="s">
         <v>127</v>
@@ -7715,7 +7776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>44204.72388888889</v>
       </c>
@@ -7738,9 +7799,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>44204.72401620371</v>
+        <v>44204.724016203712</v>
       </c>
       <c r="B174" t="s">
         <v>129</v>
@@ -7761,9 +7822,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>44204.72414351852</v>
+        <v>44204.724143518521</v>
       </c>
       <c r="B175" t="s">
         <v>130</v>
@@ -7784,7 +7845,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>44204.72457175926</v>
       </c>
@@ -7807,9 +7868,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
-        <v>44204.72472222222</v>
+        <v>44204.724722222221</v>
       </c>
       <c r="B177" t="s">
         <v>102</v>
@@ -7830,9 +7891,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>44204.72494212963</v>
+        <v>44204.724942129629</v>
       </c>
       <c r="B178" t="s">
         <v>37</v>
@@ -7853,9 +7914,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
-        <v>44204.72549768518</v>
+        <v>44204.725497685176</v>
       </c>
       <c r="B179" t="s">
         <v>49</v>
@@ -7876,9 +7937,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>44204.72571759259</v>
+        <v>44204.725717592592</v>
       </c>
       <c r="B180" t="s">
         <v>132</v>
@@ -7899,9 +7960,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>44204.72592592592</v>
+        <v>44204.725925925923</v>
       </c>
       <c r="B181" t="s">
         <v>133</v>
@@ -7922,9 +7983,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>44204.72613425926</v>
+        <v>44204.726134259261</v>
       </c>
       <c r="B182" t="s">
         <v>134</v>
@@ -7945,9 +8006,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>44204.72635416667</v>
+        <v>44204.726354166669</v>
       </c>
       <c r="B183" t="s">
         <v>135</v>
@@ -7968,9 +8029,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>44204.72650462963</v>
+        <v>44204.726504629631</v>
       </c>
       <c r="B184" t="s">
         <v>136</v>
@@ -7991,9 +8052,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>44204.72666666667</v>
+        <v>44204.726666666669</v>
       </c>
       <c r="B185" t="s">
         <v>137</v>
@@ -8014,9 +8075,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>44204.72684027778</v>
+        <v>44204.726840277777</v>
       </c>
       <c r="B186" t="s">
         <v>138</v>
@@ -8037,9 +8098,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
-        <v>44204.72703703704</v>
+        <v>44204.727037037039</v>
       </c>
       <c r="B187" t="s">
         <v>55</v>
@@ -8060,9 +8121,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>44204.72712962963</v>
+        <v>44204.727129629631</v>
       </c>
       <c r="B188" t="s">
         <v>139</v>
@@ -8083,9 +8144,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>44204.72736111111</v>
+        <v>44204.727361111109</v>
       </c>
       <c r="B189" t="s">
         <v>140</v>
@@ -8106,9 +8167,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>44204.7275</v>
+        <v>44204.727500000001</v>
       </c>
       <c r="B190" t="s">
         <v>39</v>
@@ -8129,9 +8190,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>44204.72767361111</v>
+        <v>44204.727673611109</v>
       </c>
       <c r="B191" t="s">
         <v>141</v>
@@ -8152,9 +8213,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>44204.72784722222</v>
+        <v>44204.727847222217</v>
       </c>
       <c r="B192" t="s">
         <v>142</v>
@@ -8175,9 +8236,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>44204.72804398148</v>
+        <v>44204.728043981479</v>
       </c>
       <c r="B193" t="s">
         <v>143</v>
@@ -8198,9 +8259,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>44204.72818287037</v>
+        <v>44204.728182870371</v>
       </c>
       <c r="B194" t="s">
         <v>144</v>
@@ -8221,9 +8282,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>44204.72836805556</v>
+        <v>44204.728368055563</v>
       </c>
       <c r="B195" t="s">
         <v>145</v>
@@ -8244,9 +8305,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>44204.72850694445</v>
+        <v>44204.728506944448</v>
       </c>
       <c r="B196" t="s">
         <v>40</v>
@@ -8267,9 +8328,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>44204.72869212963</v>
+        <v>44204.728692129633</v>
       </c>
       <c r="B197" t="s">
         <v>146</v>
@@ -8290,9 +8351,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
-        <v>44204.72893518519</v>
+        <v>44204.728935185187</v>
       </c>
       <c r="B198" t="s">
         <v>147</v>
@@ -8313,9 +8374,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>44204.72907407407</v>
+        <v>44204.729074074072</v>
       </c>
       <c r="B199" t="s">
         <v>23</v>
@@ -8336,9 +8397,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>44204.72922453703</v>
+        <v>44204.729224537034</v>
       </c>
       <c r="B200" t="s">
         <v>148</v>
@@ -8359,9 +8420,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <v>44204.72939814815</v>
+        <v>44204.729398148149</v>
       </c>
       <c r="B201" t="s">
         <v>149</v>
@@ -8382,9 +8443,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <v>44204.72954861111</v>
+        <v>44204.729548611111</v>
       </c>
       <c r="B202" t="s">
         <v>150</v>
@@ -8405,9 +8466,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>44205.85439814815</v>
+        <v>44205.854398148149</v>
       </c>
       <c r="B203" t="s">
         <v>62</v>
@@ -8428,9 +8489,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>44205.85809027778</v>
+        <v>44205.858090277783</v>
       </c>
       <c r="B204" t="s">
         <v>62</v>
@@ -8451,9 +8512,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>44205.8584375</v>
+        <v>44205.858437499999</v>
       </c>
       <c r="B205" t="s">
         <v>63</v>
@@ -8474,7 +8535,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>44205.85869212963</v>
       </c>
@@ -8497,9 +8558,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>44205.85886574074</v>
+        <v>44205.858865740738</v>
       </c>
       <c r="B207" t="s">
         <v>65</v>
@@ -8520,9 +8581,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>44205.85913194445</v>
+        <v>44205.859131944453</v>
       </c>
       <c r="B208" t="s">
         <v>66</v>
@@ -8543,9 +8604,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>44205.85993055555</v>
+        <v>44205.859930555547</v>
       </c>
       <c r="B209" t="s">
         <v>67</v>
@@ -8566,9 +8627,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>44205.86025462963</v>
+        <v>44205.860254629632</v>
       </c>
       <c r="B210" t="s">
         <v>68</v>
@@ -8589,9 +8650,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>44205.86045138889</v>
+        <v>44205.860451388893</v>
       </c>
       <c r="B211" t="s">
         <v>69</v>
@@ -8612,9 +8673,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
-        <v>44205.860625</v>
+        <v>44205.860625000001</v>
       </c>
       <c r="B212" t="s">
         <v>70</v>
@@ -8635,9 +8696,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
-        <v>44205.86083333333</v>
+        <v>44205.860833333332</v>
       </c>
       <c r="B213" t="s">
         <v>72</v>
@@ -8658,9 +8719,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
-        <v>44205.86212962963</v>
+        <v>44205.862129629633</v>
       </c>
       <c r="B214" t="s">
         <v>73</v>
@@ -8681,9 +8742,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
-        <v>44205.86238425926</v>
+        <v>44205.862384259257</v>
       </c>
       <c r="B215" t="s">
         <v>75</v>
@@ -8704,9 +8765,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>44205.86293981481</v>
+        <v>44205.862939814811</v>
       </c>
       <c r="B216" t="s">
         <v>12</v>
@@ -8727,9 +8788,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>44205.86395833334</v>
+        <v>44205.863958333342</v>
       </c>
       <c r="B217" t="s">
         <v>76</v>
@@ -8750,9 +8811,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
-        <v>44205.86427083334</v>
+        <v>44205.864270833343</v>
       </c>
       <c r="B218" t="s">
         <v>81</v>
@@ -8773,9 +8834,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
-        <v>44205.86464120371</v>
+        <v>44205.864641203712</v>
       </c>
       <c r="B219" t="s">
         <v>82</v>
@@ -8796,9 +8857,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>44205.86579861111</v>
+        <v>44205.865798611107</v>
       </c>
       <c r="B220" t="s">
         <v>84</v>
@@ -8819,9 +8880,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
-        <v>44205.8662962963</v>
+        <v>44205.866296296299</v>
       </c>
       <c r="B221" t="s">
         <v>85</v>
@@ -8842,9 +8903,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
-        <v>44205.86788194445</v>
+        <v>44205.867881944447</v>
       </c>
       <c r="B222" t="s">
         <v>87</v>
@@ -8865,9 +8926,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
-        <v>44205.86837962963</v>
+        <v>44205.868379629632</v>
       </c>
       <c r="B223" t="s">
         <v>88</v>
@@ -8888,9 +8949,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
-        <v>44205.86866898148</v>
+        <v>44205.868668981479</v>
       </c>
       <c r="B224" t="s">
         <v>89</v>
@@ -8911,9 +8972,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
-        <v>44205.86912037037</v>
+        <v>44205.869120370371</v>
       </c>
       <c r="B225" t="s">
         <v>90</v>
@@ -8934,9 +8995,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
-        <v>44205.87039351852</v>
+        <v>44205.870393518519</v>
       </c>
       <c r="B226" t="s">
         <v>91</v>
@@ -8957,9 +9018,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
-        <v>44205.87064814815</v>
+        <v>44205.870648148149</v>
       </c>
       <c r="B227" t="s">
         <v>92</v>
@@ -8980,9 +9041,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
-        <v>44205.87086805556</v>
+        <v>44205.870868055557</v>
       </c>
       <c r="B228" t="s">
         <v>93</v>
@@ -9003,9 +9064,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
-        <v>44205.87109953703</v>
+        <v>44205.871099537027</v>
       </c>
       <c r="B229" t="s">
         <v>94</v>
@@ -9026,9 +9087,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
-        <v>44205.87131944444</v>
+        <v>44205.871319444443</v>
       </c>
       <c r="B230" t="s">
         <v>95</v>
@@ -9049,9 +9110,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
-        <v>44205.87157407407</v>
+        <v>44205.871574074074</v>
       </c>
       <c r="B231" t="s">
         <v>17</v>
@@ -9072,9 +9133,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
-        <v>44205.87184027778</v>
+        <v>44205.871840277781</v>
       </c>
       <c r="B232" t="s">
         <v>96</v>
@@ -9095,9 +9156,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
-        <v>44205.87197916667</v>
+        <v>44205.871979166674</v>
       </c>
       <c r="B233" t="s">
         <v>98</v>
@@ -9118,9 +9179,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
-        <v>44205.87256944444</v>
+        <v>44205.872569444437</v>
       </c>
       <c r="B234" t="s">
         <v>100</v>
@@ -9141,9 +9202,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
-        <v>44205.87270833334</v>
+        <v>44205.872708333343</v>
       </c>
       <c r="B235" t="s">
         <v>102</v>
@@ -9164,9 +9225,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
-        <v>44205.87282407407</v>
+        <v>44205.872824074067</v>
       </c>
       <c r="B236" t="s">
         <v>103</v>
@@ -9187,9 +9248,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
-        <v>44205.87305555555</v>
+        <v>44205.873055555552</v>
       </c>
       <c r="B237" t="s">
         <v>105</v>
@@ -9210,9 +9271,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
-        <v>44205.8731712963</v>
+        <v>44205.873171296298</v>
       </c>
       <c r="B238" t="s">
         <v>106</v>
@@ -9233,9 +9294,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
-        <v>44205.87333333334</v>
+        <v>44205.873333333337</v>
       </c>
       <c r="B239" t="s">
         <v>108</v>
@@ -9256,9 +9317,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
-        <v>44205.87365740741</v>
+        <v>44205.873657407406</v>
       </c>
       <c r="B240" t="s">
         <v>110</v>
@@ -9279,9 +9340,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>44205.87387731481</v>
+        <v>44205.873877314807</v>
       </c>
       <c r="B241" t="s">
         <v>111</v>
@@ -9302,9 +9363,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
-        <v>44205.87407407408</v>
+        <v>44205.874074074083</v>
       </c>
       <c r="B242" t="s">
         <v>112</v>
@@ -9325,9 +9386,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
-        <v>44205.87436342592</v>
+        <v>44205.874363425923</v>
       </c>
       <c r="B243" t="s">
         <v>113</v>
@@ -9348,9 +9409,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>44205.87461805555</v>
+        <v>44205.874618055554</v>
       </c>
       <c r="B244" t="s">
         <v>115</v>
@@ -9371,9 +9432,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>44205.87474537037</v>
+        <v>44205.874745370369</v>
       </c>
       <c r="B245" t="s">
         <v>116</v>
@@ -9394,9 +9455,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>44205.87493055555</v>
+        <v>44205.874930555547</v>
       </c>
       <c r="B246" t="s">
         <v>117</v>
@@ -9417,9 +9478,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
-        <v>44205.87512731482</v>
+        <v>44205.875127314823</v>
       </c>
       <c r="B247" t="s">
         <v>118</v>
@@ -9440,9 +9501,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
-        <v>44205.87616898148</v>
+        <v>44205.876168981478</v>
       </c>
       <c r="B248" t="s">
         <v>120</v>
@@ -9463,9 +9524,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>44205.87631944445</v>
+        <v>44205.876319444447</v>
       </c>
       <c r="B249" t="s">
         <v>123</v>
@@ -9486,9 +9547,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>44205.87657407407</v>
+        <v>44205.876574074071</v>
       </c>
       <c r="B250" t="s">
         <v>77</v>
@@ -9509,9 +9570,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>44205.87710648148</v>
+        <v>44205.877106481479</v>
       </c>
       <c r="B251" t="s">
         <v>124</v>
@@ -9532,9 +9593,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>44205.87732638889</v>
+        <v>44205.877326388887</v>
       </c>
       <c r="B252" t="s">
         <v>127</v>
@@ -9555,9 +9616,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>44205.87754629629</v>
+        <v>44205.877546296288</v>
       </c>
       <c r="B253" t="s">
         <v>128</v>
@@ -9578,7 +9639,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>44205.87767361111</v>
       </c>
@@ -9601,9 +9662,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
-        <v>44205.87784722223</v>
+        <v>44205.877847222233</v>
       </c>
       <c r="B255" t="s">
         <v>102</v>
@@ -9624,9 +9685,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
-        <v>44205.87811342593</v>
+        <v>44205.878113425933</v>
       </c>
       <c r="B256" t="s">
         <v>37</v>
@@ -9647,9 +9708,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>44205.87822916666</v>
+        <v>44205.878229166658</v>
       </c>
       <c r="B257" t="s">
         <v>133</v>
@@ -9670,7 +9731,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>44205.87840277778</v>
       </c>
@@ -9693,9 +9754,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>44205.87856481481</v>
+        <v>44205.878564814811</v>
       </c>
       <c r="B259" t="s">
         <v>137</v>
@@ -9716,9 +9777,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>44205.87950231481</v>
+        <v>44205.879502314812</v>
       </c>
       <c r="B260" t="s">
         <v>138</v>
@@ -9739,9 +9800,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
-        <v>44205.87962962963</v>
+        <v>44205.879629629628</v>
       </c>
       <c r="B261" t="s">
         <v>140</v>
@@ -9762,9 +9823,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
-        <v>44205.87978009259</v>
+        <v>44205.879780092589</v>
       </c>
       <c r="B262" t="s">
         <v>142</v>
@@ -9785,9 +9846,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>44205.8799074074</v>
+        <v>44205.879907407398</v>
       </c>
       <c r="B263" t="s">
         <v>143</v>
@@ -9808,7 +9869,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>44205.88008101852</v>
       </c>
@@ -9831,9 +9892,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>44205.88056712963</v>
+        <v>44205.880567129629</v>
       </c>
       <c r="B265" t="s">
         <v>145</v>
@@ -9854,9 +9915,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
-        <v>44205.88083333334</v>
+        <v>44205.880833333344</v>
       </c>
       <c r="B266" t="s">
         <v>146</v>
@@ -9877,9 +9938,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>44205.88141203704</v>
+        <v>44205.881412037037</v>
       </c>
       <c r="B267" t="s">
         <v>147</v>
@@ -9900,9 +9961,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>44205.8816087963</v>
+        <v>44205.881608796299</v>
       </c>
       <c r="B268" t="s">
         <v>23</v>
@@ -9923,7 +9984,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>44205.88175925926</v>
       </c>
@@ -9946,9 +10007,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>44206.58945601852</v>
+        <v>44206.589456018519</v>
       </c>
       <c r="B270" t="s">
         <v>62</v>
@@ -9969,9 +10030,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>44206.59215277778</v>
+        <v>44206.592152777783</v>
       </c>
       <c r="B271" t="s">
         <v>62</v>
@@ -9992,9 +10053,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>44206.59241898148</v>
+        <v>44206.592418981483</v>
       </c>
       <c r="B272" t="s">
         <v>63</v>
@@ -10015,9 +10076,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>44206.59278935185</v>
+        <v>44206.592789351853</v>
       </c>
       <c r="B273" t="s">
         <v>64</v>
@@ -10038,9 +10099,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>44206.59300925926</v>
+        <v>44206.593009259261</v>
       </c>
       <c r="B274" t="s">
         <v>65</v>
@@ -10061,9 +10122,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>44206.59336805555</v>
+        <v>44206.593368055554</v>
       </c>
       <c r="B275" t="s">
         <v>66</v>
@@ -10084,9 +10145,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>44206.59359953704</v>
+        <v>44206.593599537038</v>
       </c>
       <c r="B276" t="s">
         <v>67</v>
@@ -10107,9 +10168,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>44206.59384259259</v>
+        <v>44206.593842592592</v>
       </c>
       <c r="B277" t="s">
         <v>68</v>
@@ -10130,9 +10191,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
-        <v>44206.59421296296</v>
+        <v>44206.594212962962</v>
       </c>
       <c r="B278" t="s">
         <v>69</v>
@@ -10153,9 +10214,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
-        <v>44206.59475694445</v>
+        <v>44206.594756944447</v>
       </c>
       <c r="B279" t="s">
         <v>70</v>
@@ -10176,9 +10237,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>44206.59490740741</v>
+        <v>44206.594907407409</v>
       </c>
       <c r="B280" t="s">
         <v>72</v>
@@ -10199,9 +10260,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
-        <v>44206.59508101852</v>
+        <v>44206.595081018517</v>
       </c>
       <c r="B281" t="s">
         <v>73</v>
@@ -10222,9 +10283,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
-        <v>44206.59583333333</v>
+        <v>44206.595833333333</v>
       </c>
       <c r="B282" t="s">
         <v>75</v>
@@ -10245,9 +10306,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>44206.59606481482</v>
+        <v>44206.596064814818</v>
       </c>
       <c r="B283" t="s">
         <v>12</v>
@@ -10268,9 +10329,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>44206.59636574074</v>
+        <v>44206.596365740741</v>
       </c>
       <c r="B284" t="s">
         <v>76</v>
@@ -10291,9 +10352,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
-        <v>44206.59657407407</v>
+        <v>44206.596574074072</v>
       </c>
       <c r="B285" t="s">
         <v>81</v>
@@ -10314,9 +10375,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>44206.59677083333</v>
+        <v>44206.596770833326</v>
       </c>
       <c r="B286" t="s">
         <v>82</v>
@@ -10337,9 +10398,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>44206.5984375</v>
+        <v>44206.598437499997</v>
       </c>
       <c r="B287" t="s">
         <v>84</v>
@@ -10360,9 +10421,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>44206.59875</v>
+        <v>44206.598749999997</v>
       </c>
       <c r="B288" t="s">
         <v>85</v>
@@ -10383,9 +10444,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>44206.59895833334</v>
+        <v>44206.598958333343</v>
       </c>
       <c r="B289" t="s">
         <v>87</v>
@@ -10406,9 +10467,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>44206.60165509259</v>
+        <v>44206.601655092592</v>
       </c>
       <c r="B290" t="s">
         <v>88</v>
@@ -10429,9 +10490,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>44206.60201388889</v>
+        <v>44206.602013888893</v>
       </c>
       <c r="B291" t="s">
         <v>89</v>
@@ -10452,9 +10513,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
-        <v>44206.60223379629</v>
+        <v>44206.602233796293</v>
       </c>
       <c r="B292" t="s">
         <v>90</v>
@@ -10475,9 +10536,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
-        <v>44206.60238425926</v>
+        <v>44206.602384259262</v>
       </c>
       <c r="B293" t="s">
         <v>91</v>
@@ -10498,9 +10559,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>44206.60277777778</v>
+        <v>44206.602777777778</v>
       </c>
       <c r="B294" t="s">
         <v>92</v>
@@ -10521,9 +10582,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
-        <v>44206.60310185186</v>
+        <v>44206.603101851862</v>
       </c>
       <c r="B295" t="s">
         <v>93</v>
@@ -10544,9 +10605,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
-        <v>44206.60331018519</v>
+        <v>44206.603310185194</v>
       </c>
       <c r="B296" t="s">
         <v>94</v>
@@ -10567,9 +10628,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>44206.60347222222</v>
+        <v>44206.603472222218</v>
       </c>
       <c r="B297" t="s">
         <v>95</v>
@@ -10590,9 +10651,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>44206.60369212963</v>
+        <v>44206.603692129633</v>
       </c>
       <c r="B298" t="s">
         <v>17</v>
@@ -10613,9 +10674,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>44206.60391203704</v>
+        <v>44206.603912037041</v>
       </c>
       <c r="B299" t="s">
         <v>96</v>
@@ -10636,9 +10697,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
-        <v>44206.60407407407</v>
+        <v>44206.604074074072</v>
       </c>
       <c r="B300" t="s">
         <v>98</v>
@@ -10659,7 +10720,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>44206.60496527778</v>
       </c>
@@ -10682,9 +10743,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>44206.60515046296</v>
+        <v>44206.605150462958</v>
       </c>
       <c r="B302" t="s">
         <v>102</v>
@@ -10705,7 +10766,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>44206.60528935185</v>
       </c>
@@ -10728,9 +10789,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>44206.60699074074</v>
+        <v>44206.606990740736</v>
       </c>
       <c r="B304" t="s">
         <v>105</v>
@@ -10751,9 +10812,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>44206.60711805556</v>
+        <v>44206.607118055559</v>
       </c>
       <c r="B305" t="s">
         <v>106</v>
@@ -10774,9 +10835,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>44206.60915509259</v>
+        <v>44206.609155092592</v>
       </c>
       <c r="B306" t="s">
         <v>108</v>
@@ -10797,9 +10858,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>44206.60939814815</v>
+        <v>44206.609398148154</v>
       </c>
       <c r="B307" t="s">
         <v>110</v>
@@ -10820,9 +10881,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>44206.60960648148</v>
+        <v>44206.609606481477</v>
       </c>
       <c r="B308" t="s">
         <v>111</v>
@@ -10843,9 +10904,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>44206.60982638889</v>
+        <v>44206.609826388893</v>
       </c>
       <c r="B309" t="s">
         <v>112</v>
@@ -10866,9 +10927,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>44206.61003472222</v>
+        <v>44206.610034722216</v>
       </c>
       <c r="B310" t="s">
         <v>113</v>
@@ -10889,9 +10950,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>44206.61023148148</v>
+        <v>44206.610231481478</v>
       </c>
       <c r="B311" t="s">
         <v>115</v>
@@ -10912,7 +10973,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>44206.61037037037</v>
       </c>
@@ -10935,9 +10996,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
-        <v>44206.61052083333</v>
+        <v>44206.610520833332</v>
       </c>
       <c r="B313" t="s">
         <v>117</v>
@@ -10958,9 +11019,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
-        <v>44206.61075231482</v>
+        <v>44206.610752314817</v>
       </c>
       <c r="B314" t="s">
         <v>118</v>
@@ -10981,9 +11042,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
-        <v>44206.61096064815</v>
+        <v>44206.610960648148</v>
       </c>
       <c r="B315" t="s">
         <v>120</v>
@@ -11004,9 +11065,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
-        <v>44206.61111111111</v>
+        <v>44206.611111111109</v>
       </c>
       <c r="B316" t="s">
         <v>123</v>
@@ -11027,9 +11088,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
-        <v>44206.61137731482</v>
+        <v>44206.611377314817</v>
       </c>
       <c r="B317" t="s">
         <v>77</v>
@@ -11050,7 +11111,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>44206.61173611111</v>
       </c>
@@ -11073,9 +11134,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
-        <v>44206.61217592593</v>
+        <v>44206.612175925933</v>
       </c>
       <c r="B319" t="s">
         <v>127</v>
@@ -11096,7 +11157,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>44206.61246527778</v>
       </c>
@@ -11119,9 +11180,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>44206.61263888889</v>
+        <v>44206.612638888888</v>
       </c>
       <c r="B321" t="s">
         <v>130</v>
@@ -11142,9 +11203,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
-        <v>44206.61291666667</v>
+        <v>44206.612916666672</v>
       </c>
       <c r="B322" t="s">
         <v>102</v>
@@ -11165,9 +11226,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
-        <v>44206.613125</v>
+        <v>44206.613125000003</v>
       </c>
       <c r="B323" t="s">
         <v>37</v>
@@ -11188,9 +11249,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <v>44206.61329861111</v>
+        <v>44206.613298611112</v>
       </c>
       <c r="B324" t="s">
         <v>133</v>
@@ -11211,7 +11272,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>44206.61347222222</v>
       </c>
@@ -11234,9 +11295,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
-        <v>44206.61372685185</v>
+        <v>44206.613726851851</v>
       </c>
       <c r="B326" t="s">
         <v>137</v>
@@ -11257,9 +11318,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
-        <v>44206.61393518518</v>
+        <v>44206.613935185182</v>
       </c>
       <c r="B327" t="s">
         <v>138</v>
@@ -11280,9 +11341,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <v>44206.61413194444</v>
+        <v>44206.614131944443</v>
       </c>
       <c r="B328" t="s">
         <v>140</v>
@@ -11303,9 +11364,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <v>44206.61429398148</v>
+        <v>44206.614293981482</v>
       </c>
       <c r="B329" t="s">
         <v>142</v>
@@ -11326,9 +11387,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
-        <v>44206.61443287037</v>
+        <v>44206.614432870367</v>
       </c>
       <c r="B330" t="s">
         <v>143</v>
@@ -11349,9 +11410,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>44206.61457175926</v>
+        <v>44206.614571759259</v>
       </c>
       <c r="B331" t="s">
         <v>144</v>
@@ -11372,9 +11433,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>44206.61476851852</v>
+        <v>44206.614768518521</v>
       </c>
       <c r="B332" t="s">
         <v>145</v>
@@ -11395,9 +11456,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>44206.61498842593</v>
+        <v>44206.614988425928</v>
       </c>
       <c r="B333" t="s">
         <v>146</v>
@@ -11418,9 +11479,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
-        <v>44206.6153125</v>
+        <v>44206.615312499998</v>
       </c>
       <c r="B334" t="s">
         <v>147</v>
@@ -11441,9 +11502,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
-        <v>44206.61545138889</v>
+        <v>44206.615451388891</v>
       </c>
       <c r="B335" t="s">
         <v>23</v>
@@ -11464,9 +11525,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
-        <v>44206.61559027778</v>
+        <v>44206.615590277783</v>
       </c>
       <c r="B336" t="s">
         <v>149</v>
@@ -11487,9 +11548,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
-        <v>44207.768125</v>
+        <v>44207.768125000002</v>
       </c>
       <c r="B337" t="s">
         <v>62</v>
@@ -11510,9 +11571,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
-        <v>44207.76841435185</v>
+        <v>44207.768414351849</v>
       </c>
       <c r="B338" t="s">
         <v>63</v>
@@ -11533,9 +11594,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
-        <v>44207.76951388889</v>
+        <v>44207.769513888888</v>
       </c>
       <c r="B339" t="s">
         <v>64</v>
@@ -11556,7 +11617,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <v>44207.77679398148</v>
       </c>
@@ -11579,9 +11640,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
-        <v>44207.77761574074</v>
+        <v>44207.777615740742</v>
       </c>
       <c r="B341" t="s">
         <v>63</v>
@@ -11602,7 +11663,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>44207.77784722222</v>
       </c>
@@ -11625,9 +11686,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
-        <v>44207.77797453704</v>
+        <v>44207.777974537043</v>
       </c>
       <c r="B343" t="s">
         <v>65</v>
@@ -11648,9 +11709,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
-        <v>44207.77827546297</v>
+        <v>44207.778275462973</v>
       </c>
       <c r="B344" t="s">
         <v>66</v>
@@ -11671,7 +11732,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
         <v>44207.77851851852</v>
       </c>
@@ -11694,9 +11755,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
-        <v>44207.77876157407</v>
+        <v>44207.778761574067</v>
       </c>
       <c r="B346" t="s">
         <v>68</v>
@@ -11717,9 +11778,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
-        <v>44207.77903935185</v>
+        <v>44207.779039351852</v>
       </c>
       <c r="B347" t="s">
         <v>69</v>
@@ -11740,9 +11801,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
-        <v>44207.77914351852</v>
+        <v>44207.779143518521</v>
       </c>
       <c r="B348" t="s">
         <v>70</v>
@@ -11763,7 +11824,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
         <v>44207.77925925926</v>
       </c>
@@ -11786,9 +11847,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
-        <v>44207.77946759259</v>
+        <v>44207.779467592591</v>
       </c>
       <c r="B350" t="s">
         <v>73</v>
@@ -11809,9 +11870,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
-        <v>44207.77964120371</v>
+        <v>44207.779641203713</v>
       </c>
       <c r="B351" t="s">
         <v>75</v>
@@ -11832,9 +11893,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
-        <v>44207.77995370371</v>
+        <v>44207.779953703714</v>
       </c>
       <c r="B352" t="s">
         <v>12</v>
@@ -11855,9 +11916,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
-        <v>44207.78021990741</v>
+        <v>44207.780219907407</v>
       </c>
       <c r="B353" t="s">
         <v>76</v>
@@ -11878,9 +11939,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
-        <v>44207.78045138889</v>
+        <v>44207.780451388891</v>
       </c>
       <c r="B354" t="s">
         <v>81</v>
@@ -11901,9 +11962,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
-        <v>44207.780625</v>
+        <v>44207.780624999999</v>
       </c>
       <c r="B355" t="s">
         <v>82</v>
@@ -11924,7 +11985,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>44207.78087962963</v>
       </c>
@@ -11947,9 +12008,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
-        <v>44207.78114583333</v>
+        <v>44207.781145833331</v>
       </c>
       <c r="B357" t="s">
         <v>85</v>
@@ -11970,9 +12031,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
-        <v>44207.78137731482</v>
+        <v>44207.781377314823</v>
       </c>
       <c r="B358" t="s">
         <v>87</v>
@@ -11993,7 +12054,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <v>44207.78162037037</v>
       </c>
@@ -12016,9 +12077,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
-        <v>44207.78180555555</v>
+        <v>44207.781805555547</v>
       </c>
       <c r="B360" t="s">
         <v>89</v>
@@ -12039,9 +12100,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
-        <v>44207.78200231482</v>
+        <v>44207.782002314823</v>
       </c>
       <c r="B361" t="s">
         <v>90</v>
@@ -12062,9 +12123,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
-        <v>44207.78216435185</v>
+        <v>44207.782164351847</v>
       </c>
       <c r="B362" t="s">
         <v>91</v>
@@ -12085,9 +12146,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
-        <v>44207.78243055556</v>
+        <v>44207.782430555562</v>
       </c>
       <c r="B363" t="s">
         <v>92</v>
@@ -12108,9 +12169,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
-        <v>44207.78259259259</v>
+        <v>44207.782592592594</v>
       </c>
       <c r="B364" t="s">
         <v>93</v>
@@ -12131,9 +12192,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
-        <v>44207.78274305556</v>
+        <v>44207.782743055563</v>
       </c>
       <c r="B365" t="s">
         <v>94</v>
@@ -12154,9 +12215,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
-        <v>44207.78291666666</v>
+        <v>44207.782916666663</v>
       </c>
       <c r="B366" t="s">
         <v>95</v>
@@ -12177,9 +12238,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
-        <v>44207.78315972222</v>
+        <v>44207.783159722218</v>
       </c>
       <c r="B367" t="s">
         <v>17</v>
@@ -12200,9 +12261,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
-        <v>44207.78331018519</v>
+        <v>44207.783310185187</v>
       </c>
       <c r="B368" t="s">
         <v>96</v>
@@ -12223,9 +12284,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
-        <v>44207.78348379629</v>
+        <v>44207.783483796287</v>
       </c>
       <c r="B369" t="s">
         <v>98</v>
@@ -12246,9 +12307,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
-        <v>44207.78379629629</v>
+        <v>44207.783796296288</v>
       </c>
       <c r="B370" t="s">
         <v>100</v>
@@ -12269,7 +12330,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
         <v>44207.78398148148</v>
       </c>
@@ -12292,9 +12353,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
-        <v>44207.78408564815</v>
+        <v>44207.784085648149</v>
       </c>
       <c r="B372" t="s">
         <v>103</v>
@@ -12315,9 +12376,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
-        <v>44207.78427083333</v>
+        <v>44207.784270833326</v>
       </c>
       <c r="B373" t="s">
         <v>105</v>
@@ -12338,9 +12399,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
-        <v>44207.78439814815</v>
+        <v>44207.784398148149</v>
       </c>
       <c r="B374" t="s">
         <v>106</v>
@@ -12361,7 +12422,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
         <v>44207.78460648148</v>
       </c>
@@ -12384,9 +12445,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
-        <v>44207.78482638889</v>
+        <v>44207.784826388888</v>
       </c>
       <c r="B376" t="s">
         <v>110</v>
@@ -12407,9 +12468,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
-        <v>44207.78501157407</v>
+        <v>44207.785011574073</v>
       </c>
       <c r="B377" t="s">
         <v>111</v>
@@ -12430,9 +12491,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
-        <v>44207.78519675926</v>
+        <v>44207.785196759258</v>
       </c>
       <c r="B378" t="s">
         <v>112</v>
@@ -12453,9 +12514,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
-        <v>44207.78552083333</v>
+        <v>44207.785520833328</v>
       </c>
       <c r="B379" t="s">
         <v>113</v>
@@ -12476,7 +12537,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
         <v>44207.78570601852</v>
       </c>
@@ -12499,9 +12560,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
-        <v>44207.78590277778</v>
+        <v>44207.785902777781</v>
       </c>
       <c r="B381" t="s">
         <v>116</v>
@@ -12522,9 +12583,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
-        <v>44207.78603009259</v>
+        <v>44207.786030092589</v>
       </c>
       <c r="B382" t="s">
         <v>117</v>
@@ -12545,9 +12606,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
-        <v>44207.7862037037</v>
+        <v>44207.786203703698</v>
       </c>
       <c r="B383" t="s">
         <v>118</v>
@@ -12568,9 +12629,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
-        <v>44207.78640046297</v>
+        <v>44207.786400462966</v>
       </c>
       <c r="B384" t="s">
         <v>120</v>
@@ -12591,9 +12652,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
-        <v>44207.78657407407</v>
+        <v>44207.786574074067</v>
       </c>
       <c r="B385" t="s">
         <v>123</v>
@@ -12614,9 +12675,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
-        <v>44207.7869212963</v>
+        <v>44207.786921296298</v>
       </c>
       <c r="B386" t="s">
         <v>77</v>
@@ -12637,9 +12698,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
-        <v>44207.78730324074</v>
+        <v>44207.787303240737</v>
       </c>
       <c r="B387" t="s">
         <v>124</v>
@@ -12660,9 +12721,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
-        <v>44207.78760416667</v>
+        <v>44207.787604166668</v>
       </c>
       <c r="B388" t="s">
         <v>127</v>
@@ -12683,9 +12744,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
-        <v>44207.78777777778</v>
+        <v>44207.787777777783</v>
       </c>
       <c r="B389" t="s">
         <v>128</v>
@@ -12706,9 +12767,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
-        <v>44207.78788194444</v>
+        <v>44207.787881944438</v>
       </c>
       <c r="B390" t="s">
         <v>130</v>
@@ -12729,9 +12790,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
-        <v>44207.7881712963</v>
+        <v>44207.788171296299</v>
       </c>
       <c r="B391" t="s">
         <v>102</v>
@@ -12752,7 +12813,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
         <v>44207.78833333333</v>
       </c>
@@ -12775,9 +12836,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
-        <v>44207.78844907408</v>
+        <v>44207.788449074083</v>
       </c>
       <c r="B393" t="s">
         <v>133</v>
@@ -12798,9 +12859,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
-        <v>44207.78858796296</v>
+        <v>44207.788587962961</v>
       </c>
       <c r="B394" t="s">
         <v>134</v>
@@ -12821,9 +12882,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
-        <v>44207.78881944445</v>
+        <v>44207.788819444453</v>
       </c>
       <c r="B395" t="s">
         <v>137</v>
@@ -12844,7 +12905,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
         <v>44207.7891087963</v>
       </c>
@@ -12867,9 +12928,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
-        <v>44207.78928240741</v>
+        <v>44207.789282407408</v>
       </c>
       <c r="B397" t="s">
         <v>140</v>
@@ -12890,9 +12951,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
-        <v>44207.78940972222</v>
+        <v>44207.789409722223</v>
       </c>
       <c r="B398" t="s">
         <v>142</v>
@@ -12913,9 +12974,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
-        <v>44207.78958333333</v>
+        <v>44207.789583333331</v>
       </c>
       <c r="B399" t="s">
         <v>143</v>
@@ -12936,9 +12997,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
-        <v>44207.78971064815</v>
+        <v>44207.789710648147</v>
       </c>
       <c r="B400" t="s">
         <v>144</v>
@@ -12959,9 +13020,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
-        <v>44207.78990740741</v>
+        <v>44207.789907407408</v>
       </c>
       <c r="B401" t="s">
         <v>145</v>
@@ -12982,9 +13043,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
-        <v>44207.79012731482</v>
+        <v>44207.790127314824</v>
       </c>
       <c r="B402" t="s">
         <v>146</v>
@@ -13005,9 +13066,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
-        <v>44207.79032407407</v>
+        <v>44207.790324074071</v>
       </c>
       <c r="B403" t="s">
         <v>147</v>
@@ -13028,7 +13089,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
         <v>44207.79047453704</v>
       </c>
@@ -13051,9 +13112,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
-        <v>44207.79061342592</v>
+        <v>44207.790613425917</v>
       </c>
       <c r="B405" t="s">
         <v>149</v>
@@ -13074,9 +13135,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
-        <v>44208.79584693287</v>
+        <v>44208.795846932873</v>
       </c>
       <c r="B406" t="s">
         <v>151</v>
@@ -13097,9 +13158,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
-        <v>44208.79594037037</v>
+        <v>44208.795940370372</v>
       </c>
       <c r="B407" t="s">
         <v>152</v>
@@ -13120,9 +13181,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
-        <v>44208.81142138889</v>
+        <v>44208.811421388891</v>
       </c>
       <c r="B408" t="s">
         <v>65</v>
@@ -13143,7 +13204,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
         <v>44208.81180841435</v>
       </c>
@@ -13166,9 +13227,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
-        <v>44208.81205440973</v>
+        <v>44208.812054409733</v>
       </c>
       <c r="B410" t="s">
         <v>68</v>
@@ -13189,7 +13250,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
         <v>44208.81236452546</v>
       </c>
@@ -13212,9 +13273,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
-        <v>44208.81262800926</v>
+        <v>44208.812628009262</v>
       </c>
       <c r="B412" t="s">
         <v>12</v>
@@ -13235,9 +13296,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
-        <v>44208.81301423611</v>
+        <v>44208.813014236111</v>
       </c>
       <c r="B413" t="s">
         <v>76</v>
@@ -13258,9 +13319,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
-        <v>44208.81327763889</v>
+        <v>44208.813277638888</v>
       </c>
       <c r="B414" t="s">
         <v>82</v>
@@ -13281,9 +13342,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
-        <v>44208.81372975694</v>
+        <v>44208.813729756941</v>
       </c>
       <c r="B415" t="s">
         <v>87</v>
@@ -13304,9 +13365,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
-        <v>44208.81393402778</v>
+        <v>44208.813934027778</v>
       </c>
       <c r="B416" t="s">
         <v>88</v>
@@ -13327,9 +13388,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
-        <v>44208.81414038195</v>
+        <v>44208.814140381954</v>
       </c>
       <c r="B417" t="s">
         <v>92</v>
@@ -13350,7 +13411,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
         <v>44208.81440447917</v>
       </c>
@@ -13373,9 +13434,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
-        <v>44208.81456848379</v>
+        <v>44208.814568483787</v>
       </c>
       <c r="B419" t="s">
         <v>94</v>
@@ -13396,9 +13457,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
-        <v>44208.8148962037</v>
+        <v>44208.814896203701</v>
       </c>
       <c r="B420" t="s">
         <v>95</v>
@@ -13419,9 +13480,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
-        <v>44208.81507133102</v>
+        <v>44208.815071331017</v>
       </c>
       <c r="B421" t="s">
         <v>98</v>
@@ -13442,9 +13503,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
-        <v>44208.81522421297</v>
+        <v>44208.815224212973</v>
       </c>
       <c r="B422" t="s">
         <v>106</v>
@@ -13465,9 +13526,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
-        <v>44208.81546033565</v>
+        <v>44208.815460335652</v>
       </c>
       <c r="B423" t="s">
         <v>108</v>
@@ -13488,9 +13549,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
-        <v>44208.81584925926</v>
+        <v>44208.815849259263</v>
       </c>
       <c r="B424" t="s">
         <v>110</v>
@@ -13511,9 +13572,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
-        <v>44208.81606443287</v>
+        <v>44208.816064432867</v>
       </c>
       <c r="B425" t="s">
         <v>112</v>
@@ -13534,9 +13595,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
-        <v>44208.81629024306</v>
+        <v>44208.816290243063</v>
       </c>
       <c r="B426" t="s">
         <v>117</v>
@@ -13557,9 +13618,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
-        <v>44208.81644810185</v>
+        <v>44208.816448101847</v>
       </c>
       <c r="B427" t="s">
         <v>118</v>
@@ -13580,7 +13641,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
         <v>44208.81666704861</v>
       </c>
@@ -13603,7 +13664,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
         <v>44208.81698329861</v>
       </c>
@@ -13626,7 +13687,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
         <v>44208.81727334491</v>
       </c>
@@ -13649,7 +13710,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
         <v>44208.81760480324</v>
       </c>
@@ -13672,9 +13733,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
-        <v>44208.81783633102</v>
+        <v>44208.817836331022</v>
       </c>
       <c r="B432" t="s">
         <v>134</v>
@@ -13695,9 +13756,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" s="2">
-        <v>44208.81861784722</v>
+        <v>44208.818617847217</v>
       </c>
       <c r="B433" t="s">
         <v>145</v>
@@ -13718,9 +13779,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
-        <v>44208.81877115741</v>
+        <v>44208.818771157406</v>
       </c>
       <c r="B434" t="s">
         <v>146</v>
@@ -13741,7 +13802,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
         <v>44209.70272922454</v>
       </c>
@@ -13764,9 +13825,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
-        <v>44209.70327923611</v>
+        <v>44209.703279236113</v>
       </c>
       <c r="B436" t="s">
         <v>66</v>
@@ -13787,9 +13848,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
-        <v>44209.70392390047</v>
+        <v>44209.703923900473</v>
       </c>
       <c r="B437" t="s">
         <v>67</v>
@@ -13810,9 +13871,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
-        <v>44209.70423680556</v>
+        <v>44209.704236805563</v>
       </c>
       <c r="B438" t="s">
         <v>70</v>
@@ -13833,9 +13894,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
-        <v>44209.70443473379</v>
+        <v>44209.704434733787</v>
       </c>
       <c r="B439" t="s">
         <v>73</v>
@@ -13856,9 +13917,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
-        <v>44209.70463824074</v>
+        <v>44209.704638240742</v>
       </c>
       <c r="B440" t="s">
         <v>75</v>
@@ -13879,9 +13940,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
-        <v>44209.70484939815</v>
+        <v>44209.704849398149</v>
       </c>
       <c r="B441" t="s">
         <v>82</v>
@@ -13902,9 +13963,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" s="2">
-        <v>44209.70515722222</v>
+        <v>44209.705157222219</v>
       </c>
       <c r="B442" t="s">
         <v>84</v>
@@ -13925,9 +13986,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" s="2">
-        <v>44209.70551108797</v>
+        <v>44209.705511087966</v>
       </c>
       <c r="B443" t="s">
         <v>85</v>
@@ -13948,7 +14009,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444" s="2">
         <v>44209.70569563657</v>
       </c>
@@ -13971,9 +14032,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" s="2">
-        <v>44209.70598856481</v>
+        <v>44209.705988564812</v>
       </c>
       <c r="B445" t="s">
         <v>88</v>
@@ -13994,9 +14055,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446" s="2">
-        <v>44209.70620196759</v>
+        <v>44209.706201967587</v>
       </c>
       <c r="B446" t="s">
         <v>92</v>
@@ -14017,9 +14078,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447" s="2">
-        <v>44209.70641621527</v>
+        <v>44209.706416215267</v>
       </c>
       <c r="B447" t="s">
         <v>93</v>
@@ -14040,9 +14101,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" s="2">
-        <v>44209.70660130787</v>
+        <v>44209.706601307873</v>
       </c>
       <c r="B448" t="s">
         <v>94</v>
@@ -14063,9 +14124,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449" s="2">
-        <v>44209.70681436342</v>
+        <v>44209.706814363417</v>
       </c>
       <c r="B449" t="s">
         <v>98</v>
@@ -14086,9 +14147,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450" s="2">
-        <v>44209.70698798611</v>
+        <v>44209.706987986108</v>
       </c>
       <c r="B450" t="s">
         <v>103</v>
@@ -14109,9 +14170,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451" s="2">
-        <v>44209.70917035879</v>
+        <v>44209.709170358787</v>
       </c>
       <c r="B451" t="s">
         <v>108</v>
@@ -14132,9 +14193,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452" s="2">
-        <v>44209.70939825231</v>
+        <v>44209.709398252307</v>
       </c>
       <c r="B452" t="s">
         <v>110</v>
@@ -14143,9 +14204,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453" s="2">
-        <v>44209.70944711805</v>
+        <v>44209.709447118054</v>
       </c>
       <c r="B453" t="s">
         <v>112</v>
@@ -14166,9 +14227,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454" s="2">
-        <v>44209.7099003125</v>
+        <v>44209.709900312497</v>
       </c>
       <c r="B454" t="s">
         <v>115</v>
@@ -14189,9 +14250,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455" s="2">
-        <v>44209.7101230787</v>
+        <v>44209.710123078701</v>
       </c>
       <c r="B455" t="s">
         <v>117</v>
@@ -14212,7 +14273,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456" s="2">
         <v>44209.7102787037</v>
       </c>
@@ -14235,9 +14296,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457" s="2">
-        <v>44209.71064373843</v>
+        <v>44209.710643738428</v>
       </c>
       <c r="B457" t="s">
         <v>77</v>
@@ -14258,9 +14319,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458" s="2">
-        <v>44209.71110722223</v>
+        <v>44209.711107222232</v>
       </c>
       <c r="B458" t="s">
         <v>124</v>
@@ -14281,9 +14342,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459" s="2">
-        <v>44209.71138622685</v>
+        <v>44209.711386226852</v>
       </c>
       <c r="B459" t="s">
         <v>127</v>
@@ -14304,9 +14365,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460" s="2">
-        <v>44209.71157603009</v>
+        <v>44209.711576030088</v>
       </c>
       <c r="B460" t="s">
         <v>137</v>
@@ -14327,9 +14388,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461" s="2">
-        <v>44209.71189524305</v>
+        <v>44209.711895243046</v>
       </c>
       <c r="B461" t="s">
         <v>146</v>
@@ -14350,9 +14411,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462" s="2">
-        <v>44209.72514313657</v>
+        <v>44209.725143136573</v>
       </c>
       <c r="B462" t="s">
         <v>67</v>
@@ -14373,9 +14434,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463" s="2">
-        <v>44210.4971181713</v>
+        <v>44210.497118171297</v>
       </c>
       <c r="B463" t="s">
         <v>82</v>
@@ -14396,9 +14457,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464" s="2">
-        <v>44210.49754171296</v>
+        <v>44210.497541712961</v>
       </c>
       <c r="B464" t="s">
         <v>84</v>
@@ -14419,9 +14480,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A465" s="2">
-        <v>44210.49782917824</v>
+        <v>44210.497829178239</v>
       </c>
       <c r="B465" t="s">
         <v>85</v>
@@ -14442,9 +14503,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466" s="2">
-        <v>44210.49801706018</v>
+        <v>44210.498017060178</v>
       </c>
       <c r="B466" t="s">
         <v>87</v>
@@ -14465,9 +14526,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A467" s="2">
-        <v>44210.49821027778</v>
+        <v>44210.498210277779</v>
       </c>
       <c r="B467" t="s">
         <v>88</v>
@@ -14488,9 +14549,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A468" s="2">
-        <v>44210.49845584491</v>
+        <v>44210.498455844907</v>
       </c>
       <c r="B468" t="s">
         <v>98</v>
@@ -14511,9 +14572,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A469" s="2">
-        <v>44210.49879122686</v>
+        <v>44210.498791226863</v>
       </c>
       <c r="B469" t="s">
         <v>103</v>
@@ -14534,9 +14595,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A470" s="2">
-        <v>44210.49892443287</v>
+        <v>44210.498924432868</v>
       </c>
       <c r="B470" t="s">
         <v>110</v>
@@ -14557,9 +14618,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A471" s="2">
-        <v>44210.49909146991</v>
+        <v>44210.499091469908</v>
       </c>
       <c r="B471" t="s">
         <v>112</v>
@@ -14580,9 +14641,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A472" s="2">
-        <v>44210.49928626158</v>
+        <v>44210.499286261584</v>
       </c>
       <c r="B472" t="s">
         <v>123</v>
@@ -14603,9 +14664,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A473" s="2">
-        <v>44210.49951165509</v>
+        <v>44210.499511655093</v>
       </c>
       <c r="B473" t="s">
         <v>77</v>
@@ -14626,9 +14687,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="474" spans="1:7">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A474" s="2">
-        <v>44210.50005524306</v>
+        <v>44210.500055243057</v>
       </c>
       <c r="B474" t="s">
         <v>127</v>
@@ -14649,7 +14710,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A475" s="2">
         <v>44210.5002465625</v>
       </c>
@@ -14672,9 +14733,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A476" s="2">
-        <v>44210.50697866898</v>
+        <v>44210.506978668978</v>
       </c>
       <c r="B476" t="s">
         <v>82</v>
@@ -14695,9 +14756,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A477" s="2">
-        <v>44210.50738453704</v>
+        <v>44210.507384537043</v>
       </c>
       <c r="B477" t="s">
         <v>87</v>
@@ -14718,9 +14779,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A478" s="2">
-        <v>44210.50767141204</v>
+        <v>44210.507671412037</v>
       </c>
       <c r="B478" t="s">
         <v>88</v>
@@ -14741,9 +14802,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A479" s="2">
-        <v>44210.50981515046</v>
+        <v>44210.509815150457</v>
       </c>
       <c r="B479" t="s">
         <v>103</v>
@@ -14764,9 +14825,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A480" s="2">
-        <v>44210.50993394676</v>
+        <v>44210.509933946763</v>
       </c>
       <c r="B480" t="s">
         <v>112</v>
@@ -14787,9 +14848,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A481" s="2">
-        <v>44210.51012535879</v>
+        <v>44210.510125358793</v>
       </c>
       <c r="B481" t="s">
         <v>123</v>
@@ -14810,9 +14871,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482" s="2">
-        <v>44210.51063166666</v>
+        <v>44210.510631666657</v>
       </c>
       <c r="B482" t="s">
         <v>77</v>
@@ -14833,9 +14894,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483" s="2">
-        <v>44210.51113234954</v>
+        <v>44210.511132349537</v>
       </c>
       <c r="B483" t="s">
         <v>146</v>
@@ -14856,9 +14917,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484" s="2">
-        <v>44210.56329009992</v>
+        <v>44210.563290104168</v>
       </c>
       <c r="B484" t="s">
         <v>43</v>
@@ -14879,9 +14940,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485" s="2">
-        <v>44210.56352173896</v>
+        <v>44210.563521736112</v>
       </c>
       <c r="B485" t="s">
         <v>56</v>
@@ -14902,9 +14963,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A486" s="2">
-        <v>44210.5639788403</v>
+        <v>44210.563978842591</v>
       </c>
       <c r="B486" t="s">
         <v>57</v>
@@ -14925,9 +14986,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A487" s="2">
-        <v>44210.56415957816</v>
+        <v>44210.564159583337</v>
       </c>
       <c r="B487" t="s">
         <v>49</v>
@@ -14948,9 +15009,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488" s="2">
-        <v>44210.56437331219</v>
+        <v>44210.564373310182</v>
       </c>
       <c r="B488" t="s">
         <v>45</v>
@@ -14971,9 +15032,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489" s="2">
-        <v>44210.56460096298</v>
+        <v>44210.56460096065</v>
       </c>
       <c r="B489" t="s">
         <v>58</v>
@@ -14994,9 +15055,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A490" s="2">
-        <v>44210.56495939256</v>
+        <v>44210.564959398151</v>
       </c>
       <c r="B490" t="s">
         <v>71</v>
@@ -15017,9 +15078,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:7">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A491" s="2">
-        <v>44210.56534283013</v>
+        <v>44210.565342835653</v>
       </c>
       <c r="B491" t="s">
         <v>74</v>
@@ -15040,9 +15101,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A492" s="2">
-        <v>44210.56556489447</v>
+        <v>44210.565564895827</v>
       </c>
       <c r="B492" t="s">
         <v>50</v>
@@ -15063,9 +15124,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="493" spans="1:7">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A493" s="2">
-        <v>44210.56574303364</v>
+        <v>44210.565743032414</v>
       </c>
       <c r="B493" t="s">
         <v>41</v>
@@ -15086,9 +15147,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="494" spans="1:7">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A494" s="2">
-        <v>44210.56596303104</v>
+        <v>44210.565963032408</v>
       </c>
       <c r="B494" t="s">
         <v>59</v>
@@ -15106,9 +15167,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A495" s="2">
-        <v>44210.5661180705</v>
+        <v>44210.56611806713</v>
       </c>
       <c r="B495" t="s">
         <v>60</v>
@@ -15129,9 +15190,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A496" s="2">
-        <v>44210.56634869455</v>
+        <v>44210.566348692133</v>
       </c>
       <c r="B496" t="s">
         <v>61</v>
@@ -15152,9 +15213,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A497" s="2">
-        <v>44210.56671274227</v>
+        <v>44210.566712743057</v>
       </c>
       <c r="B497" t="s">
         <v>78</v>
@@ -15175,9 +15236,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A498" s="2">
-        <v>44210.56701308809</v>
+        <v>44210.56701309028</v>
       </c>
       <c r="B498" t="s">
         <v>79</v>
@@ -15198,9 +15259,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A499" s="2">
-        <v>44210.56729003964</v>
+        <v>44210.56729003472</v>
       </c>
       <c r="B499" t="s">
         <v>54</v>
@@ -15221,9 +15282,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A500" s="2">
-        <v>44210.56797047501</v>
+        <v>44210.567970474527</v>
       </c>
       <c r="B500" t="s">
         <v>47</v>
@@ -15244,9 +15305,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A501" s="2">
-        <v>44210.56816689406</v>
+        <v>44210.568166898149</v>
       </c>
       <c r="B501" t="s">
         <v>80</v>
@@ -15267,9 +15328,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A502" s="2">
-        <v>44210.56835141208</v>
+        <v>44210.568351412039</v>
       </c>
       <c r="B502" t="s">
         <v>83</v>
@@ -15290,9 +15351,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A503" s="2">
-        <v>44210.5686172903</v>
+        <v>44210.568617291668</v>
       </c>
       <c r="B503" t="s">
         <v>44</v>
@@ -15313,9 +15374,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A504" s="2">
-        <v>44210.56889970887</v>
+        <v>44210.568899710648</v>
       </c>
       <c r="B504" t="s">
         <v>86</v>
@@ -15336,9 +15397,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A505" s="2">
-        <v>44210.56906759941</v>
+        <v>44210.569067604163</v>
       </c>
       <c r="B505" t="s">
         <v>9</v>
@@ -15359,9 +15420,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A506" s="2">
-        <v>44210.56934266705</v>
+        <v>44210.569342662027</v>
       </c>
       <c r="B506" t="s">
         <v>97</v>
@@ -15382,9 +15443,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="507" spans="1:7">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A507" s="2">
-        <v>44210.56946712389</v>
+        <v>44210.56946712963</v>
       </c>
       <c r="B507" t="s">
         <v>99</v>
@@ -15405,9 +15466,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:7">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A508" s="2">
-        <v>44210.56966593302</v>
+        <v>44210.569665937503</v>
       </c>
       <c r="B508" t="s">
         <v>53</v>
@@ -15428,9 +15489,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="509" spans="1:7">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A509" s="2">
-        <v>44210.56978294447</v>
+        <v>44210.569782939812</v>
       </c>
       <c r="B509" t="s">
         <v>101</v>
@@ -15451,9 +15512,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A510" s="2">
-        <v>44210.56999962834</v>
+        <v>44210.569999629632</v>
       </c>
       <c r="B510" t="s">
         <v>104</v>
@@ -15474,9 +15535,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="511" spans="1:7">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A511" s="2">
-        <v>44210.57023556151</v>
+        <v>44210.570235567131</v>
       </c>
       <c r="B511" t="s">
         <v>107</v>
@@ -15497,9 +15558,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A512" s="2">
-        <v>44210.57045768102</v>
+        <v>44210.570457685193</v>
       </c>
       <c r="B512" t="s">
         <v>46</v>
@@ -15520,9 +15581,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="513" spans="1:7">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A513" s="2">
-        <v>44210.57072267718</v>
+        <v>44210.570722673612</v>
       </c>
       <c r="B513" t="s">
         <v>109</v>
@@ -15543,9 +15604,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="514" spans="1:7">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A514" s="2">
-        <v>44210.57095073412</v>
+        <v>44210.570950729169</v>
       </c>
       <c r="B514" t="s">
         <v>114</v>
@@ -15566,9 +15627,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="515" spans="1:7">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A515" s="2">
-        <v>44210.57114513125</v>
+        <v>44210.571145127316</v>
       </c>
       <c r="B515" t="s">
         <v>38</v>
@@ -15589,9 +15650,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="516" spans="1:7">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A516" s="2">
-        <v>44210.5712743836</v>
+        <v>44210.571274386573</v>
       </c>
       <c r="B516" t="s">
         <v>119</v>
@@ -15612,9 +15673,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="517" spans="1:7">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A517" s="2">
-        <v>44210.57140449598</v>
+        <v>44210.571404490744</v>
       </c>
       <c r="B517" t="s">
         <v>52</v>
@@ -15635,9 +15696,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="518" spans="1:7">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A518" s="2">
-        <v>44210.57157414581</v>
+        <v>44210.57157414352</v>
       </c>
       <c r="B518" t="s">
         <v>121</v>
@@ -15658,9 +15719,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="519" spans="1:7">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A519" s="2">
-        <v>44210.57177972395</v>
+        <v>44210.571779722217</v>
       </c>
       <c r="B519" t="s">
         <v>122</v>
@@ -15681,9 +15742,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:7">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A520" s="2">
-        <v>44210.5719761653</v>
+        <v>44210.571976168983</v>
       </c>
       <c r="B520" t="s">
         <v>42</v>
@@ -15704,9 +15765,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="521" spans="1:7">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A521" s="2">
-        <v>44210.57213061837</v>
+        <v>44210.572130613429</v>
       </c>
       <c r="B521" t="s">
         <v>48</v>
@@ -15727,9 +15788,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="522" spans="1:7">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A522" s="2">
-        <v>44210.57229676162</v>
+        <v>44210.572296759259</v>
       </c>
       <c r="B522" t="s">
         <v>125</v>
@@ -15750,9 +15811,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="523" spans="1:7">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A523" s="2">
-        <v>44210.57249228192</v>
+        <v>44210.572492280087</v>
       </c>
       <c r="B523" t="s">
         <v>126</v>
@@ -15773,9 +15834,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="524" spans="1:7">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A524" s="2">
-        <v>44210.57265148421</v>
+        <v>44210.572651481481</v>
       </c>
       <c r="B524" t="s">
         <v>51</v>
@@ -15796,9 +15857,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="525" spans="1:7">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A525" s="2">
-        <v>44210.57347201969</v>
+        <v>44210.573472025462</v>
       </c>
       <c r="B525" t="s">
         <v>129</v>
@@ -15819,9 +15880,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:7">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A526" s="2">
-        <v>44210.57360565849</v>
+        <v>44210.573605659723</v>
       </c>
       <c r="B526" t="s">
         <v>131</v>
@@ -15842,9 +15903,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="527" spans="1:7">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A527" s="2">
-        <v>44210.5737305853</v>
+        <v>44210.57373059028</v>
       </c>
       <c r="B527" t="s">
         <v>49</v>
@@ -15865,9 +15926,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="528" spans="1:7">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A528" s="2">
-        <v>44210.57399793058</v>
+        <v>44210.573997928237</v>
       </c>
       <c r="B528" t="s">
         <v>132</v>
@@ -15888,9 +15949,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="529" spans="1:7">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A529" s="2">
-        <v>44210.57418843662</v>
+        <v>44210.574188437502</v>
       </c>
       <c r="B529" t="s">
         <v>135</v>
@@ -15911,9 +15972,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="530" spans="1:7">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A530" s="2">
-        <v>44210.57437020065</v>
+        <v>44210.574370196759</v>
       </c>
       <c r="B530" t="s">
         <v>136</v>
@@ -15934,9 +15995,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="531" spans="1:7">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A531" s="2">
-        <v>44210.57457974453</v>
+        <v>44210.574579745371</v>
       </c>
       <c r="B531" t="s">
         <v>55</v>
@@ -15957,9 +16018,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="532" spans="1:7">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A532" s="2">
-        <v>44210.57472091966</v>
+        <v>44210.574720914352</v>
       </c>
       <c r="B532" t="s">
         <v>139</v>
@@ -15980,9 +16041,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="533" spans="1:7">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A533" s="2">
-        <v>44210.57488132544</v>
+        <v>44210.57488133102</v>
       </c>
       <c r="B533" t="s">
         <v>39</v>
@@ -16003,9 +16064,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="534" spans="1:7">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A534" s="2">
-        <v>44210.57507795012</v>
+        <v>44210.575077951391</v>
       </c>
       <c r="B534" t="s">
         <v>141</v>
@@ -16026,9 +16087,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="535" spans="1:7">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A535" s="2">
-        <v>44210.57522996549</v>
+        <v>44210.575229965281</v>
       </c>
       <c r="B535" t="s">
         <v>40</v>
@@ -16049,9 +16110,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="536" spans="1:7">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A536" s="2">
-        <v>44210.57538326365</v>
+        <v>44210.575383263887</v>
       </c>
       <c r="B536" t="s">
         <v>148</v>
@@ -16072,9 +16133,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="537" spans="1:7">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A537" s="2">
-        <v>44210.5755753076</v>
+        <v>44210.575575312498</v>
       </c>
       <c r="B537" t="s">
         <v>150</v>
@@ -16093,6 +16154,29 @@
       </c>
       <c r="G537">
         <v>25</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A538" s="2">
+        <v>44210.729061606587</v>
+      </c>
+      <c r="B538" t="s">
+        <v>43</v>
+      </c>
+      <c r="C538" t="s">
+        <v>210</v>
+      </c>
+      <c r="D538" t="s">
+        <v>432</v>
+      </c>
+      <c r="E538" t="s">
+        <v>644</v>
+      </c>
+      <c r="F538" t="s">
+        <v>872</v>
+      </c>
+      <c r="G538">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
